--- a/input/Tracking List.xlsx
+++ b/input/Tracking List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bayergroup-my.sharepoint.com/personal/sivacharan_chandrasekar_ext_bayer_com/Documents/Personal Data-R90PQ30R/Analytics/us-stocks-analysis/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="290" documentId="8_{763663C2-8B58-4DD2-A909-F67207BD9B02}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{140CBBC6-3600-4528-9EA2-141CB5C2CBDC}"/>
+  <xr:revisionPtr revIDLastSave="294" documentId="8_{763663C2-8B58-4DD2-A909-F67207BD9B02}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{BA4D064B-348B-4AA1-8AEC-E2DECA0EFAA6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fund List" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="84" r:id="rId10"/>
+    <pivotCache cacheId="3" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -3298,48 +3298,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="24" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3406,6 +3364,48 @@
     <xf numFmtId="0" fontId="19" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -3413,55 +3413,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="64">
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
+  <dxfs count="48">
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
@@ -4407,7 +4359,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="CHANDRASEKAR, SIVACHARAN [AG-Contractor/1000]" refreshedDate="44062.697365046297" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="32" xr:uid="{BAEB0953-1565-44CD-A798-EB88339B7DAE}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="CHANDRASEKAR, SIVACHARAN [AG-Contractor/1000]" refreshedDate="44063.611977430555" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="32" xr:uid="{BAEB0953-1565-44CD-A798-EB88339B7DAE}">
   <cacheSource type="worksheet">
     <worksheetSource ref="I1:K1048576" sheet="Area Classification"/>
   </cacheSource>
@@ -4606,7 +4558,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E84B834D-5A94-487F-9509-4B928B44C5FA}" name="PivotTable1" cacheId="84" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E84B834D-5A94-487F-9509-4B928B44C5FA}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="N3:O13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -4668,7 +4620,7 @@
     <dataField name="Sum of Percent" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="19">
+    <format dxfId="3">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="8" selected="0">
@@ -4684,7 +4636,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="18">
+    <format dxfId="2">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -4824,29 +4776,26 @@
     <v>89.59</v>
     <v>76.489999999999995</v>
     <v>1.0158</v>
-    <v>-0.15</v>
-    <v>5.6539999999999997E-4</v>
-    <v>-1.6930000000000001E-3</v>
-    <v>0.05</v>
+    <v>0.22500000000000001</v>
+    <v>2.5440000000000003E-3</v>
     <v>USD</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>5.0000000000000001E-4</v>
-    <v>88.7</v>
+    <v>88.674999999999997</v>
     <v>ETF</v>
-    <v>44062.900289351855</v>
+    <v>44063.81852723359</v>
     <v>0</v>
-    <v>88.4</v>
+    <v>88.58</v>
     <v>59054822695</v>
     <v>Vanguard Tot Bd;ETF</v>
-    <v>88.7</v>
-    <v>88.58</v>
+    <v>88.66</v>
     <v>88.43</v>
-    <v>88.48</v>
+    <v>88.655000000000001</v>
     <v>BND</v>
     <v>Vanguard Tot Bd;ETF (XNAS:BND)</v>
-    <v>4628072</v>
-    <v>4295244</v>
+    <v>3605984</v>
+    <v>4346370</v>
   </rv>
   <rv s="2">
     <v>1</v>
@@ -4866,33 +4815,30 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>5</v>
+    <v>4</v>
     <v>119.73</v>
     <v>105.56</v>
     <v>1.0009999999999999</v>
-    <v>-0.18</v>
-    <v>1.2670000000000001E-3</v>
-    <v>-1.5190000000000002E-3</v>
-    <v>0.15</v>
+    <v>0.255</v>
+    <v>2.1540000000000001E-3</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>4.0000000000000002E-4</v>
-    <v>118.7</v>
+    <v>118.69</v>
     <v>ETF</v>
-    <v>44062.893093772655</v>
+    <v>44063.819213471877</v>
     <v>3</v>
-    <v>118.34</v>
+    <v>118.56</v>
     <v>79985963525.529999</v>
     <v>iShares:Core US Agg Bd</v>
-    <v>118.65</v>
-    <v>118.53</v>
-    <v>118.35</v>
-    <v>118.5</v>
+    <v>118.67</v>
+    <v>118.37</v>
+    <v>118.625</v>
     <v>AGG</v>
     <v>iShares:Core US Agg Bd (ARCX:AGG)</v>
-    <v>4540979</v>
-    <v>6801642</v>
+    <v>3058476</v>
+    <v>6847139</v>
   </rv>
   <rv s="2">
     <v>4</v>
@@ -4907,25 +4853,25 @@
     <v>268435456</v>
     <v>268435461</v>
     <v>1</v>
+    <v>5</v>
+    <v>Fidelity Long-Term Treasury Bond Index Fund</v>
     <v>6</v>
-    <v>Fidelity Long-Term Treasury Bond Index Fund</v>
     <v>7</v>
+    <v>Finance</v>
     <v>8</v>
-    <v>Finance</v>
-    <v>9</v>
-    <v>0.12</v>
-    <v>7.0920000000000002E-3</v>
+    <v>-0.1</v>
+    <v>-5.8690000000000001E-3</v>
     <v>US</v>
     <v>USD</v>
     <v>2.9999999999999997E-4</v>
     <v>Mutual Fund</v>
-    <v>44061</v>
-    <v>44062.29916621797</v>
+    <v>44062</v>
+    <v>44063.215740413281</v>
     <v>6</v>
     <v>Fidelity Long-Term Treasury Bond Index Fund</v>
     <v>3216053629</v>
-    <v>16.920000000000002</v>
     <v>17.04</v>
+    <v>16.940000000000001</v>
     <v>0</v>
     <v>-2.1010000000000001E-2</v>
     <v>-3.7804000000000004E-2</v>
@@ -4955,33 +4901,30 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>5</v>
+    <v>4</v>
     <v>273.16379999999998</v>
     <v>137.25</v>
     <v>0.40460000000000002</v>
-    <v>-4.21</v>
-    <v>-5.0319999999999999E-5</v>
-    <v>-2.0347000000000001E-2</v>
-    <v>-1.0200000000000001E-2</v>
+    <v>2.9449999999999998</v>
+    <v>1.4560999999999999E-2</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>6.0000000000000001E-3</v>
-    <v>204.37</v>
+    <v>206.45</v>
     <v>ETF</v>
-    <v>44062.873685034378</v>
+    <v>44063.818159722221</v>
     <v>9</v>
-    <v>202.29239999999999</v>
+    <v>202.87</v>
     <v>329429061.24000001</v>
     <v>Aberdeen:SP Palladium</v>
-    <v>204.37</v>
-    <v>206.91</v>
-    <v>202.7</v>
-    <v>202.68979999999999</v>
+    <v>202.87</v>
+    <v>202.25</v>
+    <v>205.19499999999999</v>
     <v>PALL</v>
     <v>Aberdeen:SP Palladium (ARCX:PALL)</v>
-    <v>25360</v>
-    <v>72507</v>
+    <v>10366</v>
+    <v>73001</v>
   </rv>
   <rv s="2">
     <v>10</v>
@@ -5005,29 +4948,26 @@
     <v>45.78</v>
     <v>16.18</v>
     <v>0.97650000000000003</v>
-    <v>-1.63</v>
-    <v>-3.1680000000000002E-3</v>
-    <v>-3.8199999999999998E-2</v>
-    <v>-0.13</v>
+    <v>0.83279999999999998</v>
+    <v>2.0291999999999998E-2</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>5.3E-3</v>
-    <v>42.61</v>
+    <v>42.1</v>
     <v>ETF</v>
-    <v>44062.903553240743</v>
+    <v>44063.81874986094</v>
     <v>12</v>
-    <v>40.770000000000003</v>
+    <v>40.79</v>
     <v>18410347875.619999</v>
     <v>VnEck Vctrs:Gold Miners</v>
-    <v>42.274999999999999</v>
-    <v>42.67</v>
+    <v>41.05</v>
     <v>41.04</v>
-    <v>40.909999999999997</v>
+    <v>41.872799999999998</v>
     <v>GDX</v>
     <v>VnEck Vctrs:Gold Miners (ARCX:GDX)</v>
-    <v>36842141</v>
-    <v>35287068</v>
+    <v>19394624</v>
+    <v>35911562</v>
   </rv>
   <rv s="2">
     <v>13</v>
@@ -5051,29 +4991,26 @@
     <v>27.39</v>
     <v>10.86</v>
     <v>1.7657</v>
-    <v>-0.995</v>
-    <v>-4.0180000000000001E-4</v>
-    <v>-3.8439000000000001E-2</v>
-    <v>-0.01</v>
+    <v>0.71</v>
+    <v>2.8525999999999999E-2</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>5.0000000000000001E-3</v>
-    <v>26.049900000000001</v>
+    <v>25.616599999999998</v>
     <v>ETF</v>
-    <v>44062.903506944444</v>
+    <v>44063.819249814063</v>
     <v>15</v>
-    <v>24.7</v>
+    <v>24.885000000000002</v>
     <v>13669514095.42</v>
     <v>IShares:Silver Trust</v>
-    <v>25.94</v>
-    <v>25.885000000000002</v>
+    <v>24.93</v>
     <v>24.89</v>
-    <v>24.88</v>
+    <v>25.6</v>
     <v>SLV</v>
     <v>IShares:Silver Trust (ARCX:SLV)</v>
-    <v>71997561</v>
-    <v>76760295</v>
+    <v>39665172</v>
+    <v>78231411</v>
   </rv>
   <rv s="2">
     <v>16</v>
@@ -5097,29 +5034,26 @@
     <v>19.759899999999998</v>
     <v>13.8</v>
     <v>0.81789999999999996</v>
-    <v>-0.6</v>
-    <v>-5.4000000000000003E-3</v>
-    <v>-3.1380999999999999E-2</v>
-    <v>-0.1</v>
+    <v>0.129</v>
+    <v>6.9649999999999998E-3</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>2.5000000000000001E-3</v>
-    <v>19.05</v>
+    <v>18.66</v>
     <v>ETF</v>
-    <v>44062.899710648147</v>
+    <v>44063.818935185183</v>
     <v>18</v>
-    <v>18.460100000000001</v>
+    <v>18.38</v>
     <v>31041376557.650002</v>
     <v>IShares:Gold Trust</v>
-    <v>19.02</v>
-    <v>19.12</v>
+    <v>18.420000000000002</v>
     <v>18.52</v>
-    <v>18.420000000000002</v>
+    <v>18.649000000000001</v>
     <v>IAU</v>
     <v>IShares:Gold Trust (ARCX:IAU)</v>
-    <v>41139678</v>
-    <v>31212182</v>
+    <v>26733283</v>
+    <v>32155575</v>
   </rv>
   <rv s="2">
     <v>19</v>
@@ -5134,37 +5068,34 @@
     <v>268435456</v>
     <v>268435459</v>
     <v>1</v>
-    <v>10</v>
+    <v>9</v>
     <v>SPDR Gold MiniShares Tr (ARCX:GLDM)</v>
     <v>2</v>
-    <v>11</v>
+    <v>10</v>
     <v>Finance</v>
-    <v>5</v>
+    <v>4</v>
     <v>20.629000000000001</v>
     <v>14.38</v>
-    <v>-0.63</v>
-    <v>-6.2050000000000004E-3</v>
-    <v>-3.1546999999999999E-2</v>
-    <v>-0.12</v>
+    <v>0.15</v>
+    <v>7.7600000000000004E-3</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>1.8E-3</v>
-    <v>19.88</v>
+    <v>19.48</v>
     <v>ETF</v>
-    <v>44062.873427198436</v>
+    <v>44063.818124999998</v>
     <v>21</v>
-    <v>19.27</v>
+    <v>19.2</v>
     <v>3239804792.4400001</v>
     <v>SPDR Gold MiniShares Tr</v>
-    <v>19.87</v>
-    <v>19.97</v>
-    <v>19.34</v>
-    <v>19.22</v>
+    <v>19.25</v>
+    <v>19.329999999999998</v>
+    <v>19.48</v>
     <v>GLDM</v>
     <v>SPDR Gold MiniShares Tr (ARCX:GLDM)</v>
-    <v>3264536</v>
-    <v>3206760</v>
+    <v>1850988</v>
+    <v>3296750</v>
   </rv>
   <rv s="2">
     <v>22</v>
@@ -5188,29 +5119,26 @@
     <v>194.44990000000001</v>
     <v>136.12</v>
     <v>0.81910000000000005</v>
-    <v>-5.97</v>
-    <v>-4.7739999999999996E-3</v>
-    <v>-3.1719999999999998E-2</v>
-    <v>-0.87</v>
+    <v>1.27</v>
+    <v>6.9689999999999995E-3</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>4.0000000000000001E-3</v>
-    <v>187.4599</v>
+    <v>183.71</v>
     <v>ETF</v>
-    <v>44062.904120370367</v>
+    <v>44063.81914802031</v>
     <v>24</v>
-    <v>181.71</v>
+    <v>180.93</v>
     <v>78434408785.610001</v>
     <v>SPDR Gold</v>
-    <v>187.23</v>
-    <v>188.21</v>
+    <v>181.24</v>
     <v>182.24</v>
-    <v>181.37</v>
+    <v>183.51</v>
     <v>GLD</v>
     <v>SPDR Gold (ARCX:GLD)</v>
-    <v>24387626</v>
-    <v>18874623</v>
+    <v>13918298</v>
+    <v>19559150</v>
   </rv>
   <rv s="2">
     <v>25</v>
@@ -5230,33 +5158,30 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>5</v>
+    <v>4</v>
     <v>61.801600000000001</v>
     <v>22.88</v>
     <v>1.1353</v>
-    <v>-0.43</v>
-    <v>-1.6189999999999998E-3</v>
-    <v>-1.1470000000000001E-2</v>
-    <v>-0.06</v>
+    <v>-0.68500000000000005</v>
+    <v>-1.8488999999999998E-2</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>1.4000000000000002E-3</v>
-    <v>37.630000000000003</v>
+    <v>36.75</v>
     <v>ETF</v>
-    <v>44062.892744501565</v>
+    <v>44063.818811654688</v>
     <v>27</v>
-    <v>36.94</v>
+    <v>36.31</v>
     <v>10826375299.530001</v>
     <v>Sel Sector:Energy SPDR</v>
-    <v>37.46</v>
-    <v>37.49</v>
-    <v>37.06</v>
-    <v>37</v>
+    <v>36.634999999999998</v>
+    <v>37.049999999999997</v>
+    <v>36.365000000000002</v>
     <v>XLE</v>
     <v>Sel Sector:Energy SPDR (ARCX:XLE)</v>
-    <v>14788167</v>
-    <v>21526544</v>
+    <v>15458767</v>
+    <v>21082200</v>
   </rv>
   <rv s="2">
     <v>28</v>
@@ -5280,29 +5205,26 @@
     <v>94.86</v>
     <v>60.07</v>
     <v>0.88160000000000005</v>
-    <v>-0.2</v>
-    <v>-2.4039999999999999E-4</v>
-    <v>-2.3990000000000001E-3</v>
-    <v>-0.02</v>
+    <v>-0.51</v>
+    <v>-6.1310000000000002E-3</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>8.0000000000000004E-4</v>
-    <v>83.84</v>
+    <v>82.91</v>
     <v>ETF</v>
-    <v>44062.895729166667</v>
+    <v>44063.819062499999</v>
     <v>30</v>
-    <v>83</v>
+    <v>82.52</v>
     <v>26217037895</v>
     <v>Vanguard Hi Dv Yld;ETF</v>
-    <v>83.5</v>
-    <v>83.38</v>
+    <v>82.71</v>
     <v>83.18</v>
-    <v>83.16</v>
+    <v>82.67</v>
     <v>VYM</v>
     <v>Vanguard Hi Dv Yld;ETF (ARCX:VYM)</v>
-    <v>1446433</v>
-    <v>1535650</v>
+    <v>1223204</v>
+    <v>1514869</v>
   </rv>
   <rv s="2">
     <v>31</v>
@@ -5326,29 +5248,26 @@
     <v>24.18</v>
     <v>17.22</v>
     <v>0.73750000000000004</v>
-    <v>0</v>
-    <v>2.735E-3</v>
-    <v>0</v>
-    <v>0.06</v>
+    <v>-4.1999999999999997E-3</v>
+    <v>-1.9140000000000002E-4</v>
     <v>USD</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>6.0000000000000001E-3</v>
-    <v>21.94</v>
+    <v>21.95</v>
     <v>ETF</v>
-    <v>44062.895667719531</v>
+    <v>44063.818749999999</v>
     <v>33</v>
-    <v>21.92</v>
+    <v>21.93</v>
     <v>1182535165.1099999</v>
     <v>Glbl X NASDAQ 100 CC</v>
     <v>21.94</v>
     <v>21.94</v>
-    <v>21.94</v>
-    <v>22</v>
+    <v>21.9358</v>
     <v>QYLD</v>
     <v>Glbl X NASDAQ 100 CC (XNAS:QYLD)</v>
-    <v>649704</v>
-    <v>527484</v>
+    <v>498422</v>
+    <v>525813</v>
   </rv>
   <rv s="2">
     <v>34</v>
@@ -5372,29 +5291,26 @@
     <v>59.56</v>
     <v>38.825000000000003</v>
     <v>0.98019999999999996</v>
-    <v>-0.15</v>
-    <v>-4.581E-3</v>
-    <v>-2.6359999999999999E-3</v>
-    <v>-0.26</v>
+    <v>-0.37</v>
+    <v>-6.5190000000000005E-3</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>7.000000000000001E-4</v>
-    <v>57.27</v>
+    <v>56.524999999999999</v>
     <v>ETF</v>
-    <v>44062.894270833334</v>
+    <v>44063.819720566404</v>
     <v>36</v>
-    <v>56.65</v>
+    <v>56.2</v>
     <v>11863130466.440001</v>
     <v>Schwab Str:US Div Eq ETF</v>
-    <v>56.99</v>
-    <v>56.91</v>
+    <v>56.33</v>
     <v>56.76</v>
-    <v>56.5</v>
+    <v>56.39</v>
     <v>SCHD</v>
     <v>Schwab Str:US Div Eq ETF (ARCX:SCHD)</v>
-    <v>1026227</v>
-    <v>1278250</v>
+    <v>1264116</v>
+    <v>1261823</v>
   </rv>
   <rv s="2">
     <v>37</v>
@@ -5414,33 +5330,30 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>5</v>
+    <v>4</v>
     <v>99.14</v>
     <v>58.23</v>
     <v>0.97650000000000003</v>
-    <v>-0.17</v>
-    <v>-3.1409999999999999E-4</v>
-    <v>-1.7769999999999999E-3</v>
-    <v>-0.03</v>
+    <v>-0.3</v>
+    <v>-3.1450000000000002E-3</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>3.4999999999999996E-3</v>
-    <v>96.18</v>
+    <v>95.77</v>
     <v>ETF</v>
-    <v>44062.840277846874</v>
+    <v>44063.818159722221</v>
     <v>39</v>
-    <v>95.28</v>
+    <v>95.1</v>
     <v>562560414.53999996</v>
     <v>SPDR S&amp;P Hlth Care Equip</v>
-    <v>96.05</v>
-    <v>95.67</v>
-    <v>95.5</v>
-    <v>95.47</v>
+    <v>95.6</v>
+    <v>95.4</v>
+    <v>95.1</v>
     <v>XHE</v>
     <v>SPDR S&amp;P Hlth Care Equip (ARCX:XHE)</v>
-    <v>44064</v>
-    <v>25803</v>
+    <v>15567</v>
+    <v>26277</v>
   </rv>
   <rv s="2">
     <v>40</v>
@@ -5460,33 +5373,30 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>5</v>
+    <v>4</v>
     <v>53.515000000000001</v>
     <v>35.74</v>
     <v>1.0115000000000001</v>
-    <v>-0.22</v>
-    <v>0</v>
-    <v>-4.1279999999999997E-3</v>
-    <v>0</v>
+    <v>-0.155</v>
+    <v>-2.9220000000000001E-3</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>8.0000000000000004E-4</v>
-    <v>53.420099999999998</v>
+    <v>53</v>
     <v>ETF</v>
-    <v>44062.840277777781</v>
+    <v>44063.818219363282</v>
     <v>42</v>
-    <v>52.92</v>
+    <v>52.771500000000003</v>
     <v>2010030135</v>
     <v>Fidelity MSCI Hlth Care</v>
-    <v>53.27</v>
-    <v>53.3</v>
-    <v>53.08</v>
-    <v>53.08</v>
+    <v>52.83</v>
+    <v>53.04</v>
+    <v>52.884999999999998</v>
     <v>FHLC</v>
     <v>Fidelity MSCI Hlth Care (ARCX:FHLC)</v>
-    <v>93509</v>
-    <v>160171</v>
+    <v>103817</v>
+    <v>154964</v>
   </rv>
   <rv s="2">
     <v>43</v>
@@ -5506,33 +5416,30 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>5</v>
+    <v>4</v>
     <v>207.25</v>
     <v>138.11000000000001</v>
     <v>1.0136000000000001</v>
-    <v>-0.87</v>
-    <v>0</v>
-    <v>-4.215E-3</v>
-    <v>0</v>
+    <v>-0.59</v>
+    <v>-2.8710000000000003E-3</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>1E-3</v>
-    <v>206.9</v>
+    <v>205.25</v>
     <v>ETF</v>
-    <v>44062.863127707809</v>
+    <v>44063.819266423438</v>
     <v>45</v>
-    <v>205</v>
+    <v>204.42</v>
     <v>11460342770</v>
     <v>Vanguard Hlth Cr Idx;ETF</v>
-    <v>206.36</v>
-    <v>206.4</v>
-    <v>205.53</v>
-    <v>205.53</v>
+    <v>204.98</v>
+    <v>205.5</v>
+    <v>204.91</v>
     <v>VHT</v>
     <v>Vanguard Hlth Cr Idx;ETF (ARCX:VHT)</v>
-    <v>144768</v>
-    <v>196723</v>
+    <v>130041</v>
+    <v>194217</v>
   </rv>
   <rv s="2">
     <v>46</v>
@@ -5552,33 +5459,30 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>5</v>
+    <v>4</v>
     <v>296.755</v>
     <v>183.25</v>
     <v>1.0294000000000001</v>
-    <v>-0.87</v>
-    <v>-3.7339999999999997E-4</v>
-    <v>-2.944E-3</v>
-    <v>-0.11</v>
+    <v>-0.33210000000000001</v>
+    <v>-1.1279999999999999E-3</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>4.3E-3</v>
-    <v>296.75</v>
+    <v>295.43819999999999</v>
     <v>ETF</v>
-    <v>44062.840277823438</v>
+    <v>44063.818773148145</v>
     <v>48</v>
-    <v>293.86</v>
+    <v>292.58999999999997</v>
     <v>7783988070.3500004</v>
     <v>iShares:US Med Dev ETF</v>
-    <v>296.54000000000002</v>
-    <v>295.49</v>
-    <v>294.62</v>
-    <v>294.51</v>
+    <v>293.51</v>
+    <v>294.44</v>
+    <v>294.10789999999997</v>
     <v>IHI</v>
     <v>iShares:US Med Dev ETF (ARCX:IHI)</v>
-    <v>143475</v>
-    <v>227899</v>
+    <v>136010</v>
+    <v>225304</v>
   </rv>
   <rv s="2">
     <v>49</v>
@@ -5598,33 +5502,30 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>5</v>
+    <v>4</v>
     <v>107.84</v>
     <v>73.540000000000006</v>
     <v>0.96989999999999998</v>
-    <v>-0.35</v>
-    <v>-3.7370000000000003E-4</v>
-    <v>-3.2590000000000002E-3</v>
-    <v>-0.04</v>
+    <v>-0.38</v>
+    <v>-3.5499999999999998E-3</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>1.4000000000000002E-3</v>
-    <v>107.8</v>
+    <v>106.95</v>
     <v>ETF</v>
-    <v>44062.884143807809</v>
+    <v>44063.819227685155</v>
     <v>51</v>
-    <v>106.82</v>
+    <v>106.43</v>
     <v>23991476873.860001</v>
     <v>Sel Sector:H Care SPDR</v>
-    <v>107.5</v>
-    <v>107.4</v>
+    <v>106.55</v>
     <v>107.05</v>
-    <v>107.01</v>
+    <v>106.67</v>
     <v>XLV</v>
     <v>Sel Sector:H Care SPDR (ARCX:XLV)</v>
-    <v>6307481</v>
-    <v>6178133</v>
+    <v>4000662</v>
+    <v>6046177</v>
   </rv>
   <rv s="2">
     <v>52</v>
@@ -5644,33 +5545,30 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>5</v>
-    <v>73.290000000000006</v>
+    <v>4</v>
+    <v>73.319999999999993</v>
     <v>51.07</v>
     <v>0.879</v>
-    <v>-0.25</v>
-    <v>6.8760000000000002E-4</v>
-    <v>-3.4260000000000002E-3</v>
-    <v>0.05</v>
+    <v>-0.22</v>
+    <v>-3.0240000000000002E-3</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>4.6999999999999993E-3</v>
-    <v>73.319999999999993</v>
+    <v>72.66</v>
     <v>ETF</v>
-    <v>44062.840277777781</v>
+    <v>44063.817662037036</v>
     <v>54</v>
-    <v>72.599999999999994</v>
+    <v>72.34</v>
     <v>2267919481.8699999</v>
     <v>iShares:Glbl HealthCare</v>
-    <v>73.2</v>
-    <v>72.97</v>
-    <v>72.72</v>
-    <v>72.77</v>
+    <v>72.66</v>
+    <v>72.739999999999995</v>
+    <v>72.52</v>
     <v>IXJ</v>
     <v>iShares:Glbl HealthCare (ARCX:IXJ)</v>
-    <v>147069</v>
-    <v>104797</v>
+    <v>20448</v>
+    <v>108701</v>
   </rv>
   <rv s="2">
     <v>55</v>
@@ -5685,33 +5583,33 @@
     <v>268435456</v>
     <v>268435459</v>
     <v>1</v>
-    <v>12</v>
+    <v>11</v>
     <v>WisdomTree:Cloud Cmptng (XNAS:WCLD)</v>
     <v>2</v>
+    <v>12</v>
+    <v>Finance</v>
     <v>13</v>
-    <v>Finance</v>
-    <v>14</v>
     <v>43.61</v>
     <v>18.989999999999998</v>
-    <v>0.30420000000000003</v>
-    <v>7.4339999999999996E-3</v>
+    <v>1.2751999999999999</v>
+    <v>3.1223999999999998E-2</v>
     <v>USD</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
-    <v>41.26</v>
+    <v>42.18</v>
     <v>ETF</v>
-    <v>44062.731804142968</v>
+    <v>44063.809030450779</v>
     <v>57</v>
-    <v>40.280999999999999</v>
+    <v>40.58</v>
     <v>642471573.85000002</v>
     <v>WisdomTree:Cloud Cmptng</v>
-    <v>40.97</v>
-    <v>40.92</v>
-    <v>41.224200000000003</v>
+    <v>40.61</v>
+    <v>40.840000000000003</v>
+    <v>42.115200000000002</v>
     <v>WCLD</v>
     <v>WisdomTree:Cloud Cmptng (XNAS:WCLD)</v>
-    <v>329435</v>
-    <v>696546</v>
+    <v>529996</v>
+    <v>685923</v>
   </rv>
   <rv s="2">
     <v>58</v>
@@ -5731,33 +5629,30 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>5</v>
+    <v>4</v>
     <v>79.88</v>
     <v>45</v>
     <v>0.9002</v>
-    <v>0.02</v>
-    <v>3.3660000000000001E-3</v>
-    <v>2.5900000000000001E-4</v>
-    <v>0.26</v>
+    <v>1.4279999999999999</v>
+    <v>1.8488000000000001E-2</v>
     <v>USD</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>6.0000000000000001E-3</v>
-    <v>78</v>
+    <v>78.739999999999995</v>
     <v>ETF</v>
-    <v>44062.889751388284</v>
+    <v>44063.818703703706</v>
     <v>60</v>
-    <v>76.66</v>
+    <v>76.754999999999995</v>
     <v>4744149675.9840002</v>
     <v>Frst Tr II:CloudComp</v>
-    <v>77.38</v>
-    <v>77.22</v>
+    <v>77</v>
     <v>77.239999999999995</v>
-    <v>77.5</v>
+    <v>78.668000000000006</v>
     <v>SKYY</v>
     <v>Frst Tr II:CloudComp (XNAS:SKYY)</v>
-    <v>481641</v>
-    <v>527586</v>
+    <v>364543</v>
+    <v>511105</v>
   </rv>
   <rv s="2">
     <v>61</v>
@@ -5778,32 +5673,29 @@
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>103.97920000000001</v>
+    <v>105.25</v>
     <v>40.494999999999997</v>
     <v>1.2276</v>
-    <v>-0.47</v>
-    <v>-9.7999999999999997E-5</v>
-    <v>-4.5399999999999998E-3</v>
-    <v>-1.01E-2</v>
+    <v>2.19</v>
+    <v>2.1250000000000002E-2</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>7.4999999999999997E-3</v>
-    <v>104.298</v>
+    <v>105.486</v>
     <v>ETF</v>
-    <v>44062.90011574074</v>
+    <v>44063.81866168906</v>
     <v>63</v>
-    <v>102.68</v>
+    <v>102.45099999999999</v>
     <v>1919966486.9979999</v>
     <v>ARK Next Gen Int ETF</v>
-    <v>103.7</v>
-    <v>103.53</v>
+    <v>102.67</v>
     <v>103.06</v>
-    <v>103.04989999999999</v>
+    <v>105.25</v>
     <v>ARKW</v>
     <v>ARK Next Gen Int ETF (ARCX:ARKW)</v>
-    <v>445294</v>
-    <v>622411</v>
+    <v>494874</v>
+    <v>608082</v>
   </rv>
   <rv s="2">
     <v>64</v>
@@ -5812,42 +5704,39 @@
     <v>https://www.bing.com/financeapi/forcetrigger?t=bosz7w&amp;q=ARCX%3aARKF&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="6">
+  <rv s="5">
     <v>en-US</v>
     <v>bosz7w</v>
     <v>268435456</v>
     <v>268435459</v>
     <v>1</v>
-    <v>15</v>
+    <v>11</v>
     <v>Ark Fintech Innovation (ARCX:ARKF)</v>
     <v>2</v>
-    <v>16</v>
+    <v>12</v>
     <v>Finance</v>
     <v>4</v>
-    <v>38.637999999999998</v>
+    <v>38.78</v>
     <v>16.940000000000001</v>
-    <v>-0.04</v>
-    <v>1.4844E-2</v>
-    <v>-1.041E-3</v>
-    <v>0.56999999999999995</v>
+    <v>0.315</v>
+    <v>8.2030000000000002E-3</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
-    <v>38.779899999999998</v>
+    <v>38.79</v>
     <v>ETF</v>
-    <v>44062.900219907409</v>
+    <v>44063.818692129629</v>
     <v>66</v>
-    <v>38.299999999999997</v>
+    <v>38.08</v>
     <v>347308305.00999999</v>
     <v>Ark Fintech Innovation</v>
-    <v>38.65</v>
-    <v>38.44</v>
+    <v>38.200000000000003</v>
     <v>38.4</v>
-    <v>38.97</v>
+    <v>38.715000000000003</v>
     <v>ARKF</v>
     <v>Ark Fintech Innovation (ARCX:ARKF)</v>
-    <v>597110</v>
-    <v>389745</v>
+    <v>357511</v>
+    <v>404343</v>
   </rv>
   <rv s="2">
     <v>67</v>
@@ -5867,33 +5756,30 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>17</v>
-    <v>55.5</v>
+    <v>4</v>
+    <v>55.59</v>
     <v>26.19</v>
     <v>1.2032</v>
-    <v>-0.23</v>
-    <v>0</v>
-    <v>-4.163E-3</v>
-    <v>0</v>
+    <v>0.48680000000000001</v>
+    <v>8.8570000000000003E-3</v>
     <v>USD</v>
     <v>CBOE BZX Exchange</v>
     <v>BATS</v>
     <v>7.4999999999999997E-3</v>
-    <v>55.59</v>
+    <v>55.499899999999997</v>
     <v>ETF</v>
-    <v>44062.89139552031</v>
+    <v>44063.819324860939</v>
     <v>69</v>
-    <v>54.901000000000003</v>
+    <v>54.25</v>
     <v>447869134.74000001</v>
     <v>ARK Autonomous Tch &amp; Rob</v>
-    <v>55.37</v>
-    <v>55.25</v>
-    <v>55.02</v>
-    <v>55.02</v>
+    <v>54.5</v>
+    <v>54.96</v>
+    <v>55.446800000000003</v>
     <v>ARKQ</v>
     <v>ARK Autonomous Tch &amp; Rob (BATS:ARKQ)</v>
-    <v>228648</v>
-    <v>178460</v>
+    <v>167720</v>
+    <v>182099</v>
   </rv>
   <rv s="2">
     <v>70</v>
@@ -5913,33 +5799,30 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>17</v>
-    <v>62.85</v>
+    <v>4</v>
+    <v>63.96</v>
     <v>24</v>
     <v>1.5274000000000001</v>
-    <v>1.1100000000000001</v>
-    <v>0</v>
-    <v>1.7979000000000002E-2</v>
-    <v>0</v>
+    <v>-0.45</v>
+    <v>-7.1589999999999996E-3</v>
     <v>USD</v>
     <v>CBOE BZX Exchange</v>
     <v>BATS</v>
     <v>7.4999999999999997E-3</v>
-    <v>63.96</v>
+    <v>62.9</v>
     <v>ETF</v>
-    <v>44062.886647036721</v>
+    <v>44063.819247685184</v>
     <v>72</v>
-    <v>62</v>
+    <v>62.08</v>
     <v>1589789769.7579999</v>
     <v>ARK Genomic Revolution</v>
-    <v>62.12</v>
-    <v>61.74</v>
-    <v>62.85</v>
-    <v>62.85</v>
+    <v>62.6</v>
+    <v>62.86</v>
+    <v>62.41</v>
     <v>ARKG</v>
     <v>ARK Genomic Revolution (BATS:ARKG)</v>
-    <v>1154989</v>
-    <v>802663</v>
+    <v>661680</v>
+    <v>774614</v>
   </rv>
   <rv s="2">
     <v>73</v>
@@ -5960,32 +5843,29 @@
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>88.96</v>
+    <v>90.38</v>
     <v>33</v>
     <v>1.4745999999999999</v>
-    <v>0.3</v>
-    <v>2.7010000000000003E-3</v>
-    <v>3.3869999999999998E-3</v>
-    <v>0.24</v>
+    <v>0.72</v>
+    <v>8.1019999999999998E-3</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>7.4999999999999997E-3</v>
-    <v>90.38</v>
+    <v>89.99</v>
     <v>ETF</v>
-    <v>44062.90388888889</v>
+    <v>44063.819339803122</v>
     <v>75</v>
-    <v>88.185000000000002</v>
+    <v>88.0501</v>
     <v>6132346915.7229996</v>
     <v>ARK Innovation</v>
-    <v>88.74</v>
-    <v>88.57</v>
+    <v>88.3</v>
     <v>88.87</v>
-    <v>89.11</v>
+    <v>89.59</v>
     <v>ARKK</v>
     <v>ARK Innovation (ARCX:ARKK)</v>
-    <v>1984522</v>
-    <v>1686330</v>
+    <v>1243461</v>
+    <v>1656807</v>
   </rv>
   <rv s="2">
     <v>76</v>
@@ -6006,32 +5886,29 @@
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>90.649900000000002</v>
+    <v>90.779399999999995</v>
     <v>60.13</v>
     <v>0.8659</v>
-    <v>-0.40500000000000003</v>
-    <v>9.2300000000000004E-3</v>
-    <v>-4.4840000000000001E-3</v>
-    <v>0.83</v>
+    <v>-0.26</v>
+    <v>-2.8910000000000003E-3</v>
     <v>USD</v>
     <v>CBOE BZX Exchange</v>
     <v>BATS</v>
     <v>4.0000000000000001E-3</v>
-    <v>90.754999999999995</v>
+    <v>89.8</v>
     <v>ETF</v>
-    <v>44062.902948772658</v>
+    <v>44063.818425138285</v>
     <v>78</v>
-    <v>89.8</v>
+    <v>89.070899999999995</v>
     <v>7994332434.7600002</v>
     <v>iShares:MSCI EAFE Gro</v>
-    <v>90.61</v>
-    <v>90.325000000000003</v>
+    <v>89.18</v>
     <v>89.92</v>
-    <v>90.75</v>
+    <v>89.66</v>
     <v>EFG</v>
     <v>iShares:MSCI EAFE Gro (BATS:EFG)</v>
-    <v>258842</v>
-    <v>382349</v>
+    <v>284908</v>
+    <v>377172</v>
   </rv>
   <rv s="2">
     <v>79</v>
@@ -6051,33 +5928,30 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>5</v>
+    <v>4</v>
     <v>322.83</v>
     <v>183.43979999999999</v>
     <v>0.98260000000000003</v>
-    <v>-2.63</v>
-    <v>-3.7719999999999995E-4</v>
-    <v>-8.199999999999999E-3</v>
-    <v>-0.12</v>
+    <v>1.39</v>
+    <v>4.3699999999999998E-3</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>3.0000000000000001E-3</v>
-    <v>320.55</v>
+    <v>319.815</v>
     <v>ETF</v>
-    <v>44062.840277777781</v>
+    <v>44063.817863946097</v>
     <v>81</v>
-    <v>317.76</v>
+    <v>318.0172</v>
     <v>929475920.65999997</v>
     <v>iShares:Mornstr MC-Gro</v>
-    <v>320.5</v>
-    <v>320.74</v>
+    <v>318.29000000000002</v>
     <v>318.11</v>
-    <v>317.99</v>
+    <v>319.5</v>
     <v>JKH</v>
     <v>iShares:Mornstr MC-Gro (ARCX:JKH)</v>
-    <v>48541</v>
-    <v>39849</v>
+    <v>18334</v>
+    <v>40741</v>
   </rv>
   <rv s="2">
     <v>82</v>
@@ -6101,29 +5975,26 @@
     <v>99.72</v>
     <v>55.58</v>
     <v>0.92959999999999998</v>
-    <v>-1.47</v>
-    <v>7.5060000000000003E-4</v>
-    <v>-1.8057E-2</v>
-    <v>0.06</v>
+    <v>0.8</v>
+    <v>1.0008E-2</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>1.1999999999999999E-3</v>
-    <v>81.72</v>
+    <v>81.262</v>
     <v>ETF</v>
-    <v>44062.903726851851</v>
+    <v>44063.819293981483</v>
     <v>84</v>
-    <v>79.84</v>
+    <v>79.38</v>
     <v>29166021157</v>
     <v>Vanguard RE Idx;ETF</v>
-    <v>81.72</v>
-    <v>81.41</v>
+    <v>79.64</v>
     <v>79.94</v>
-    <v>80</v>
+    <v>80.739999999999995</v>
     <v>VNQ</v>
     <v>Vanguard RE Idx;ETF (ARCX:VNQ)</v>
-    <v>4376370</v>
-    <v>4229122</v>
+    <v>2356590</v>
+    <v>4262288</v>
   </rv>
   <rv s="2">
     <v>85</v>
@@ -6147,29 +6018,26 @@
     <v>53.95</v>
     <v>23.95</v>
     <v>1.2801</v>
-    <v>-0.09</v>
-    <v>-1.883E-4</v>
-    <v>-1.6919999999999999E-3</v>
-    <v>-0.01</v>
+    <v>-0.24</v>
+    <v>-4.5190000000000004E-3</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>3.4999999999999996E-3</v>
-    <v>53.343299999999999</v>
+    <v>53.27</v>
     <v>ETF</v>
-    <v>44062.901154548439</v>
+    <v>44063.818555300779</v>
     <v>87</v>
-    <v>52.854999999999997</v>
+    <v>52.41</v>
     <v>1012013660.28</v>
     <v>SPDR S&amp;P Homebuilders</v>
-    <v>53.29</v>
-    <v>53.2</v>
+    <v>52.5</v>
     <v>53.11</v>
-    <v>53.1</v>
+    <v>52.87</v>
     <v>XHB</v>
     <v>SPDR S&amp;P Homebuilders (ARCX:XHB)</v>
-    <v>1893027</v>
-    <v>2318838</v>
+    <v>1124301</v>
+    <v>2308568</v>
   </rv>
   <rv s="2">
     <v>88</v>
@@ -6189,33 +6057,30 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>5</v>
-    <v>340.63119999999998</v>
+    <v>4</v>
+    <v>340.99900000000002</v>
     <v>220.2756</v>
     <v>1.0001</v>
-    <v>-1.38</v>
-    <v>-9.1550000000000008E-4</v>
-    <v>-4.0590000000000001E-3</v>
-    <v>-0.31</v>
+    <v>0.92010000000000003</v>
+    <v>2.7169999999999998E-3</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>4.0000000000000002E-4</v>
-    <v>340.99900000000002</v>
+    <v>339.97</v>
     <v>ETF</v>
-    <v>44062.890311353905</v>
+    <v>44063.818865740737</v>
     <v>90</v>
-    <v>338.02</v>
+    <v>336.6</v>
     <v>206131307981.39001</v>
     <v>iShares:Core S&amp;P 500</v>
-    <v>340.4</v>
-    <v>340</v>
-    <v>338.62</v>
-    <v>338.31</v>
+    <v>336.67</v>
+    <v>338.6</v>
+    <v>339.52010000000001</v>
     <v>IVV</v>
     <v>iShares:Core S&amp;P 500 (ARCX:IVV)</v>
-    <v>1908838</v>
-    <v>2858093</v>
+    <v>1403024</v>
+    <v>2778862</v>
   </rv>
   <rv s="2">
     <v>91</v>
@@ -6236,32 +6101,29 @@
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>311.58999999999997</v>
+    <v>312.27999999999997</v>
     <v>200.55</v>
     <v>1.0004999999999999</v>
-    <v>-1.34</v>
-    <v>1.905E-3</v>
-    <v>-4.3070000000000001E-3</v>
-    <v>0.59</v>
+    <v>0.97</v>
+    <v>3.1310000000000001E-3</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>2.9999999999999997E-4</v>
-    <v>312.27999999999997</v>
+    <v>311.125</v>
     <v>ETF</v>
-    <v>44062.90247685185</v>
+    <v>44063.819606481484</v>
     <v>93</v>
-    <v>309.31</v>
+    <v>308.02999999999997</v>
     <v>154722036404</v>
     <v>Vanguard 500 Idx;ETF</v>
-    <v>311.54000000000002</v>
-    <v>311.12</v>
+    <v>308.17</v>
     <v>309.77999999999997</v>
-    <v>310.37</v>
+    <v>310.75</v>
     <v>VOO</v>
     <v>Vanguard 500 Idx;ETF (ARCX:VOO)</v>
-    <v>2490616</v>
-    <v>3150142</v>
+    <v>1962726</v>
+    <v>2986017</v>
   </rv>
   <rv s="2">
     <v>94</v>
@@ -6276,25 +6138,25 @@
     <v>268435456</v>
     <v>268435461</v>
     <v>1</v>
+    <v>5</v>
+    <v>Fidelity ZERO Large Cap Index Fund</v>
     <v>6</v>
-    <v>Fidelity ZERO Large Cap Index Fund</v>
     <v>7</v>
+    <v>Finance</v>
     <v>8</v>
-    <v>Finance</v>
-    <v>9</v>
-    <v>0.04</v>
-    <v>3.3139999999999997E-3</v>
+    <v>-0.06</v>
+    <v>-4.9550000000000002E-3</v>
     <v>US</v>
     <v>USD</v>
     <v>0</v>
     <v>Mutual Fund</v>
-    <v>44061</v>
-    <v>44062.626173939847</v>
+    <v>44062</v>
+    <v>44063.226780546873</v>
     <v>96</v>
     <v>Fidelity ZERO Large Cap Index Fund</v>
     <v>2180973903</v>
-    <v>12.07</v>
     <v>12.11</v>
+    <v>12.05</v>
     <v>0</v>
     <v>5.5312E-2</v>
     <v>6.7000000000000002E-3</v>
@@ -6324,33 +6186,30 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>5</v>
+    <v>4</v>
     <v>127.96810000000001</v>
     <v>68.948099999999997</v>
     <v>1.2541</v>
-    <v>-0.67</v>
-    <v>-3.7880000000000001E-3</v>
-    <v>-5.3700000000000006E-3</v>
-    <v>-0.47</v>
+    <v>-1.55</v>
+    <v>-1.2497000000000001E-2</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>3.4999999999999996E-3</v>
-    <v>125.7</v>
+    <v>123.61</v>
     <v>ETF</v>
-    <v>44062.840277846874</v>
+    <v>44063.817269073435</v>
     <v>99</v>
-    <v>123.77</v>
+    <v>121.97</v>
     <v>536082029.20999998</v>
     <v>SPDR S&amp;P Semiconductor</v>
-    <v>124.69</v>
-    <v>124.76</v>
-    <v>124.09</v>
-    <v>123.62</v>
+    <v>123.23</v>
+    <v>124.03</v>
+    <v>122.48</v>
     <v>XSD</v>
     <v>SPDR S&amp;P Semiconductor (ARCX:XSD)</v>
-    <v>76765</v>
-    <v>43071</v>
+    <v>41201</v>
+    <v>45107</v>
   </rv>
   <rv s="2">
     <v>100</v>
@@ -6374,29 +6233,26 @@
     <v>174.33</v>
     <v>96</v>
     <v>1.1674</v>
-    <v>-1.05</v>
-    <v>5.8459999999999999E-5</v>
-    <v>-6.1009999999999997E-3</v>
-    <v>0.01</v>
+    <v>-1.17</v>
+    <v>-6.8400000000000006E-3</v>
     <v>USD</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>3.4999999999999996E-3</v>
-    <v>172.59</v>
+    <v>170.19</v>
     <v>ETF</v>
-    <v>44062.903599537036</v>
+    <v>44063.818981481483</v>
     <v>102</v>
-    <v>170.64</v>
+    <v>168.23</v>
     <v>2656727686.5599999</v>
     <v>VnEck Vctrs:Semicnd ETF</v>
-    <v>172.43</v>
-    <v>172.1</v>
+    <v>169.18</v>
     <v>171.05</v>
-    <v>171.06</v>
+    <v>169.88</v>
     <v>SMH</v>
     <v>VnEck Vctrs:Semicnd ETF (XNAS:SMH)</v>
-    <v>2358274</v>
-    <v>2727067</v>
+    <v>2691257</v>
+    <v>2694257</v>
   </rv>
   <rv s="2">
     <v>103</v>
@@ -6416,33 +6272,30 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>5</v>
+    <v>4</v>
     <v>167.37</v>
     <v>81.5</v>
     <v>1.1869000000000001</v>
-    <v>-0.28410000000000002</v>
-    <v>5.1709999999999994E-4</v>
-    <v>-1.7439999999999999E-3</v>
-    <v>8.4099999999999994E-2</v>
+    <v>2.7477</v>
+    <v>1.6886000000000002E-2</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>4.5000000000000005E-3</v>
-    <v>164.12299999999999</v>
+    <v>165.46770000000001</v>
     <v>ETF</v>
-    <v>44062.840277823438</v>
+    <v>44063.813518518517</v>
     <v>105</v>
-    <v>161.52000000000001</v>
+    <v>162.56</v>
     <v>209748828.72999999</v>
     <v>SPDR FS Innovative Tech</v>
-    <v>163.86</v>
-    <v>162.91999999999999</v>
-    <v>162.63589999999999</v>
+    <v>162.58000000000001</v>
     <v>162.72</v>
+    <v>165.46770000000001</v>
     <v>XITK</v>
     <v>SPDR FS Innovative Tech (ARCX:XITK)</v>
-    <v>25570</v>
-    <v>18783</v>
+    <v>23285</v>
+    <v>18693</v>
   </rv>
   <rv s="2">
     <v>106</v>
@@ -6451,42 +6304,39 @@
     <v>https://www.bing.com/financeapi/forcetrigger?t=bqf977&amp;q=ARCX%3aIHAK&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="6">
+  <rv s="5">
     <v>en-US</v>
     <v>bqf977</v>
     <v>268435456</v>
     <v>268435459</v>
     <v>1</v>
-    <v>15</v>
+    <v>11</v>
     <v>iShares:Cybersec &amp; Tech (ARCX:IHAK)</v>
     <v>2</v>
-    <v>16</v>
+    <v>12</v>
     <v>Finance</v>
-    <v>5</v>
+    <v>4</v>
     <v>34.402799999999999</v>
     <v>20.36</v>
-    <v>8.4500000000000006E-2</v>
-    <v>0</v>
-    <v>2.5309999999999998E-3</v>
-    <v>0</v>
+    <v>0.3</v>
+    <v>8.9420000000000003E-3</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
-    <v>33.729999999999997</v>
+    <v>33.93</v>
     <v>ETF</v>
-    <v>44062.840277835159</v>
+    <v>44063.816197291409</v>
     <v>108</v>
-    <v>33.4</v>
+    <v>33.22</v>
     <v>109489372.44</v>
     <v>iShares:Cybersec &amp; Tech</v>
-    <v>33.49</v>
-    <v>33.3855</v>
-    <v>33.47</v>
-    <v>33.47</v>
+    <v>33.299999999999997</v>
+    <v>33.549999999999997</v>
+    <v>33.85</v>
     <v>IHAK</v>
     <v>iShares:Cybersec &amp; Tech (ARCX:IHAK)</v>
-    <v>43371</v>
-    <v>58467</v>
+    <v>42923</v>
+    <v>57208</v>
   </rv>
   <rv s="2">
     <v>109</v>
@@ -6506,33 +6356,30 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>5</v>
+    <v>4</v>
     <v>49.554400000000001</v>
     <v>29.02</v>
     <v>0.89580000000000004</v>
-    <v>0.05</v>
-    <v>0</v>
-    <v>1.042E-3</v>
-    <v>0</v>
+    <v>0.49009999999999998</v>
+    <v>1.0200000000000001E-2</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>7.1999999999999998E-3</v>
-    <v>48.5</v>
+    <v>48.6494</v>
     <v>ETF</v>
-    <v>44062.862622048437</v>
+    <v>44063.818585578127</v>
     <v>111</v>
-    <v>47.870100000000001</v>
+    <v>47.84</v>
     <v>1521839559.4400001</v>
     <v>ETFMG Prime Cybr Sec ETF</v>
-    <v>48.12</v>
-    <v>47.99</v>
-    <v>48.04</v>
-    <v>48.04</v>
+    <v>47.84</v>
+    <v>48.05</v>
+    <v>48.540100000000002</v>
     <v>HACK</v>
     <v>ETFMG Prime Cybr Sec ETF (ARCX:HACK)</v>
-    <v>188991</v>
-    <v>156293</v>
+    <v>135028</v>
+    <v>159769</v>
   </rv>
   <rv s="2">
     <v>112</v>
@@ -6552,33 +6399,30 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>5</v>
-    <v>188.1</v>
+    <v>4</v>
+    <v>188.63</v>
     <v>105</v>
     <v>1.0622</v>
-    <v>-0.4</v>
-    <v>0</v>
-    <v>-2.1429999999999999E-3</v>
-    <v>0</v>
+    <v>2.33</v>
+    <v>1.2506999999999999E-2</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>5.3E-3</v>
-    <v>188.26900000000001</v>
+    <v>188.89</v>
     <v>ETF</v>
-    <v>44062.863127303128</v>
+    <v>44063.819004629629</v>
     <v>114</v>
-    <v>185.53</v>
+    <v>185.31</v>
     <v>9883407149.0349998</v>
     <v>Frst Tr:DJ Internet Idx</v>
-    <v>186.6</v>
-    <v>186.66</v>
-    <v>186.26</v>
-    <v>186.26</v>
+    <v>185.44</v>
+    <v>186.3</v>
+    <v>188.63</v>
     <v>FDN</v>
     <v>Frst Tr:DJ Internet Idx (ARCX:FDN)</v>
-    <v>358617</v>
-    <v>539381</v>
+    <v>270818</v>
+    <v>528571</v>
   </rv>
   <rv s="2">
     <v>115</v>
@@ -6598,33 +6442,30 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>5</v>
-    <v>91.129000000000005</v>
+    <v>4</v>
+    <v>91.71</v>
     <v>53</v>
     <v>1.0266999999999999</v>
-    <v>-0.25</v>
-    <v>-8.8420000000000002E-4</v>
-    <v>-2.7550000000000001E-3</v>
-    <v>-0.08</v>
+    <v>1.19</v>
+    <v>1.3146E-2</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>8.0000000000000004E-4</v>
-    <v>91.31</v>
+    <v>91.75</v>
     <v>ETF</v>
-    <v>44062.867521503904</v>
+    <v>44063.818009259259</v>
     <v>117</v>
-    <v>90.44</v>
+    <v>90.261499999999998</v>
     <v>4288252307</v>
     <v>Fidelity MSCI Info Tech</v>
-    <v>90.93</v>
-    <v>90.73</v>
-    <v>90.48</v>
-    <v>90.4</v>
+    <v>90.28</v>
+    <v>90.52</v>
+    <v>91.71</v>
     <v>FTEC</v>
     <v>Fidelity MSCI Info Tech (ARCX:FTEC)</v>
-    <v>220413</v>
-    <v>387760</v>
+    <v>261097</v>
+    <v>382209</v>
   </rv>
   <rv s="2">
     <v>118</v>
@@ -6639,37 +6480,34 @@
     <v>268435456</v>
     <v>268435459</v>
     <v>1</v>
-    <v>10</v>
+    <v>9</v>
     <v>Goldman:Data-Dvn Wld (ARCX:GDAT)</v>
     <v>2</v>
-    <v>11</v>
+    <v>10</v>
     <v>Finance</v>
-    <v>5</v>
+    <v>4</v>
     <v>69.739999999999995</v>
     <v>41.99</v>
-    <v>-0.24</v>
-    <v>1.884E-3</v>
-    <v>-3.4660000000000003E-3</v>
-    <v>0.13</v>
+    <v>-0.14000000000000001</v>
+    <v>-2.0230000000000001E-3</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>5.0000000000000001E-3</v>
-    <v>69.555000000000007</v>
+    <v>69.275000000000006</v>
     <v>ETF</v>
-    <v>44062.840277812502</v>
+    <v>44063.810844907406</v>
     <v>120</v>
-    <v>69.010000000000005</v>
+    <v>68.739999999999995</v>
     <v>39031484.68</v>
     <v>Goldman:Data-Dvn Wld</v>
-    <v>69.45</v>
-    <v>69.25</v>
-    <v>69.010000000000005</v>
-    <v>69.14</v>
+    <v>68.739999999999995</v>
+    <v>69.209999999999994</v>
+    <v>69.069999999999993</v>
     <v>GDAT</v>
     <v>Goldman:Data-Dvn Wld (ARCX:GDAT)</v>
-    <v>1995</v>
-    <v>4925</v>
+    <v>25273</v>
+    <v>4541</v>
   </rv>
   <rv s="2">
     <v>121</v>
@@ -6689,33 +6527,30 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>5</v>
-    <v>308.47000000000003</v>
+    <v>4</v>
+    <v>310.55</v>
     <v>179.45</v>
     <v>1.0274000000000001</v>
-    <v>-0.48</v>
-    <v>-1.338E-3</v>
-    <v>-1.5640000000000001E-3</v>
-    <v>-0.41</v>
+    <v>4.16</v>
+    <v>1.3576999999999999E-2</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>1E-3</v>
-    <v>309.06</v>
+    <v>310.55</v>
     <v>ETF</v>
-    <v>44062.890615497658</v>
+    <v>44063.819189814814</v>
     <v>123</v>
-    <v>306</v>
+    <v>304.82</v>
     <v>34345247556</v>
     <v>Vanguard InfoTch Idx;ETF</v>
-    <v>307.505</v>
-    <v>306.89</v>
-    <v>306.41000000000003</v>
-    <v>306</v>
+    <v>305.33999999999997</v>
+    <v>306.39</v>
+    <v>310.55</v>
     <v>VGT</v>
     <v>Vanguard InfoTch Idx;ETF (ARCX:VGT)</v>
-    <v>434265</v>
-    <v>693761</v>
+    <v>413908</v>
+    <v>677095</v>
   </rv>
   <rv s="2">
     <v>124</v>
@@ -6736,32 +6571,29 @@
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>115.57</v>
+    <v>116.56</v>
     <v>68.099999999999994</v>
     <v>0.98119999999999996</v>
-    <v>-0.09</v>
-    <v>-1.4790000000000001E-3</v>
-    <v>-7.8189999999999998E-4</v>
-    <v>-0.1701</v>
+    <v>1.54</v>
+    <v>1.3389E-2</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>1.4000000000000002E-3</v>
-    <v>115.87</v>
+    <v>116.58</v>
     <v>ETF</v>
-    <v>44062.895243055558</v>
+    <v>44063.819495659372</v>
     <v>126</v>
-    <v>114.735</v>
+    <v>114.39</v>
     <v>33228536246.509998</v>
     <v>Sel Sector:Tech SPDR</v>
-    <v>115.33</v>
-    <v>115.11</v>
+    <v>114.485</v>
     <v>115.02</v>
-    <v>114.84990000000001</v>
+    <v>116.56</v>
     <v>XLK</v>
     <v>Sel Sector:Tech SPDR (ARCX:XLK)</v>
-    <v>7118572</v>
-    <v>8619892</v>
+    <v>5277183</v>
+    <v>8429098</v>
   </rv>
   <rv s="2">
     <v>127</v>
@@ -6785,29 +6617,26 @@
     <v>27.388999999999999</v>
     <v>14.809699999999999</v>
     <v>1.1518999999999999</v>
-    <v>-0.16</v>
-    <v>-7.4490000000000005E-4</v>
-    <v>-5.9240000000000004E-3</v>
-    <v>-0.02</v>
+    <v>-0.19500000000000001</v>
+    <v>-7.2629999999999995E-3</v>
     <v>USD</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>6.9999999999999993E-3</v>
-    <v>27.12</v>
+    <v>26.7178</v>
     <v>ETF</v>
-    <v>44062.833354710157</v>
+    <v>44063.818668981483</v>
     <v>129</v>
-    <v>26.79</v>
+    <v>26.55</v>
     <v>212294600</v>
     <v>Glbl X Itrnt of Things</v>
-    <v>27.05</v>
-    <v>27.01</v>
+    <v>26.63</v>
     <v>26.85</v>
-    <v>26.83</v>
+    <v>26.655000000000001</v>
     <v>SNSR</v>
     <v>Glbl X Itrnt of Things (XNAS:SNSR)</v>
-    <v>64261</v>
-    <v>49709</v>
+    <v>23294</v>
+    <v>50771</v>
   </rv>
   <rv s="2">
     <v>130</v>
@@ -6831,29 +6660,26 @@
     <v>172.55670000000001</v>
     <v>109.49</v>
     <v>1.0002</v>
-    <v>-0.64</v>
-    <v>8.4650000000000003E-4</v>
-    <v>-3.7219999999999996E-3</v>
-    <v>0.14499999999999999</v>
+    <v>0.48499999999999999</v>
+    <v>2.8310000000000002E-3</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>4.0000000000000002E-4</v>
-    <v>172.5</v>
+    <v>172</v>
     <v>ETF</v>
-    <v>44062.900462962964</v>
+    <v>44063.819189814814</v>
     <v>132</v>
-    <v>171</v>
+    <v>170.18770000000001</v>
     <v>153193735128</v>
     <v>Vanguard TSM Idx;ETF</v>
-    <v>172.28</v>
-    <v>171.93</v>
+    <v>170.5</v>
     <v>171.29</v>
-    <v>171.435</v>
+    <v>171.77500000000001</v>
     <v>VTI</v>
     <v>Vanguard TSM Idx;ETF (ARCX:VTI)</v>
-    <v>2290411</v>
-    <v>2738360</v>
+    <v>1949620</v>
+    <v>2680085</v>
   </rv>
   <rv s="2">
     <v>133</v>
@@ -6868,25 +6694,25 @@
     <v>268435456</v>
     <v>268435461</v>
     <v>1</v>
+    <v>5</v>
+    <v>Fidelity ZERO Total Market Index Fund</v>
     <v>6</v>
-    <v>Fidelity ZERO Total Market Index Fund</v>
     <v>7</v>
+    <v>Finance</v>
     <v>8</v>
-    <v>Finance</v>
-    <v>9</v>
-    <v>0.02</v>
-    <v>1.6689999999999999E-3</v>
+    <v>-0.05</v>
+    <v>-4.1670000000000006E-3</v>
     <v>US</v>
     <v>USD</v>
     <v>0</v>
     <v>Mutual Fund</v>
-    <v>44061</v>
-    <v>44062.625784397656</v>
+    <v>44062</v>
+    <v>44063.226102010936</v>
     <v>135</v>
     <v>Fidelity ZERO Total Market Index Fund</v>
     <v>5711071047</v>
-    <v>11.98</v>
     <v>12</v>
+    <v>11.95</v>
     <v>0</v>
     <v>6.0444000000000005E-2</v>
     <v>6.7510000000000001E-3</v>
@@ -6911,25 +6737,25 @@
     <v>268435456</v>
     <v>268435461</v>
     <v>1</v>
+    <v>5</v>
+    <v>Fidelity Total Market Index Fund</v>
     <v>6</v>
-    <v>Fidelity Total Market Index Fund</v>
     <v>7</v>
+    <v>Finance</v>
     <v>8</v>
-    <v>Finance</v>
-    <v>9</v>
-    <v>0.14000000000000001</v>
-    <v>1.4660000000000001E-3</v>
+    <v>-0.4</v>
+    <v>-4.1810000000000007E-3</v>
     <v>US</v>
     <v>USD</v>
     <v>2.0000000000000001E-4</v>
     <v>Mutual Fund</v>
-    <v>44061</v>
-    <v>44062.300601595314</v>
+    <v>44062</v>
+    <v>44063.221953393753</v>
     <v>138</v>
     <v>Fidelity Total Market Index Fund</v>
     <v>48419431458</v>
-    <v>95.53</v>
     <v>95.67</v>
+    <v>95.27</v>
     <v>0</v>
     <v>6.0410000000000005E-2</v>
     <v>6.7720000000000002E-3</v>
@@ -6948,25 +6774,23 @@
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1u4fr&amp;q=XNYS%3aGPC&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="7">
+  <rv s="6">
     <v>en-US</v>
     <v>a1u4fr</v>
     <v>268435456</v>
     <v>268435457</v>
     <v>1</v>
-    <v>18</v>
+    <v>14</v>
     <v>GENUINE PARTS COMPANY (XNYS:GPC)</v>
-    <v>19</v>
-    <v>20</v>
+    <v>15</v>
+    <v>16</v>
     <v>Finance</v>
-    <v>21</v>
+    <v>17</v>
     <v>108.58</v>
     <v>49.680999999999997</v>
-    <v>1.1202000000000001</v>
-    <v>-0.52</v>
-    <v>0</v>
-    <v>-5.5579999999999996E-3</v>
-    <v>0</v>
+    <v>1.1198999999999999</v>
+    <v>-0.51</v>
+    <v>-5.483E-3</v>
     <v>USD</v>
     <v>Genuine Parts Company is a service organization engaged in the distribution of automotive replacement parts, industrial replacement parts, and electrical/electronic materials. The Company's segments include Automotive, Industrial and Other. The automotive segment distributes replacement parts for all makes and models of automobiles, trucks and other vehicles. The industrial segment distributes a range of industrial bearings, mechanical and fluid power transmission equipment, including hydraulic and pneumatic products, material handling components and related parts and supplies.</v>
     <v>55000</v>
@@ -6974,25 +6798,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>2999 Wildwood Pkwy, ATLANTA, GA, 30339-8580 US</v>
-    <v>93.94</v>
+    <v>92.94</v>
     <v>Automobiles &amp; Auto Parts</v>
     <v>Stock</v>
-    <v>44062.881175428127</v>
+    <v>44063.81890046296</v>
     <v>141</v>
-    <v>92.78</v>
-    <v>13592570000</v>
+    <v>91.95</v>
+    <v>13497360000</v>
     <v>GENUINE PARTS COMPANY</v>
     <v>GENUINE PARTS COMPANY</v>
-    <v>93.64</v>
+    <v>92.42</v>
     <v>0</v>
-    <v>93.56</v>
-    <v>93.04</v>
-    <v>93.04</v>
+    <v>93.02</v>
+    <v>92.51</v>
     <v>144264200</v>
     <v>GPC</v>
     <v>GENUINE PARTS COMPANY (XNYS:GPC)</v>
-    <v>459162</v>
-    <v>653691</v>
+    <v>333368</v>
+    <v>650291</v>
     <v>1928</v>
   </rv>
   <rv s="2">
@@ -7006,11 +6829,11 @@
     <v>http://en.wikipedia.org/wiki/Honda</v>
     <v>Wikipedia</v>
   </rv>
-  <rv s="8">
+  <rv s="7">
     <v>144</v>
     <v>145</v>
   </rv>
-  <rv s="9">
+  <rv s="8">
     <v>https://www.bing.com/th?id=AMMS_65638ce82d623bac8d564989d24bda28&amp;qlt=95</v>
     <v>146</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=honda</v>
@@ -7020,25 +6843,23 @@
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1uqyc&amp;q=XNYS%3aHMC&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="10">
+  <rv s="9">
     <v>en-US</v>
     <v>a1uqyc</v>
     <v>268435456</v>
     <v>268435457</v>
     <v>1</v>
-    <v>22</v>
+    <v>18</v>
     <v>HONDA MOTOR CO., LTD. (XNYS:HMC)</v>
-    <v>24</v>
-    <v>25</v>
+    <v>20</v>
+    <v>21</v>
     <v>Finance</v>
-    <v>21</v>
+    <v>17</v>
     <v>29.44</v>
     <v>19.38</v>
-    <v>0.89249999999999996</v>
-    <v>-0.05</v>
-    <v>0</v>
-    <v>-1.9550000000000001E-3</v>
-    <v>0</v>
+    <v>0.89170000000000005</v>
+    <v>-0.55000000000000004</v>
+    <v>-2.1547999999999998E-2</v>
     <v>USD</v>
     <v>HONDA MOTOR CO., LTD. is a Japan-based company principally engaged in the motorcycle business, the automobile business, the financial service business and the power product business. The Company operates in four business segments. The Motorcycle segment provides motorcycles, all-terrain vehicles (ATVs), side-by-side vehicles. The Automobile segment provides automobiles and related parts. The Company produces a range of motorcycles, with engine displacement ranging from the 50 cubic centimeters class to the 1,800 cubic centimeters class. Its automobiles use gasoline engines of three, four or six cylinder, diesel engines, gasoline-electric hybrid systems and gasoline-electric plug-in hybrid systems. The Financial Service segment is engaged in the sales financing and leasing. The Power Product segment and Others segment provides power products and related parts.</v>
     <v>218674</v>
@@ -7046,26 +6867,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>2-1-1, Minami-Aoyama, MINATO-KU, TOKYO-TO, 107-8556 JP</v>
-    <v>25.795000000000002</v>
+    <v>25.145</v>
     <v>147</v>
     <v>Automobiles &amp; Auto Parts</v>
     <v>Stock</v>
-    <v>44062.890266029688</v>
+    <v>44063.818382175785</v>
     <v>148</v>
-    <v>25.5</v>
-    <v>46845220000</v>
+    <v>24.88</v>
+    <v>46178690000</v>
     <v>HONDA MOTOR CO., LTD.</v>
     <v>HONDA MOTOR CO., LTD.</v>
-    <v>25.76</v>
-    <v>24.159800000000001</v>
-    <v>25.57</v>
-    <v>25.52</v>
-    <v>25.52</v>
+    <v>25.1</v>
+    <v>24.1126</v>
+    <v>25.524999999999999</v>
+    <v>24.975000000000001</v>
     <v>1811428000</v>
     <v>HMC</v>
     <v>HONDA MOTOR CO., LTD. (XNYS:HMC)</v>
-    <v>348613</v>
-    <v>689133</v>
+    <v>479688</v>
+    <v>668994</v>
     <v>1948</v>
   </rv>
   <rv s="2">
@@ -7075,11 +6895,11 @@
     <v>http://en.wikipedia.org/wiki/Wells_Fargo</v>
     <v>Wikipedia</v>
   </rv>
-  <rv s="8">
+  <rv s="7">
     <v>144</v>
     <v>151</v>
   </rv>
-  <rv s="9">
+  <rv s="8">
     <v>https://www.bing.com/th?id=AMMS_97bd8dad8c0360a49d8c3a8c9f408be5&amp;qlt=95</v>
     <v>152</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=wells+fargo</v>
@@ -7089,25 +6909,23 @@
     <v>https://www.bing.com/financeapi/forcetrigger?t=a25tgh&amp;q=XNYS%3aWFC&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="10">
+  <rv s="9">
     <v>en-US</v>
     <v>a25tgh</v>
     <v>268435456</v>
     <v>268435457</v>
     <v>1</v>
+    <v>18</v>
+    <v>WELLS FARGO &amp; COMPANY (XNYS:WFC)</v>
+    <v>20</v>
     <v>22</v>
-    <v>WELLS FARGO &amp; COMPANY (XNYS:WFC)</v>
-    <v>24</v>
-    <v>26</v>
     <v>Finance</v>
-    <v>27</v>
+    <v>17</v>
     <v>54.75</v>
     <v>22</v>
-    <v>1.1091</v>
-    <v>0.03</v>
-    <v>0</v>
-    <v>1.248E-3</v>
-    <v>0</v>
+    <v>1.1116999999999999</v>
+    <v>-0.34</v>
+    <v>-1.4125E-2</v>
     <v>USD</v>
     <v>Wells Fargo &amp; Company is a bank holding company. The Company is a diversified financial services company. It has three operating segments: Community Banking, Wholesale Banking, and Wealth and Investment Management. The Company offers its services under three categories: personal, small business and commercial. It provides retail, commercial and corporate banking services through banking locations and offices, the Internet and other distribution channels to individuals, businesses and institutions in all 50 states, the District of Columbia and in other countries. It provides other financial services through its subsidiaries engaged in various businesses, including wholesale banking, mortgage banking, consumer finance, equipment leasing, agricultural finance, commercial finance, securities brokerage and investment banking, computer and data processing services, investment advisory services, mortgage-backed securities servicing and venture capital investment.</v>
     <v>266300</v>
@@ -7115,26 +6933,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>420 Montgomery St, SAN FRANCISCO, CA, 94104-1207 US</v>
-    <v>24.385000000000002</v>
+    <v>23.93</v>
     <v>153</v>
     <v>Banking Services</v>
     <v>Stock</v>
-    <v>44062.903425925928</v>
+    <v>44063.819068008597</v>
     <v>154</v>
-    <v>23.84</v>
-    <v>100817600000</v>
+    <v>23.6</v>
+    <v>99045930000</v>
     <v>WELLS FARGO &amp; COMPANY</v>
     <v>WELLS FARGO &amp; COMPANY</v>
-    <v>24</v>
-    <v>27.586200000000002</v>
-    <v>24.04</v>
+    <v>23.76</v>
+    <v>27.6206</v>
     <v>24.07</v>
-    <v>24.07</v>
+    <v>23.73</v>
     <v>4120047000</v>
     <v>WFC</v>
     <v>WELLS FARGO &amp; COMPANY (XNYS:WFC)</v>
-    <v>33600853</v>
-    <v>40827730</v>
+    <v>30397223</v>
+    <v>39705873</v>
     <v>1929</v>
   </rv>
   <rv s="2">
@@ -7144,11 +6961,11 @@
     <v>http://en.wikipedia.org/wiki/Bank_of_America</v>
     <v>Wikipedia</v>
   </rv>
-  <rv s="8">
+  <rv s="7">
     <v>144</v>
     <v>157</v>
   </rv>
-  <rv s="9">
+  <rv s="8">
     <v>https://www.bing.com/th?id=AMMS_0720042c42661f705c810fedd777349a&amp;qlt=95</v>
     <v>158</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=bank+of+america</v>
@@ -7158,25 +6975,23 @@
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1o4sm&amp;q=XNYS%3aBAC&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="10">
+  <rv s="9">
     <v>en-US</v>
     <v>a1o4sm</v>
     <v>268435456</v>
     <v>268435457</v>
     <v>1</v>
+    <v>18</v>
+    <v>BANK OF AMERICA CORPORATION (XNYS:BAC)</v>
+    <v>20</v>
     <v>22</v>
-    <v>BANK OF AMERICA CORPORATION (XNYS:BAC)</v>
-    <v>24</v>
-    <v>26</v>
     <v>Finance</v>
-    <v>27</v>
+    <v>17</v>
     <v>35.72</v>
     <v>17.95</v>
-    <v>1.58</v>
-    <v>-0.02</v>
-    <v>0</v>
-    <v>-7.8340000000000007E-4</v>
-    <v>0</v>
+    <v>1.5824</v>
+    <v>-0.39500000000000002</v>
+    <v>-1.5484E-2</v>
     <v>USD</v>
     <v>Bank of America Corporation is a bank holding company and a financial holding company. The Company is a financial institution, serving individual consumers and others with a range of banking, investing, asset management and other financial and risk management products and services. The Company, through its banking and various non-bank subsidiaries, throughout the United States and in international markets, provides a range of banking and non-bank financial services and products through four business segments: Consumer Banking, which comprises Deposits and Consumer Lending; Global Wealth &amp; Investment Management, which consists of two primary businesses: Merrill Lynch Global Wealth Management and U.S. Trust, Bank of America Private Wealth Management; Global Banking, which provides a range of lending-related products and services; Global Markets, which offers sales and trading services, and All Other, which consists of equity investments, residual expense allocations and other.</v>
     <v>213000</v>
@@ -7184,26 +6999,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>Bank of America Corporate Center, 100 N Tryon St, CHARLOTTE, NC, 28255-0001 US</v>
-    <v>26.08</v>
+    <v>25.324999999999999</v>
     <v>159</v>
     <v>Banking Services</v>
     <v>Stock</v>
-    <v>44062.903703703705</v>
+    <v>44063.81958688594</v>
     <v>160</v>
-    <v>25.39</v>
-    <v>224400100000</v>
+    <v>25.02</v>
+    <v>221194400000</v>
     <v>BANK OF AMERICA CORPORATION</v>
     <v>BANK OF AMERICA CORPORATION</v>
-    <v>25.66</v>
-    <v>12.263199999999999</v>
-    <v>25.53</v>
+    <v>25.07</v>
+    <v>12.248799999999999</v>
     <v>25.51</v>
-    <v>25.51</v>
+    <v>25.114999999999998</v>
     <v>8664098000</v>
     <v>BAC</v>
     <v>BANK OF AMERICA CORPORATION (XNYS:BAC)</v>
-    <v>59769319</v>
-    <v>59275944</v>
+    <v>39659234</v>
+    <v>59374804</v>
     <v>1998</v>
   </rv>
   <rv s="2">
@@ -7213,11 +7027,11 @@
     <v>http://en.wikipedia.org/wiki/JPMorgan_Chase</v>
     <v>Wikipedia</v>
   </rv>
-  <rv s="8">
+  <rv s="7">
     <v>144</v>
     <v>163</v>
   </rv>
-  <rv s="9">
+  <rv s="8">
     <v>https://www.bing.com/th?id=AMMS_06392bb84e5fdc62d2356a2306f4ae1e&amp;qlt=95</v>
     <v>164</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=jpmorgan+chase</v>
@@ -7227,25 +7041,23 @@
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1waa2&amp;q=XNYS%3aJPM&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="10">
+  <rv s="9">
     <v>en-US</v>
     <v>a1waa2</v>
     <v>268435456</v>
     <v>268435457</v>
     <v>1</v>
+    <v>18</v>
+    <v>JPMORGAN CHASE &amp; CO. (XNYS:JPM)</v>
+    <v>20</v>
     <v>22</v>
-    <v>JPMORGAN CHASE &amp; CO. (XNYS:JPM)</v>
-    <v>24</v>
-    <v>26</v>
     <v>Finance</v>
-    <v>27</v>
+    <v>17</v>
     <v>141.1</v>
     <v>76.91</v>
-    <v>1.1566000000000001</v>
-    <v>0.22</v>
-    <v>0</v>
-    <v>2.2370000000000003E-3</v>
-    <v>0</v>
+    <v>1.1591</v>
+    <v>-1.29</v>
+    <v>-1.3089999999999999E-2</v>
     <v>USD</v>
     <v>JPMorgan Chase &amp; Co. is a financial holding company. The Company is engaged in investment banking, financial services. It operates in four segments, as well as a Corporate segment. Its segments are Consumer &amp; Community Banking, Corporate &amp; Investment Bank, Commercial Banking and Asset Management. The Consumer &amp; Community Banking segment offers services to consumers and businesses through bank branches, automatic teller machines (ATMs), online, mobile and telephone banking. The Corporate &amp; Investment Bank segment, comprising Banking and Markets &amp; Investor Services, offers investment banking, market-making, prime brokerage, and treasury and securities products and services to corporations, investors, financial institutions, and government and municipal entities. The Commercial Banking segment provides financial solutions, including lending, treasury services, investment banking and asset management. The Asset Management segment comprises investment and wealth management.</v>
     <v>256710</v>
@@ -7253,26 +7065,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>383 Madison Ave, NEW YORK, NY, 10017-3217 US</v>
-    <v>100.59</v>
+    <v>98.03</v>
     <v>165</v>
     <v>Banking Services</v>
     <v>Stock</v>
-    <v>44062.900787037041</v>
+    <v>44063.819143414061</v>
     <v>166</v>
-    <v>98.35</v>
-    <v>303876700000</v>
+    <v>96.8</v>
+    <v>299640500000</v>
     <v>JPMORGAN CHASE &amp; CO.</v>
     <v>JPMORGAN CHASE &amp; CO.</v>
-    <v>98.95</v>
-    <v>13.254</v>
-    <v>98.33</v>
+    <v>97.26</v>
+    <v>13.285</v>
     <v>98.55</v>
-    <v>98.55</v>
+    <v>97.26</v>
     <v>3047604000</v>
     <v>JPM</v>
     <v>JPMORGAN CHASE &amp; CO. (XNYS:JPM)</v>
-    <v>13522475</v>
-    <v>15207366</v>
+    <v>10813487</v>
+    <v>14848351</v>
     <v>1968</v>
   </rv>
   <rv s="2">
@@ -7282,11 +7093,11 @@
     <v>http://en.wikipedia.org/wiki/The_Coca-Cola_Company</v>
     <v>Wikipedia</v>
   </rv>
-  <rv s="8">
+  <rv s="7">
     <v>144</v>
     <v>169</v>
   </rv>
-  <rv s="9">
+  <rv s="8">
     <v>https://www.bing.com/th?id=AMMS_5c38a19703348515f2ba1542f244f1f6&amp;qlt=95</v>
     <v>170</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=the+coca-cola+company</v>
@@ -7296,25 +7107,23 @@
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1wljc&amp;q=XNYS%3aKO&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="10">
+  <rv s="9">
     <v>en-US</v>
     <v>a1wljc</v>
     <v>268435456</v>
     <v>268435457</v>
     <v>1</v>
+    <v>18</v>
+    <v>THE COCA-COLA COMPANY (XNYS:KO)</v>
+    <v>20</v>
     <v>22</v>
-    <v>THE COCA-COLA COMPANY (XNYS:KO)</v>
-    <v>24</v>
-    <v>26</v>
     <v>Finance</v>
-    <v>27</v>
+    <v>17</v>
     <v>60.13</v>
     <v>36.270000000000003</v>
-    <v>0.54900000000000004</v>
-    <v>-1.05</v>
-    <v>1.0560000000000001E-3</v>
-    <v>-2.1684999999999999E-2</v>
-    <v>0.05</v>
+    <v>0.54459999999999997</v>
+    <v>-0.115</v>
+    <v>-2.428E-3</v>
     <v>USD</v>
     <v>The Coca-Cola Company is a beverage company. The Company owns or licenses and markets non-alcoholic beverage brands, primarily sparkling beverages and a range of still beverages, such as waters, flavored waters and enhanced waters, juices and juice drinks, ready-to-drink teas and coffees, sports drinks, dairy and energy drinks. The Company's segments include Europe, Middle East and Africa; Latin America; North America; Asia Pacific; Bottling Investments, and Corporate. The Company owns and markets a range of non-alcoholic sparkling beverage brands, including Coca-Cola, Diet Coke, Fanta and Sprite. The Company owns or licenses and markets over 500 non-alcoholic beverage brands. The Company markets, manufactures and sells beverage concentrates, which are referred to as beverage bases, and syrups, including fountain syrups, and finished sparkling and still beverages.</v>
     <v>86200</v>
@@ -7322,26 +7131,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1 Coca Cola Plz NW, ATLANTA, GA, 30313-2420 US</v>
-    <v>48.38</v>
+    <v>47.6</v>
     <v>171</v>
     <v>Beverages</v>
     <v>Stock</v>
-    <v>44062.902766203704</v>
+    <v>44063.819432870368</v>
     <v>172</v>
-    <v>47.22</v>
-    <v>207083100000</v>
+    <v>47.1</v>
+    <v>207985200000</v>
     <v>THE COCA-COLA COMPANY</v>
     <v>THE COCA-COLA COMPANY</v>
-    <v>48.07</v>
-    <v>22.772400000000001</v>
-    <v>48.42</v>
+    <v>47.32</v>
+    <v>22.278600000000001</v>
     <v>47.37</v>
-    <v>47.42</v>
+    <v>47.255000000000003</v>
     <v>4295439000</v>
     <v>KO</v>
     <v>THE COCA-COLA COMPANY (XNYS:KO)</v>
-    <v>17364488</v>
-    <v>14721434</v>
+    <v>8631174</v>
+    <v>14466755</v>
     <v>1919</v>
   </rv>
   <rv s="2">
@@ -7351,11 +7159,11 @@
     <v>http://en.wikipedia.org/wiki/Costco</v>
     <v>Wikipedia</v>
   </rv>
-  <rv s="8">
+  <rv s="7">
     <v>144</v>
     <v>175</v>
   </rv>
-  <rv s="9">
+  <rv s="8">
     <v>https://www.bing.com/th?id=AMMS_90a82bf7d9bf620ad2bd5ec79a4882af&amp;qlt=95</v>
     <v>176</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=costco</v>
@@ -7365,25 +7173,23 @@
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1q6k2&amp;q=XNAS%3aCOST&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="10">
+  <rv s="9">
     <v>en-US</v>
     <v>a1q6k2</v>
     <v>268435456</v>
     <v>268435457</v>
     <v>1</v>
+    <v>18</v>
+    <v>COSTCO WHOLESALE CORPORATION (XNAS:COST)</v>
+    <v>20</v>
     <v>22</v>
-    <v>COSTCO WHOLESALE CORPORATION (XNAS:COST)</v>
-    <v>24</v>
-    <v>26</v>
     <v>Finance</v>
-    <v>27</v>
+    <v>17</v>
     <v>345.12</v>
     <v>271.27999999999997</v>
-    <v>0.68730000000000002</v>
-    <v>0.15</v>
-    <v>0</v>
-    <v>4.4019999999999997E-4</v>
-    <v>0</v>
+    <v>0.6875</v>
+    <v>-0.14000000000000001</v>
+    <v>-4.1070000000000001E-4</v>
     <v>USD</v>
     <v>Costco Wholesale Corporation is engaged in the operation of membership warehouses in the United States and Puerto Rico, Canada, the United Kingdom, Mexico, Japan, Australia, Spain, and through its subsidiaries in Taiwan and Korea. As of August 28, 2016, the Company operated 715 warehouses across the world. The Company's average warehouse space is approximately 144,000 square feet. The Company's warehouses on average operate on a seven-day, 70-hour week. The Company offers merchandise in various categories, which include foods (including dry foods, packaged foods and groceries); sundries (including snack foods, candy, alcoholic and nonalcoholic beverages, and cleaning supplies); hardlines (including appliances, electronics, health and beauty aids, hardware, and garden and patio); fresh foods (including meat, produce, deli and bakery); softlines (including apparel and small appliances), and other (including gas stations and pharmacy).</v>
     <v>149000</v>
@@ -7391,26 +7197,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>999 Lake Dr, ISSAQUAH, WA, 98027-8990 US</v>
-    <v>341.94</v>
+    <v>341.12</v>
     <v>177</v>
     <v>Diversified Retail</v>
     <v>Stock</v>
-    <v>44062.90221064815</v>
+    <v>44063.818598043748</v>
     <v>178</v>
-    <v>339.95</v>
-    <v>150100400000</v>
+    <v>338.74</v>
+    <v>150449200000</v>
     <v>COSTCO WHOLESALE CORPORATION</v>
     <v>COSTCO WHOLESALE CORPORATION</v>
-    <v>341.12</v>
-    <v>40.301600000000001</v>
-    <v>340.75</v>
+    <v>340.14</v>
+    <v>40.319400000000002</v>
     <v>340.9</v>
-    <v>340.9</v>
+    <v>340.76</v>
     <v>441523700</v>
     <v>COST</v>
     <v>COSTCO WHOLESALE CORPORATION (XNAS:COST)</v>
-    <v>1728521</v>
-    <v>1840014</v>
+    <v>923146</v>
+    <v>1838390</v>
     <v>1987</v>
   </rv>
   <rv s="2">
@@ -7420,41 +7225,38 @@
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1qa5r&amp;q=XNYS%3aCQP&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="11">
+  <rv s="10">
     <v>en-US</v>
     <v>a1qa5r</v>
     <v>268435456</v>
     <v>268435459</v>
     <v>1</v>
-    <v>28</v>
+    <v>23</v>
     <v>CHENIERE ENERGY PARTNERS UNT (XNYS:CQP)</v>
     <v>2</v>
-    <v>29</v>
+    <v>24</v>
     <v>Finance</v>
-    <v>5</v>
+    <v>4</v>
     <v>49.3</v>
     <v>17.75</v>
-    <v>-0.52</v>
-    <v>0</v>
-    <v>-1.3158000000000001E-2</v>
-    <v>0</v>
+    <v>-0.97499999999999998</v>
+    <v>-2.4746000000000001E-2</v>
     <v>USD</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
-    <v>39.67</v>
+    <v>38.979999999999997</v>
     <v>ETF</v>
-    <v>44062.868651932811</v>
+    <v>44063.818657407406</v>
     <v>181</v>
-    <v>38.51</v>
+    <v>38.31</v>
     <v>CHENIERE ENERGY PARTNERS UNT</v>
-    <v>39.340000000000003</v>
-    <v>39.520000000000003</v>
-    <v>39</v>
-    <v>39</v>
+    <v>38.58</v>
+    <v>39.4</v>
+    <v>38.424999999999997</v>
     <v>CQP</v>
     <v>CHENIERE ENERGY PARTNERS UNT (XNYS:CQP)</v>
-    <v>174920</v>
-    <v>184434</v>
+    <v>84633</v>
+    <v>178716</v>
   </rv>
   <rv s="2">
     <v>182</v>
@@ -7463,11 +7265,11 @@
     <v>http://ja.wikipedia.org/wiki/シックス・フラッグス</v>
     <v>Wikipedia</v>
   </rv>
-  <rv s="8">
+  <rv s="7">
     <v>144</v>
     <v>184</v>
   </rv>
-  <rv s="9">
+  <rv s="8">
     <v>https://www.bing.com/th?id=AMMS_f277632c13de4db2ca85eddfe0a297c9&amp;qlt=95</v>
     <v>185</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=six+flags</v>
@@ -7477,25 +7279,23 @@
     <v>https://www.bing.com/financeapi/forcetrigger?t=a22zu2&amp;q=XNYS%3aSIX&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="10">
+  <rv s="9">
     <v>en-US</v>
     <v>a22zu2</v>
     <v>268435456</v>
     <v>268435457</v>
     <v>1</v>
+    <v>18</v>
+    <v>SIX FLAGS ENTERTAINMENT CORPORATION (XNYS:SIX)</v>
+    <v>20</v>
     <v>22</v>
-    <v>SIX FLAGS ENTERTAINMENT CORPORATION (XNYS:SIX)</v>
-    <v>24</v>
-    <v>26</v>
     <v>Finance</v>
-    <v>21</v>
+    <v>17</v>
     <v>59.52</v>
     <v>8.75</v>
-    <v>2.2284000000000002</v>
-    <v>-0.21</v>
-    <v>7.5949999999999993E-3</v>
-    <v>-1.0521000000000001E-2</v>
-    <v>0.15</v>
+    <v>2.2239</v>
+    <v>-0.48499999999999999</v>
+    <v>-2.4544999999999997E-2</v>
     <v>USD</v>
     <v>Six Flags Entertainment Corporation (Six Flags) is a regional theme park operator. The Company operates in the theme parks segment. The Company operates approximately 19 regional theme and water parks. Its parks occupy approximately 4,500 acres of land. Its parks are located in geographically diverse markets across North America. Its parks offer a selection of thrill rides, water attractions, themed areas, concerts and shows, restaurants, game venues and retail outlets. Its parks offer approximately 830 rides, including over 135 roller coasters. The Company's parks include Six Flags America, Six Flags Discovery Kingdom, Six Flags Fiesta Texas, Six Flags Great Adventure &amp; Safari/ Six Flags Hurricane Harbor, Six Flags Great America, Six Flags St. Louis, Six Flags Magic Mountain/ Six Flags Hurricane Harbor, Six Flags Mexico and Six Flags New England.</v>
     <v>2450</v>
@@ -7503,26 +7303,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1000 Ballpark Way Suite 400, ARLINGTON, TX, 76011 US</v>
-    <v>20.394400000000001</v>
+    <v>19.73</v>
     <v>186</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>44062.887544837497</v>
+    <v>44063.818091955465</v>
     <v>187</v>
-    <v>19.63</v>
-    <v>1721515000</v>
+    <v>19.14</v>
+    <v>1691848000</v>
     <v>SIX FLAGS ENTERTAINMENT CORPORATION</v>
     <v>SIX FLAGS ENTERTAINMENT CORPORATION</v>
-    <v>19.899999999999999</v>
+    <v>19.670000000000002</v>
     <v>0</v>
-    <v>19.96</v>
-    <v>19.75</v>
-    <v>19.899999999999999</v>
+    <v>19.760000000000002</v>
+    <v>19.274999999999999</v>
     <v>84761940</v>
     <v>SIX</v>
     <v>SIX FLAGS ENTERTAINMENT CORPORATION (XNYS:SIX)</v>
-    <v>1219988</v>
-    <v>2539516</v>
+    <v>840246</v>
+    <v>2411431</v>
     <v>1997</v>
   </rv>
   <rv s="2">
@@ -7532,11 +7331,11 @@
     <v>http://en.wikipedia.org/wiki/The_Cheesecake_Factory</v>
     <v>Wikipedia</v>
   </rv>
-  <rv s="8">
+  <rv s="7">
     <v>144</v>
     <v>190</v>
   </rv>
-  <rv s="9">
+  <rv s="8">
     <v>https://www.bing.com/th?id=AMMS_b7e2eab1a0465d4acb936b45513ab111&amp;qlt=95</v>
     <v>191</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=the+cheesecake+factory</v>
@@ -7546,25 +7345,23 @@
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1p5h7&amp;q=XNAS%3aCAKE&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="10">
+  <rv s="9">
     <v>en-US</v>
     <v>a1p5h7</v>
     <v>268435456</v>
     <v>268435457</v>
     <v>1</v>
+    <v>18</v>
+    <v>THE CHEESECAKE FACTORY INCORPORATED (XNAS:CAKE)</v>
+    <v>20</v>
     <v>22</v>
-    <v>THE CHEESECAKE FACTORY INCORPORATED (XNAS:CAKE)</v>
-    <v>24</v>
-    <v>26</v>
     <v>Finance</v>
-    <v>21</v>
+    <v>17</v>
     <v>45.24</v>
     <v>14.52</v>
-    <v>1.4429000000000001</v>
-    <v>-0.46</v>
-    <v>-1.9550000000000001E-3</v>
-    <v>-1.7672E-2</v>
-    <v>-0.05</v>
+    <v>1.4379999999999999</v>
+    <v>0.18</v>
+    <v>7.0390000000000001E-3</v>
     <v>USD</v>
     <v>The Cheesecake Factory Inc. is an experiential dining company. The Company owns and operates approximately 294 restaurants throughout the United States and Canada under brands, including The Cheesecake Factory, North Italia and a collection within the Fox Restaurant Concepts (FRC) subsidiary. Its segments include The Cheesecake Factory, North Italia, other FRC brands and Other. The Company’s Cheesecake Factory menu features approximately 250 items and menu offerings include appetizers, pizza, seafood, steaks, chicken, burgers, small plates, pastas, salads and sandwiches. It also operates two bakery production facilities, one in Calabasas Hills, California, and one in Rocky Mount, North Carolina. Its cheesecakes include the Original Cheesecake, Ultimate Red Velvet Cake Cheesecake, Godiva Chocolate Cheesecake and Oreo Dream Extreme Cheesecake. The Company also operates Grand Lux Cafe, RockSugar Southeast Asian Kitchen and Social Monk Asian Kitchen.</v>
     <v>46250</v>
@@ -7572,26 +7369,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>26901 MALIBU HILLS RD, CALABASAS HILLS, CA, 91301-5354 US</v>
-    <v>26.2</v>
+    <v>25.9</v>
     <v>192</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>44062.888820844528</v>
+    <v>44063.818958333337</v>
     <v>193</v>
-    <v>25.5</v>
-    <v>1192021000</v>
+    <v>24.86</v>
+    <v>1183383000</v>
     <v>THE CHEESECAKE FACTORY INCORPORATED</v>
     <v>THE CHEESECAKE FACTORY INCORPORATED</v>
-    <v>25.86</v>
+    <v>25.21</v>
     <v>10.3302</v>
-    <v>26.03</v>
     <v>25.57</v>
-    <v>25.52</v>
+    <v>25.75</v>
     <v>45462280</v>
     <v>CAKE</v>
     <v>THE CHEESECAKE FACTORY INCORPORATED (XNAS:CAKE)</v>
-    <v>1024683</v>
-    <v>1942223</v>
+    <v>1361222</v>
+    <v>1822391</v>
     <v>1992</v>
   </rv>
   <rv s="2">
@@ -7601,11 +7397,11 @@
     <v>http://en.wikipedia.org/wiki/Wyndham_Destinations</v>
     <v>Wikipedia</v>
   </rv>
-  <rv s="8">
+  <rv s="7">
     <v>144</v>
     <v>196</v>
   </rv>
-  <rv s="9">
+  <rv s="8">
     <v>https://www.bing.com/th?id=AMMS_5a814ff30fd1ffac245379798a819c9e&amp;qlt=95</v>
     <v>197</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=wyndham+worldwide</v>
@@ -7615,25 +7411,23 @@
     <v>https://www.bing.com/financeapi/forcetrigger?t=b16nh7&amp;q=XNYS%3aWYND&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="10">
+  <rv s="9">
     <v>en-US</v>
     <v>b16nh7</v>
     <v>268435456</v>
     <v>268435457</v>
     <v>1</v>
+    <v>18</v>
+    <v>WYNDHAM DESTINATIONS, INC. (XNYS:WYND)</v>
+    <v>20</v>
     <v>22</v>
-    <v>WYNDHAM DESTINATIONS, INC. (XNYS:WYND)</v>
-    <v>24</v>
-    <v>26</v>
     <v>Finance</v>
-    <v>21</v>
+    <v>17</v>
     <v>53.13</v>
     <v>13.74</v>
     <v>1.9404999999999999</v>
-    <v>-0.22</v>
-    <v>3.5839999999999999E-3</v>
-    <v>-7.8239999999999994E-3</v>
-    <v>0.1</v>
+    <v>-0.18790000000000001</v>
+    <v>-6.7369999999999999E-3</v>
     <v>USD</v>
     <v>Wyndham Destinations, Inc., formerly Wyndham Worldwide Corporation, is a vacation ownership and exchange company. The Company operates across 110 countries at more than 220 vacation ownership resorts and 4,300 affiliated exchange properties. The Company, through its Wyndham Vacation Clubs business, markets and sells vacation ownership interests and provides consumer financing to owners at a portfolio of brands including: CLUB WYNDHAM, WorldMark by Wyndham, CLUB WYNDHAM ASIA, WorldMark South Pacific Club by Wyndham, Shell Vacations Club, Margaritaville Vacation Club by Wyndham and WYNDHAM CLUB BRASILSM. The Company’s Resort Condominiums International (RCI) exchanges includes RCI India, Dial An Exchange (dae), Love Home Swap, The Registry Collection, TripBeat, @Work International and Armed Forces Vacation Club.</v>
     <v>22500</v>
@@ -7641,26 +7435,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>6277 Sea Harbor Dr, ORLANDO, FL, 32821-8043 US</v>
-    <v>28.35</v>
+    <v>27.96</v>
     <v>198</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>44062.884599860939</v>
+    <v>44063.818950392968</v>
     <v>199</v>
-    <v>27.62</v>
-    <v>2475691000</v>
+    <v>26.96</v>
+    <v>2397260000</v>
     <v>WYNDHAM DESTINATIONS, INC.</v>
     <v>WYNDHAM DESTINATIONS, INC.</v>
-    <v>27.83</v>
+    <v>27.29</v>
     <v>0</v>
-    <v>28.12</v>
-    <v>27.9</v>
-    <v>28</v>
+    <v>27.89</v>
+    <v>27.702100000000002</v>
     <v>85251080</v>
     <v>WYND</v>
     <v>WYNDHAM DESTINATIONS, INC. (XNYS:WYND)</v>
-    <v>1231711</v>
-    <v>969104</v>
+    <v>673766</v>
+    <v>976328</v>
     <v>2003</v>
   </rv>
   <rv s="2">
@@ -7674,11 +7467,11 @@
     <v>http://sv.wikipedia.org/wiki/Las_Vegas_Sands</v>
     <v>Wikipedia</v>
   </rv>
-  <rv s="8">
+  <rv s="7">
     <v>202</v>
     <v>203</v>
   </rv>
-  <rv s="9">
+  <rv s="8">
     <v>https://www.bing.com/th?id=AMMS_0906c9459990b0fab2037038e2dfe1bd&amp;qlt=95</v>
     <v>204</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=las+vegas+sands</v>
@@ -7688,25 +7481,23 @@
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1x7im&amp;q=XNYS%3aLVS&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="10">
+  <rv s="9">
     <v>en-US</v>
     <v>a1x7im</v>
     <v>268435456</v>
     <v>268435457</v>
     <v>1</v>
+    <v>18</v>
+    <v>LAS VEGAS SANDS CORP. (XNYS:LVS)</v>
+    <v>20</v>
     <v>22</v>
-    <v>LAS VEGAS SANDS CORP. (XNYS:LVS)</v>
-    <v>24</v>
-    <v>26</v>
     <v>Finance</v>
-    <v>21</v>
+    <v>17</v>
     <v>74.290000000000006</v>
     <v>33.299999999999997</v>
-    <v>1.5182</v>
-    <v>-0.22</v>
-    <v>-1.8959999999999999E-3</v>
-    <v>-4.6129999999999999E-3</v>
-    <v>-0.09</v>
+    <v>1.5165</v>
+    <v>5.5E-2</v>
+    <v>1.158E-3</v>
     <v>USD</v>
     <v>Las Vegas Sands Corp. is a developer of destination properties (integrated resorts) that feature accommodations, gaming, entertainment and retail, convention and exhibition facilities, celebrity chef restaurants and other amenities. The Company owns and operates integrated resorts in Asia and the United States. The Company's principal operating and developmental activities occur in three geographic areas: Macao, Singapore and the United States. In Macao, the Company's segments include The Venetian Macao; Sands Cotai Central; The Parisian Macao; Four Seasons Macao; Sands Macao, and Other Asia (comprises the Company's ferry operations and various other operations). In Singapore, the Company's segments include Marina Bay Sands. In the United States, the Company's segment is Las Vegas Operating Properties. The Company also offers players club loyalty programs at its properties, which provides access to rewards, privileges and members-only events.</v>
     <v>50000</v>
@@ -7714,26 +7505,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>3355 Las Vegas Blvd S Rm 1A, LAS VEGAS, NV, 89109-8941 US</v>
-    <v>48.48</v>
+    <v>47.782400000000003</v>
     <v>205</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>44062.891172603908</v>
+    <v>44063.818287037036</v>
     <v>206</v>
-    <v>47.22</v>
-    <v>36448700000</v>
+    <v>46.62</v>
+    <v>36425780000</v>
     <v>LAS VEGAS SANDS CORP.</v>
     <v>LAS VEGAS SANDS CORP.</v>
-    <v>48.15</v>
-    <v>109.00320000000001</v>
-    <v>47.69</v>
-    <v>47.47</v>
-    <v>47.38</v>
+    <v>46.86</v>
+    <v>108.5004</v>
+    <v>47.48</v>
+    <v>47.534999999999997</v>
     <v>763803300</v>
     <v>LVS</v>
     <v>LAS VEGAS SANDS CORP. (XNYS:LVS)</v>
-    <v>3586699</v>
-    <v>6347910</v>
+    <v>2363546</v>
+    <v>6226850</v>
     <v>2004</v>
   </rv>
   <rv s="2">
@@ -7743,11 +7533,11 @@
     <v>http://pl.wikipedia.org/wiki/Starbucks</v>
     <v>Wikipedia</v>
   </rv>
-  <rv s="8">
+  <rv s="7">
     <v>144</v>
     <v>209</v>
   </rv>
-  <rv s="9">
+  <rv s="8">
     <v>https://www.bing.com/th?id=AMMS_e27b6f4d10a663f3cbffe838112b48be&amp;qlt=95</v>
     <v>210</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=starbucks</v>
@@ -7757,25 +7547,23 @@
     <v>https://www.bing.com/financeapi/forcetrigger?t=a22k9c&amp;q=XNAS%3aSBUX&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="10">
+  <rv s="9">
     <v>en-US</v>
     <v>a22k9c</v>
     <v>268435456</v>
     <v>268435457</v>
     <v>1</v>
+    <v>18</v>
+    <v>STARBUCKS CORPORATION (XNAS:SBUX)</v>
+    <v>20</v>
     <v>22</v>
-    <v>STARBUCKS CORPORATION (XNAS:SBUX)</v>
-    <v>24</v>
-    <v>26</v>
     <v>Finance</v>
-    <v>27</v>
+    <v>17</v>
     <v>98.14</v>
     <v>50.02</v>
-    <v>0.78180000000000005</v>
-    <v>-1.36</v>
-    <v>0</v>
-    <v>-1.7217E-2</v>
-    <v>0</v>
+    <v>0.77869999999999995</v>
+    <v>-0.40500000000000003</v>
+    <v>-5.2170000000000003E-3</v>
     <v>USD</v>
     <v>Starbucks Corp is a coffee roaster and retailer of specialty coffee with operations in approximately 82 markets around the world. The Company has over 32,000 Company-operated and licensed stores. It operates through three segments: Americas, International and Channel Development. It also sells a variety of coffee and tea products and license its trademarks through other channels, such as licensed stores, grocery and foodservice. It purchases and roasts coffees that it sells, along with handcrafted coffee, tea and other beverages and a variety of food items through Company-operated stores. In addition to its flagship Starbucks Coffee brand, it sells goods and services under various brands, including Teavana, Seattle’s Best Coffee, Evolution Fresh, Ethos, Starbucks Reserve and Princi.</v>
     <v>346000</v>
@@ -7783,26 +7571,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>2401 Utah Ave S, SEATTLE, WA, 98134-1436 US</v>
-    <v>79.385000000000005</v>
+    <v>77.650000000000006</v>
     <v>211</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>44062.903252314813</v>
+    <v>44063.819854872658</v>
     <v>212</v>
-    <v>77.430000000000007</v>
-    <v>92292550000</v>
+    <v>76.4602</v>
+    <v>92339310000</v>
     <v>STARBUCKS CORPORATION</v>
     <v>STARBUCKS CORPORATION</v>
-    <v>79.25</v>
-    <v>71.793400000000005</v>
-    <v>78.989999999999995</v>
+    <v>77.08</v>
+    <v>70.557299999999998</v>
     <v>77.63</v>
-    <v>77.63</v>
+    <v>77.224999999999994</v>
     <v>1169000000</v>
     <v>SBUX</v>
     <v>STARBUCKS CORPORATION (XNAS:SBUX)</v>
-    <v>6835126</v>
-    <v>7876544</v>
+    <v>3963372</v>
+    <v>7738139</v>
     <v>1985</v>
   </rv>
   <rv s="2">
@@ -7812,25 +7599,23 @@
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1zez2&amp;q=XNYS%3aOXY&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="7">
+  <rv s="6">
     <v>en-US</v>
     <v>a1zez2</v>
     <v>268435456</v>
     <v>268435457</v>
     <v>1</v>
-    <v>18</v>
+    <v>14</v>
     <v>OCCIDENTAL PETROLEUM CORPORATION (XNYS:OXY)</v>
-    <v>19</v>
-    <v>20</v>
+    <v>15</v>
+    <v>16</v>
     <v>Finance</v>
-    <v>27</v>
+    <v>17</v>
     <v>48.85</v>
     <v>9</v>
-    <v>1.9874000000000001</v>
-    <v>-0.15</v>
-    <v>1.4480000000000001E-3</v>
-    <v>-1.0744999999999999E-2</v>
-    <v>0.02</v>
+    <v>1.9942</v>
+    <v>-0.32500000000000001</v>
+    <v>-2.3534000000000003E-2</v>
     <v>USD</v>
     <v>Occidental Petroleum Corp is an international oil and gas exploration and production company. The Company has operations in the United States, Middle East and Latin America. It operates through three segments: Oil and Gas, Chemical (OxyChem) and Midstream and Marketing. Its Oil and Gas segment explores for, develops and produces oil and condensate, natural gas liquids (NGLs) and natural gas. Its OxyChem segment primarily manufactures and markets basic chemicals and vinyls. OxyChem also manufactures polyvinyl chloride (PVC) resins, chlorine and caustic soda and has manufacturing facilities in the United States, Canada and Latin America. Midstream and Marketing segment purchases, markets, gathers, processes, transports and stores oil, condensate, NGL, natural gas, carbon dioxide and power. Through its subsidiary, Oxy Low Carbon Ventures, LLC it develops carbon capture, utilization and storage projects that source anthropogenic carbon dioxide.</v>
     <v>14400</v>
@@ -7838,25 +7623,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>5 Greenway Plz Ste 110, HOUSTON, TX, 77046-0521 US</v>
-    <v>14.12</v>
+    <v>13.72</v>
     <v>Oil &amp; Gas</v>
     <v>Stock</v>
-    <v>44062.902858796297</v>
+    <v>44063.819148564064</v>
     <v>215</v>
-    <v>13.75</v>
-    <v>12938280000</v>
+    <v>13.25</v>
+    <v>12975480000</v>
     <v>OCCIDENTAL PETROLEUM CORPORATION</v>
     <v>OCCIDENTAL PETROLEUM CORPORATION</v>
-    <v>13.96</v>
+    <v>13.5</v>
     <v>0</v>
-    <v>13.96</v>
     <v>13.81</v>
-    <v>13.83</v>
+    <v>13.484999999999999</v>
     <v>930142200</v>
     <v>OXY</v>
     <v>OCCIDENTAL PETROLEUM CORPORATION (XNYS:OXY)</v>
-    <v>18101449</v>
-    <v>22555296</v>
+    <v>18448048</v>
+    <v>22368975</v>
     <v>1986</v>
   </rv>
   <rv s="2">
@@ -7870,11 +7654,11 @@
     <v>http://es.wikipedia.org/wiki/Royal_Dutch_Shell</v>
     <v>Wikipedia</v>
   </rv>
-  <rv s="8">
+  <rv s="7">
     <v>218</v>
     <v>219</v>
   </rv>
-  <rv s="9">
+  <rv s="8">
     <v>https://www.bing.com/th?id=AMMS_982b67ee8686548274ef55ed627e1e1f&amp;qlt=95</v>
     <v>220</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=royal+dutch+shell</v>
@@ -7884,25 +7668,23 @@
     <v>https://www.bing.com/financeapi/forcetrigger?t=a21t52&amp;q=XNYS%3aRDS.A&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="10">
+  <rv s="9">
     <v>en-US</v>
     <v>a21t52</v>
     <v>268435456</v>
     <v>268435457</v>
     <v>1</v>
+    <v>18</v>
+    <v>ROYAL DUTCH SHELL PLC (XNYS:RDS.A)</v>
+    <v>20</v>
     <v>22</v>
-    <v>ROYAL DUTCH SHELL PLC (XNYS:RDS.A)</v>
-    <v>24</v>
-    <v>26</v>
     <v>Finance</v>
-    <v>27</v>
+    <v>17</v>
     <v>61.17</v>
     <v>21.254999999999999</v>
-    <v>0.76329999999999998</v>
-    <v>-0.115</v>
-    <v>-8.2170000000000008E-4</v>
-    <v>-3.7659999999999998E-3</v>
-    <v>-2.5000000000000001E-2</v>
+    <v>0.76270000000000004</v>
+    <v>-0.33500000000000002</v>
+    <v>-1.1011E-2</v>
     <v>USD</v>
     <v>The Royal Dutch Shell plc is a company based in the Netherlands that explores for crude oil and natural gas around the world, both in conventional fields and from sources, such as tight rock, shale and coal formations. Its segments include Integrated Gas, Upstream, Downstream and Corporate. The Integrated Gas segment is engaged in the liquefaction and transportation of gas and the conversion of natural gas to liquids to provide fuels and other products, as well as projects with an integrated activity, ranging from producing to commercializing gas. The Upstream segment includes the operations of Upstream, which is engaged in the exploration for and extraction of crude oil, natural gas and natural gas liquids, and the marketing and transportation of oil and gas, and Oil Sands, which is engaged in the extraction of bitumen from mined oil sands and conversion into synthetic crude oil. The Downstream segment is engaged in oil products and chemicals manufacturing, and marketing activities.</v>
     <v>83000</v>
@@ -7910,26 +7692,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>Carel van Bylandtlaan 30, 'S-GRAVENHAGE, ZUID-HOLLAND, 2596 HR NL</v>
-    <v>30.89</v>
+    <v>30.32</v>
     <v>221</v>
     <v>Oil &amp; Gas</v>
     <v>Stock</v>
-    <v>44062.903078703705</v>
+    <v>44063.819328703707</v>
     <v>222</v>
-    <v>30.355</v>
-    <v>117539900000</v>
+    <v>29.95</v>
+    <v>116636300000</v>
     <v>ROYAL DUTCH SHELL PLC</v>
     <v>ROYAL DUTCH SHELL PLC</v>
-    <v>30.58</v>
+    <v>30.13</v>
     <v>0</v>
-    <v>30.54</v>
     <v>30.425000000000001</v>
-    <v>30.4</v>
+    <v>30.09</v>
     <v>3903712000</v>
     <v>RDS.A</v>
     <v>ROYAL DUTCH SHELL PLC (XNYS:RDS.A)</v>
-    <v>3803772</v>
-    <v>5325865</v>
+    <v>4112600</v>
+    <v>5237325</v>
     <v>2002</v>
   </rv>
   <rv s="2">
@@ -7939,25 +7720,23 @@
     <v>https://www.bing.com/financeapi/forcetrigger?t=a25e77&amp;q=XNYS%3aVLO&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="7">
+  <rv s="6">
     <v>en-US</v>
     <v>a25e77</v>
     <v>268435456</v>
     <v>268435457</v>
     <v>1</v>
-    <v>18</v>
+    <v>14</v>
     <v>VALERO ENERGY CORPORATION (XNYS:VLO)</v>
-    <v>19</v>
-    <v>20</v>
+    <v>15</v>
+    <v>16</v>
     <v>Finance</v>
-    <v>27</v>
+    <v>17</v>
     <v>101.99</v>
     <v>31</v>
-    <v>1.9097</v>
-    <v>-0.47499999999999998</v>
-    <v>4.1460000000000004E-3</v>
-    <v>-8.6759999999999997E-3</v>
-    <v>0.22500000000000001</v>
+    <v>1.9133</v>
+    <v>-1.4650000000000001</v>
+    <v>-2.6991999999999999E-2</v>
     <v>USD</v>
     <v>Valero Energy Corporation (Valero) is an independent petroleum refiner and ethanol producer. The Company's segments include refining, ethanol and Valero Energy Partners LP (VLP). The refining segment includes its refining operations and the associated marketing activities. The ethanol segment includes its ethanol operations and the associated marketing activities, and logistics assets that support its ethanol operations. The Company owns logistics assets (crude oil pipelines, refined petroleum product pipelines, terminals, tanks, marine docks, truck rack bays and other assets) that support its refining operations. Some of these assets are owned by VLP, which is a midstream master limited partnership owned by the Company. VLP's assets include crude oil and refined petroleum products pipeline and terminal systems in the United States Gulf Coast and the United States Mid-Continent regions. Its refineries produce conventional gasolines, premium gasolines and lubricants, among others.</v>
     <v>10222</v>
@@ -7965,25 +7744,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>PO Box 696000, SAN ANTONIO, TX, 78269-6000 US</v>
-    <v>54.979900000000001</v>
+    <v>53.94</v>
     <v>Oil &amp; Gas</v>
     <v>Stock</v>
-    <v>44062.903263888889</v>
+    <v>44063.819283760939</v>
     <v>225</v>
-    <v>53.68</v>
-    <v>22671300000</v>
+    <v>52</v>
+    <v>22320630000</v>
     <v>VALERO ENERGY CORPORATION</v>
     <v>VALERO ENERGY CORPORATION</v>
-    <v>54.48</v>
-    <v>21.135400000000001</v>
-    <v>54.75</v>
+    <v>53.68</v>
+    <v>20.95</v>
     <v>54.274999999999999</v>
-    <v>54.5</v>
+    <v>52.81</v>
     <v>407757300</v>
     <v>VLO</v>
     <v>VALERO ENERGY CORPORATION (XNYS:VLO)</v>
-    <v>3029708</v>
-    <v>3944418</v>
+    <v>2849864</v>
+    <v>3908009</v>
     <v>1981</v>
   </rv>
   <rv s="2">
@@ -7993,11 +7771,11 @@
     <v>http://en.wikipedia.org/wiki/ExxonMobil</v>
     <v>Wikipedia</v>
   </rv>
-  <rv s="8">
+  <rv s="7">
     <v>144</v>
     <v>228</v>
   </rv>
-  <rv s="9">
+  <rv s="8">
     <v>https://www.bing.com/th?id=AMMS_a92fdfeb8644bf85ee9299accf15739c&amp;qlt=95</v>
     <v>229</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=exxonmobil</v>
@@ -8007,25 +7785,23 @@
     <v>https://www.bing.com/financeapi/forcetrigger?t=a269ec&amp;q=XNYS%3aXOM&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="10">
+  <rv s="9">
     <v>en-US</v>
     <v>a269ec</v>
     <v>268435456</v>
     <v>268435457</v>
     <v>1</v>
+    <v>18</v>
+    <v>EXXON MOBIL CORPORATION (XNYS:XOM)</v>
+    <v>20</v>
     <v>22</v>
-    <v>EXXON MOBIL CORPORATION (XNYS:XOM)</v>
-    <v>24</v>
-    <v>26</v>
     <v>Finance</v>
-    <v>27</v>
+    <v>17</v>
     <v>75.180000000000007</v>
     <v>30.11</v>
-    <v>1.3251999999999999</v>
+    <v>1.325</v>
     <v>-0.46</v>
-    <v>9.5330000000000002E-4</v>
-    <v>-1.0843999999999999E-2</v>
-    <v>0.04</v>
+    <v>-1.0963000000000001E-2</v>
     <v>USD</v>
     <v>Exxon Mobil Corporation is engaged in energy business. The Company is engaged in the exploration, production, transportation and sale of crude oil and natural gas, and the manufacture, transportation and sale of petroleum products. The Company also manufactures and markets commodity petrochemicals, including olefins, aromatics, polyethylene and polypropylene plastics, and a range of specialty products. The Company's segments include Upstream, Downstream, Chemical, and Corporate and Financing. The Upstream segment operates to explore for and produce crude oil and natural gas. The Downstream operates to manufacture and sell petroleum products. The Chemical segment operates to manufacture and sell petrochemicals. The Company has exploration and development activities in projects located in the United States, Canada/South America, Europe, Africa, Asia and Australia/Oceania.</v>
     <v>74900</v>
@@ -8033,26 +7809,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>5959 LAS COLINAS BLVD, IRVING, TX, 75039-2298 US</v>
-    <v>42.655000000000001</v>
+    <v>41.884999999999998</v>
     <v>230</v>
     <v>Oil &amp; Gas</v>
     <v>Stock</v>
-    <v>44062.903090277781</v>
+    <v>44063.819444953122</v>
     <v>231</v>
-    <v>41.865000000000002</v>
-    <v>180291900000</v>
+    <v>41.33</v>
+    <v>179403900000</v>
     <v>EXXON MOBIL CORPORATION</v>
     <v>EXXON MOBIL CORPORATION</v>
-    <v>42.31</v>
-    <v>28.178999999999998</v>
-    <v>42.42</v>
+    <v>41.69</v>
+    <v>27.866900000000001</v>
     <v>41.96</v>
-    <v>42</v>
+    <v>41.5</v>
     <v>4228233000</v>
     <v>XOM</v>
     <v>EXXON MOBIL CORPORATION (XNYS:XOM)</v>
-    <v>14449046</v>
-    <v>19749194</v>
+    <v>10737762</v>
+    <v>19634819</v>
     <v>1882</v>
   </rv>
   <rv s="2">
@@ -8062,11 +7837,11 @@
     <v>http://ja.wikipedia.org/wiki/コノコフィリップス</v>
     <v>Wikipedia</v>
   </rv>
-  <rv s="8">
+  <rv s="7">
     <v>144</v>
     <v>234</v>
   </rv>
-  <rv s="9">
+  <rv s="8">
     <v>https://www.bing.com/th?id=AMMS_328c42228a7a7c01496b8aa73b7a09ba&amp;qlt=95</v>
     <v>235</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=conocophillips</v>
@@ -8076,25 +7851,23 @@
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1q5nm&amp;q=XNYS%3aCOP&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="10">
+  <rv s="9">
     <v>en-US</v>
     <v>a1q5nm</v>
     <v>268435456</v>
     <v>268435457</v>
     <v>1</v>
+    <v>18</v>
+    <v>CONOCOPHILLIPS (XNYS:COP)</v>
+    <v>20</v>
     <v>22</v>
-    <v>CONOCOPHILLIPS (XNYS:COP)</v>
-    <v>24</v>
-    <v>26</v>
     <v>Finance</v>
-    <v>27</v>
+    <v>17</v>
     <v>67.13</v>
     <v>20.84</v>
-    <v>1.7001999999999999</v>
-    <v>-0.67</v>
-    <v>-2.774E-3</v>
-    <v>-1.6617E-2</v>
-    <v>-0.11</v>
+    <v>1.6966000000000001</v>
+    <v>-0.77</v>
+    <v>-1.942E-2</v>
     <v>USD</v>
     <v>ConocoPhillips is an independent exploration and production company. The Company explores for, produces, transports and markets crude oil, bitumen, natural gas, liquefied natural gas (LNG) and natural gas liquids. The Company operates through six segments: Alaska, Lower 48, Canada, Europe and North Africa, Asia Pacific and Middle East, and Other International. The Alaska segment explores for, produces, transports and markets crude oil, natural gas liquids, natural gas and LNG. The Lower 48 segment consists of operations located in the United States Lower 48 states and the Gulf of Mexico. Its Canadian operations consists of oil sands developments in the Athabasca Region of northeastern Alberta. The Europe and North Africa segment consists of operations and exploration activities in Norway and Libya. The Asia Pacific and Middle East segment has exploration and production operations in China, Indonesia and Malaysia.</v>
     <v>9700</v>
@@ -8102,26 +7875,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>925 N Eldridge Pkwy, HOUSTON, TX, 77079-2703 US</v>
-    <v>40.32</v>
+    <v>39.31</v>
     <v>236</v>
     <v>Oil &amp; Gas</v>
     <v>Stock</v>
-    <v>44062.895185185182</v>
+    <v>44063.819398148145</v>
     <v>237</v>
-    <v>39.53</v>
-    <v>43653450000</v>
+    <v>38.729999999999997</v>
+    <v>43256590000</v>
     <v>CONOCOPHILLIPS</v>
     <v>CONOCOPHILLIPS</v>
-    <v>40.119999999999997</v>
-    <v>19.792300000000001</v>
-    <v>40.32</v>
+    <v>39.049999999999997</v>
+    <v>19.458600000000001</v>
     <v>39.65</v>
-    <v>39.54</v>
+    <v>38.880000000000003</v>
     <v>1072566000</v>
     <v>COP</v>
     <v>CONOCOPHILLIPS (XNYS:COP)</v>
-    <v>4525940</v>
-    <v>6713639</v>
+    <v>2770467</v>
+    <v>6663610</v>
     <v>2001</v>
   </rv>
   <rv s="2">
@@ -8131,41 +7903,38 @@
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1xrr7&amp;q=XNYS%3aMMP&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="11">
+  <rv s="10">
     <v>en-US</v>
     <v>a1xrr7</v>
     <v>268435456</v>
     <v>268435459</v>
     <v>1</v>
-    <v>28</v>
+    <v>23</v>
     <v>MAGELLAN MIDSTREAM PARTNERS UNT (XNYS:MMP)</v>
     <v>2</v>
-    <v>29</v>
+    <v>24</v>
     <v>Finance</v>
-    <v>5</v>
+    <v>4</v>
     <v>67.75</v>
     <v>22.02</v>
-    <v>0.19</v>
-    <v>0</v>
-    <v>4.614E-3</v>
-    <v>0</v>
+    <v>-0.28000000000000003</v>
+    <v>-6.7669999999999996E-3</v>
     <v>USD</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
-    <v>41.72</v>
+    <v>41.22</v>
     <v>ETF</v>
-    <v>44062.863086805468</v>
+    <v>44063.818715219531</v>
     <v>240</v>
-    <v>41</v>
+    <v>40.57</v>
     <v>MAGELLAN MIDSTREAM PARTNERS UNT</v>
-    <v>41.14</v>
-    <v>41.18</v>
-    <v>41.37</v>
-    <v>41.37</v>
+    <v>41.05</v>
+    <v>41.38</v>
+    <v>41.1</v>
     <v>MMP</v>
     <v>MAGELLAN MIDSTREAM PARTNERS UNT (XNYS:MMP)</v>
-    <v>961949</v>
-    <v>1107888</v>
+    <v>664785</v>
+    <v>1096515</v>
   </rv>
   <rv s="2">
     <v>241</v>
@@ -8174,11 +7943,11 @@
     <v>http://en.wikipedia.org/wiki/Chevron_Corporation</v>
     <v>Wikipedia</v>
   </rv>
-  <rv s="8">
+  <rv s="7">
     <v>144</v>
     <v>243</v>
   </rv>
-  <rv s="9">
+  <rv s="8">
     <v>https://www.bing.com/th?id=AMMS_2d49dc55c1faf81186e7649c0d153e02&amp;qlt=95</v>
     <v>244</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=chevron+corporation</v>
@@ -8188,25 +7957,23 @@
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1qlz2&amp;q=XNYS%3aCVX&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="10">
+  <rv s="9">
     <v>en-US</v>
     <v>a1qlz2</v>
     <v>268435456</v>
     <v>268435457</v>
     <v>1</v>
+    <v>18</v>
+    <v>CHEVRON CORPORATION (XNYS:CVX)</v>
+    <v>20</v>
     <v>22</v>
-    <v>CHEVRON CORPORATION (XNYS:CVX)</v>
-    <v>24</v>
-    <v>26</v>
     <v>Finance</v>
-    <v>27</v>
+    <v>17</v>
     <v>125.27</v>
     <v>51.6</v>
-    <v>1.2604</v>
-    <v>-1.2</v>
-    <v>0</v>
-    <v>-1.3698999999999999E-2</v>
-    <v>0</v>
+    <v>1.2582</v>
+    <v>-1.32</v>
+    <v>-1.5278E-2</v>
     <v>USD</v>
     <v>Chevron Corporation (Chevron) manages its investments in subsidiaries and affiliates, and provides administrative, financial, management and technology support to the United States and international subsidiaries that engage in integrated energy and chemicals operations. The Company operates through two business segments: Upstream and Downstream. Upstream operations consist primarily of exploring for, developing and producing crude oil and natural gas; liquefaction, transportation and regasification associated with liquefied natural gas; transporting crude oil by international oil export pipelines; processing, transporting, storage and marketing of natural gas, and a gas-to-liquids plant. Downstream operations consist primarily of refining of crude oil into petroleum products; marketing of crude oil and refined products; transporting of crude oil and refined products, and manufacturing and marketing of commodity petrochemicals.</v>
     <v>48200</v>
@@ -8214,26 +7981,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>6001 Bollinger Canyon Rd, SAN RAMON, CA, 94583-2324 US</v>
-    <v>87.88</v>
+    <v>86.89</v>
     <v>245</v>
     <v>Oil &amp; Gas</v>
     <v>Stock</v>
-    <v>44062.904166666667</v>
+    <v>44063.819566990627</v>
     <v>246</v>
-    <v>86.200299999999999</v>
+    <v>84.73</v>
     <v>163628700000</v>
     <v>CHEVRON CORPORATION</v>
     <v>CHEVRON CORPORATION</v>
-    <v>87.54</v>
+    <v>85.37</v>
     <v>0</v>
-    <v>87.6</v>
     <v>86.4</v>
-    <v>86.4</v>
+    <v>85.08</v>
     <v>1867268000</v>
     <v>CVX</v>
     <v>CHEVRON CORPORATION (XNYS:CVX)</v>
-    <v>9115301</v>
-    <v>8823607</v>
+    <v>5662215</v>
+    <v>8951009</v>
     <v>1926</v>
   </rv>
   <rv s="2">
@@ -8243,11 +8009,11 @@
     <v>http://en.wikipedia.org/wiki/H&amp;R_Block</v>
     <v>Wikipedia</v>
   </rv>
-  <rv s="8">
+  <rv s="7">
     <v>144</v>
     <v>249</v>
   </rv>
-  <rv s="9">
+  <rv s="8">
     <v>https://www.bing.com/th?id=AMMS_d132f0c8d3455e1bb112e94f5d892d58&amp;qlt=95</v>
     <v>250</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=h%26r+block</v>
@@ -8257,25 +8023,23 @@
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1uuvh&amp;q=XNYS%3aHRB&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="10">
+  <rv s="9">
     <v>en-US</v>
     <v>a1uuvh</v>
     <v>268435456</v>
     <v>268435457</v>
     <v>1</v>
+    <v>18</v>
+    <v>H &amp; R BLOCK, INC. (XNYS:HRB)</v>
+    <v>20</v>
     <v>22</v>
-    <v>H &amp; R BLOCK, INC. (XNYS:HRB)</v>
-    <v>24</v>
-    <v>26</v>
     <v>Finance</v>
-    <v>21</v>
-    <v>27.84</v>
+    <v>17</v>
+    <v>27.704999999999998</v>
     <v>11.290100000000001</v>
-    <v>0.84509999999999996</v>
-    <v>-0.17</v>
-    <v>1.6271000000000001E-2</v>
-    <v>-1.1394E-2</v>
-    <v>0.24</v>
+    <v>0.84279999999999999</v>
+    <v>-0.42499999999999999</v>
+    <v>-2.8814000000000003E-2</v>
     <v>USD</v>
     <v>H&amp;R Block, Inc. (H&amp;R Block), through its subsidiaries, provides tax preparation and other services. The Company provides assisted income tax return preparation, digital do-it-yourself (DIY) tax solutions and other services and products related to income tax return preparation to the general public primarily in the United States, Canada, Australia and their respective territories. Assisted income tax return preparation and related services are provided by tax professionals through a system of retail offices operated directly by the Company or its franchisees. It offers tax support, planning, and business accounting and advisory services to its clients. The Company offers a range of online tax services, including preparation of federal and state income tax returns, review of tax returns by a tax professional, access to tax tips, advice and tax-related news, use of calculators for tax planning, error checking and electronic filing.</v>
     <v>3500</v>
@@ -8283,26 +8047,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1 H And R Block Way, KANSAS CITY, MO, 64105-1905 US</v>
-    <v>15.0755</v>
+    <v>14.68</v>
     <v>251</v>
     <v>Personal &amp; Household Products &amp; Services</v>
     <v>Stock</v>
-    <v>44062.865745705472</v>
+    <v>44063.819280971875</v>
     <v>252</v>
-    <v>14.72</v>
-    <v>2919798000</v>
+    <v>14.305</v>
+    <v>2877370000</v>
     <v>H &amp; R BLOCK, INC.</v>
     <v>H &amp; R BLOCK, INC.</v>
-    <v>14.81</v>
-    <v>156.52539999999999</v>
-    <v>14.92</v>
+    <v>14.63</v>
+    <v>154.74189999999999</v>
     <v>14.75</v>
-    <v>14.99</v>
+    <v>14.324999999999999</v>
     <v>192853200</v>
     <v>HRB</v>
     <v>H &amp; R BLOCK, INC. (XNYS:HRB)</v>
-    <v>1490909</v>
-    <v>3027592</v>
+    <v>1360415</v>
+    <v>2891242</v>
     <v>1955</v>
   </rv>
   <rv s="2">
@@ -8312,25 +8075,23 @@
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1zfsm&amp;q=XNYS%3aPAG&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="7">
+  <rv s="6">
     <v>en-US</v>
     <v>a1zfsm</v>
     <v>268435456</v>
     <v>268435457</v>
     <v>1</v>
-    <v>18</v>
+    <v>14</v>
     <v>PENSKE AUTOMOTIVE GROUP, INC. (XNYS:PAG)</v>
-    <v>19</v>
-    <v>20</v>
+    <v>15</v>
+    <v>16</v>
     <v>Finance</v>
-    <v>21</v>
+    <v>17</v>
     <v>53.81</v>
     <v>19.989999999999998</v>
-    <v>1.7514000000000001</v>
-    <v>-0.93</v>
-    <v>0</v>
-    <v>-1.8998999999999999E-2</v>
-    <v>0</v>
+    <v>1.7468999999999999</v>
+    <v>-0.28000000000000003</v>
+    <v>-5.8279999999999998E-3</v>
     <v>USD</v>
     <v>Penske Automotive Group, Inc. is an international transportation services company. The Company operates automotive and commercial truck dealerships principally in the United States, Canada and Western Europe, and distributes commercial vehicles, diesel engines, gas engines, power systems, and related parts and services principally in Australia and New Zealand. The Company's segments include Retail Automotive, consisting of its retail automotive dealership operations; Retail Commercial Truck, consisting of its retail commercial truck dealership operations in the United States and Canada; Other, consisting of its commercial vehicle and power systems distribution operations and other non-automotive consolidated operations, and Non-Automotive Investments, consisting of its equity method investments in non-automotive operations. The Company holds interests in Penske Truck Leasing Co., L.P. (PTL), a provider of transportation services and supply chain management.</v>
     <v>27000</v>
@@ -8338,25 +8099,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>2555 S Telegraph Rd, BLOOMFIELD HILLS, MI, 48302-0912 US</v>
-    <v>48.94</v>
+    <v>48.04</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>44062.840277777781</v>
+    <v>44063.81931712963</v>
     <v>255</v>
-    <v>47.68</v>
-    <v>3889151000</v>
+    <v>47.41</v>
+    <v>3932533000</v>
     <v>PENSKE AUTOMOTIVE GROUP, INC.</v>
     <v>PENSKE AUTOMOTIVE GROUP, INC.</v>
-    <v>48.94</v>
-    <v>12.6533</v>
-    <v>48.95</v>
-    <v>48.02</v>
-    <v>48.02</v>
+    <v>47.41</v>
+    <v>12.4129</v>
+    <v>48.04</v>
+    <v>47.76</v>
     <v>80337760</v>
     <v>PAG</v>
     <v>PENSKE AUTOMOTIVE GROUP, INC. (XNYS:PAG)</v>
-    <v>280685</v>
-    <v>352857</v>
+    <v>163739</v>
+    <v>348156</v>
     <v>1990</v>
   </rv>
   <rv s="2">
@@ -8366,25 +8126,23 @@
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1r4dm&amp;q=XNYS%3aDKS&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="7">
+  <rv s="6">
     <v>en-US</v>
     <v>a1r4dm</v>
     <v>268435456</v>
     <v>268435457</v>
     <v>1</v>
-    <v>18</v>
+    <v>14</v>
     <v>DICK'S SPORTING GOODS, INC. (XNYS:DKS)</v>
-    <v>19</v>
-    <v>20</v>
+    <v>15</v>
+    <v>16</v>
     <v>Finance</v>
-    <v>21</v>
+    <v>17</v>
     <v>49.8</v>
     <v>13.46</v>
-    <v>1.6759999999999999</v>
-    <v>1.59</v>
-    <v>9.4640000000000002E-3</v>
-    <v>3.5411999999999999E-2</v>
-    <v>0.44</v>
+    <v>1.6877</v>
+    <v>-1.33</v>
+    <v>-2.8601999999999999E-2</v>
     <v>USD</v>
     <v>Dick's Sporting Goods, Inc. is an omni-channel sporting goods retailer offering an assortment of sports equipment, apparel, footwear and accessories in its specialty retail stores primarily in the eastern United States. The Company also owns and operates Golf Galaxy, Field &amp; Stream and other specialty concept stores, and Dick's Team Sports HQ, an all-in-one youth sports digital platform offering free league management services, mobile applications for scheduling, communications and live scorekeeping, custom uniforms and FanWear and access to donations and sponsorships. The Company offers its products through a content-rich e-commerce platform that is integrated with its store network and provides customers with the convenience and expertise of a 24-hour storefront. It offers products to its customers through its retail stores and online. The Company offers hardlines, which include items, such as sporting goods equipment, fitness equipment, golf equipment, and hunting and fishing gear.</v>
     <v>15300</v>
@@ -8392,25 +8150,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>345 Court St, CORAOPOLIS, PA, 15108-3817 US</v>
-    <v>46.63</v>
+    <v>46.12</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>44062.863677800779</v>
+    <v>44063.819300022653</v>
     <v>258</v>
-    <v>44.5</v>
-    <v>4091319000</v>
+    <v>45.01</v>
+    <v>4016184000</v>
     <v>DICK'S SPORTING GOODS, INC.</v>
     <v>DICK'S SPORTING GOODS, INC.</v>
-    <v>44.5</v>
-    <v>43.730600000000003</v>
-    <v>44.9</v>
-    <v>46.49</v>
-    <v>46.93</v>
+    <v>45.78</v>
+    <v>45.279200000000003</v>
+    <v>46.5</v>
+    <v>45.17</v>
     <v>89447300</v>
     <v>DKS</v>
     <v>DICK'S SPORTING GOODS, INC. (XNYS:DKS)</v>
-    <v>2056480</v>
-    <v>1946080</v>
+    <v>1361556</v>
+    <v>1941040</v>
     <v>1996</v>
   </rv>
   <rv s="2">
@@ -8420,11 +8177,11 @@
     <v>http://en.wikipedia.org/wiki/Lowe's</v>
     <v>Wikipedia</v>
   </rv>
-  <rv s="8">
+  <rv s="7">
     <v>144</v>
     <v>261</v>
   </rv>
-  <rv s="9">
+  <rv s="8">
     <v>https://www.bing.com/th?id=AMMS_4afbc0a090454dfb219470553edb70e4&amp;qlt=95</v>
     <v>262</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=lowe%27s</v>
@@ -8434,25 +8191,23 @@
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1x2ur&amp;q=XNYS%3aLOW&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="10">
+  <rv s="9">
     <v>en-US</v>
     <v>a1x2ur</v>
     <v>268435456</v>
     <v>268435457</v>
     <v>1</v>
+    <v>18</v>
+    <v>LOWE'S COMPANIES, INC. (XNYS:LOW)</v>
+    <v>20</v>
     <v>22</v>
-    <v>LOWE'S COMPANIES, INC. (XNYS:LOW)</v>
-    <v>24</v>
-    <v>26</v>
     <v>Finance</v>
-    <v>27</v>
-    <v>160.6046</v>
+    <v>17</v>
+    <v>162.88999999999999</v>
     <v>60</v>
-    <v>1.4881</v>
-    <v>0.36</v>
-    <v>-1.4519999999999999E-3</v>
-    <v>2.2789999999999998E-3</v>
-    <v>-0.23</v>
+    <v>1.4898</v>
+    <v>0.21</v>
+    <v>1.3259999999999999E-3</v>
     <v>USD</v>
     <v>Lowe's Companies, Inc. (Lowe's) is a home improvement company. The Company operates approximately 2,370 home improvement and hardware stores. The Company offers a range of products for maintenance, repair, remodeling and decorating. The Company offers home improvement products in categories, including Lumber and Building Materials; Tools and Hardware; Appliances; Fashion Fixtures; Rough Plumbing and Electrical; Lawn and Garden; Seasonal and Outdoor Living; Paint; Flooring; Millwork, and Kitchens. The Company also supports the communities that focus on K-12 public education and community improvement projects. The Company serves its customers in the United States, Canada and Mexico.</v>
     <v>200000</v>
@@ -8460,26 +8215,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1000 Lowes Blvd, MOORESVILLE, NC, 28117-8520 US</v>
-    <v>162.88999999999999</v>
+    <v>159.1627</v>
     <v>263</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>44062.901562500003</v>
+    <v>44063.818847753908</v>
     <v>264</v>
-    <v>156.27000000000001</v>
-    <v>119600000000</v>
+    <v>156.5052</v>
+    <v>119222500000</v>
     <v>LOWE'S COMPANIES, INC.</v>
     <v>LOWE'S COMPANIES, INC.</v>
-    <v>161</v>
-    <v>26.648099999999999</v>
-    <v>157.99</v>
+    <v>156.9</v>
+    <v>26.710599999999999</v>
     <v>158.35</v>
-    <v>158.12</v>
+    <v>158.56</v>
     <v>755002800</v>
     <v>LOW</v>
     <v>LOWE'S COMPANIES, INC. (XNYS:LOW)</v>
-    <v>9718663</v>
-    <v>3424850</v>
+    <v>3374306</v>
+    <v>3674088</v>
     <v>1952</v>
   </rv>
   <rv s="2">
@@ -8489,11 +8243,11 @@
     <v>http://en.wikipedia.org/wiki/AT&amp;T</v>
     <v>Wikipedia</v>
   </rv>
-  <rv s="8">
+  <rv s="7">
     <v>144</v>
     <v>267</v>
   </rv>
-  <rv s="9">
+  <rv s="8">
     <v>https://www.bing.com/th?id=AMMS_22edc37b3d4ca713a66f23973844e621&amp;qlt=95</v>
     <v>268</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=at%26t</v>
@@ -8503,25 +8257,23 @@
     <v>https://www.bing.com/financeapi/forcetrigger?t=a23www&amp;q=XNYS%3aT&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="10">
+  <rv s="9">
     <v>en-US</v>
     <v>a23www</v>
     <v>268435456</v>
     <v>268435457</v>
     <v>1</v>
+    <v>18</v>
+    <v>AT&amp;T INC. (XNYS:T)</v>
+    <v>20</v>
     <v>22</v>
-    <v>AT&amp;T INC. (XNYS:T)</v>
-    <v>24</v>
-    <v>26</v>
     <v>Finance</v>
-    <v>27</v>
+    <v>17</v>
     <v>39.700000000000003</v>
     <v>26.08</v>
-    <v>0.65849999999999997</v>
-    <v>-4.4999999999999998E-2</v>
-    <v>6.7250000000000003E-4</v>
-    <v>-1.5110000000000002E-3</v>
-    <v>0.02</v>
+    <v>0.65920000000000001</v>
+    <v>-5.5E-2</v>
+    <v>-1.8490000000000002E-3</v>
     <v>USD</v>
     <v>AT&amp;T Inc. is a holding company. The Company is a provider of telecommunications, media and technology services globally. The Company operates through four segments: Communication segment, WarnerMedia segment, Latin America segment and Xandr segment. The Communications segment provides wireless and wireline telecom, video and broadband services to consumers.The business units of the Communication segment includes Mobility, Entertainment Group and Business Wireline. The WarnerMedia segment develops, produces and distributes feature films, television, gaming and other content over various physical and digital formats. The business units of the WarnerMedia segment includes Turner, Home Box Office and Warner Bros. Latin America segment provides entertainment services in Latin America and wireless services in Mexico. Viro and Mexico are the business units of the Latin America segment. The Xandr segment provides advertising services.</v>
     <v>243000</v>
@@ -8529,26 +8281,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>208 S Akard St, DALLAS, TX, 75202-4206 US</v>
-    <v>29.89</v>
+    <v>29.875</v>
     <v>269</v>
     <v>Telecommunications Services</v>
     <v>Stock</v>
-    <v>44062.903819444444</v>
+    <v>44063.818807870368</v>
     <v>270</v>
-    <v>29.68</v>
-    <v>212681300000</v>
+    <v>29.5</v>
+    <v>212253800000</v>
     <v>AT&amp;T INC.</v>
     <v>AT&amp;T INC.</v>
-    <v>29.81</v>
-    <v>18.250800000000002</v>
-    <v>29.785</v>
+    <v>29.54</v>
+    <v>18.213999999999999</v>
     <v>29.74</v>
-    <v>29.76</v>
+    <v>29.684999999999999</v>
     <v>7125000000</v>
     <v>T</v>
     <v>AT&amp;T INC. (XNYS:T)</v>
-    <v>24761433</v>
-    <v>30875931</v>
+    <v>17775239</v>
+    <v>30628891</v>
     <v>1983</v>
   </rv>
   <rv s="2">
@@ -8558,7 +8309,7 @@
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="12">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="11">
   <s t="_hyperlink">
     <k n="Address" t="s"/>
     <k n="Text" t="s"/>
@@ -8579,9 +8330,7 @@
     <k n="52 week low"/>
     <k n="Beta"/>
     <k n="Change"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Exchange" t="s"/>
     <k n="Exchange abbreviation" t="s"/>
@@ -8596,7 +8345,6 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
     <k n="Volume"/>
@@ -8656,9 +8404,7 @@
     <k n="52 week high"/>
     <k n="52 week low"/>
     <k n="Change"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Exchange" t="s"/>
     <k n="Exchange abbreviation" t="s"/>
@@ -8673,7 +8419,6 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
     <k n="Volume"/>
@@ -8727,48 +8472,9 @@
     <k n="_SubLabel" t="spb"/>
     <k n="52 week high"/>
     <k n="52 week low"/>
-    <k n="Change"/>
-    <k n="Change % (Extended hours)"/>
-    <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Currency" t="s"/>
-    <k n="Exchange" t="s"/>
-    <k n="Exchange abbreviation" t="s"/>
-    <k n="High"/>
-    <k n="Instrument type" t="s"/>
-    <k n="Last trade time"/>
-    <k n="LearnMoreOnLink" t="r"/>
-    <k n="Low"/>
-    <k n="Market cap"/>
-    <k n="Name" t="s"/>
-    <k n="Open"/>
-    <k n="Previous close"/>
-    <k n="Price"/>
-    <k n="Price (Extended hours)"/>
-    <k n="Ticker symbol" t="s"/>
-    <k n="UniqueName" t="s"/>
-    <k n="Volume"/>
-    <k n="Volume average"/>
-  </s>
-  <s t="_linkedentitycore">
-    <k n="%EntityCulture" t="s"/>
-    <k n="%EntityId" t="s"/>
-    <k n="%EntityServiceId"/>
-    <k n="%EntitySubDomainId"/>
-    <k n="%IsRefreshable" t="b"/>
-    <k n="_Display" t="spb"/>
-    <k n="_DisplayString" t="s"/>
-    <k n="_Flags" t="spb"/>
-    <k n="_Format" t="spb"/>
-    <k n="_Icon" t="s"/>
-    <k n="_SubLabel" t="spb"/>
-    <k n="52 week high"/>
-    <k n="52 week low"/>
     <k n="Beta"/>
     <k n="Change"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -8789,7 +8495,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -8823,9 +8528,7 @@
     <k n="52 week low"/>
     <k n="Beta"/>
     <k n="Change"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -8847,7 +8550,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -8870,9 +8572,7 @@
     <k n="52 week high"/>
     <k n="52 week low"/>
     <k n="Change"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Exchange" t="s"/>
     <k n="Exchange abbreviation" t="s"/>
@@ -8885,7 +8585,6 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
     <k n="Volume"/>
@@ -8896,8 +8595,8 @@
 
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
-  <spbArrays count="8">
-    <a count="37">
+  <spbArrays count="7">
+    <a count="34">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%EntitySubDomainId</v>
@@ -8908,16 +8607,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Expense ratio</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -8972,7 +8668,7 @@
       <v t="s">LearnMoreOnLink</v>
       <v t="s">_Display</v>
     </a>
-    <a count="36">
+    <a count="33">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%EntitySubDomainId</v>
@@ -8983,16 +8679,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Expense ratio</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -9044,7 +8737,7 @@
       <v t="s">LearnMoreOnLink</v>
       <v t="s">_Display</v>
     </a>
-    <a count="35">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%EntitySubDomainId</v>
@@ -9055,53 +8748,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
-      <v t="s">Exchange</v>
-      <v t="s">Last trade time</v>
-      <v t="s">Ticker symbol</v>
-      <v t="s">Exchange abbreviation</v>
-      <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
-      <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
-      <v t="s">Currency</v>
-      <v t="s">Previous close</v>
-      <v t="s">Open</v>
-      <v t="s">High</v>
-      <v t="s">Low</v>
-      <v t="s">52 week high</v>
-      <v t="s">52 week low</v>
-      <v t="s">Volume</v>
-      <v t="s">Volume average</v>
-      <v t="s">Market cap</v>
-      <v t="s">Instrument type</v>
-      <v t="s">_Flags</v>
-      <v t="s">UniqueName</v>
-      <v t="s">_DisplayString</v>
-      <v t="s">LearnMoreOnLink</v>
-      <v t="s">_Display</v>
-    </a>
-    <a count="45">
-      <v t="s">%EntityServiceId</v>
-      <v t="s">_Format</v>
-      <v t="s">%EntitySubDomainId</v>
-      <v t="s">%EntityCulture</v>
-      <v t="s">%IsRefreshable</v>
-      <v t="s">%EntityId</v>
-      <v t="s">_Icon</v>
-      <v t="s">Name</v>
-      <v t="s">_SubLabel</v>
-      <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -9128,7 +8781,7 @@
       <v t="s">ExchangeID</v>
       <v t="s">_Display</v>
     </a>
-    <a count="46">
+    <a count="43">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%EntitySubDomainId</v>
@@ -9139,16 +8792,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -9176,7 +8826,7 @@
       <v t="s">ExchangeID</v>
       <v t="s">_Display</v>
     </a>
-    <a count="34">
+    <a count="31">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%EntitySubDomainId</v>
@@ -9187,15 +8837,12 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -9213,7 +8860,7 @@
       <v t="s">_Display</v>
     </a>
   </spbArrays>
-  <spbData count="30">
+  <spbData count="25">
     <spb s="0">
       <v>0</v>
     </spb>
@@ -9245,29 +8892,13 @@
       <v>8</v>
       <v>9</v>
       <v>9</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>Source: Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
-      <v>from close</v>
-      <v>from close</v>
-    </spb>
-    <spb s="4">
-      <v>at close</v>
-      <v>from previous close</v>
-      <v>Source: Nasdaq</v>
-      <v>from previous close</v>
-      <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
     <spb s="0">
       <v>1</v>
@@ -9326,9 +8957,6 @@
       <v>8</v>
       <v>9</v>
       <v>9</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="0">
       <v>3</v>
@@ -9352,7 +8980,7 @@
       <v>9</v>
       <v>9</v>
     </spb>
-    <spb s="10">
+    <spb s="4">
       <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
@@ -9362,45 +8990,11 @@
     <spb s="0">
       <v>4</v>
     </spb>
-    <spb s="11">
-      <v>1</v>
-      <v>1</v>
-      <v>3</v>
-      <v>1</v>
-      <v>1</v>
-      <v>1</v>
-      <v>4</v>
-      <v>5</v>
-      <v>6</v>
-      <v>1</v>
-      <v>1</v>
-      <v>1</v>
-      <v>4</v>
-      <v>7</v>
-      <v>8</v>
-      <v>9</v>
-      <v>9</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
-    </spb>
-    <spb s="12">
-      <v>at close</v>
-      <v>from previous close</v>
-      <v>from previous close</v>
-      <v>GMT</v>
-      <v>BATS BZX Real-Time Last Price</v>
-      <v>from close</v>
-      <v>from close</v>
-    </spb>
-    <spb s="0">
-      <v>5</v>
-    </spb>
-    <spb s="13">
+    <spb s="10">
       <v>1</v>
       <v>1</v>
     </spb>
-    <spb s="14">
+    <spb s="11">
       <v>1</v>
       <v>2</v>
       <v>2</v>
@@ -9423,33 +9017,27 @@
       <v>11</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
+    </spb>
+    <spb s="12">
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from previous close</v>
+      <v>from previous close</v>
+      <v>Source: Nasdaq Last Sale</v>
+      <v>GMT</v>
+    </spb>
+    <spb s="0">
       <v>5</v>
     </spb>
-    <spb s="15">
-      <v>at close</v>
-      <v>from previous close</v>
-      <v>from previous close</v>
-      <v>Source: Nasdaq</v>
-      <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
-    </spb>
-    <spb s="0">
-      <v>6</v>
-    </spb>
-    <spb s="16">
+    <spb s="13">
       <v>0</v>
       <v>0</v>
     </spb>
-    <spb s="17">
-      <v>23</v>
+    <spb s="14">
+      <v>19</v>
       <v>1</v>
       <v>1</v>
     </spb>
-    <spb s="18">
+    <spb s="15">
       <v>1</v>
       <v>2</v>
       <v>2</v>
@@ -9473,11 +9061,8 @@
       <v>11</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
-    <spb s="18">
+    <spb s="15">
       <v>1</v>
       <v>2</v>
       <v>2</v>
@@ -9501,24 +9086,11 @@
       <v>11</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
-    </spb>
-    <spb s="15">
-      <v>at close</v>
-      <v>from previous close</v>
-      <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
-      <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
     <spb s="0">
-      <v>7</v>
+      <v>6</v>
     </spb>
-    <spb s="19">
+    <spb s="16">
       <v>1</v>
       <v>1</v>
       <v>3</v>
@@ -9535,16 +9107,13 @@
       <v>8</v>
       <v>9</v>
       <v>9</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
-<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="20">
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="17">
   <s>
     <k n="^Order" t="spba"/>
   </s>
@@ -9576,9 +9145,6 @@
     <k n="Last trade time" t="i"/>
     <k n="%EntityServiceId" t="i"/>
     <k n="%EntitySubDomainId" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -9586,9 +9152,6 @@
     <k n="Exchange" t="s"/>
     <k n="Change (%)" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
   <s>
     <k n="UniqueName" t="spb"/>
@@ -9641,9 +9204,6 @@
     <k n="Last trade time" t="i"/>
     <k n="%EntityServiceId" t="i"/>
     <k n="%EntitySubDomainId" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Low" t="i"/>
@@ -9663,44 +9223,6 @@
     <k n="Last trade time" t="i"/>
     <k n="%EntityServiceId" t="i"/>
     <k n="%EntitySubDomainId" t="i"/>
-  </s>
-  <s>
-    <k n="Price" t="s"/>
-    <k n="Change" t="s"/>
-    <k n="Exchange" t="s"/>
-    <k n="Change (%)" t="s"/>
-    <k n="Last trade time" t="s"/>
-  </s>
-  <s>
-    <k n="Low" t="i"/>
-    <k n="High" t="i"/>
-    <k n="Name" t="i"/>
-    <k n="Open" t="i"/>
-    <k n="Price" t="i"/>
-    <k n="Change" t="i"/>
-    <k n="Volume" t="i"/>
-    <k n="Change (%)" t="i"/>
-    <k n="Market cap" t="i"/>
-    <k n="52 week low" t="i"/>
-    <k n="52 week high" t="i"/>
-    <k n="Previous close" t="i"/>
-    <k n="Volume average" t="i"/>
-    <k n="_DisplayString" t="i"/>
-    <k n="Last trade time" t="i"/>
-    <k n="%EntityServiceId" t="i"/>
-    <k n="%EntitySubDomainId" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
-  </s>
-  <s>
-    <k n="Price" t="s"/>
-    <k n="Change" t="s"/>
-    <k n="Change (%)" t="s"/>
-    <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
   <s>
     <k n="ExchangeID" t="spb"/>
@@ -9729,9 +9251,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="%EntitySubDomainId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -9739,9 +9258,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
   <s>
     <k n="ShowInDotNotation" t="b"/>
@@ -9776,9 +9292,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="%EntitySubDomainId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Low" t="i"/>
@@ -9797,9 +9310,6 @@
     <k n="Last trade time" t="i"/>
     <k n="%EntityServiceId" t="i"/>
     <k n="%EntitySubDomainId" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
 </spbStructures>
 </file>
@@ -9868,44 +9378,44 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{69112644-6D4F-4AA0-8CCC-1CEE1E0148D7}" name="Table1" displayName="Table1" ref="A1:O48" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{69112644-6D4F-4AA0-8CCC-1CEE1E0148D7}" name="Table1" displayName="Table1" ref="A1:O48" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
   <autoFilter ref="A1:O48" xr:uid="{95189E96-064D-425D-BE39-47B18B49F5F0}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{BB2FF6EB-53FD-4E78-BD0B-C24026A8DB98}" name="Funds" dataDxfId="56"/>
-    <tableColumn id="2" xr3:uid="{B45FB7AC-F148-421D-9B37-4E7E7D8C8E6A}" name="Ticker" dataDxfId="55">
+    <tableColumn id="1" xr3:uid="{BB2FF6EB-53FD-4E78-BD0B-C24026A8DB98}" name="Funds" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{B45FB7AC-F148-421D-9B37-4E7E7D8C8E6A}" name="Ticker" dataDxfId="39">
       <calculatedColumnFormula array="1">_FV(A2,"Ticker symbol",TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{0E04398C-EA9A-4618-BD02-DA8ABAA2CF7C}" name="Account" dataDxfId="54"/>
-    <tableColumn id="10" xr3:uid="{07652F3D-BD92-4EA5-B3CD-C8CA26C51045}" name="Portfolio" dataDxfId="53"/>
-    <tableColumn id="4" xr3:uid="{84FCDA56-42CA-4155-A371-09849AF21EE5}" name="Bucket" dataDxfId="52"/>
-    <tableColumn id="14" xr3:uid="{4B646908-1DAD-4E96-87A0-816CCAEC36A5}" name="Expense Ratio" dataDxfId="51">
+    <tableColumn id="3" xr3:uid="{0E04398C-EA9A-4618-BD02-DA8ABAA2CF7C}" name="Account" dataDxfId="38"/>
+    <tableColumn id="10" xr3:uid="{07652F3D-BD92-4EA5-B3CD-C8CA26C51045}" name="Portfolio" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{84FCDA56-42CA-4155-A371-09849AF21EE5}" name="Bucket" dataDxfId="36"/>
+    <tableColumn id="14" xr3:uid="{4B646908-1DAD-4E96-87A0-816CCAEC36A5}" name="Expense Ratio" dataDxfId="35">
       <calculatedColumnFormula>IFERROR(_FV(A2,"Expense ratio",TRUE),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{315E67EE-D83C-47DE-877C-398E379B6F15}" name="Open" dataDxfId="50" dataCellStyle="Currency">
+    <tableColumn id="5" xr3:uid="{315E67EE-D83C-47DE-877C-398E379B6F15}" name="Open" dataDxfId="34" dataCellStyle="Currency">
       <calculatedColumnFormula array="1">IFERROR(_FV(A2,"Open"),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{94216B5A-94A5-40EA-8CFA-BB6BCBAE0B5C}" name="High" dataDxfId="49" dataCellStyle="Currency">
+    <tableColumn id="6" xr3:uid="{94216B5A-94A5-40EA-8CFA-BB6BCBAE0B5C}" name="High" dataDxfId="33" dataCellStyle="Currency">
       <calculatedColumnFormula array="1">IFERROR(_FV(A2,"High"),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{0995BD2E-CC80-4453-962B-4B371F66AD96}" name="Low" dataDxfId="48" dataCellStyle="Currency">
+    <tableColumn id="7" xr3:uid="{0995BD2E-CC80-4453-962B-4B371F66AD96}" name="Low" dataDxfId="32" dataCellStyle="Currency">
       <calculatedColumnFormula array="1">IFERROR(_FV(A2,"Low"),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{59B32FD1-E741-455C-AB3F-CC8305A4082D}" name="Close" dataDxfId="47" dataCellStyle="Currency">
+    <tableColumn id="8" xr3:uid="{59B32FD1-E741-455C-AB3F-CC8305A4082D}" name="Close" dataDxfId="31" dataCellStyle="Currency">
       <calculatedColumnFormula array="1">IFERROR(_FV(A2,"Price"),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{B7EF52F1-C3EC-4E9C-9810-4A9443FB6AC8}" name="Bid Price" dataDxfId="46" dataCellStyle="Currency">
+    <tableColumn id="15" xr3:uid="{B7EF52F1-C3EC-4E9C-9810-4A9443FB6AC8}" name="Bid Price" dataDxfId="30" dataCellStyle="Currency">
       <calculatedColumnFormula>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{BFFB38B1-DFB9-43B1-881D-A7371E276BF4}" name="Change (%)" dataDxfId="45">
+    <tableColumn id="9" xr3:uid="{BFFB38B1-DFB9-43B1-881D-A7371E276BF4}" name="Change (%)" dataDxfId="29">
       <calculatedColumnFormula array="1">IFERROR(_FV(A2,"Change (%)",TRUE),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{FBDD8949-4F7E-41F5-AC1F-CA98CC4626EE}" name="52 week high" dataDxfId="44" dataCellStyle="Currency">
+    <tableColumn id="11" xr3:uid="{FBDD8949-4F7E-41F5-AC1F-CA98CC4626EE}" name="52 week high" dataDxfId="28" dataCellStyle="Currency">
       <calculatedColumnFormula>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{CD345540-5848-4748-B639-D5DB23BDEE94}" name="52 week low" dataDxfId="43" dataCellStyle="Currency">
+    <tableColumn id="12" xr3:uid="{CD345540-5848-4748-B639-D5DB23BDEE94}" name="52 week low" dataDxfId="27" dataCellStyle="Currency">
       <calculatedColumnFormula>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{D10DB507-EF50-48A6-9A07-64B0D17CC79B}" name="Deviation from 52 Week High" dataDxfId="42" dataCellStyle="Percent">
+    <tableColumn id="13" xr3:uid="{D10DB507-EF50-48A6-9A07-64B0D17CC79B}" name="Deviation from 52 Week High" dataDxfId="26" dataCellStyle="Percent">
       <calculatedColumnFormula>IFERROR((M2-J2)/M2,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9914,45 +9424,45 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D0CAA086-D84C-4EA4-B5F1-7030749A7F3E}" name="Table13" displayName="Table13" ref="A1:N26" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D0CAA086-D84C-4EA4-B5F1-7030749A7F3E}" name="Table13" displayName="Table13" ref="A1:N26" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="A1:N26" xr:uid="{7148AA24-1D57-4322-B6E6-30CB6857B1C8}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N26">
     <sortCondition ref="F2:F26"/>
     <sortCondition descending="1" ref="N2:N26"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{57268FAB-0DAA-4F5F-B46D-3806B1FBF806}" name="Funds" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{A08DC65A-57D6-483A-BC4A-A7473C7F025B}" name="Ticker" dataDxfId="37">
+    <tableColumn id="1" xr3:uid="{57268FAB-0DAA-4F5F-B46D-3806B1FBF806}" name="Funds" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{A08DC65A-57D6-483A-BC4A-A7473C7F025B}" name="Ticker" dataDxfId="21">
       <calculatedColumnFormula array="1">_FV(A2,"Ticker symbol",TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B68D1E78-2858-40F0-938D-30A7BD84787D}" name="Account" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{15A75516-1C6A-4B58-B9D6-851E503B9FB8}" name="Bucket" dataDxfId="35"/>
-    <tableColumn id="15" xr3:uid="{47D0498E-EC1F-4FEA-A214-7DB4FEA6AF04}" name="Sector" dataDxfId="34"/>
-    <tableColumn id="14" xr3:uid="{B112A09B-C1DB-49F3-8BB2-F1FCBE93700E}" name="Industry" dataDxfId="33">
+    <tableColumn id="3" xr3:uid="{B68D1E78-2858-40F0-938D-30A7BD84787D}" name="Account" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{15A75516-1C6A-4B58-B9D6-851E503B9FB8}" name="Bucket" dataDxfId="19"/>
+    <tableColumn id="15" xr3:uid="{47D0498E-EC1F-4FEA-A214-7DB4FEA6AF04}" name="Sector" dataDxfId="18"/>
+    <tableColumn id="14" xr3:uid="{B112A09B-C1DB-49F3-8BB2-F1FCBE93700E}" name="Industry" dataDxfId="17">
       <calculatedColumnFormula array="1">_FV(A2,"Industry")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{0FA6A548-B1BE-4B6C-B4B8-163F5654ABD5}" name="Open" dataDxfId="32">
+    <tableColumn id="5" xr3:uid="{0FA6A548-B1BE-4B6C-B4B8-163F5654ABD5}" name="Open" dataDxfId="16">
       <calculatedColumnFormula array="1">_FV(A2,"Open")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{B8CB571D-5B2B-453B-82BA-5EA66AB797D7}" name="High" dataDxfId="31">
+    <tableColumn id="6" xr3:uid="{B8CB571D-5B2B-453B-82BA-5EA66AB797D7}" name="High" dataDxfId="15">
       <calculatedColumnFormula array="1">_FV(A2,"High")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{F44149AE-6680-4B2A-93F2-98C9F6507E5A}" name="Low" dataDxfId="30">
+    <tableColumn id="7" xr3:uid="{F44149AE-6680-4B2A-93F2-98C9F6507E5A}" name="Low" dataDxfId="14">
       <calculatedColumnFormula array="1">_FV(A2,"Low")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{EE5B9F16-BFFA-4732-8F70-E2D37CF19600}" name="Close" dataDxfId="29">
+    <tableColumn id="8" xr3:uid="{EE5B9F16-BFFA-4732-8F70-E2D37CF19600}" name="Close" dataDxfId="13">
       <calculatedColumnFormula array="1">_FV(A2,"Price")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{2DE1F60D-5DEF-405B-808F-FEA1CD488B45}" name="Change (%)" dataDxfId="28">
+    <tableColumn id="9" xr3:uid="{2DE1F60D-5DEF-405B-808F-FEA1CD488B45}" name="Change (%)" dataDxfId="12">
       <calculatedColumnFormula array="1">_FV(A2,"Change (%)",TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{AF24AD6C-48A4-4E24-9504-7E6E23ABFAFF}" name="52 week high" dataDxfId="27">
+    <tableColumn id="11" xr3:uid="{AF24AD6C-48A4-4E24-9504-7E6E23ABFAFF}" name="52 week high" dataDxfId="11">
       <calculatedColumnFormula array="1">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{C74C9A6D-67EB-491D-A6D1-55C66BF936BE}" name="52 week low" dataDxfId="26">
+    <tableColumn id="12" xr3:uid="{C74C9A6D-67EB-491D-A6D1-55C66BF936BE}" name="52 week low" dataDxfId="10">
       <calculatedColumnFormula array="1">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{79973E41-98D9-4950-8B9A-E0B263B075E3}" name="Deviation from 52 Week High" dataDxfId="25">
+    <tableColumn id="13" xr3:uid="{79973E41-98D9-4950-8B9A-E0B263B075E3}" name="Deviation from 52 Week High" dataDxfId="9">
       <calculatedColumnFormula>(L2-J2)/L2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9965,8 +9475,8 @@
   <autoFilter ref="A30:C44" xr:uid="{76A2AC23-EA1A-42A9-A4A0-BA4126640B6B}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{C5A951EA-02C9-4EEA-B580-3EE51E7FDF81}" name="Fund"/>
-    <tableColumn id="2" xr3:uid="{EDFF81EE-5847-4637-99DE-F7A607DAE56F}" name="Category" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{FE5FE4F2-8EE0-4222-A1A6-C6369FAE2A5F}" name="Notes" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{EDFF81EE-5847-4637-99DE-F7A607DAE56F}" name="Category" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{FE5FE4F2-8EE0-4222-A1A6-C6369FAE2A5F}" name="Notes" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10271,8 +9781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10361,27 +9871,27 @@
       </c>
       <c r="G2" s="82">
         <f t="array" ref="G2">IFERROR(_FV(A2,"Open"),"")</f>
-        <v>88.7</v>
+        <v>88.66</v>
       </c>
       <c r="H2" s="82">
         <f t="array" ref="H2">IFERROR(_FV(A2,"High"),"")</f>
-        <v>88.7</v>
+        <v>88.674999999999997</v>
       </c>
       <c r="I2" s="82">
         <f t="array" ref="I2">IFERROR(_FV(A2,"Low"),"")</f>
-        <v>88.4</v>
+        <v>88.58</v>
       </c>
       <c r="J2" s="82">
         <f t="array" ref="J2">IFERROR(_FV(A2,"Price"),"")</f>
-        <v>88.43</v>
+        <v>88.655000000000001</v>
       </c>
       <c r="K2" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>88.415000000000006</v>
+        <v>88.617500000000007</v>
       </c>
       <c r="L2" s="3">
         <f t="array" ref="L2">IFERROR(_FV(A2,"Change (%)",TRUE),"")</f>
-        <v>-1.6930000000000001E-3</v>
+        <v>2.5440000000000003E-3</v>
       </c>
       <c r="M2" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
@@ -10393,7 +9903,7 @@
       </c>
       <c r="O2" s="15">
         <f t="shared" ref="O2:O47" si="1">IFERROR((M2-J2)/M2,0)</f>
-        <v>1.2947873646612306E-2</v>
+        <v>1.0436432637571182E-2</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -10419,27 +9929,27 @@
       </c>
       <c r="G3" s="82">
         <f t="array" ref="G3">IFERROR(_FV(A3,"Open"),"")</f>
-        <v>118.65</v>
+        <v>118.67</v>
       </c>
       <c r="H3" s="82">
         <f t="array" ref="H3">IFERROR(_FV(A3,"High"),"")</f>
-        <v>118.7</v>
+        <v>118.69</v>
       </c>
       <c r="I3" s="82">
         <f t="array" ref="I3">IFERROR(_FV(A3,"Low"),"")</f>
-        <v>118.34</v>
+        <v>118.56</v>
       </c>
       <c r="J3" s="82">
         <f t="array" ref="J3">IFERROR(_FV(A3,"Price"),"")</f>
-        <v>118.35</v>
+        <v>118.625</v>
       </c>
       <c r="K3" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>118.345</v>
+        <v>118.5925</v>
       </c>
       <c r="L3" s="3">
         <f t="array" ref="L3">IFERROR(_FV(A3,"Change (%)",TRUE),"")</f>
-        <v>-1.5190000000000002E-3</v>
+        <v>2.1540000000000001E-3</v>
       </c>
       <c r="M3" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
@@ -10451,7 +9961,7 @@
       </c>
       <c r="O3" s="15">
         <f t="shared" si="1"/>
-        <v>1.1525933350037664E-2</v>
+        <v>9.2290988056460705E-3</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -10489,7 +9999,7 @@
       </c>
       <c r="J4" s="82">
         <f t="array" ref="J4">IFERROR(_FV(A4,"Price"),"")</f>
-        <v>17.04</v>
+        <v>16.940000000000001</v>
       </c>
       <c r="K4" s="82" t="str">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
@@ -10497,7 +10007,7 @@
       </c>
       <c r="L4" s="3">
         <f t="array" ref="L4">IFERROR(_FV(A4,"Change (%)",TRUE),"")</f>
-        <v>7.0920000000000002E-3</v>
+        <v>-5.8690000000000001E-3</v>
       </c>
       <c r="M4" s="16" t="str">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
@@ -10535,27 +10045,27 @@
       </c>
       <c r="G5" s="82">
         <f t="array" ref="G5">IFERROR(_FV(A5,"Open"),"")</f>
-        <v>204.37</v>
+        <v>202.87</v>
       </c>
       <c r="H5" s="82">
         <f t="array" ref="H5">IFERROR(_FV(A5,"High"),"")</f>
-        <v>204.37</v>
+        <v>206.45</v>
       </c>
       <c r="I5" s="82">
         <f t="array" ref="I5">IFERROR(_FV(A5,"Low"),"")</f>
-        <v>202.29239999999999</v>
+        <v>202.87</v>
       </c>
       <c r="J5" s="82">
         <f t="array" ref="J5">IFERROR(_FV(A5,"Price"),"")</f>
-        <v>202.7</v>
+        <v>205.19499999999999</v>
       </c>
       <c r="K5" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>202.49619999999999</v>
+        <v>204.0325</v>
       </c>
       <c r="L5" s="3">
         <f t="array" ref="L5">IFERROR(_FV(A5,"Change (%)",TRUE),"")</f>
-        <v>-2.0347000000000001E-2</v>
+        <v>1.4560999999999999E-2</v>
       </c>
       <c r="M5" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
@@ -10567,7 +10077,7 @@
       </c>
       <c r="O5" s="15">
         <f t="shared" si="1"/>
-        <v>0.25795438487823058</v>
+        <v>0.24882067096738292</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -10593,27 +10103,27 @@
       </c>
       <c r="G6" s="82">
         <f t="array" ref="G6">IFERROR(_FV(A6,"Open"),"")</f>
-        <v>42.274999999999999</v>
+        <v>41.05</v>
       </c>
       <c r="H6" s="82">
         <f t="array" ref="H6">IFERROR(_FV(A6,"High"),"")</f>
-        <v>42.61</v>
+        <v>42.1</v>
       </c>
       <c r="I6" s="82">
         <f t="array" ref="I6">IFERROR(_FV(A6,"Low"),"")</f>
-        <v>40.770000000000003</v>
+        <v>40.79</v>
       </c>
       <c r="J6" s="82">
         <f t="array" ref="J6">IFERROR(_FV(A6,"Price"),"")</f>
-        <v>41.04</v>
+        <v>41.872799999999998</v>
       </c>
       <c r="K6" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>40.905000000000001</v>
+        <v>41.331400000000002</v>
       </c>
       <c r="L6" s="3">
         <f t="array" ref="L6">IFERROR(_FV(A6,"Change (%)",TRUE),"")</f>
-        <v>-3.8199999999999998E-2</v>
+        <v>2.0291999999999998E-2</v>
       </c>
       <c r="M6" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
@@ -10625,7 +10135,7 @@
       </c>
       <c r="O6" s="15">
         <f t="shared" si="1"/>
-        <v>0.10353866317169073</v>
+        <v>8.5347313237221556E-2</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -10651,27 +10161,27 @@
       </c>
       <c r="G7" s="82">
         <f t="array" ref="G7">IFERROR(_FV(A7,"Open"),"")</f>
-        <v>25.94</v>
+        <v>24.93</v>
       </c>
       <c r="H7" s="82">
         <f t="array" ref="H7">IFERROR(_FV(A7,"High"),"")</f>
-        <v>26.049900000000001</v>
+        <v>25.616599999999998</v>
       </c>
       <c r="I7" s="82">
         <f t="array" ref="I7">IFERROR(_FV(A7,"Low"),"")</f>
-        <v>24.7</v>
+        <v>24.885000000000002</v>
       </c>
       <c r="J7" s="82">
         <f t="array" ref="J7">IFERROR(_FV(A7,"Price"),"")</f>
-        <v>24.89</v>
+        <v>25.6</v>
       </c>
       <c r="K7" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>24.795000000000002</v>
+        <v>25.2425</v>
       </c>
       <c r="L7" s="3">
         <f t="array" ref="L7">IFERROR(_FV(A7,"Change (%)",TRUE),"")</f>
-        <v>-3.8439000000000001E-2</v>
+        <v>2.8525999999999999E-2</v>
       </c>
       <c r="M7" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
@@ -10683,7 +10193,7 @@
       </c>
       <c r="O7" s="15">
         <f t="shared" si="1"/>
-        <v>9.1274187659729833E-2</v>
+        <v>6.535231836436653E-2</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -10709,27 +10219,27 @@
       </c>
       <c r="G8" s="82">
         <f t="array" ref="G8">IFERROR(_FV(A8,"Open"),"")</f>
-        <v>19.02</v>
+        <v>18.420000000000002</v>
       </c>
       <c r="H8" s="82">
         <f t="array" ref="H8">IFERROR(_FV(A8,"High"),"")</f>
-        <v>19.05</v>
+        <v>18.66</v>
       </c>
       <c r="I8" s="82">
         <f t="array" ref="I8">IFERROR(_FV(A8,"Low"),"")</f>
-        <v>18.460100000000001</v>
+        <v>18.38</v>
       </c>
       <c r="J8" s="82">
         <f t="array" ref="J8">IFERROR(_FV(A8,"Price"),"")</f>
-        <v>18.52</v>
+        <v>18.649000000000001</v>
       </c>
       <c r="K8" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>18.49005</v>
+        <v>18.514499999999998</v>
       </c>
       <c r="L8" s="3">
         <f t="array" ref="L8">IFERROR(_FV(A8,"Change (%)",TRUE),"")</f>
-        <v>-3.1380999999999999E-2</v>
+        <v>6.9649999999999998E-3</v>
       </c>
       <c r="M8" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
@@ -10741,7 +10251,7 @@
       </c>
       <c r="O8" s="15">
         <f t="shared" si="1"/>
-        <v>6.2748293260593363E-2</v>
+        <v>5.6219920141296134E-2</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -10767,27 +10277,27 @@
       </c>
       <c r="G9" s="82">
         <f t="array" ref="G9">IFERROR(_FV(A9,"Open"),"")</f>
-        <v>19.87</v>
+        <v>19.25</v>
       </c>
       <c r="H9" s="82">
         <f t="array" ref="H9">IFERROR(_FV(A9,"High"),"")</f>
-        <v>19.88</v>
+        <v>19.48</v>
       </c>
       <c r="I9" s="82">
         <f t="array" ref="I9">IFERROR(_FV(A9,"Low"),"")</f>
-        <v>19.27</v>
+        <v>19.2</v>
       </c>
       <c r="J9" s="82">
         <f t="array" ref="J9">IFERROR(_FV(A9,"Price"),"")</f>
-        <v>19.34</v>
+        <v>19.48</v>
       </c>
       <c r="K9" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>19.305</v>
+        <v>19.34</v>
       </c>
       <c r="L9" s="3">
         <f t="array" ref="L9">IFERROR(_FV(A9,"Change (%)",TRUE),"")</f>
-        <v>-3.1546999999999999E-2</v>
+        <v>7.7600000000000004E-3</v>
       </c>
       <c r="M9" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
@@ -10799,7 +10309,7 @@
       </c>
       <c r="O9" s="15">
         <f t="shared" si="1"/>
-        <v>6.2484851422754444E-2</v>
+        <v>5.5698288816714375E-2</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -10825,27 +10335,27 @@
       </c>
       <c r="G10" s="86">
         <f t="array" ref="G10">IFERROR(_FV(A10,"Open"),"")</f>
-        <v>187.23</v>
+        <v>181.24</v>
       </c>
       <c r="H10" s="86">
         <f t="array" ref="H10">IFERROR(_FV(A10,"High"),"")</f>
-        <v>187.4599</v>
+        <v>183.71</v>
       </c>
       <c r="I10" s="86">
         <f t="array" ref="I10">IFERROR(_FV(A10,"Low"),"")</f>
-        <v>181.71</v>
+        <v>180.93</v>
       </c>
       <c r="J10" s="86">
         <f t="array" ref="J10">IFERROR(_FV(A10,"Price"),"")</f>
-        <v>182.24</v>
+        <v>183.51</v>
       </c>
       <c r="K10" s="86">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>181.97500000000002</v>
+        <v>182.22</v>
       </c>
       <c r="L10" s="81">
         <f t="array" ref="L10">IFERROR(_FV(A10,"Change (%)",TRUE),"")</f>
-        <v>-3.1719999999999998E-2</v>
+        <v>6.9689999999999995E-3</v>
       </c>
       <c r="M10" s="83">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
@@ -10857,7 +10367,7 @@
       </c>
       <c r="O10" s="84">
         <f>IFERROR((M10-J10)/M10,0)</f>
-        <v>6.2792009664186008E-2</v>
+        <v>5.6260764340840611E-2</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -10883,27 +10393,27 @@
       </c>
       <c r="G11" s="82">
         <f t="array" ref="G11">IFERROR(_FV(A11,"Open"),"")</f>
-        <v>37.46</v>
+        <v>36.634999999999998</v>
       </c>
       <c r="H11" s="82">
         <f t="array" ref="H11">IFERROR(_FV(A11,"High"),"")</f>
-        <v>37.630000000000003</v>
+        <v>36.75</v>
       </c>
       <c r="I11" s="82">
         <f t="array" ref="I11">IFERROR(_FV(A11,"Low"),"")</f>
-        <v>36.94</v>
+        <v>36.31</v>
       </c>
       <c r="J11" s="82">
         <f t="array" ref="J11">IFERROR(_FV(A11,"Price"),"")</f>
-        <v>37.06</v>
+        <v>36.365000000000002</v>
       </c>
       <c r="K11" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>37</v>
+        <v>36.337500000000006</v>
       </c>
       <c r="L11" s="3">
         <f t="array" ref="L11">IFERROR(_FV(A11,"Change (%)",TRUE),"")</f>
-        <v>-1.1470000000000001E-2</v>
+        <v>-1.8488999999999998E-2</v>
       </c>
       <c r="M11" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
@@ -10915,7 +10425,7 @@
       </c>
       <c r="O11" s="15">
         <f t="shared" si="1"/>
-        <v>0.40033914979547452</v>
+        <v>0.41158481333816599</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -10941,27 +10451,27 @@
       </c>
       <c r="G12" s="82">
         <f t="array" ref="G12">IFERROR(_FV(A12,"Open"),"")</f>
-        <v>83.5</v>
+        <v>82.71</v>
       </c>
       <c r="H12" s="82">
         <f t="array" ref="H12">IFERROR(_FV(A12,"High"),"")</f>
-        <v>83.84</v>
+        <v>82.91</v>
       </c>
       <c r="I12" s="82">
         <f t="array" ref="I12">IFERROR(_FV(A12,"Low"),"")</f>
-        <v>83</v>
+        <v>82.52</v>
       </c>
       <c r="J12" s="82">
         <f t="array" ref="J12">IFERROR(_FV(A12,"Price"),"")</f>
-        <v>83.18</v>
+        <v>82.67</v>
       </c>
       <c r="K12" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>83.09</v>
+        <v>82.594999999999999</v>
       </c>
       <c r="L12" s="3">
         <f t="array" ref="L12">IFERROR(_FV(A12,"Change (%)",TRUE),"")</f>
-        <v>-2.3990000000000001E-3</v>
+        <v>-6.1310000000000002E-3</v>
       </c>
       <c r="M12" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
@@ -10973,7 +10483,7 @@
       </c>
       <c r="O12" s="15">
         <f t="shared" si="1"/>
-        <v>0.12312882142104145</v>
+        <v>0.12850516550706301</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -11003,23 +10513,23 @@
       </c>
       <c r="H13" s="82">
         <f t="array" ref="H13">IFERROR(_FV(A13,"High"),"")</f>
-        <v>21.94</v>
+        <v>21.95</v>
       </c>
       <c r="I13" s="82">
         <f t="array" ref="I13">IFERROR(_FV(A13,"Low"),"")</f>
-        <v>21.92</v>
+        <v>21.93</v>
       </c>
       <c r="J13" s="82">
         <f t="array" ref="J13">IFERROR(_FV(A13,"Price"),"")</f>
-        <v>21.94</v>
+        <v>21.9358</v>
       </c>
       <c r="K13" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>21.93</v>
+        <v>21.9329</v>
       </c>
       <c r="L13" s="3">
         <f t="array" ref="L13">IFERROR(_FV(A13,"Change (%)",TRUE),"")</f>
-        <v>0</v>
+        <v>-1.9140000000000002E-4</v>
       </c>
       <c r="M13" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
@@ -11031,7 +10541,7 @@
       </c>
       <c r="O13" s="15">
         <f t="shared" si="1"/>
-        <v>9.2638544251447408E-2</v>
+        <v>9.2812241521918915E-2</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -11057,27 +10567,27 @@
       </c>
       <c r="G14" s="82">
         <f t="array" ref="G14">IFERROR(_FV(A14,"Open"),"")</f>
-        <v>56.99</v>
+        <v>56.33</v>
       </c>
       <c r="H14" s="82">
         <f t="array" ref="H14">IFERROR(_FV(A14,"High"),"")</f>
-        <v>57.27</v>
+        <v>56.524999999999999</v>
       </c>
       <c r="I14" s="82">
         <f t="array" ref="I14">IFERROR(_FV(A14,"Low"),"")</f>
-        <v>56.65</v>
+        <v>56.2</v>
       </c>
       <c r="J14" s="82">
         <f t="array" ref="J14">IFERROR(_FV(A14,"Price"),"")</f>
-        <v>56.76</v>
+        <v>56.39</v>
       </c>
       <c r="K14" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>56.704999999999998</v>
+        <v>56.295000000000002</v>
       </c>
       <c r="L14" s="3">
         <f t="array" ref="L14">IFERROR(_FV(A14,"Change (%)",TRUE),"")</f>
-        <v>-2.6359999999999999E-3</v>
+        <v>-6.5190000000000005E-3</v>
       </c>
       <c r="M14" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
@@ -11089,7 +10599,7 @@
       </c>
       <c r="O14" s="15">
         <f t="shared" si="1"/>
-        <v>4.7011417058428547E-2</v>
+        <v>5.3223640026863694E-2</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -11115,27 +10625,27 @@
       </c>
       <c r="G15" s="82">
         <f t="array" ref="G15">IFERROR(_FV(A15,"Open"),"")</f>
-        <v>96.05</v>
+        <v>95.6</v>
       </c>
       <c r="H15" s="82">
         <f t="array" ref="H15">IFERROR(_FV(A15,"High"),"")</f>
-        <v>96.18</v>
+        <v>95.77</v>
       </c>
       <c r="I15" s="82">
         <f t="array" ref="I15">IFERROR(_FV(A15,"Low"),"")</f>
-        <v>95.28</v>
+        <v>95.1</v>
       </c>
       <c r="J15" s="82">
         <f t="array" ref="J15">IFERROR(_FV(A15,"Price"),"")</f>
-        <v>95.5</v>
+        <v>95.1</v>
       </c>
       <c r="K15" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>95.39</v>
+        <v>95.1</v>
       </c>
       <c r="L15" s="3">
         <f t="array" ref="L15">IFERROR(_FV(A15,"Change (%)",TRUE),"")</f>
-        <v>-1.7769999999999999E-3</v>
+        <v>-3.1450000000000002E-3</v>
       </c>
       <c r="M15" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
@@ -11147,7 +10657,7 @@
       </c>
       <c r="O15" s="79">
         <f t="shared" si="1"/>
-        <v>3.6715755497276584E-2</v>
+        <v>4.0750453903570773E-2</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -11173,27 +10683,27 @@
       </c>
       <c r="G16" s="82">
         <f t="array" ref="G16">IFERROR(_FV(A16,"Open"),"")</f>
-        <v>53.27</v>
+        <v>52.83</v>
       </c>
       <c r="H16" s="82">
         <f t="array" ref="H16">IFERROR(_FV(A16,"High"),"")</f>
-        <v>53.420099999999998</v>
+        <v>53</v>
       </c>
       <c r="I16" s="82">
         <f t="array" ref="I16">IFERROR(_FV(A16,"Low"),"")</f>
-        <v>52.92</v>
+        <v>52.771500000000003</v>
       </c>
       <c r="J16" s="82">
         <f t="array" ref="J16">IFERROR(_FV(A16,"Price"),"")</f>
-        <v>53.08</v>
+        <v>52.884999999999998</v>
       </c>
       <c r="K16" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>53</v>
+        <v>52.828249999999997</v>
       </c>
       <c r="L16" s="3">
         <f t="array" ref="L16">IFERROR(_FV(A16,"Change (%)",TRUE),"")</f>
-        <v>-4.1279999999999997E-3</v>
+        <v>-2.9220000000000001E-3</v>
       </c>
       <c r="M16" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
@@ -11205,7 +10715,7 @@
       </c>
       <c r="O16" s="15">
         <f t="shared" si="1"/>
-        <v>8.1285620853966609E-3</v>
+        <v>1.1772400261608942E-2</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -11231,27 +10741,27 @@
       </c>
       <c r="G17" s="82">
         <f t="array" ref="G17">IFERROR(_FV(A17,"Open"),"")</f>
-        <v>206.36</v>
+        <v>204.98</v>
       </c>
       <c r="H17" s="82">
         <f t="array" ref="H17">IFERROR(_FV(A17,"High"),"")</f>
-        <v>206.9</v>
+        <v>205.25</v>
       </c>
       <c r="I17" s="82">
         <f t="array" ref="I17">IFERROR(_FV(A17,"Low"),"")</f>
-        <v>205</v>
+        <v>204.42</v>
       </c>
       <c r="J17" s="82">
         <f t="array" ref="J17">IFERROR(_FV(A17,"Price"),"")</f>
-        <v>205.53</v>
+        <v>204.91</v>
       </c>
       <c r="K17" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>205.26499999999999</v>
+        <v>204.66499999999999</v>
       </c>
       <c r="L17" s="3">
         <f t="array" ref="L17">IFERROR(_FV(A17,"Change (%)",TRUE),"")</f>
-        <v>-4.215E-3</v>
+        <v>-2.8710000000000003E-3</v>
       </c>
       <c r="M17" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
@@ -11263,7 +10773,7 @@
       </c>
       <c r="O17" s="15">
         <f t="shared" si="1"/>
-        <v>8.2991556091676667E-3</v>
+        <v>1.1290711700844407E-2</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -11289,27 +10799,27 @@
       </c>
       <c r="G18" s="82">
         <f t="array" ref="G18">IFERROR(_FV(A18,"Open"),"")</f>
-        <v>296.54000000000002</v>
+        <v>293.51</v>
       </c>
       <c r="H18" s="82">
         <f t="array" ref="H18">IFERROR(_FV(A18,"High"),"")</f>
-        <v>296.75</v>
+        <v>295.43819999999999</v>
       </c>
       <c r="I18" s="82">
         <f t="array" ref="I18">IFERROR(_FV(A18,"Low"),"")</f>
-        <v>293.86</v>
+        <v>292.58999999999997</v>
       </c>
       <c r="J18" s="82">
         <f t="array" ref="J18">IFERROR(_FV(A18,"Price"),"")</f>
-        <v>294.62</v>
+        <v>294.10789999999997</v>
       </c>
       <c r="K18" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>294.24</v>
+        <v>293.34894999999995</v>
       </c>
       <c r="L18" s="3">
         <f t="array" ref="L18">IFERROR(_FV(A18,"Change (%)",TRUE),"")</f>
-        <v>-2.944E-3</v>
+        <v>-1.1279999999999999E-3</v>
       </c>
       <c r="M18" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
@@ -11321,7 +10831,7 @@
       </c>
       <c r="O18" s="15">
         <f t="shared" si="1"/>
-        <v>7.1944870347592825E-3</v>
+        <v>8.9201529881552909E-3</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -11347,27 +10857,27 @@
       </c>
       <c r="G19" s="82">
         <f t="array" ref="G19">IFERROR(_FV(A19,"Open"),"")</f>
-        <v>107.5</v>
+        <v>106.55</v>
       </c>
       <c r="H19" s="82">
         <f t="array" ref="H19">IFERROR(_FV(A19,"High"),"")</f>
-        <v>107.8</v>
+        <v>106.95</v>
       </c>
       <c r="I19" s="82">
         <f t="array" ref="I19">IFERROR(_FV(A19,"Low"),"")</f>
-        <v>106.82</v>
+        <v>106.43</v>
       </c>
       <c r="J19" s="82">
         <f t="array" ref="J19">IFERROR(_FV(A19,"Price"),"")</f>
-        <v>107.05</v>
+        <v>106.67</v>
       </c>
       <c r="K19" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>106.935</v>
+        <v>106.55000000000001</v>
       </c>
       <c r="L19" s="3">
         <f t="array" ref="L19">IFERROR(_FV(A19,"Change (%)",TRUE),"")</f>
-        <v>-3.2590000000000002E-3</v>
+        <v>-3.5499999999999998E-3</v>
       </c>
       <c r="M19" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
@@ -11379,7 +10889,7 @@
       </c>
       <c r="O19" s="15">
         <f t="shared" si="1"/>
-        <v>7.3256676557864079E-3</v>
+        <v>1.0849406528189926E-2</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -11405,31 +10915,31 @@
       </c>
       <c r="G20" s="82">
         <f t="array" ref="G20">IFERROR(_FV(A20,"Open"),"")</f>
-        <v>73.2</v>
+        <v>72.66</v>
       </c>
       <c r="H20" s="82">
         <f t="array" ref="H20">IFERROR(_FV(A20,"High"),"")</f>
-        <v>73.319999999999993</v>
+        <v>72.66</v>
       </c>
       <c r="I20" s="82">
         <f t="array" ref="I20">IFERROR(_FV(A20,"Low"),"")</f>
-        <v>72.599999999999994</v>
+        <v>72.34</v>
       </c>
       <c r="J20" s="82">
         <f t="array" ref="J20">IFERROR(_FV(A20,"Price"),"")</f>
-        <v>72.72</v>
+        <v>72.52</v>
       </c>
       <c r="K20" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>72.66</v>
+        <v>72.430000000000007</v>
       </c>
       <c r="L20" s="3">
         <f t="array" ref="L20">IFERROR(_FV(A20,"Change (%)",TRUE),"")</f>
-        <v>-3.4260000000000002E-3</v>
+        <v>-3.0240000000000002E-3</v>
       </c>
       <c r="M20" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v>73.290000000000006</v>
+        <v>73.319999999999993</v>
       </c>
       <c r="N20" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
@@ -11437,7 +10947,7 @@
       </c>
       <c r="O20" s="15">
         <f t="shared" si="1"/>
-        <v>7.7773229635694817E-3</v>
+        <v>1.0911074740861938E-2</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -11463,27 +10973,27 @@
       </c>
       <c r="G21" s="82">
         <f t="array" ref="G21">IFERROR(_FV(A21,"Open"),"")</f>
-        <v>40.97</v>
+        <v>40.61</v>
       </c>
       <c r="H21" s="82">
         <f t="array" ref="H21">IFERROR(_FV(A21,"High"),"")</f>
-        <v>41.26</v>
+        <v>42.18</v>
       </c>
       <c r="I21" s="82">
         <f t="array" ref="I21">IFERROR(_FV(A21,"Low"),"")</f>
-        <v>40.280999999999999</v>
+        <v>40.58</v>
       </c>
       <c r="J21" s="82">
         <f t="array" ref="J21">IFERROR(_FV(A21,"Price"),"")</f>
-        <v>41.224200000000003</v>
+        <v>42.115200000000002</v>
       </c>
       <c r="K21" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>40.752600000000001</v>
+        <v>41.3476</v>
       </c>
       <c r="L21" s="3">
         <f t="array" ref="L21">IFERROR(_FV(A21,"Change (%)",TRUE),"")</f>
-        <v>7.4339999999999996E-3</v>
+        <v>3.1223999999999998E-2</v>
       </c>
       <c r="M21" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
@@ -11495,7 +11005,7 @@
       </c>
       <c r="O21" s="15">
         <f t="shared" si="1"/>
-        <v>5.4707635863334013E-2</v>
+        <v>3.4276542077505114E-2</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -11521,27 +11031,27 @@
       </c>
       <c r="G22" s="82">
         <f t="array" ref="G22">IFERROR(_FV(A22,"Open"),"")</f>
-        <v>77.38</v>
+        <v>77</v>
       </c>
       <c r="H22" s="82">
         <f t="array" ref="H22">IFERROR(_FV(A22,"High"),"")</f>
-        <v>78</v>
+        <v>78.739999999999995</v>
       </c>
       <c r="I22" s="82">
         <f t="array" ref="I22">IFERROR(_FV(A22,"Low"),"")</f>
-        <v>76.66</v>
+        <v>76.754999999999995</v>
       </c>
       <c r="J22" s="82">
         <f t="array" ref="J22">IFERROR(_FV(A22,"Price"),"")</f>
-        <v>77.239999999999995</v>
+        <v>78.668000000000006</v>
       </c>
       <c r="K22" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>76.949999999999989</v>
+        <v>77.711500000000001</v>
       </c>
       <c r="L22" s="3">
         <f t="array" ref="L22">IFERROR(_FV(A22,"Change (%)",TRUE),"")</f>
-        <v>2.5900000000000001E-4</v>
+        <v>1.8488000000000001E-2</v>
       </c>
       <c r="M22" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
@@ -11553,7 +11063,7 @@
       </c>
       <c r="O22" s="15">
         <f t="shared" si="1"/>
-        <v>3.3049574361542322E-2</v>
+        <v>1.5172759138707926E-2</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -11579,31 +11089,31 @@
       </c>
       <c r="G23" s="82">
         <f t="array" ref="G23">IFERROR(_FV(A23,"Open"),"")</f>
-        <v>103.7</v>
+        <v>102.67</v>
       </c>
       <c r="H23" s="82">
         <f t="array" ref="H23">IFERROR(_FV(A23,"High"),"")</f>
-        <v>104.298</v>
+        <v>105.486</v>
       </c>
       <c r="I23" s="82">
         <f t="array" ref="I23">IFERROR(_FV(A23,"Low"),"")</f>
-        <v>102.68</v>
+        <v>102.45099999999999</v>
       </c>
       <c r="J23" s="82">
         <f t="array" ref="J23">IFERROR(_FV(A23,"Price"),"")</f>
-        <v>103.06</v>
+        <v>105.25</v>
       </c>
       <c r="K23" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>102.87</v>
+        <v>103.8505</v>
       </c>
       <c r="L23" s="3">
         <f t="array" ref="L23">IFERROR(_FV(A23,"Change (%)",TRUE),"")</f>
-        <v>-4.5399999999999998E-3</v>
+        <v>2.1250000000000002E-2</v>
       </c>
       <c r="M23" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v>103.97920000000001</v>
+        <v>105.25</v>
       </c>
       <c r="N23" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
@@ -11611,7 +11121,7 @@
       </c>
       <c r="O23" s="15">
         <f t="shared" si="1"/>
-        <v>8.8402295843784482E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -11637,31 +11147,31 @@
       </c>
       <c r="G24" s="82">
         <f t="array" ref="G24">IFERROR(_FV(A24,"Open"),"")</f>
-        <v>38.65</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="H24" s="82">
         <f t="array" ref="H24">IFERROR(_FV(A24,"High"),"")</f>
-        <v>38.779899999999998</v>
+        <v>38.79</v>
       </c>
       <c r="I24" s="82">
         <f t="array" ref="I24">IFERROR(_FV(A24,"Low"),"")</f>
-        <v>38.299999999999997</v>
+        <v>38.08</v>
       </c>
       <c r="J24" s="82">
         <f t="array" ref="J24">IFERROR(_FV(A24,"Price"),"")</f>
-        <v>38.4</v>
+        <v>38.715000000000003</v>
       </c>
       <c r="K24" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>38.349999999999994</v>
+        <v>38.397500000000001</v>
       </c>
       <c r="L24" s="3">
         <f t="array" ref="L24">IFERROR(_FV(A24,"Change (%)",TRUE),"")</f>
-        <v>-1.041E-3</v>
+        <v>8.2030000000000002E-3</v>
       </c>
       <c r="M24" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v>38.637999999999998</v>
+        <v>38.78</v>
       </c>
       <c r="N24" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
@@ -11669,7 +11179,7 @@
       </c>
       <c r="O24" s="15">
         <f t="shared" si="1"/>
-        <v>6.159739116931507E-3</v>
+        <v>1.6761217122227366E-3</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -11695,31 +11205,31 @@
       </c>
       <c r="G25" s="82">
         <f t="array" ref="G25">IFERROR(_FV(A25,"Open"),"")</f>
-        <v>55.37</v>
+        <v>54.5</v>
       </c>
       <c r="H25" s="82">
         <f t="array" ref="H25">IFERROR(_FV(A25,"High"),"")</f>
-        <v>55.59</v>
+        <v>55.499899999999997</v>
       </c>
       <c r="I25" s="82">
         <f t="array" ref="I25">IFERROR(_FV(A25,"Low"),"")</f>
-        <v>54.901000000000003</v>
+        <v>54.25</v>
       </c>
       <c r="J25" s="82">
         <f t="array" ref="J25">IFERROR(_FV(A25,"Price"),"")</f>
-        <v>55.02</v>
+        <v>55.446800000000003</v>
       </c>
       <c r="K25" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>54.960500000000003</v>
+        <v>54.848399999999998</v>
       </c>
       <c r="L25" s="3">
         <f t="array" ref="L25">IFERROR(_FV(A25,"Change (%)",TRUE),"")</f>
-        <v>-4.163E-3</v>
+        <v>8.8570000000000003E-3</v>
       </c>
       <c r="M25" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v>55.5</v>
+        <v>55.59</v>
       </c>
       <c r="N25" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
@@ -11727,7 +11237,7 @@
       </c>
       <c r="O25" s="15">
         <f t="shared" si="1"/>
-        <v>8.6486486486485915E-3</v>
+        <v>2.5760028782155103E-3</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -11753,31 +11263,31 @@
       </c>
       <c r="G26" s="82">
         <f t="array" ref="G26">IFERROR(_FV(A26,"Open"),"")</f>
-        <v>62.12</v>
+        <v>62.6</v>
       </c>
       <c r="H26" s="82">
         <f t="array" ref="H26">IFERROR(_FV(A26,"High"),"")</f>
-        <v>63.96</v>
+        <v>62.9</v>
       </c>
       <c r="I26" s="82">
         <f t="array" ref="I26">IFERROR(_FV(A26,"Low"),"")</f>
-        <v>62</v>
+        <v>62.08</v>
       </c>
       <c r="J26" s="82">
         <f t="array" ref="J26">IFERROR(_FV(A26,"Price"),"")</f>
-        <v>62.85</v>
+        <v>62.41</v>
       </c>
       <c r="K26" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>62.424999999999997</v>
+        <v>62.244999999999997</v>
       </c>
       <c r="L26" s="3">
         <f t="array" ref="L26">IFERROR(_FV(A26,"Change (%)",TRUE),"")</f>
-        <v>1.7979000000000002E-2</v>
+        <v>-7.1589999999999996E-3</v>
       </c>
       <c r="M26" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v>62.85</v>
+        <v>63.96</v>
       </c>
       <c r="N26" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
@@ -11785,7 +11295,7 @@
       </c>
       <c r="O26" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.4233896185115764E-2</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -11811,31 +11321,31 @@
       </c>
       <c r="G27" s="82">
         <f t="array" ref="G27">IFERROR(_FV(A27,"Open"),"")</f>
-        <v>88.74</v>
+        <v>88.3</v>
       </c>
       <c r="H27" s="82">
         <f t="array" ref="H27">IFERROR(_FV(A27,"High"),"")</f>
-        <v>90.38</v>
+        <v>89.99</v>
       </c>
       <c r="I27" s="82">
         <f t="array" ref="I27">IFERROR(_FV(A27,"Low"),"")</f>
-        <v>88.185000000000002</v>
+        <v>88.0501</v>
       </c>
       <c r="J27" s="82">
         <f t="array" ref="J27">IFERROR(_FV(A27,"Price"),"")</f>
-        <v>88.87</v>
+        <v>89.59</v>
       </c>
       <c r="K27" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>88.527500000000003</v>
+        <v>88.820050000000009</v>
       </c>
       <c r="L27" s="3">
         <f t="array" ref="L27">IFERROR(_FV(A27,"Change (%)",TRUE),"")</f>
-        <v>3.3869999999999998E-3</v>
+        <v>8.1019999999999998E-3</v>
       </c>
       <c r="M27" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v>88.96</v>
+        <v>90.38</v>
       </c>
       <c r="N27" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
@@ -11843,7 +11353,7 @@
       </c>
       <c r="O27" s="15">
         <f t="shared" si="1"/>
-        <v>1.011690647481893E-3</v>
+        <v>8.7408718743083869E-3</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -11869,31 +11379,31 @@
       </c>
       <c r="G28" s="82">
         <f t="array" ref="G28">IFERROR(_FV(A28,"Open"),"")</f>
-        <v>90.61</v>
+        <v>89.18</v>
       </c>
       <c r="H28" s="82">
         <f t="array" ref="H28">IFERROR(_FV(A28,"High"),"")</f>
-        <v>90.754999999999995</v>
+        <v>89.8</v>
       </c>
       <c r="I28" s="82">
         <f t="array" ref="I28">IFERROR(_FV(A28,"Low"),"")</f>
-        <v>89.8</v>
+        <v>89.070899999999995</v>
       </c>
       <c r="J28" s="82">
         <f t="array" ref="J28">IFERROR(_FV(A28,"Price"),"")</f>
-        <v>89.92</v>
+        <v>89.66</v>
       </c>
       <c r="K28" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>89.86</v>
+        <v>89.365449999999996</v>
       </c>
       <c r="L28" s="3">
         <f t="array" ref="L28">IFERROR(_FV(A28,"Change (%)",TRUE),"")</f>
-        <v>-4.4840000000000001E-3</v>
+        <v>-2.8910000000000003E-3</v>
       </c>
       <c r="M28" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v>90.649900000000002</v>
+        <v>90.779399999999995</v>
       </c>
       <c r="N28" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
@@ -11901,7 +11411,7 @@
       </c>
       <c r="O28" s="15">
         <f t="shared" si="1"/>
-        <v>8.0518566484905178E-3</v>
+        <v>1.2330991392320271E-2</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -11927,27 +11437,27 @@
       </c>
       <c r="G29" s="82">
         <f t="array" ref="G29">IFERROR(_FV(A29,"Open"),"")</f>
-        <v>320.5</v>
+        <v>318.29000000000002</v>
       </c>
       <c r="H29" s="82">
         <f t="array" ref="H29">IFERROR(_FV(A29,"High"),"")</f>
-        <v>320.55</v>
+        <v>319.815</v>
       </c>
       <c r="I29" s="82">
         <f t="array" ref="I29">IFERROR(_FV(A29,"Low"),"")</f>
-        <v>317.76</v>
+        <v>318.0172</v>
       </c>
       <c r="J29" s="82">
         <f t="array" ref="J29">IFERROR(_FV(A29,"Price"),"")</f>
-        <v>318.11</v>
+        <v>319.5</v>
       </c>
       <c r="K29" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>317.935</v>
+        <v>318.7586</v>
       </c>
       <c r="L29" s="3">
         <f t="array" ref="L29">IFERROR(_FV(A29,"Change (%)",TRUE),"")</f>
-        <v>-8.199999999999999E-3</v>
+        <v>4.3699999999999998E-3</v>
       </c>
       <c r="M29" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
@@ -11959,7 +11469,7 @@
       </c>
       <c r="O29" s="15">
         <f t="shared" si="1"/>
-        <v>1.4620698200291084E-2</v>
+        <v>1.0315026484527411E-2</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -11985,27 +11495,27 @@
       </c>
       <c r="G30" s="82">
         <f t="array" ref="G30">IFERROR(_FV(A30,"Open"),"")</f>
-        <v>81.72</v>
+        <v>79.64</v>
       </c>
       <c r="H30" s="82">
         <f t="array" ref="H30">IFERROR(_FV(A30,"High"),"")</f>
-        <v>81.72</v>
+        <v>81.262</v>
       </c>
       <c r="I30" s="82">
         <f t="array" ref="I30">IFERROR(_FV(A30,"Low"),"")</f>
-        <v>79.84</v>
+        <v>79.38</v>
       </c>
       <c r="J30" s="82">
         <f t="array" ref="J30">IFERROR(_FV(A30,"Price"),"")</f>
-        <v>79.94</v>
+        <v>80.739999999999995</v>
       </c>
       <c r="K30" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>79.89</v>
+        <v>80.06</v>
       </c>
       <c r="L30" s="3">
         <f t="array" ref="L30">IFERROR(_FV(A30,"Change (%)",TRUE),"")</f>
-        <v>-1.8057E-2</v>
+        <v>1.0008E-2</v>
       </c>
       <c r="M30" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
@@ -12017,7 +11527,7 @@
       </c>
       <c r="O30" s="15">
         <f t="shared" si="1"/>
-        <v>0.19835539510629766</v>
+        <v>0.19033293221018857</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -12043,27 +11553,27 @@
       </c>
       <c r="G31" s="82">
         <f t="array" ref="G31">IFERROR(_FV(A31,"Open"),"")</f>
-        <v>53.29</v>
+        <v>52.5</v>
       </c>
       <c r="H31" s="82">
         <f t="array" ref="H31">IFERROR(_FV(A31,"High"),"")</f>
-        <v>53.343299999999999</v>
+        <v>53.27</v>
       </c>
       <c r="I31" s="82">
         <f t="array" ref="I31">IFERROR(_FV(A31,"Low"),"")</f>
-        <v>52.854999999999997</v>
+        <v>52.41</v>
       </c>
       <c r="J31" s="82">
         <f t="array" ref="J31">IFERROR(_FV(A31,"Price"),"")</f>
-        <v>53.11</v>
+        <v>52.87</v>
       </c>
       <c r="K31" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>52.982500000000002</v>
+        <v>52.64</v>
       </c>
       <c r="L31" s="3">
         <f t="array" ref="L31">IFERROR(_FV(A31,"Change (%)",TRUE),"")</f>
-        <v>-1.6919999999999999E-3</v>
+        <v>-4.5190000000000004E-3</v>
       </c>
       <c r="M31" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
@@ -12075,7 +11585,7 @@
       </c>
       <c r="O31" s="15">
         <f t="shared" si="1"/>
-        <v>1.5569972196478283E-2</v>
+        <v>2.0018535681186382E-2</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -12101,31 +11611,31 @@
       </c>
       <c r="G32" s="82">
         <f t="array" ref="G32">IFERROR(_FV(A32,"Open"),"")</f>
-        <v>340.4</v>
+        <v>336.67</v>
       </c>
       <c r="H32" s="82">
         <f t="array" ref="H32">IFERROR(_FV(A32,"High"),"")</f>
-        <v>340.99900000000002</v>
+        <v>339.97</v>
       </c>
       <c r="I32" s="82">
         <f t="array" ref="I32">IFERROR(_FV(A32,"Low"),"")</f>
-        <v>338.02</v>
+        <v>336.6</v>
       </c>
       <c r="J32" s="82">
         <f t="array" ref="J32">IFERROR(_FV(A32,"Price"),"")</f>
-        <v>338.62</v>
+        <v>339.52010000000001</v>
       </c>
       <c r="K32" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>338.32</v>
+        <v>338.06005000000005</v>
       </c>
       <c r="L32" s="3">
         <f t="array" ref="L32">IFERROR(_FV(A32,"Change (%)",TRUE),"")</f>
-        <v>-4.0590000000000001E-3</v>
+        <v>2.7169999999999998E-3</v>
       </c>
       <c r="M32" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v>340.63119999999998</v>
+        <v>340.99900000000002</v>
       </c>
       <c r="N32" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
@@ -12133,7 +11643,7 @@
       </c>
       <c r="O32" s="15">
         <f t="shared" si="1"/>
-        <v>5.9043328972800324E-3</v>
+        <v>4.3369628649937682E-3</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -12159,31 +11669,31 @@
       </c>
       <c r="G33" s="82">
         <f t="array" ref="G33">IFERROR(_FV(A33,"Open"),"")</f>
-        <v>311.54000000000002</v>
+        <v>308.17</v>
       </c>
       <c r="H33" s="82">
         <f t="array" ref="H33">IFERROR(_FV(A33,"High"),"")</f>
-        <v>312.27999999999997</v>
+        <v>311.125</v>
       </c>
       <c r="I33" s="82">
         <f t="array" ref="I33">IFERROR(_FV(A33,"Low"),"")</f>
-        <v>309.31</v>
+        <v>308.02999999999997</v>
       </c>
       <c r="J33" s="82">
         <f t="array" ref="J33">IFERROR(_FV(A33,"Price"),"")</f>
-        <v>309.77999999999997</v>
+        <v>310.75</v>
       </c>
       <c r="K33" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>309.54499999999996</v>
+        <v>309.39</v>
       </c>
       <c r="L33" s="3">
         <f t="array" ref="L33">IFERROR(_FV(A33,"Change (%)",TRUE),"")</f>
-        <v>-4.3070000000000001E-3</v>
+        <v>3.1310000000000001E-3</v>
       </c>
       <c r="M33" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v>311.58999999999997</v>
+        <v>312.27999999999997</v>
       </c>
       <c r="N33" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
@@ -12191,7 +11701,7 @@
       </c>
       <c r="O33" s="15">
         <f t="shared" si="1"/>
-        <v>5.8089155621168925E-3</v>
+        <v>4.8994492122453335E-3</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -12229,7 +11739,7 @@
       </c>
       <c r="J34" s="82">
         <f t="array" ref="J34">IFERROR(_FV(A34,"Price"),"")</f>
-        <v>12.11</v>
+        <v>12.05</v>
       </c>
       <c r="K34" s="82" t="str">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
@@ -12237,7 +11747,7 @@
       </c>
       <c r="L34" s="3">
         <f t="array" ref="L34">IFERROR(_FV(A34,"Change (%)",TRUE),"")</f>
-        <v>3.3139999999999997E-3</v>
+        <v>-4.9550000000000002E-3</v>
       </c>
       <c r="M34" s="16" t="str">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
@@ -12275,27 +11785,27 @@
       </c>
       <c r="G35" s="82">
         <f t="array" ref="G35">IFERROR(_FV(A35,"Open"),"")</f>
-        <v>124.69</v>
+        <v>123.23</v>
       </c>
       <c r="H35" s="82">
         <f t="array" ref="H35">IFERROR(_FV(A35,"High"),"")</f>
-        <v>125.7</v>
+        <v>123.61</v>
       </c>
       <c r="I35" s="82">
         <f t="array" ref="I35">IFERROR(_FV(A35,"Low"),"")</f>
-        <v>123.77</v>
+        <v>121.97</v>
       </c>
       <c r="J35" s="82">
         <f t="array" ref="J35">IFERROR(_FV(A35,"Price"),"")</f>
-        <v>124.09</v>
+        <v>122.48</v>
       </c>
       <c r="K35" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>123.93</v>
+        <v>122.22499999999999</v>
       </c>
       <c r="L35" s="3">
         <f t="array" ref="L35">IFERROR(_FV(A35,"Change (%)",TRUE),"")</f>
-        <v>-5.3700000000000006E-3</v>
+        <v>-1.2497000000000001E-2</v>
       </c>
       <c r="M35" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
@@ -12307,7 +11817,7 @@
       </c>
       <c r="O35" s="15">
         <f t="shared" si="1"/>
-        <v>3.0305208876274661E-2</v>
+        <v>4.2886469362286406E-2</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -12333,27 +11843,27 @@
       </c>
       <c r="G36" s="82">
         <f t="array" ref="G36">IFERROR(_FV(A36,"Open"),"")</f>
-        <v>172.43</v>
+        <v>169.18</v>
       </c>
       <c r="H36" s="82">
         <f t="array" ref="H36">IFERROR(_FV(A36,"High"),"")</f>
-        <v>172.59</v>
+        <v>170.19</v>
       </c>
       <c r="I36" s="82">
         <f t="array" ref="I36">IFERROR(_FV(A36,"Low"),"")</f>
-        <v>170.64</v>
+        <v>168.23</v>
       </c>
       <c r="J36" s="82">
         <f t="array" ref="J36">IFERROR(_FV(A36,"Price"),"")</f>
-        <v>171.05</v>
+        <v>169.88</v>
       </c>
       <c r="K36" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>170.845</v>
+        <v>169.05500000000001</v>
       </c>
       <c r="L36" s="3">
         <f t="array" ref="L36">IFERROR(_FV(A36,"Change (%)",TRUE),"")</f>
-        <v>-6.1009999999999997E-3</v>
+        <v>-6.8400000000000006E-3</v>
       </c>
       <c r="M36" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
@@ -12365,7 +11875,7 @@
       </c>
       <c r="O36" s="15">
         <f t="shared" si="1"/>
-        <v>1.8814891298112781E-2</v>
+        <v>2.5526300694086027E-2</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -12391,27 +11901,27 @@
       </c>
       <c r="G37" s="82">
         <f t="array" ref="G37">IFERROR(_FV(A37,"Open"),"")</f>
-        <v>163.86</v>
+        <v>162.58000000000001</v>
       </c>
       <c r="H37" s="82">
         <f t="array" ref="H37">IFERROR(_FV(A37,"High"),"")</f>
-        <v>164.12299999999999</v>
+        <v>165.46770000000001</v>
       </c>
       <c r="I37" s="82">
         <f t="array" ref="I37">IFERROR(_FV(A37,"Low"),"")</f>
-        <v>161.52000000000001</v>
+        <v>162.56</v>
       </c>
       <c r="J37" s="82">
         <f t="array" ref="J37">IFERROR(_FV(A37,"Price"),"")</f>
-        <v>162.63589999999999</v>
+        <v>165.46770000000001</v>
       </c>
       <c r="K37" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>162.07794999999999</v>
+        <v>164.01384999999999</v>
       </c>
       <c r="L37" s="3">
         <f t="array" ref="L37">IFERROR(_FV(A37,"Change (%)",TRUE),"")</f>
-        <v>-1.7439999999999999E-3</v>
+        <v>1.6886000000000002E-2</v>
       </c>
       <c r="M37" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
@@ -12423,7 +11933,7 @@
       </c>
       <c r="O37" s="15">
         <f t="shared" si="1"/>
-        <v>2.8285236302802247E-2</v>
+        <v>1.1365836171356855E-2</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -12449,27 +11959,27 @@
       </c>
       <c r="G38" s="82">
         <f t="array" ref="G38">IFERROR(_FV(A38,"Open"),"")</f>
-        <v>33.49</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="H38" s="82">
         <f t="array" ref="H38">IFERROR(_FV(A38,"High"),"")</f>
-        <v>33.729999999999997</v>
+        <v>33.93</v>
       </c>
       <c r="I38" s="82">
         <f t="array" ref="I38">IFERROR(_FV(A38,"Low"),"")</f>
-        <v>33.4</v>
+        <v>33.22</v>
       </c>
       <c r="J38" s="82">
         <f t="array" ref="J38">IFERROR(_FV(A38,"Price"),"")</f>
-        <v>33.47</v>
+        <v>33.85</v>
       </c>
       <c r="K38" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>33.435000000000002</v>
+        <v>33.534999999999997</v>
       </c>
       <c r="L38" s="3">
         <f t="array" ref="L38">IFERROR(_FV(A38,"Change (%)",TRUE),"")</f>
-        <v>2.5309999999999998E-3</v>
+        <v>8.9420000000000003E-3</v>
       </c>
       <c r="M38" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
@@ -12481,7 +11991,7 @@
       </c>
       <c r="O38" s="15">
         <f t="shared" si="1"/>
-        <v>2.7114072110409625E-2</v>
+        <v>1.606845954399054E-2</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -12507,27 +12017,27 @@
       </c>
       <c r="G39" s="82">
         <f t="array" ref="G39">IFERROR(_FV(A39,"Open"),"")</f>
-        <v>48.12</v>
+        <v>47.84</v>
       </c>
       <c r="H39" s="82">
         <f t="array" ref="H39">IFERROR(_FV(A39,"High"),"")</f>
-        <v>48.5</v>
+        <v>48.6494</v>
       </c>
       <c r="I39" s="82">
         <f t="array" ref="I39">IFERROR(_FV(A39,"Low"),"")</f>
-        <v>47.870100000000001</v>
+        <v>47.84</v>
       </c>
       <c r="J39" s="82">
         <f t="array" ref="J39">IFERROR(_FV(A39,"Price"),"")</f>
-        <v>48.04</v>
+        <v>48.540100000000002</v>
       </c>
       <c r="K39" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>47.95505</v>
+        <v>48.190049999999999</v>
       </c>
       <c r="L39" s="3">
         <f t="array" ref="L39">IFERROR(_FV(A39,"Change (%)",TRUE),"")</f>
-        <v>1.042E-3</v>
+        <v>1.0200000000000001E-2</v>
       </c>
       <c r="M39" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
@@ -12539,7 +12049,7 @@
       </c>
       <c r="O39" s="15">
         <f t="shared" si="1"/>
-        <v>3.0560353873722655E-2</v>
+        <v>2.0468414510114108E-2</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -12565,31 +12075,31 @@
       </c>
       <c r="G40" s="82">
         <f t="array" ref="G40">IFERROR(_FV(A40,"Open"),"")</f>
-        <v>186.6</v>
+        <v>185.44</v>
       </c>
       <c r="H40" s="82">
         <f t="array" ref="H40">IFERROR(_FV(A40,"High"),"")</f>
-        <v>188.26900000000001</v>
+        <v>188.89</v>
       </c>
       <c r="I40" s="82">
         <f t="array" ref="I40">IFERROR(_FV(A40,"Low"),"")</f>
-        <v>185.53</v>
+        <v>185.31</v>
       </c>
       <c r="J40" s="82">
         <f t="array" ref="J40">IFERROR(_FV(A40,"Price"),"")</f>
-        <v>186.26</v>
+        <v>188.63</v>
       </c>
       <c r="K40" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>185.89499999999998</v>
+        <v>186.97</v>
       </c>
       <c r="L40" s="3">
         <f t="array" ref="L40">IFERROR(_FV(A40,"Change (%)",TRUE),"")</f>
-        <v>-2.1429999999999999E-3</v>
+        <v>1.2506999999999999E-2</v>
       </c>
       <c r="M40" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v>188.1</v>
+        <v>188.63</v>
       </c>
       <c r="N40" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
@@ -12597,7 +12107,7 @@
       </c>
       <c r="O40" s="79">
         <f t="shared" si="1"/>
-        <v>9.7820308346624318E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -12623,31 +12133,31 @@
       </c>
       <c r="G41" s="82">
         <f t="array" ref="G41">IFERROR(_FV(A41,"Open"),"")</f>
-        <v>90.93</v>
+        <v>90.28</v>
       </c>
       <c r="H41" s="82">
         <f t="array" ref="H41">IFERROR(_FV(A41,"High"),"")</f>
-        <v>91.31</v>
+        <v>91.75</v>
       </c>
       <c r="I41" s="82">
         <f t="array" ref="I41">IFERROR(_FV(A41,"Low"),"")</f>
-        <v>90.44</v>
+        <v>90.261499999999998</v>
       </c>
       <c r="J41" s="82">
         <f t="array" ref="J41">IFERROR(_FV(A41,"Price"),"")</f>
-        <v>90.48</v>
+        <v>91.71</v>
       </c>
       <c r="K41" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>90.460000000000008</v>
+        <v>90.985749999999996</v>
       </c>
       <c r="L41" s="3">
         <f t="array" ref="L41">IFERROR(_FV(A41,"Change (%)",TRUE),"")</f>
-        <v>-2.7550000000000001E-3</v>
+        <v>1.3146E-2</v>
       </c>
       <c r="M41" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v>91.129000000000005</v>
+        <v>91.71</v>
       </c>
       <c r="N41" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
@@ -12655,7 +12165,7 @@
       </c>
       <c r="O41" s="15">
         <f t="shared" si="1"/>
-        <v>7.1217724324858268E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -12681,27 +12191,27 @@
       </c>
       <c r="G42" s="82">
         <f t="array" ref="G42">IFERROR(_FV(A42,"Open"),"")</f>
-        <v>69.45</v>
+        <v>68.739999999999995</v>
       </c>
       <c r="H42" s="82">
         <f t="array" ref="H42">IFERROR(_FV(A42,"High"),"")</f>
-        <v>69.555000000000007</v>
+        <v>69.275000000000006</v>
       </c>
       <c r="I42" s="82">
         <f t="array" ref="I42">IFERROR(_FV(A42,"Low"),"")</f>
-        <v>69.010000000000005</v>
+        <v>68.739999999999995</v>
       </c>
       <c r="J42" s="82">
         <f t="array" ref="J42">IFERROR(_FV(A42,"Price"),"")</f>
-        <v>69.010000000000005</v>
+        <v>69.069999999999993</v>
       </c>
       <c r="K42" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>69.010000000000005</v>
+        <v>68.905000000000001</v>
       </c>
       <c r="L42" s="3">
         <f t="array" ref="L42">IFERROR(_FV(A42,"Change (%)",TRUE),"")</f>
-        <v>-3.4660000000000003E-3</v>
+        <v>-2.0230000000000001E-3</v>
       </c>
       <c r="M42" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
@@ -12713,7 +12223,7 @@
       </c>
       <c r="O42" s="15">
         <f t="shared" si="1"/>
-        <v>1.0467450530541867E-2</v>
+        <v>9.6071121307714624E-3</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
@@ -12739,31 +12249,31 @@
       </c>
       <c r="G43" s="82">
         <f t="array" ref="G43">IFERROR(_FV(A43,"Open"),"")</f>
-        <v>307.505</v>
+        <v>305.33999999999997</v>
       </c>
       <c r="H43" s="82">
         <f t="array" ref="H43">IFERROR(_FV(A43,"High"),"")</f>
-        <v>309.06</v>
+        <v>310.55</v>
       </c>
       <c r="I43" s="82">
         <f t="array" ref="I43">IFERROR(_FV(A43,"Low"),"")</f>
-        <v>306</v>
+        <v>304.82</v>
       </c>
       <c r="J43" s="82">
         <f t="array" ref="J43">IFERROR(_FV(A43,"Price"),"")</f>
-        <v>306.41000000000003</v>
+        <v>310.55</v>
       </c>
       <c r="K43" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>306.20500000000004</v>
+        <v>307.685</v>
       </c>
       <c r="L43" s="3">
         <f t="array" ref="L43">IFERROR(_FV(A43,"Change (%)",TRUE),"")</f>
-        <v>-1.5640000000000001E-3</v>
+        <v>1.3576999999999999E-2</v>
       </c>
       <c r="M43" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v>308.47000000000003</v>
+        <v>310.55</v>
       </c>
       <c r="N43" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
@@ -12771,7 +12281,7 @@
       </c>
       <c r="O43" s="15">
         <f t="shared" si="1"/>
-        <v>6.6781210490485365E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -12797,31 +12307,31 @@
       </c>
       <c r="G44" s="82">
         <f t="array" ref="G44">IFERROR(_FV(A44,"Open"),"")</f>
-        <v>115.33</v>
+        <v>114.485</v>
       </c>
       <c r="H44" s="82">
         <f t="array" ref="H44">IFERROR(_FV(A44,"High"),"")</f>
-        <v>115.87</v>
+        <v>116.58</v>
       </c>
       <c r="I44" s="82">
         <f t="array" ref="I44">IFERROR(_FV(A44,"Low"),"")</f>
-        <v>114.735</v>
+        <v>114.39</v>
       </c>
       <c r="J44" s="82">
         <f t="array" ref="J44">IFERROR(_FV(A44,"Price"),"")</f>
-        <v>115.02</v>
+        <v>116.56</v>
       </c>
       <c r="K44" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>114.8775</v>
+        <v>115.47499999999999</v>
       </c>
       <c r="L44" s="3">
         <f t="array" ref="L44">IFERROR(_FV(A44,"Change (%)",TRUE),"")</f>
-        <v>-7.8189999999999998E-4</v>
+        <v>1.3389E-2</v>
       </c>
       <c r="M44" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v>115.57</v>
+        <v>116.56</v>
       </c>
       <c r="N44" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
@@ -12829,7 +12339,7 @@
       </c>
       <c r="O44" s="79">
         <f t="shared" si="1"/>
-        <v>4.7590205070519786E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -12855,27 +12365,27 @@
       </c>
       <c r="G45" s="82">
         <f t="array" ref="G45">IFERROR(_FV(A45,"Open"),"")</f>
-        <v>27.05</v>
+        <v>26.63</v>
       </c>
       <c r="H45" s="82">
         <f t="array" ref="H45">IFERROR(_FV(A45,"High"),"")</f>
-        <v>27.12</v>
+        <v>26.7178</v>
       </c>
       <c r="I45" s="82">
         <f t="array" ref="I45">IFERROR(_FV(A45,"Low"),"")</f>
-        <v>26.79</v>
+        <v>26.55</v>
       </c>
       <c r="J45" s="82">
         <f t="array" ref="J45">IFERROR(_FV(A45,"Price"),"")</f>
-        <v>26.85</v>
+        <v>26.655000000000001</v>
       </c>
       <c r="K45" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>26.82</v>
+        <v>26.602499999999999</v>
       </c>
       <c r="L45" s="3">
         <f t="array" ref="L45">IFERROR(_FV(A45,"Change (%)",TRUE),"")</f>
-        <v>-5.9240000000000004E-3</v>
+        <v>-7.2629999999999995E-3</v>
       </c>
       <c r="M45" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
@@ -12887,7 +12397,7 @@
       </c>
       <c r="O45" s="15">
         <f t="shared" si="1"/>
-        <v>1.9679433349154694E-2</v>
+        <v>2.67990799225966E-2</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
@@ -12913,27 +12423,27 @@
       </c>
       <c r="G46" s="82">
         <f t="array" ref="G46">IFERROR(_FV(A46,"Open"),"")</f>
-        <v>172.28</v>
+        <v>170.5</v>
       </c>
       <c r="H46" s="82">
         <f t="array" ref="H46">IFERROR(_FV(A46,"High"),"")</f>
-        <v>172.5</v>
+        <v>172</v>
       </c>
       <c r="I46" s="82">
         <f t="array" ref="I46">IFERROR(_FV(A46,"Low"),"")</f>
-        <v>171</v>
+        <v>170.18770000000001</v>
       </c>
       <c r="J46" s="82">
         <f t="array" ref="J46">IFERROR(_FV(A46,"Price"),"")</f>
-        <v>171.29</v>
+        <v>171.77500000000001</v>
       </c>
       <c r="K46" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>171.14499999999998</v>
+        <v>170.98135000000002</v>
       </c>
       <c r="L46" s="3">
         <f t="array" ref="L46">IFERROR(_FV(A46,"Change (%)",TRUE),"")</f>
-        <v>-3.7219999999999996E-3</v>
+        <v>2.8310000000000002E-3</v>
       </c>
       <c r="M46" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
@@ -12945,7 +12455,7 @@
       </c>
       <c r="O46" s="15">
         <f t="shared" si="1"/>
-        <v>7.3407755247985986E-3</v>
+        <v>4.5301051770229766E-3</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
@@ -12983,7 +12493,7 @@
       </c>
       <c r="J47" s="82">
         <f t="array" ref="J47">IFERROR(_FV(A47,"Price"),"")</f>
-        <v>12</v>
+        <v>11.95</v>
       </c>
       <c r="K47" s="82" t="str">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
@@ -12991,7 +12501,7 @@
       </c>
       <c r="L47" s="3">
         <f t="array" ref="L47">IFERROR(_FV(A47,"Change (%)",TRUE),"")</f>
-        <v>1.6689999999999999E-3</v>
+        <v>-4.1670000000000006E-3</v>
       </c>
       <c r="M47" s="16" t="str">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
@@ -13041,7 +12551,7 @@
       </c>
       <c r="J48" s="82" cm="1">
         <f t="array" ref="J48">IFERROR(_FV(A48,"Price"),"")</f>
-        <v>95.67</v>
+        <v>95.27</v>
       </c>
       <c r="K48" s="82" t="str">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
@@ -13049,7 +12559,7 @@
       </c>
       <c r="L48" s="3" cm="1">
         <f t="array" ref="L48">IFERROR(_FV(A48,"Change (%)",TRUE),"")</f>
-        <v>1.4660000000000001E-3</v>
+        <v>-4.1810000000000007E-3</v>
       </c>
       <c r="M48" s="16" t="str">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
@@ -13066,21 +12576,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="63" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O1048576">
-    <cfRule type="cellIs" dxfId="62" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="46" priority="1" operator="greaterThanOrEqual">
       <formula>0.15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="45" priority="2" operator="greaterThanOrEqual">
       <formula>0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="3" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="44" priority="3" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A48">
-    <cfRule type="duplicateValues" dxfId="59" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="33"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -17968,23 +17478,23 @@
       </c>
       <c r="G2" s="2" cm="1">
         <f t="array" ref="G2">_FV(A2,"Open")</f>
-        <v>93.64</v>
+        <v>92.42</v>
       </c>
       <c r="H2" s="2" cm="1">
         <f t="array" ref="H2">_FV(A2,"High")</f>
-        <v>93.94</v>
+        <v>92.94</v>
       </c>
       <c r="I2" s="2" cm="1">
         <f t="array" ref="I2">_FV(A2,"Low")</f>
-        <v>92.78</v>
+        <v>91.95</v>
       </c>
       <c r="J2" s="2" cm="1">
         <f t="array" ref="J2">_FV(A2,"Price")</f>
-        <v>93.04</v>
+        <v>92.51</v>
       </c>
       <c r="K2" s="3" cm="1">
         <f t="array" ref="K2">_FV(A2,"Change (%)",TRUE)</f>
-        <v>-5.5579999999999996E-3</v>
+        <v>-5.483E-3</v>
       </c>
       <c r="L2" s="2" cm="1">
         <f t="array" ref="L2">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
@@ -17996,7 +17506,7 @@
       </c>
       <c r="N2" s="3">
         <f t="shared" ref="N2:N26" si="0">(L2-J2)/L2</f>
-        <v>0.14312027997789642</v>
+        <v>0.14800147356787616</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -18022,23 +17532,23 @@
       </c>
       <c r="G3" s="2" cm="1">
         <f t="array" ref="G3">_FV(A3,"Open")</f>
-        <v>25.76</v>
+        <v>25.1</v>
       </c>
       <c r="H3" s="2" cm="1">
         <f t="array" ref="H3">_FV(A3,"High")</f>
-        <v>25.795000000000002</v>
+        <v>25.145</v>
       </c>
       <c r="I3" s="2" cm="1">
         <f t="array" ref="I3">_FV(A3,"Low")</f>
-        <v>25.5</v>
+        <v>24.88</v>
       </c>
       <c r="J3" s="2" cm="1">
         <f t="array" ref="J3">_FV(A3,"Price")</f>
-        <v>25.52</v>
+        <v>24.975000000000001</v>
       </c>
       <c r="K3" s="3" cm="1">
         <f t="array" ref="K3">_FV(A3,"Change (%)",TRUE)</f>
-        <v>-1.9550000000000001E-3</v>
+        <v>-2.1547999999999998E-2</v>
       </c>
       <c r="L3" s="2" cm="1">
         <f t="array" ref="L3">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
@@ -18050,7 +17560,7 @@
       </c>
       <c r="N3" s="3">
         <f t="shared" si="0"/>
-        <v>0.13315217391304354</v>
+        <v>0.15166440217391303</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -18076,23 +17586,23 @@
       </c>
       <c r="G4" s="2" cm="1">
         <f t="array" ref="G4">_FV(A4,"Open")</f>
-        <v>24</v>
+        <v>23.76</v>
       </c>
       <c r="H4" s="2" cm="1">
         <f t="array" ref="H4">_FV(A4,"High")</f>
-        <v>24.385000000000002</v>
+        <v>23.93</v>
       </c>
       <c r="I4" s="2" cm="1">
         <f t="array" ref="I4">_FV(A4,"Low")</f>
-        <v>23.84</v>
+        <v>23.6</v>
       </c>
       <c r="J4" s="2" cm="1">
         <f t="array" ref="J4">_FV(A4,"Price")</f>
-        <v>24.07</v>
+        <v>23.73</v>
       </c>
       <c r="K4" s="3" cm="1">
         <f t="array" ref="K4">_FV(A4,"Change (%)",TRUE)</f>
-        <v>1.248E-3</v>
+        <v>-1.4125E-2</v>
       </c>
       <c r="L4" s="2" cm="1">
         <f t="array" ref="L4">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
@@ -18104,7 +17614,7 @@
       </c>
       <c r="N4" s="3">
         <f t="shared" si="0"/>
-        <v>0.56036529680365299</v>
+        <v>0.56657534246575336</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -18130,23 +17640,23 @@
       </c>
       <c r="G5" s="2" cm="1">
         <f t="array" ref="G5">_FV(A5,"Open")</f>
-        <v>25.66</v>
+        <v>25.07</v>
       </c>
       <c r="H5" s="2" cm="1">
         <f t="array" ref="H5">_FV(A5,"High")</f>
-        <v>26.08</v>
+        <v>25.324999999999999</v>
       </c>
       <c r="I5" s="2" cm="1">
         <f t="array" ref="I5">_FV(A5,"Low")</f>
-        <v>25.39</v>
+        <v>25.02</v>
       </c>
       <c r="J5" s="2" cm="1">
         <f t="array" ref="J5">_FV(A5,"Price")</f>
-        <v>25.51</v>
+        <v>25.114999999999998</v>
       </c>
       <c r="K5" s="3" cm="1">
         <f t="array" ref="K5">_FV(A5,"Change (%)",TRUE)</f>
-        <v>-7.8340000000000007E-4</v>
+        <v>-1.5484E-2</v>
       </c>
       <c r="L5" s="2" cm="1">
         <f t="array" ref="L5">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
@@ -18158,7 +17668,7 @@
       </c>
       <c r="N5" s="3">
         <f t="shared" si="0"/>
-        <v>0.28583426651735716</v>
+        <v>0.29689249720044797</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -18184,23 +17694,23 @@
       </c>
       <c r="G6" s="2" cm="1">
         <f t="array" ref="G6">_FV(A6,"Open")</f>
-        <v>98.95</v>
+        <v>97.26</v>
       </c>
       <c r="H6" s="2" cm="1">
         <f t="array" ref="H6">_FV(A6,"High")</f>
-        <v>100.59</v>
+        <v>98.03</v>
       </c>
       <c r="I6" s="2" cm="1">
         <f t="array" ref="I6">_FV(A6,"Low")</f>
-        <v>98.35</v>
+        <v>96.8</v>
       </c>
       <c r="J6" s="2" cm="1">
         <f t="array" ref="J6">_FV(A6,"Price")</f>
-        <v>98.55</v>
+        <v>97.26</v>
       </c>
       <c r="K6" s="3" cm="1">
         <f t="array" ref="K6">_FV(A6,"Change (%)",TRUE)</f>
-        <v>2.2370000000000003E-3</v>
+        <v>-1.3089999999999999E-2</v>
       </c>
       <c r="L6" s="2" cm="1">
         <f t="array" ref="L6">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
@@ -18212,7 +17722,7 @@
       </c>
       <c r="N6" s="3">
         <f t="shared" si="0"/>
-        <v>0.30155917788802267</v>
+        <v>0.31070163004961016</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -18235,23 +17745,23 @@
       </c>
       <c r="G7" s="2" cm="1">
         <f t="array" ref="G7">_FV(A7,"Open")</f>
-        <v>48.07</v>
+        <v>47.32</v>
       </c>
       <c r="H7" s="2" cm="1">
         <f t="array" ref="H7">_FV(A7,"High")</f>
-        <v>48.38</v>
+        <v>47.6</v>
       </c>
       <c r="I7" s="2" cm="1">
         <f t="array" ref="I7">_FV(A7,"Low")</f>
-        <v>47.22</v>
+        <v>47.1</v>
       </c>
       <c r="J7" s="2" cm="1">
         <f t="array" ref="J7">_FV(A7,"Price")</f>
-        <v>47.37</v>
+        <v>47.255000000000003</v>
       </c>
       <c r="K7" s="3" cm="1">
         <f t="array" ref="K7">_FV(A7,"Change (%)",TRUE)</f>
-        <v>-2.1684999999999999E-2</v>
+        <v>-2.428E-3</v>
       </c>
       <c r="L7" s="2" cm="1">
         <f t="array" ref="L7">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
@@ -18263,7 +17773,7 @@
       </c>
       <c r="N7" s="3">
         <f t="shared" si="0"/>
-        <v>0.21220688508232172</v>
+        <v>0.21411940794944287</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -18286,23 +17796,23 @@
       </c>
       <c r="G8" s="2">
         <f t="array" ref="G8">_FV(A8,"Open")</f>
-        <v>341.12</v>
+        <v>340.14</v>
       </c>
       <c r="H8" s="2">
         <f t="array" ref="H8">_FV(A8,"High")</f>
-        <v>341.94</v>
+        <v>341.12</v>
       </c>
       <c r="I8" s="2">
         <f t="array" ref="I8">_FV(A8,"Low")</f>
-        <v>339.95</v>
+        <v>338.74</v>
       </c>
       <c r="J8" s="2">
         <f t="array" ref="J8">_FV(A8,"Price")</f>
-        <v>340.9</v>
+        <v>340.76</v>
       </c>
       <c r="K8" s="3">
         <f t="array" ref="K8">_FV(A8,"Change (%)",TRUE)</f>
-        <v>4.4019999999999997E-4</v>
+        <v>-4.1070000000000001E-4</v>
       </c>
       <c r="L8" s="2">
         <f t="array" ref="L8">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
@@ -18314,7 +17824,7 @@
       </c>
       <c r="N8" s="3">
         <f t="shared" si="0"/>
-        <v>1.2227630968938419E-2</v>
+        <v>1.2633286972647234E-2</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -18339,23 +17849,23 @@
       </c>
       <c r="G9" s="2" cm="1">
         <f t="array" ref="G9">_FV(A9,"Open")</f>
-        <v>39.340000000000003</v>
+        <v>38.58</v>
       </c>
       <c r="H9" s="2" cm="1">
         <f t="array" ref="H9">_FV(A9,"High")</f>
-        <v>39.67</v>
+        <v>38.979999999999997</v>
       </c>
       <c r="I9" s="2" cm="1">
         <f t="array" ref="I9">_FV(A9,"Low")</f>
-        <v>38.51</v>
+        <v>38.31</v>
       </c>
       <c r="J9" s="2" cm="1">
         <f t="array" ref="J9">_FV(A9,"Price")</f>
-        <v>39</v>
+        <v>38.424999999999997</v>
       </c>
       <c r="K9" s="3" cm="1">
         <f t="array" ref="K9">_FV(A9,"Change (%)",TRUE)</f>
-        <v>-1.3158000000000001E-2</v>
+        <v>-2.4746000000000001E-2</v>
       </c>
       <c r="L9" s="2" cm="1">
         <f t="array" ref="L9">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
@@ -18367,7 +17877,7 @@
       </c>
       <c r="N9" s="3">
         <f t="shared" si="0"/>
-        <v>0.20892494929006081</v>
+        <v>0.22058823529411767</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -18393,23 +17903,23 @@
       </c>
       <c r="G10" s="2" cm="1">
         <f t="array" ref="G10">_FV(A10,"Open")</f>
-        <v>19.899999999999999</v>
+        <v>19.670000000000002</v>
       </c>
       <c r="H10" s="2" cm="1">
         <f t="array" ref="H10">_FV(A10,"High")</f>
-        <v>20.394400000000001</v>
+        <v>19.73</v>
       </c>
       <c r="I10" s="2" cm="1">
         <f t="array" ref="I10">_FV(A10,"Low")</f>
-        <v>19.63</v>
+        <v>19.14</v>
       </c>
       <c r="J10" s="2" cm="1">
         <f t="array" ref="J10">_FV(A10,"Price")</f>
-        <v>19.75</v>
+        <v>19.274999999999999</v>
       </c>
       <c r="K10" s="3" cm="1">
         <f t="array" ref="K10">_FV(A10,"Change (%)",TRUE)</f>
-        <v>-1.0521000000000001E-2</v>
+        <v>-2.4544999999999997E-2</v>
       </c>
       <c r="L10" s="2" cm="1">
         <f t="array" ref="L10">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
@@ -18421,7 +17931,7 @@
       </c>
       <c r="N10" s="3">
         <f t="shared" si="0"/>
-        <v>0.66817876344086025</v>
+        <v>0.67615927419354838</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -18447,23 +17957,23 @@
       </c>
       <c r="G11" s="2" cm="1">
         <f t="array" ref="G11">_FV(A11,"Open")</f>
-        <v>25.86</v>
+        <v>25.21</v>
       </c>
       <c r="H11" s="2" cm="1">
         <f t="array" ref="H11">_FV(A11,"High")</f>
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="I11" s="2" cm="1">
         <f t="array" ref="I11">_FV(A11,"Low")</f>
-        <v>25.5</v>
+        <v>24.86</v>
       </c>
       <c r="J11" s="2" cm="1">
         <f t="array" ref="J11">_FV(A11,"Price")</f>
-        <v>25.57</v>
+        <v>25.75</v>
       </c>
       <c r="K11" s="3" cm="1">
         <f t="array" ref="K11">_FV(A11,"Change (%)",TRUE)</f>
-        <v>-1.7672E-2</v>
+        <v>7.0390000000000001E-3</v>
       </c>
       <c r="L11" s="2" cm="1">
         <f t="array" ref="L11">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
@@ -18475,7 +17985,7 @@
       </c>
       <c r="N11" s="3">
         <f t="shared" si="0"/>
-        <v>0.43479221927497791</v>
+        <v>0.43081343943412914</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -18501,23 +18011,23 @@
       </c>
       <c r="G12" s="2" cm="1">
         <f t="array" ref="G12">_FV(A12,"Open")</f>
-        <v>27.83</v>
+        <v>27.29</v>
       </c>
       <c r="H12" s="2" cm="1">
         <f t="array" ref="H12">_FV(A12,"High")</f>
-        <v>28.35</v>
+        <v>27.96</v>
       </c>
       <c r="I12" s="2" cm="1">
         <f t="array" ref="I12">_FV(A12,"Low")</f>
-        <v>27.62</v>
+        <v>26.96</v>
       </c>
       <c r="J12" s="2" cm="1">
         <f t="array" ref="J12">_FV(A12,"Price")</f>
-        <v>27.9</v>
+        <v>27.702100000000002</v>
       </c>
       <c r="K12" s="3" cm="1">
         <f t="array" ref="K12">_FV(A12,"Change (%)",TRUE)</f>
-        <v>-7.8239999999999994E-3</v>
+        <v>-6.7369999999999999E-3</v>
       </c>
       <c r="L12" s="2" cm="1">
         <f t="array" ref="L12">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
@@ -18529,7 +18039,7 @@
       </c>
       <c r="N12" s="3">
         <f t="shared" si="0"/>
-        <v>0.47487295313382277</v>
+        <v>0.47859777903256162</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -18555,23 +18065,23 @@
       </c>
       <c r="G13" s="2" cm="1">
         <f t="array" ref="G13">_FV(A13,"Open")</f>
-        <v>48.15</v>
+        <v>46.86</v>
       </c>
       <c r="H13" s="2" cm="1">
         <f t="array" ref="H13">_FV(A13,"High")</f>
-        <v>48.48</v>
+        <v>47.782400000000003</v>
       </c>
       <c r="I13" s="2" cm="1">
         <f t="array" ref="I13">_FV(A13,"Low")</f>
-        <v>47.22</v>
+        <v>46.62</v>
       </c>
       <c r="J13" s="2" cm="1">
         <f t="array" ref="J13">_FV(A13,"Price")</f>
-        <v>47.47</v>
+        <v>47.534999999999997</v>
       </c>
       <c r="K13" s="3" cm="1">
         <f t="array" ref="K13">_FV(A13,"Change (%)",TRUE)</f>
-        <v>-4.6129999999999999E-3</v>
+        <v>1.158E-3</v>
       </c>
       <c r="L13" s="2" cm="1">
         <f t="array" ref="L13">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
@@ -18583,7 +18093,7 @@
       </c>
       <c r="N13" s="3">
         <f t="shared" si="0"/>
-        <v>0.36101763359806172</v>
+        <v>0.36014268407591882</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -18609,23 +18119,23 @@
       </c>
       <c r="G14" s="2" cm="1">
         <f t="array" ref="G14">_FV(A14,"Open")</f>
-        <v>79.25</v>
+        <v>77.08</v>
       </c>
       <c r="H14" s="2" cm="1">
         <f t="array" ref="H14">_FV(A14,"High")</f>
-        <v>79.385000000000005</v>
+        <v>77.650000000000006</v>
       </c>
       <c r="I14" s="2" cm="1">
         <f t="array" ref="I14">_FV(A14,"Low")</f>
-        <v>77.430000000000007</v>
+        <v>76.4602</v>
       </c>
       <c r="J14" s="2" cm="1">
         <f t="array" ref="J14">_FV(A14,"Price")</f>
-        <v>77.63</v>
+        <v>77.224999999999994</v>
       </c>
       <c r="K14" s="3" cm="1">
         <f t="array" ref="K14">_FV(A14,"Change (%)",TRUE)</f>
-        <v>-1.7217E-2</v>
+        <v>-5.2170000000000003E-3</v>
       </c>
       <c r="L14" s="2" cm="1">
         <f t="array" ref="L14">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
@@ -18637,7 +18147,7 @@
       </c>
       <c r="N14" s="3">
         <f t="shared" si="0"/>
-        <v>0.20898716119828822</v>
+        <v>0.21311391889137973</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -18663,23 +18173,23 @@
       </c>
       <c r="G15" s="2" cm="1">
         <f t="array" ref="G15">_FV(A15,"Open")</f>
-        <v>13.96</v>
+        <v>13.5</v>
       </c>
       <c r="H15" s="2" cm="1">
         <f t="array" ref="H15">_FV(A15,"High")</f>
-        <v>14.12</v>
+        <v>13.72</v>
       </c>
       <c r="I15" s="2" cm="1">
         <f t="array" ref="I15">_FV(A15,"Low")</f>
-        <v>13.75</v>
+        <v>13.25</v>
       </c>
       <c r="J15" s="2" cm="1">
         <f t="array" ref="J15">_FV(A15,"Price")</f>
-        <v>13.81</v>
+        <v>13.484999999999999</v>
       </c>
       <c r="K15" s="3" cm="1">
         <f t="array" ref="K15">_FV(A15,"Change (%)",TRUE)</f>
-        <v>-1.0744999999999999E-2</v>
+        <v>-2.3534000000000003E-2</v>
       </c>
       <c r="L15" s="2" cm="1">
         <f t="array" ref="L15">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
@@ -18691,7 +18201,7 @@
       </c>
       <c r="N15" s="3">
         <f t="shared" si="0"/>
-        <v>0.71729785056294781</v>
+        <v>0.72395087001023539</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -18717,23 +18227,23 @@
       </c>
       <c r="G16" s="2" cm="1">
         <f t="array" ref="G16">_FV(A16,"Open")</f>
-        <v>30.58</v>
+        <v>30.13</v>
       </c>
       <c r="H16" s="2" cm="1">
         <f t="array" ref="H16">_FV(A16,"High")</f>
-        <v>30.89</v>
+        <v>30.32</v>
       </c>
       <c r="I16" s="2" cm="1">
         <f t="array" ref="I16">_FV(A16,"Low")</f>
-        <v>30.355</v>
+        <v>29.95</v>
       </c>
       <c r="J16" s="2" cm="1">
         <f t="array" ref="J16">_FV(A16,"Price")</f>
-        <v>30.425000000000001</v>
+        <v>30.09</v>
       </c>
       <c r="K16" s="3" cm="1">
         <f t="array" ref="K16">_FV(A16,"Change (%)",TRUE)</f>
-        <v>-3.7659999999999998E-3</v>
+        <v>-1.1011E-2</v>
       </c>
       <c r="L16" s="2" cm="1">
         <f t="array" ref="L16">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
@@ -18745,7 +18255,7 @@
       </c>
       <c r="N16" s="3">
         <f t="shared" si="0"/>
-        <v>0.5026156612718653</v>
+        <v>0.5080922020598333</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -18771,23 +18281,23 @@
       </c>
       <c r="G17" s="2" cm="1">
         <f t="array" ref="G17">_FV(A17,"Open")</f>
-        <v>54.48</v>
+        <v>53.68</v>
       </c>
       <c r="H17" s="2" cm="1">
         <f t="array" ref="H17">_FV(A17,"High")</f>
-        <v>54.979900000000001</v>
+        <v>53.94</v>
       </c>
       <c r="I17" s="2" cm="1">
         <f t="array" ref="I17">_FV(A17,"Low")</f>
-        <v>53.68</v>
+        <v>52</v>
       </c>
       <c r="J17" s="2" cm="1">
         <f t="array" ref="J17">_FV(A17,"Price")</f>
-        <v>54.274999999999999</v>
+        <v>52.81</v>
       </c>
       <c r="K17" s="3" cm="1">
         <f t="array" ref="K17">_FV(A17,"Change (%)",TRUE)</f>
-        <v>-8.6759999999999997E-3</v>
+        <v>-2.6991999999999999E-2</v>
       </c>
       <c r="L17" s="2" cm="1">
         <f t="array" ref="L17">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
@@ -18799,7 +18309,7 @@
       </c>
       <c r="N17" s="3">
         <f t="shared" si="0"/>
-        <v>0.46783998431218743</v>
+        <v>0.48220413766055492</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -18825,23 +18335,23 @@
       </c>
       <c r="G18" s="2" cm="1">
         <f t="array" ref="G18">_FV(A18,"Open")</f>
-        <v>42.31</v>
+        <v>41.69</v>
       </c>
       <c r="H18" s="2" cm="1">
         <f t="array" ref="H18">_FV(A18,"High")</f>
-        <v>42.655000000000001</v>
+        <v>41.884999999999998</v>
       </c>
       <c r="I18" s="2" cm="1">
         <f t="array" ref="I18">_FV(A18,"Low")</f>
-        <v>41.865000000000002</v>
+        <v>41.33</v>
       </c>
       <c r="J18" s="2" cm="1">
         <f t="array" ref="J18">_FV(A18,"Price")</f>
-        <v>41.96</v>
+        <v>41.5</v>
       </c>
       <c r="K18" s="3" cm="1">
         <f t="array" ref="K18">_FV(A18,"Change (%)",TRUE)</f>
-        <v>-1.0843999999999999E-2</v>
+        <v>-1.0963000000000001E-2</v>
       </c>
       <c r="L18" s="2" cm="1">
         <f t="array" ref="L18">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
@@ -18853,7 +18363,7 @@
       </c>
       <c r="N18" s="3">
         <f t="shared" si="0"/>
-        <v>0.44187283852088327</v>
+        <v>0.44799148709763242</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -18879,23 +18389,23 @@
       </c>
       <c r="G19" s="2" cm="1">
         <f t="array" ref="G19">_FV(A19,"Open")</f>
-        <v>40.119999999999997</v>
+        <v>39.049999999999997</v>
       </c>
       <c r="H19" s="2" cm="1">
         <f t="array" ref="H19">_FV(A19,"High")</f>
-        <v>40.32</v>
+        <v>39.31</v>
       </c>
       <c r="I19" s="2" cm="1">
         <f t="array" ref="I19">_FV(A19,"Low")</f>
-        <v>39.53</v>
+        <v>38.729999999999997</v>
       </c>
       <c r="J19" s="2" cm="1">
         <f t="array" ref="J19">_FV(A19,"Price")</f>
-        <v>39.65</v>
+        <v>38.880000000000003</v>
       </c>
       <c r="K19" s="3" cm="1">
         <f t="array" ref="K19">_FV(A19,"Change (%)",TRUE)</f>
-        <v>-1.6617E-2</v>
+        <v>-1.942E-2</v>
       </c>
       <c r="L19" s="2" cm="1">
         <f t="array" ref="L19">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
@@ -18907,7 +18417,7 @@
       </c>
       <c r="N19" s="3">
         <f t="shared" si="0"/>
-        <v>0.40935498286906002</v>
+        <v>0.4208252644123342</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -18932,23 +18442,23 @@
       </c>
       <c r="G20" s="2" cm="1">
         <f t="array" ref="G20">_FV(A20,"Open")</f>
-        <v>41.14</v>
+        <v>41.05</v>
       </c>
       <c r="H20" s="2" cm="1">
         <f t="array" ref="H20">_FV(A20,"High")</f>
-        <v>41.72</v>
+        <v>41.22</v>
       </c>
       <c r="I20" s="2" cm="1">
         <f t="array" ref="I20">_FV(A20,"Low")</f>
-        <v>41</v>
+        <v>40.57</v>
       </c>
       <c r="J20" s="2" cm="1">
         <f t="array" ref="J20">_FV(A20,"Price")</f>
-        <v>41.37</v>
+        <v>41.1</v>
       </c>
       <c r="K20" s="3" cm="1">
         <f t="array" ref="K20">_FV(A20,"Change (%)",TRUE)</f>
-        <v>4.614E-3</v>
+        <v>-6.7669999999999996E-3</v>
       </c>
       <c r="L20" s="2" cm="1">
         <f t="array" ref="L20">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
@@ -18960,7 +18470,7 @@
       </c>
       <c r="N20" s="3">
         <f t="shared" si="0"/>
-        <v>0.38937269372693728</v>
+        <v>0.39335793357933579</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -18986,23 +18496,23 @@
       </c>
       <c r="G21" s="2" cm="1">
         <f t="array" ref="G21">_FV(A21,"Open")</f>
-        <v>87.54</v>
+        <v>85.37</v>
       </c>
       <c r="H21" s="2" cm="1">
         <f t="array" ref="H21">_FV(A21,"High")</f>
-        <v>87.88</v>
+        <v>86.89</v>
       </c>
       <c r="I21" s="2" cm="1">
         <f t="array" ref="I21">_FV(A21,"Low")</f>
-        <v>86.200299999999999</v>
+        <v>84.73</v>
       </c>
       <c r="J21" s="2" cm="1">
         <f t="array" ref="J21">_FV(A21,"Price")</f>
-        <v>86.4</v>
+        <v>85.08</v>
       </c>
       <c r="K21" s="3" cm="1">
         <f t="array" ref="K21">_FV(A21,"Change (%)",TRUE)</f>
-        <v>-1.3698999999999999E-2</v>
+        <v>-1.5278E-2</v>
       </c>
       <c r="L21" s="2" cm="1">
         <f t="array" ref="L21">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
@@ -19014,7 +18524,7 @@
       </c>
       <c r="N21" s="3">
         <f t="shared" si="0"/>
-        <v>0.31028977408796993</v>
+        <v>0.32082701365051486</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -19040,27 +18550,27 @@
       </c>
       <c r="G22" s="2" cm="1">
         <f t="array" ref="G22">_FV(A22,"Open")</f>
-        <v>14.81</v>
+        <v>14.63</v>
       </c>
       <c r="H22" s="2" cm="1">
         <f t="array" ref="H22">_FV(A22,"High")</f>
-        <v>15.0755</v>
+        <v>14.68</v>
       </c>
       <c r="I22" s="2" cm="1">
         <f t="array" ref="I22">_FV(A22,"Low")</f>
-        <v>14.72</v>
+        <v>14.305</v>
       </c>
       <c r="J22" s="2" cm="1">
         <f t="array" ref="J22">_FV(A22,"Price")</f>
-        <v>14.75</v>
+        <v>14.324999999999999</v>
       </c>
       <c r="K22" s="3" cm="1">
         <f t="array" ref="K22">_FV(A22,"Change (%)",TRUE)</f>
-        <v>-1.1394E-2</v>
+        <v>-2.8814000000000003E-2</v>
       </c>
       <c r="L22" s="2" cm="1">
         <f t="array" ref="L22">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>27.84</v>
+        <v>27.704999999999998</v>
       </c>
       <c r="M22" s="2" cm="1">
         <f t="array" ref="M22">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
@@ -19068,7 +18578,7 @@
       </c>
       <c r="N22" s="3">
         <f t="shared" si="0"/>
-        <v>0.47018678160919541</v>
+        <v>0.48294531672983215</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -19094,23 +18604,23 @@
       </c>
       <c r="G23" s="2" cm="1">
         <f t="array" ref="G23">_FV(A23,"Open")</f>
-        <v>48.94</v>
+        <v>47.41</v>
       </c>
       <c r="H23" s="2" cm="1">
         <f t="array" ref="H23">_FV(A23,"High")</f>
-        <v>48.94</v>
+        <v>48.04</v>
       </c>
       <c r="I23" s="2" cm="1">
         <f t="array" ref="I23">_FV(A23,"Low")</f>
-        <v>47.68</v>
+        <v>47.41</v>
       </c>
       <c r="J23" s="2" cm="1">
         <f t="array" ref="J23">_FV(A23,"Price")</f>
-        <v>48.02</v>
+        <v>47.76</v>
       </c>
       <c r="K23" s="3" cm="1">
         <f t="array" ref="K23">_FV(A23,"Change (%)",TRUE)</f>
-        <v>-1.8998999999999999E-2</v>
+        <v>-5.8279999999999998E-3</v>
       </c>
       <c r="L23" s="2" cm="1">
         <f t="array" ref="L23">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
@@ -19122,7 +18632,7 @@
       </c>
       <c r="N23" s="3">
         <f t="shared" si="0"/>
-        <v>0.10760081769187881</v>
+        <v>0.11243263333952805</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -19148,23 +18658,23 @@
       </c>
       <c r="G24" s="2" cm="1">
         <f t="array" ref="G24">_FV(A24,"Open")</f>
-        <v>44.5</v>
+        <v>45.78</v>
       </c>
       <c r="H24" s="2" cm="1">
         <f t="array" ref="H24">_FV(A24,"High")</f>
-        <v>46.63</v>
+        <v>46.12</v>
       </c>
       <c r="I24" s="2" cm="1">
         <f t="array" ref="I24">_FV(A24,"Low")</f>
-        <v>44.5</v>
+        <v>45.01</v>
       </c>
       <c r="J24" s="2" cm="1">
         <f t="array" ref="J24">_FV(A24,"Price")</f>
-        <v>46.49</v>
+        <v>45.17</v>
       </c>
       <c r="K24" s="3" cm="1">
         <f t="array" ref="K24">_FV(A24,"Change (%)",TRUE)</f>
-        <v>3.5411999999999999E-2</v>
+        <v>-2.8601999999999999E-2</v>
       </c>
       <c r="L24" s="2" cm="1">
         <f t="array" ref="L24">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
@@ -19176,7 +18686,7 @@
       </c>
       <c r="N24" s="3">
         <f t="shared" si="0"/>
-        <v>6.6465863453815166E-2</v>
+        <v>9.2971887550200721E-2</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -19202,27 +18712,27 @@
       </c>
       <c r="G25" s="2" cm="1">
         <f t="array" ref="G25">_FV(A25,"Open")</f>
-        <v>161</v>
+        <v>156.9</v>
       </c>
       <c r="H25" s="2" cm="1">
         <f t="array" ref="H25">_FV(A25,"High")</f>
-        <v>162.88999999999999</v>
+        <v>159.1627</v>
       </c>
       <c r="I25" s="2" cm="1">
         <f t="array" ref="I25">_FV(A25,"Low")</f>
-        <v>156.27000000000001</v>
+        <v>156.5052</v>
       </c>
       <c r="J25" s="2" cm="1">
         <f t="array" ref="J25">_FV(A25,"Price")</f>
-        <v>158.35</v>
+        <v>158.56</v>
       </c>
       <c r="K25" s="3" cm="1">
         <f t="array" ref="K25">_FV(A25,"Change (%)",TRUE)</f>
-        <v>2.2789999999999998E-3</v>
+        <v>1.3259999999999999E-3</v>
       </c>
       <c r="L25" s="2" cm="1">
         <f t="array" ref="L25">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>160.6046</v>
+        <v>162.88999999999999</v>
       </c>
       <c r="M25" s="2" cm="1">
         <f t="array" ref="M25">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
@@ -19230,7 +18740,7 @@
       </c>
       <c r="N25" s="3">
         <f t="shared" si="0"/>
-        <v>1.4038203139885224E-2</v>
+        <v>2.6582356191294645E-2</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -19253,23 +18763,23 @@
       </c>
       <c r="G26" s="2" cm="1">
         <f t="array" ref="G26">_FV(A26,"Open")</f>
-        <v>29.81</v>
+        <v>29.54</v>
       </c>
       <c r="H26" s="2" cm="1">
         <f t="array" ref="H26">_FV(A26,"High")</f>
-        <v>29.89</v>
+        <v>29.875</v>
       </c>
       <c r="I26" s="2" cm="1">
         <f t="array" ref="I26">_FV(A26,"Low")</f>
-        <v>29.68</v>
+        <v>29.5</v>
       </c>
       <c r="J26" s="2" cm="1">
         <f t="array" ref="J26">_FV(A26,"Price")</f>
-        <v>29.74</v>
+        <v>29.684999999999999</v>
       </c>
       <c r="K26" s="3" cm="1">
         <f t="array" ref="K26">_FV(A26,"Change (%)",TRUE)</f>
-        <v>-1.5110000000000002E-3</v>
+        <v>-1.8490000000000002E-3</v>
       </c>
       <c r="L26" s="2" cm="1">
         <f t="array" ref="L26">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
@@ -19281,12 +18791,12 @@
       </c>
       <c r="N26" s="3">
         <f t="shared" si="0"/>
-        <v>0.25088161209068022</v>
+        <v>0.25226700251889178</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="41" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -23353,8 +22863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F425698-AAA9-4304-9E13-03F4F9013CED}">
   <dimension ref="A1:AQ14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AB10" sqref="AB10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AP18" sqref="AP18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -23387,88 +22897,88 @@
   <sheetData>
     <row r="1" spans="1:43" s="133" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="132"/>
-      <c r="B1" s="150" t="s">
+      <c r="B1" s="172" t="s">
         <v>439</v>
       </c>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="158" t="s">
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="180" t="s">
         <v>440</v>
       </c>
-      <c r="F1" s="151" t="s">
+      <c r="F1" s="173" t="s">
         <v>441</v>
       </c>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="160" t="s">
+      <c r="G1" s="173"/>
+      <c r="H1" s="173"/>
+      <c r="I1" s="173"/>
+      <c r="J1" s="182" t="s">
         <v>442</v>
       </c>
-      <c r="K1" s="152" t="s">
+      <c r="K1" s="174" t="s">
         <v>443</v>
       </c>
-      <c r="L1" s="152"/>
-      <c r="M1" s="152"/>
-      <c r="N1" s="162" t="s">
+      <c r="L1" s="174"/>
+      <c r="M1" s="174"/>
+      <c r="N1" s="184" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="157" t="s">
+      <c r="O1" s="179" t="s">
         <v>444</v>
       </c>
-      <c r="P1" s="157"/>
-      <c r="Q1" s="153" t="s">
+      <c r="P1" s="179"/>
+      <c r="Q1" s="175" t="s">
         <v>334</v>
       </c>
-      <c r="R1" s="166" t="s">
+      <c r="R1" s="152" t="s">
         <v>445</v>
       </c>
-      <c r="S1" s="167"/>
-      <c r="T1" s="167"/>
-      <c r="U1" s="168"/>
-      <c r="V1" s="155" t="s">
+      <c r="S1" s="153"/>
+      <c r="T1" s="153"/>
+      <c r="U1" s="154"/>
+      <c r="V1" s="177" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="169" t="s">
+      <c r="W1" s="155" t="s">
         <v>446</v>
       </c>
-      <c r="X1" s="169"/>
-      <c r="Y1" s="181" t="s">
+      <c r="X1" s="155"/>
+      <c r="Y1" s="167" t="s">
         <v>342</v>
       </c>
-      <c r="Z1" s="172" t="s">
+      <c r="Z1" s="158" t="s">
         <v>447</v>
       </c>
-      <c r="AA1" s="172"/>
-      <c r="AB1" s="179" t="s">
+      <c r="AA1" s="158"/>
+      <c r="AB1" s="165" t="s">
         <v>20</v>
       </c>
-      <c r="AC1" s="170" t="s">
+      <c r="AC1" s="156" t="s">
         <v>448</v>
       </c>
-      <c r="AD1" s="170"/>
-      <c r="AE1" s="170"/>
-      <c r="AF1" s="170"/>
-      <c r="AG1" s="170"/>
-      <c r="AH1" s="177" t="s">
+      <c r="AD1" s="156"/>
+      <c r="AE1" s="156"/>
+      <c r="AF1" s="156"/>
+      <c r="AG1" s="156"/>
+      <c r="AH1" s="163" t="s">
         <v>374</v>
       </c>
-      <c r="AI1" s="171" t="s">
+      <c r="AI1" s="157" t="s">
         <v>449</v>
       </c>
-      <c r="AJ1" s="171"/>
-      <c r="AK1" s="171"/>
-      <c r="AL1" s="175" t="s">
+      <c r="AJ1" s="157"/>
+      <c r="AK1" s="157"/>
+      <c r="AL1" s="161" t="s">
         <v>346</v>
       </c>
-      <c r="AM1" s="183" t="s">
+      <c r="AM1" s="169" t="s">
         <v>450</v>
       </c>
-      <c r="AN1" s="184"/>
-      <c r="AO1" s="185"/>
-      <c r="AP1" s="173" t="s">
+      <c r="AN1" s="170"/>
+      <c r="AO1" s="171"/>
+      <c r="AP1" s="159" t="s">
         <v>451</v>
       </c>
-      <c r="AQ1" s="164" t="s">
+      <c r="AQ1" s="150" t="s">
         <v>452</v>
       </c>
     </row>
@@ -23483,7 +22993,7 @@
       <c r="D2" s="143" t="s">
         <v>453</v>
       </c>
-      <c r="E2" s="159"/>
+      <c r="E2" s="181"/>
       <c r="F2" s="142" t="s">
         <v>405</v>
       </c>
@@ -23496,7 +23006,7 @@
       <c r="I2" s="142" t="s">
         <v>353</v>
       </c>
-      <c r="J2" s="161"/>
+      <c r="J2" s="183"/>
       <c r="K2" s="141" t="s">
         <v>408</v>
       </c>
@@ -23506,14 +23016,14 @@
       <c r="M2" s="141" t="s">
         <v>455</v>
       </c>
-      <c r="N2" s="163"/>
+      <c r="N2" s="185"/>
       <c r="O2" s="140" t="s">
         <v>414</v>
       </c>
       <c r="P2" s="140" t="s">
         <v>415</v>
       </c>
-      <c r="Q2" s="154"/>
+      <c r="Q2" s="176"/>
       <c r="R2" s="139" t="s">
         <v>410</v>
       </c>
@@ -23526,21 +23036,21 @@
       <c r="U2" s="145" t="s">
         <v>456</v>
       </c>
-      <c r="V2" s="156"/>
+      <c r="V2" s="178"/>
       <c r="W2" s="138" t="s">
         <v>417</v>
       </c>
       <c r="X2" s="138" t="s">
         <v>419</v>
       </c>
-      <c r="Y2" s="182"/>
+      <c r="Y2" s="168"/>
       <c r="Z2" s="137" t="s">
         <v>416</v>
       </c>
       <c r="AA2" s="137" t="s">
         <v>418</v>
       </c>
-      <c r="AB2" s="180"/>
+      <c r="AB2" s="166"/>
       <c r="AC2" s="136" t="s">
         <v>77</v>
       </c>
@@ -23556,7 +23066,7 @@
       <c r="AG2" s="136" t="s">
         <v>80</v>
       </c>
-      <c r="AH2" s="178"/>
+      <c r="AH2" s="164"/>
       <c r="AI2" s="135" t="s">
         <v>457</v>
       </c>
@@ -23566,7 +23076,7 @@
       <c r="AK2" s="135" t="s">
         <v>425</v>
       </c>
-      <c r="AL2" s="176"/>
+      <c r="AL2" s="162"/>
       <c r="AM2" s="134" t="s">
         <v>427</v>
       </c>
@@ -23576,8 +23086,8 @@
       <c r="AO2" s="148" t="s">
         <v>567</v>
       </c>
-      <c r="AP2" s="174"/>
-      <c r="AQ2" s="165"/>
+      <c r="AP2" s="160"/>
+      <c r="AQ2" s="151"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" s="132" t="s">
@@ -24675,14 +24185,14 @@
         <v>0</v>
       </c>
       <c r="AF10" s="95">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="AG10" s="95">
         <v>0</v>
       </c>
       <c r="AH10" s="95">
         <f t="shared" si="8"/>
-        <v>-0.09</v>
+        <v>0</v>
       </c>
       <c r="AI10" s="96">
         <v>0</v>
@@ -24712,7 +24222,7 @@
       </c>
       <c r="AQ10" s="144">
         <f>AO10+AM10+AN10+AI10+AJ10+AK10+AC10+AD10+AE10+AF10+AG10+Z10+AA10+W10+X10+R10+S10+T10+U10+O10+P10+K10+L10+M10+F10+G10+H10+I10+B10+C10+D10</f>
-        <v>0.82999999999999985</v>
+        <v>0.91999999999999982</v>
       </c>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
@@ -25285,6 +24795,15 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="N1:N2"/>
     <mergeCell ref="AQ1:AQ2"/>
     <mergeCell ref="R1:U1"/>
     <mergeCell ref="W1:X1"/>
@@ -25297,26 +24816,17 @@
     <mergeCell ref="AB1:AB2"/>
     <mergeCell ref="Y1:Y2"/>
     <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="N1:N2"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:E14 J3:J14 Q3:Q14 Y3:Y14 AB3:AB14 AH3:AH14 AL3:AL14 N3:N14 V3:V14 AP3:AP14">
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ3:AQ14">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27682,15 +27192,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D95AC4467A64E54FAB628610D0FE135F" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="79e84842eaddaeb917644b39e1597e3c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e8f9595b-0d5a-46b2-8488-c972c1ea4246" xmlns:ns4="6bcbbac3-d60f-4c54-b2b4-d245c065548d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bb8f6ae9099bbec0b468ebfdbf5b501b" ns3:_="" ns4:_="">
     <xsd:import namespace="e8f9595b-0d5a-46b2-8488-c972c1ea4246"/>
@@ -27913,6 +27414,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -27920,14 +27430,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DB5870C-189D-475E-8E58-449C30115ACA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11321DBA-FDAB-45E8-A045-E3E44A7AE235}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -27946,16 +27448,24 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DB5870C-189D-475E-8E58-449C30115ACA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{401ADED5-CC5A-4072-B36A-6DA217C5A368}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="e8f9595b-0d5a-46b2-8488-c972c1ea4246"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e8f9595b-0d5a-46b2-8488-c972c1ea4246"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="6bcbbac3-d60f-4c54-b2b4-d245c065548d"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>

--- a/input/Tracking List.xlsx
+++ b/input/Tracking List.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bayergroup-my.sharepoint.com/personal/sivacharan_chandrasekar_ext_bayer_com/Documents/Personal Data-R90PQ30R/Analytics/us-stocks-analysis/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssoma\OneDrive - Bayer\Personal Data-R90PQ30R\Analytics\us-stocks-analysis\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="294" documentId="8_{763663C2-8B58-4DD2-A909-F67207BD9B02}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{BA4D064B-348B-4AA1-8AEC-E2DECA0EFAA6}"/>
+  <xr:revisionPtr revIDLastSave="302" documentId="8_{763663C2-8B58-4DD2-A909-F67207BD9B02}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{B2A1F263-D304-44DF-8866-F3BF4049BC30}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="690" yWindow="345" windowWidth="19200" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fund List" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId10"/>
+    <pivotCache cacheId="9" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -3413,7 +3413,19 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="52">
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
@@ -4359,7 +4371,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="CHANDRASEKAR, SIVACHARAN [AG-Contractor/1000]" refreshedDate="44063.611977430555" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="32" xr:uid="{BAEB0953-1565-44CD-A798-EB88339B7DAE}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="CHANDRASEKAR, SIVACHARAN [AG-Contractor/1000]" refreshedDate="44083.504024074071" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="32" xr:uid="{BAEB0953-1565-44CD-A798-EB88339B7DAE}">
   <cacheSource type="worksheet">
     <worksheetSource ref="I1:K1048576" sheet="Area Classification"/>
   </cacheSource>
@@ -4558,7 +4570,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E84B834D-5A94-487F-9509-4B928B44C5FA}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E84B834D-5A94-487F-9509-4B928B44C5FA}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="N3:O13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -4620,7 +4632,7 @@
     <dataField name="Sum of Percent" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="3">
+    <format dxfId="7">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="8" selected="0">
@@ -4636,7 +4648,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="6">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -4775,27 +4787,27 @@
     <v>4</v>
     <v>89.59</v>
     <v>76.489999999999995</v>
-    <v>1.0158</v>
-    <v>0.22500000000000001</v>
-    <v>2.5440000000000003E-3</v>
+    <v>1.0224</v>
+    <v>-0.04</v>
+    <v>-4.527E-4</v>
     <v>USD</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>5.0000000000000001E-4</v>
-    <v>88.674999999999997</v>
+    <v>88.45</v>
     <v>ETF</v>
-    <v>44063.81852723359</v>
+    <v>44083.711655092593</v>
     <v>0</v>
-    <v>88.58</v>
-    <v>59054822695</v>
+    <v>88.3</v>
+    <v>60515672825.099998</v>
     <v>Vanguard Tot Bd;ETF</v>
-    <v>88.66</v>
-    <v>88.43</v>
-    <v>88.655000000000001</v>
+    <v>88.4</v>
+    <v>88.36</v>
+    <v>88.32</v>
     <v>BND</v>
     <v>Vanguard Tot Bd;ETF (XNAS:BND)</v>
-    <v>3605984</v>
-    <v>4346370</v>
+    <v>2543345</v>
+    <v>5355528</v>
   </rv>
   <rv s="2">
     <v>1</v>
@@ -4818,33 +4830,33 @@
     <v>4</v>
     <v>119.73</v>
     <v>105.56</v>
-    <v>1.0009999999999999</v>
-    <v>0.255</v>
-    <v>2.1540000000000001E-3</v>
+    <v>1.0006999999999999</v>
+    <v>-0.105</v>
+    <v>-8.8789999999999995E-4</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>4.0000000000000002E-4</v>
-    <v>118.69</v>
+    <v>118.36</v>
     <v>ETF</v>
-    <v>44063.819213471877</v>
+    <v>44083.710300925923</v>
     <v>3</v>
-    <v>118.56</v>
-    <v>79985963525.529999</v>
+    <v>118.12</v>
+    <v>78989009622.949997</v>
     <v>iShares:Core US Agg Bd</v>
-    <v>118.67</v>
-    <v>118.37</v>
-    <v>118.625</v>
+    <v>118.32</v>
+    <v>118.25</v>
+    <v>118.145</v>
     <v>AGG</v>
     <v>iShares:Core US Agg Bd (ARCX:AGG)</v>
-    <v>3058476</v>
-    <v>6847139</v>
+    <v>1719649</v>
+    <v>6646642</v>
   </rv>
   <rv s="2">
     <v>4</v>
   </rv>
   <rv s="0">
-    <v>https://www.bing.com/financeapi/forcetrigger?t=a84qur&amp;q=Fidelity+Lg+Tr+Trs+Bd+Ix&amp;form=skydnc</v>
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a84qur&amp;q=Fidelity+Long-Term+Treasury+Bond+Index+Fund&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
   <rv s="3">
@@ -4859,27 +4871,27 @@
     <v>7</v>
     <v>Finance</v>
     <v>8</v>
-    <v>-0.1</v>
-    <v>-5.8690000000000001E-3</v>
+    <v>0.09</v>
+    <v>5.3439999999999998E-3</v>
     <v>US</v>
     <v>USD</v>
     <v>2.9999999999999997E-4</v>
     <v>Mutual Fund</v>
-    <v>44062</v>
-    <v>44063.215740413281</v>
+    <v>44082</v>
+    <v>44083.215926894532</v>
     <v>6</v>
     <v>Fidelity Long-Term Treasury Bond Index Fund</v>
-    <v>3216053629</v>
-    <v>17.04</v>
-    <v>16.940000000000001</v>
+    <v>3116685855</v>
+    <v>16.84</v>
+    <v>16.93</v>
     <v>0</v>
-    <v>-2.1010000000000001E-2</v>
-    <v>-3.7804000000000004E-2</v>
-    <v>0.139157</v>
-    <v>-1.9413E-2</v>
+    <v>-4.8080999999999999E-2</v>
+    <v>1.0562E-2</v>
+    <v>0.12287699999999999</v>
+    <v>3.7558000000000001E-2</v>
     <v>0</v>
     <v>0</v>
-    <v>0.21285799999999999</v>
+    <v>0.211338</v>
     <v>FNBGX</v>
     <v>Fidelity Long-Term Treasury Bond Index Fund</v>
   </rv>
@@ -4903,28 +4915,28 @@
     <v>Finance</v>
     <v>4</v>
     <v>273.16379999999998</v>
-    <v>137.25</v>
-    <v>0.40460000000000002</v>
-    <v>2.9449999999999998</v>
-    <v>1.4560999999999999E-2</v>
+    <v>137.51</v>
+    <v>0.26619999999999999</v>
+    <v>0.36599999999999999</v>
+    <v>1.714E-3</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>6.0000000000000001E-3</v>
-    <v>206.45</v>
+    <v>214</v>
     <v>ETF</v>
-    <v>44063.818159722221</v>
+    <v>44083.710925925923</v>
     <v>9</v>
-    <v>202.87</v>
-    <v>329429061.24000001</v>
+    <v>213.32079999999999</v>
+    <v>367369379.38</v>
     <v>Aberdeen:SP Palladium</v>
-    <v>202.87</v>
-    <v>202.25</v>
-    <v>205.19499999999999</v>
+    <v>214</v>
+    <v>213.5</v>
+    <v>213.86600000000001</v>
     <v>PALL</v>
     <v>Aberdeen:SP Palladium (ARCX:PALL)</v>
-    <v>10366</v>
-    <v>73001</v>
+    <v>8258</v>
+    <v>59351</v>
   </rv>
   <rv s="2">
     <v>10</v>
@@ -4947,27 +4959,27 @@
     <v>4</v>
     <v>45.78</v>
     <v>16.18</v>
-    <v>0.97650000000000003</v>
-    <v>0.83279999999999998</v>
-    <v>2.0291999999999998E-2</v>
+    <v>0.97619999999999996</v>
+    <v>1.575</v>
+    <v>3.8811999999999999E-2</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>5.3E-3</v>
-    <v>42.1</v>
+    <v>42.22</v>
     <v>ETF</v>
-    <v>44063.81874986094</v>
+    <v>44083.711620601563</v>
     <v>12</v>
-    <v>40.79</v>
-    <v>18410347875.619999</v>
+    <v>40.98</v>
+    <v>18042474740.43</v>
     <v>VnEck Vctrs:Gold Miners</v>
-    <v>41.05</v>
     <v>41.04</v>
-    <v>41.872799999999998</v>
+    <v>40.58</v>
+    <v>42.155000000000001</v>
     <v>GDX</v>
     <v>VnEck Vctrs:Gold Miners (ARCX:GDX)</v>
-    <v>19394624</v>
-    <v>35911562</v>
+    <v>15718764</v>
+    <v>30537633</v>
   </rv>
   <rv s="2">
     <v>13</v>
@@ -4990,27 +5002,27 @@
     <v>4</v>
     <v>27.39</v>
     <v>10.86</v>
-    <v>1.7657</v>
-    <v>0.71</v>
-    <v>2.8525999999999999E-2</v>
+    <v>1.8190999999999999</v>
+    <v>0.31</v>
+    <v>1.252E-2</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>5.0000000000000001E-3</v>
-    <v>25.616599999999998</v>
+    <v>25.11</v>
     <v>ETF</v>
-    <v>44063.819249814063</v>
+    <v>44083.710698032031</v>
     <v>15</v>
-    <v>24.885000000000002</v>
-    <v>13669514095.42</v>
+    <v>24.889299999999999</v>
+    <v>15693894866.459999</v>
     <v>IShares:Silver Trust</v>
-    <v>24.93</v>
-    <v>24.89</v>
-    <v>25.6</v>
+    <v>25</v>
+    <v>24.76</v>
+    <v>25.07</v>
     <v>SLV</v>
     <v>IShares:Silver Trust (ARCX:SLV)</v>
-    <v>39665172</v>
-    <v>78231411</v>
+    <v>16162375</v>
+    <v>67630121</v>
   </rv>
   <rv s="2">
     <v>16</v>
@@ -5033,27 +5045,27 @@
     <v>4</v>
     <v>19.759899999999998</v>
     <v>13.8</v>
-    <v>0.81789999999999996</v>
-    <v>0.129</v>
-    <v>6.9649999999999998E-3</v>
+    <v>0.80030000000000001</v>
+    <v>0.16819999999999999</v>
+    <v>9.1260000000000004E-3</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>2.5000000000000001E-3</v>
-    <v>18.66</v>
+    <v>18.600000000000001</v>
     <v>ETF</v>
-    <v>44063.818935185183</v>
+    <v>44083.710719698436</v>
     <v>18</v>
-    <v>18.38</v>
-    <v>31041376557.650002</v>
+    <v>18.510999999999999</v>
+    <v>31797931350.279999</v>
     <v>IShares:Gold Trust</v>
-    <v>18.420000000000002</v>
-    <v>18.52</v>
-    <v>18.649000000000001</v>
+    <v>18.55</v>
+    <v>18.43</v>
+    <v>18.598199999999999</v>
     <v>IAU</v>
     <v>IShares:Gold Trust (ARCX:IAU)</v>
-    <v>26733283</v>
-    <v>32155575</v>
+    <v>12805787</v>
+    <v>30722552</v>
   </rv>
   <rv s="2">
     <v>19</v>
@@ -5076,26 +5088,26 @@
     <v>4</v>
     <v>20.629000000000001</v>
     <v>14.38</v>
-    <v>0.15</v>
-    <v>7.7600000000000004E-3</v>
+    <v>0.17</v>
+    <v>8.8360000000000001E-3</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>1.8E-3</v>
-    <v>19.48</v>
+    <v>19.4193</v>
     <v>ETF</v>
-    <v>44063.818124999998</v>
+    <v>44083.710229872653</v>
     <v>21</v>
-    <v>19.2</v>
-    <v>3239804792.4400001</v>
+    <v>19.333200000000001</v>
+    <v>3519371524.6599998</v>
     <v>SPDR Gold MiniShares Tr</v>
-    <v>19.25</v>
-    <v>19.329999999999998</v>
-    <v>19.48</v>
+    <v>19.350000000000001</v>
+    <v>19.239999999999998</v>
+    <v>19.41</v>
     <v>GLDM</v>
     <v>SPDR Gold MiniShares Tr (ARCX:GLDM)</v>
-    <v>1850988</v>
-    <v>3296750</v>
+    <v>642404</v>
+    <v>2914467</v>
   </rv>
   <rv s="2">
     <v>22</v>
@@ -5118,27 +5130,27 @@
     <v>4</v>
     <v>194.44990000000001</v>
     <v>136.12</v>
-    <v>0.81910000000000005</v>
-    <v>1.27</v>
-    <v>6.9689999999999995E-3</v>
+    <v>0.80130000000000001</v>
+    <v>1.69</v>
+    <v>9.3210000000000012E-3</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>4.0000000000000001E-3</v>
-    <v>183.71</v>
+    <v>183.05</v>
     <v>ETF</v>
-    <v>44063.81914802031</v>
+    <v>44083.711145833331</v>
     <v>24</v>
-    <v>180.93</v>
-    <v>78434408785.610001</v>
+    <v>182.19380000000001</v>
+    <v>78731129079.339996</v>
     <v>SPDR Gold</v>
-    <v>181.24</v>
-    <v>182.24</v>
-    <v>183.51</v>
+    <v>182.54</v>
+    <v>181.31</v>
+    <v>183</v>
     <v>GLD</v>
     <v>SPDR Gold (ARCX:GLD)</v>
-    <v>13918298</v>
-    <v>19559150</v>
+    <v>4317914</v>
+    <v>16614300</v>
   </rv>
   <rv s="2">
     <v>25</v>
@@ -5161,27 +5173,27 @@
     <v>4</v>
     <v>61.801600000000001</v>
     <v>22.88</v>
-    <v>1.1353</v>
-    <v>-0.68500000000000005</v>
-    <v>-1.8488999999999998E-2</v>
+    <v>1.1335999999999999</v>
+    <v>0.25</v>
+    <v>7.443E-3</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>1.4000000000000002E-3</v>
-    <v>36.75</v>
+    <v>34.17</v>
     <v>ETF</v>
-    <v>44063.818811654688</v>
+    <v>44083.711600625</v>
     <v>27</v>
-    <v>36.31</v>
-    <v>10826375299.530001</v>
+    <v>33.710099999999997</v>
+    <v>10070916452.530001</v>
     <v>Sel Sector:Energy SPDR</v>
-    <v>36.634999999999998</v>
-    <v>37.049999999999997</v>
-    <v>36.365000000000002</v>
+    <v>33.96</v>
+    <v>33.590000000000003</v>
+    <v>33.840000000000003</v>
     <v>XLE</v>
     <v>Sel Sector:Energy SPDR (ARCX:XLE)</v>
-    <v>15458767</v>
-    <v>21082200</v>
+    <v>14718381</v>
+    <v>22473573</v>
   </rv>
   <rv s="2">
     <v>28</v>
@@ -5204,27 +5216,27 @@
     <v>4</v>
     <v>94.86</v>
     <v>60.07</v>
-    <v>0.88160000000000005</v>
-    <v>-0.51</v>
-    <v>-6.1310000000000002E-3</v>
+    <v>0.88100000000000001</v>
+    <v>1.2905</v>
+    <v>1.5759000000000002E-2</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>8.0000000000000004E-4</v>
-    <v>82.91</v>
+    <v>83.19</v>
     <v>ETF</v>
-    <v>44063.819062499999</v>
+    <v>44083.711284722223</v>
     <v>30</v>
-    <v>82.52</v>
-    <v>26217037895</v>
+    <v>82.4405</v>
+    <v>27083166562.77</v>
     <v>Vanguard Hi Dv Yld;ETF</v>
-    <v>82.71</v>
-    <v>83.18</v>
-    <v>82.67</v>
+    <v>82.6</v>
+    <v>81.89</v>
+    <v>83.180499999999995</v>
     <v>VYM</v>
     <v>Vanguard Hi Dv Yld;ETF (ARCX:VYM)</v>
-    <v>1223204</v>
-    <v>1514869</v>
+    <v>1425762</v>
+    <v>1632515</v>
   </rv>
   <rv s="2">
     <v>31</v>
@@ -5247,27 +5259,27 @@
     <v>4</v>
     <v>24.18</v>
     <v>17.22</v>
-    <v>0.73750000000000004</v>
-    <v>-4.1999999999999997E-3</v>
-    <v>-1.9140000000000002E-4</v>
+    <v>0.70520000000000005</v>
+    <v>0.55049999999999999</v>
+    <v>2.5905999999999998E-2</v>
     <v>USD</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>6.0000000000000001E-3</v>
-    <v>21.95</v>
+    <v>21.8005</v>
     <v>ETF</v>
-    <v>44063.818749999999</v>
+    <v>44083.711154270313</v>
     <v>33</v>
-    <v>21.93</v>
-    <v>1182535165.1099999</v>
+    <v>21.46</v>
+    <v>1283478866.55</v>
     <v>Glbl X NASDAQ 100 CC</v>
-    <v>21.94</v>
-    <v>21.94</v>
-    <v>21.9358</v>
+    <v>21.48</v>
+    <v>21.25</v>
+    <v>21.8005</v>
     <v>QYLD</v>
     <v>Glbl X NASDAQ 100 CC (XNAS:QYLD)</v>
-    <v>498422</v>
-    <v>525813</v>
+    <v>585152</v>
+    <v>659797</v>
   </rv>
   <rv s="2">
     <v>34</v>
@@ -5290,27 +5302,27 @@
     <v>4</v>
     <v>59.56</v>
     <v>38.825000000000003</v>
-    <v>0.98019999999999996</v>
-    <v>-0.37</v>
-    <v>-6.5190000000000005E-3</v>
+    <v>0.96989999999999998</v>
+    <v>0.83</v>
+    <v>1.4839999999999999E-2</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>7.000000000000001E-4</v>
-    <v>56.524999999999999</v>
+    <v>56.8</v>
     <v>ETF</v>
-    <v>44063.819720566404</v>
+    <v>44083.710906191409</v>
     <v>36</v>
-    <v>56.2</v>
-    <v>11863130466.440001</v>
+    <v>56.356400000000001</v>
+    <v>12842837240.559999</v>
     <v>Schwab Str:US Div Eq ETF</v>
-    <v>56.33</v>
+    <v>56.42</v>
+    <v>55.93</v>
     <v>56.76</v>
-    <v>56.39</v>
     <v>SCHD</v>
     <v>Schwab Str:US Div Eq ETF (ARCX:SCHD)</v>
-    <v>1264116</v>
-    <v>1261823</v>
+    <v>984234</v>
+    <v>1504727</v>
   </rv>
   <rv s="2">
     <v>37</v>
@@ -5333,27 +5345,27 @@
     <v>4</v>
     <v>99.14</v>
     <v>58.23</v>
-    <v>0.97650000000000003</v>
-    <v>-0.3</v>
-    <v>-3.1450000000000002E-3</v>
+    <v>0.92689999999999995</v>
+    <v>2.35</v>
+    <v>2.5222999999999999E-2</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>3.4999999999999996E-3</v>
-    <v>95.77</v>
+    <v>95.52</v>
     <v>ETF</v>
-    <v>44063.818159722221</v>
+    <v>44083.711446759262</v>
     <v>39</v>
-    <v>95.1</v>
-    <v>562560414.53999996</v>
+    <v>94.275000000000006</v>
+    <v>573417860.33000004</v>
     <v>SPDR S&amp;P Hlth Care Equip</v>
-    <v>95.6</v>
-    <v>95.4</v>
-    <v>95.1</v>
+    <v>95.05</v>
+    <v>93.17</v>
+    <v>95.52</v>
     <v>XHE</v>
     <v>SPDR S&amp;P Hlth Care Equip (ARCX:XHE)</v>
-    <v>15567</v>
-    <v>26277</v>
+    <v>13606</v>
+    <v>31649</v>
   </rv>
   <rv s="2">
     <v>40</v>
@@ -5374,29 +5386,29 @@
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>53.515000000000001</v>
+    <v>54.244999999999997</v>
     <v>35.74</v>
-    <v>1.0115000000000001</v>
-    <v>-0.155</v>
-    <v>-2.9220000000000001E-3</v>
+    <v>1.012</v>
+    <v>1.1299999999999999</v>
+    <v>2.2013999999999999E-2</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>8.0000000000000004E-4</v>
-    <v>53</v>
+    <v>52.46</v>
     <v>ETF</v>
-    <v>44063.818219363282</v>
+    <v>44083.712048611109</v>
     <v>42</v>
-    <v>52.771500000000003</v>
-    <v>2010030135</v>
+    <v>51.79</v>
+    <v>2093519805</v>
     <v>Fidelity MSCI Hlth Care</v>
-    <v>52.83</v>
-    <v>53.04</v>
-    <v>52.884999999999998</v>
+    <v>51.79</v>
+    <v>51.33</v>
+    <v>52.46</v>
     <v>FHLC</v>
     <v>Fidelity MSCI Hlth Care (ARCX:FHLC)</v>
-    <v>103817</v>
-    <v>154964</v>
+    <v>64359</v>
+    <v>154918</v>
   </rv>
   <rv s="2">
     <v>43</v>
@@ -5417,29 +5429,29 @@
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>207.25</v>
+    <v>210.16</v>
     <v>138.11000000000001</v>
-    <v>1.0136000000000001</v>
-    <v>-0.59</v>
-    <v>-2.8710000000000003E-3</v>
+    <v>1.0142</v>
+    <v>4.41</v>
+    <v>2.2198000000000002E-2</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>1E-3</v>
-    <v>205.25</v>
+    <v>203.08</v>
     <v>ETF</v>
-    <v>44063.819266423438</v>
+    <v>44083.709995508594</v>
     <v>45</v>
-    <v>204.42</v>
-    <v>11460342770</v>
+    <v>200.4</v>
+    <v>11740069737.620001</v>
     <v>Vanguard Hlth Cr Idx;ETF</v>
-    <v>204.98</v>
-    <v>205.5</v>
-    <v>204.91</v>
+    <v>200.62</v>
+    <v>198.67</v>
+    <v>203.08</v>
     <v>VHT</v>
     <v>Vanguard Hlth Cr Idx;ETF (ARCX:VHT)</v>
-    <v>130041</v>
-    <v>194217</v>
+    <v>63497</v>
+    <v>185101</v>
   </rv>
   <rv s="2">
     <v>46</v>
@@ -5460,29 +5472,29 @@
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>296.755</v>
+    <v>310.08999999999997</v>
     <v>183.25</v>
-    <v>1.0294000000000001</v>
-    <v>-0.33210000000000001</v>
-    <v>-1.1279999999999999E-3</v>
+    <v>1.0337000000000001</v>
+    <v>8.7200000000000006</v>
+    <v>3.007E-2</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>4.3E-3</v>
-    <v>295.43819999999999</v>
+    <v>298.8</v>
     <v>ETF</v>
-    <v>44063.818773148145</v>
+    <v>44083.711053240739</v>
     <v>48</v>
-    <v>292.58999999999997</v>
-    <v>7783988070.3500004</v>
+    <v>293.57</v>
+    <v>8156577301.1599998</v>
     <v>iShares:US Med Dev ETF</v>
-    <v>293.51</v>
-    <v>294.44</v>
-    <v>294.10789999999997</v>
+    <v>293.87</v>
+    <v>289.99</v>
+    <v>298.70999999999998</v>
     <v>IHI</v>
     <v>iShares:US Med Dev ETF (ARCX:IHI)</v>
-    <v>136010</v>
-    <v>225304</v>
+    <v>128637</v>
+    <v>183912</v>
   </rv>
   <rv s="2">
     <v>49</v>
@@ -5503,29 +5515,29 @@
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>107.84</v>
+    <v>109.74</v>
     <v>73.540000000000006</v>
-    <v>0.96989999999999998</v>
-    <v>-0.38</v>
-    <v>-3.5499999999999998E-3</v>
+    <v>0.97119999999999995</v>
+    <v>2.2400000000000002</v>
+    <v>2.1547E-2</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>1.4000000000000002E-3</v>
-    <v>106.95</v>
+    <v>106.26</v>
     <v>ETF</v>
-    <v>44063.819227685155</v>
+    <v>44083.711793981478</v>
     <v>51</v>
-    <v>106.43</v>
-    <v>23991476873.860001</v>
+    <v>104.73</v>
+    <v>24745900030.91</v>
     <v>Sel Sector:H Care SPDR</v>
-    <v>106.55</v>
-    <v>107.05</v>
-    <v>106.67</v>
+    <v>104.83</v>
+    <v>103.96</v>
+    <v>106.2</v>
     <v>XLV</v>
     <v>Sel Sector:H Care SPDR (ARCX:XLV)</v>
-    <v>4000662</v>
-    <v>6046177</v>
+    <v>4284323</v>
+    <v>6884750</v>
   </rv>
   <rv s="2">
     <v>52</v>
@@ -5546,29 +5558,29 @@
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>73.319999999999993</v>
+    <v>74.08</v>
     <v>51.07</v>
-    <v>0.879</v>
-    <v>-0.22</v>
-    <v>-3.0240000000000002E-3</v>
+    <v>0.88049999999999995</v>
+    <v>1.4079999999999999</v>
+    <v>1.9932000000000002E-2</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>4.6999999999999993E-3</v>
-    <v>72.66</v>
+    <v>72.061999999999998</v>
     <v>ETF</v>
-    <v>44063.817662037036</v>
+    <v>44083.710118425784</v>
     <v>54</v>
-    <v>72.34</v>
-    <v>2267919481.8699999</v>
+    <v>71.34</v>
+    <v>2323087272.3299999</v>
     <v>iShares:Glbl HealthCare</v>
-    <v>72.66</v>
-    <v>72.739999999999995</v>
-    <v>72.52</v>
+    <v>71.349999999999994</v>
+    <v>70.64</v>
+    <v>72.048000000000002</v>
     <v>IXJ</v>
     <v>iShares:Glbl HealthCare (ARCX:IXJ)</v>
-    <v>20448</v>
-    <v>108701</v>
+    <v>37124</v>
+    <v>134266</v>
   </rv>
   <rv s="2">
     <v>55</v>
@@ -5589,27 +5601,27 @@
     <v>12</v>
     <v>Finance</v>
     <v>13</v>
-    <v>43.61</v>
+    <v>47.85</v>
     <v>18.989999999999998</v>
-    <v>1.2751999999999999</v>
-    <v>3.1223999999999998E-2</v>
+    <v>1.1100000000000001</v>
+    <v>2.7667000000000001E-2</v>
     <v>USD</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
-    <v>42.18</v>
+    <v>41.24</v>
     <v>ETF</v>
-    <v>44063.809030450779</v>
+    <v>44083.701422233593</v>
     <v>57</v>
-    <v>40.58</v>
-    <v>642471573.85000002</v>
+    <v>40.07</v>
+    <v>698174145.09000003</v>
     <v>WisdomTree:Cloud Cmptng</v>
-    <v>40.61</v>
-    <v>40.840000000000003</v>
-    <v>42.115200000000002</v>
+    <v>40.82</v>
+    <v>40.119999999999997</v>
+    <v>41.23</v>
     <v>WCLD</v>
     <v>WisdomTree:Cloud Cmptng (XNAS:WCLD)</v>
-    <v>529996</v>
-    <v>685923</v>
+    <v>402661</v>
+    <v>894988</v>
   </rv>
   <rv s="2">
     <v>58</v>
@@ -5630,29 +5642,29 @@
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>79.88</v>
+    <v>86.15</v>
     <v>45</v>
-    <v>0.9002</v>
-    <v>1.4279999999999999</v>
-    <v>1.8488000000000001E-2</v>
+    <v>0.8841</v>
+    <v>2.5099999999999998</v>
+    <v>3.2934999999999999E-2</v>
     <v>USD</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>6.0000000000000001E-3</v>
-    <v>78.739999999999995</v>
+    <v>78.72</v>
     <v>ETF</v>
-    <v>44063.818703703706</v>
+    <v>44083.711550925924</v>
     <v>60</v>
-    <v>76.754999999999995</v>
-    <v>4744149675.9840002</v>
+    <v>76.67</v>
+    <v>5211834216.2010002</v>
     <v>Frst Tr II:CloudComp</v>
-    <v>77</v>
-    <v>77.239999999999995</v>
-    <v>78.668000000000006</v>
+    <v>77.8</v>
+    <v>76.209999999999994</v>
+    <v>78.72</v>
     <v>SKYY</v>
     <v>Frst Tr II:CloudComp (XNAS:SKYY)</v>
-    <v>364543</v>
-    <v>511105</v>
+    <v>379897</v>
+    <v>544032</v>
   </rv>
   <rv s="2">
     <v>61</v>
@@ -5673,29 +5685,29 @@
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>105.25</v>
+    <v>117.24</v>
     <v>40.494999999999997</v>
-    <v>1.2276</v>
-    <v>2.19</v>
-    <v>2.1250000000000002E-2</v>
+    <v>1.2246999999999999</v>
+    <v>3.2</v>
+    <v>3.2291E-2</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>7.4999999999999997E-3</v>
-    <v>105.486</v>
+    <v>102.3</v>
     <v>ETF</v>
-    <v>44063.81866168906</v>
+    <v>44083.71125</v>
     <v>63</v>
-    <v>102.45099999999999</v>
-    <v>1919966486.9979999</v>
+    <v>100</v>
+    <v>2482947132.0159998</v>
     <v>ARK Next Gen Int ETF</v>
-    <v>102.67</v>
-    <v>103.06</v>
-    <v>105.25</v>
+    <v>101.66500000000001</v>
+    <v>99.1</v>
+    <v>102.3</v>
     <v>ARKW</v>
     <v>ARK Next Gen Int ETF (ARCX:ARKW)</v>
-    <v>494874</v>
-    <v>608082</v>
+    <v>536659</v>
+    <v>812983</v>
   </rv>
   <rv s="2">
     <v>64</v>
@@ -5716,27 +5728,27 @@
     <v>12</v>
     <v>Finance</v>
     <v>4</v>
-    <v>38.78</v>
+    <v>42.33</v>
     <v>16.940000000000001</v>
-    <v>0.315</v>
-    <v>8.2030000000000002E-3</v>
+    <v>1.07</v>
+    <v>2.895E-2</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
-    <v>38.79</v>
+    <v>38.049999999999997</v>
     <v>ETF</v>
-    <v>44063.818692129629</v>
+    <v>44083.71196303203</v>
     <v>66</v>
-    <v>38.08</v>
-    <v>347308305.00999999</v>
+    <v>37.145000000000003</v>
+    <v>561768676.71300006</v>
     <v>Ark Fintech Innovation</v>
-    <v>38.200000000000003</v>
-    <v>38.4</v>
-    <v>38.715000000000003</v>
+    <v>37.5</v>
+    <v>36.96</v>
+    <v>38.03</v>
     <v>ARKF</v>
     <v>Ark Fintech Innovation (ARCX:ARKF)</v>
-    <v>357511</v>
-    <v>404343</v>
+    <v>380096</v>
+    <v>640518</v>
   </rv>
   <rv s="2">
     <v>67</v>
@@ -5757,29 +5769,29 @@
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>55.59</v>
+    <v>62.97</v>
     <v>26.19</v>
-    <v>1.2032</v>
-    <v>0.48680000000000001</v>
-    <v>8.8570000000000003E-3</v>
+    <v>1.2208000000000001</v>
+    <v>2.5299999999999998</v>
+    <v>4.5784000000000005E-2</v>
     <v>USD</v>
     <v>CBOE BZX Exchange</v>
     <v>BATS</v>
     <v>7.4999999999999997E-3</v>
-    <v>55.499899999999997</v>
+    <v>57.87</v>
     <v>ETF</v>
-    <v>44063.819324860939</v>
+    <v>44083.710104166668</v>
     <v>69</v>
-    <v>54.25</v>
-    <v>447869134.74000001</v>
+    <v>56.354999999999997</v>
+    <v>600803823.40999997</v>
     <v>ARK Autonomous Tch &amp; Rob</v>
-    <v>54.5</v>
-    <v>54.96</v>
-    <v>55.446800000000003</v>
+    <v>56.44</v>
+    <v>55.26</v>
+    <v>57.79</v>
     <v>ARKQ</v>
     <v>ARK Autonomous Tch &amp; Rob (BATS:ARKQ)</v>
-    <v>167720</v>
-    <v>182099</v>
+    <v>142983</v>
+    <v>255427</v>
   </rv>
   <rv s="2">
     <v>70</v>
@@ -5800,29 +5812,29 @@
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>63.96</v>
+    <v>64.34</v>
     <v>24</v>
-    <v>1.5274000000000001</v>
-    <v>-0.45</v>
-    <v>-7.1589999999999996E-3</v>
+    <v>1.528</v>
+    <v>2.3199999999999998</v>
+    <v>4.2020999999999996E-2</v>
     <v>USD</v>
     <v>CBOE BZX Exchange</v>
     <v>BATS</v>
     <v>7.4999999999999997E-3</v>
-    <v>62.9</v>
+    <v>57.545000000000002</v>
     <v>ETF</v>
-    <v>44063.819247685184</v>
+    <v>44083.711226851854</v>
     <v>72</v>
-    <v>62.08</v>
-    <v>1589789769.7579999</v>
+    <v>56.040100000000002</v>
+    <v>2112543013.1900001</v>
     <v>ARK Genomic Revolution</v>
-    <v>62.6</v>
-    <v>62.86</v>
-    <v>62.41</v>
+    <v>56.33</v>
+    <v>55.21</v>
+    <v>57.53</v>
     <v>ARKG</v>
     <v>ARK Genomic Revolution (BATS:ARKG)</v>
-    <v>661680</v>
-    <v>774614</v>
+    <v>369275</v>
+    <v>835397</v>
   </rv>
   <rv s="2">
     <v>73</v>
@@ -5843,29 +5855,29 @@
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>90.38</v>
+    <v>98.9</v>
     <v>33</v>
-    <v>1.4745999999999999</v>
-    <v>0.72</v>
-    <v>8.1019999999999998E-3</v>
+    <v>1.4954000000000001</v>
+    <v>3.4649999999999999</v>
+    <v>4.1711999999999999E-2</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>7.4999999999999997E-3</v>
-    <v>89.99</v>
+    <v>86.569900000000004</v>
     <v>ETF</v>
-    <v>44063.819339803122</v>
+    <v>44083.710862916407</v>
     <v>75</v>
-    <v>88.0501</v>
-    <v>6132346915.7229996</v>
+    <v>84.161600000000007</v>
+    <v>8485163536.21</v>
     <v>ARK Innovation</v>
-    <v>88.3</v>
-    <v>88.87</v>
-    <v>89.59</v>
+    <v>85.26</v>
+    <v>83.07</v>
+    <v>86.534999999999997</v>
     <v>ARKK</v>
     <v>ARK Innovation (ARCX:ARKK)</v>
-    <v>1243461</v>
-    <v>1656807</v>
+    <v>2052861</v>
+    <v>2318255</v>
   </rv>
   <rv s="2">
     <v>76</v>
@@ -5886,29 +5898,29 @@
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>90.779399999999995</v>
+    <v>91.87</v>
     <v>60.13</v>
-    <v>0.8659</v>
-    <v>-0.26</v>
-    <v>-2.8910000000000003E-3</v>
+    <v>0.86880000000000002</v>
+    <v>1.7849999999999999</v>
+    <v>2.0268000000000001E-2</v>
     <v>USD</v>
     <v>CBOE BZX Exchange</v>
     <v>BATS</v>
     <v>4.0000000000000001E-3</v>
-    <v>89.8</v>
+    <v>89.9</v>
     <v>ETF</v>
-    <v>44063.818425138285</v>
+    <v>44083.710439814815</v>
     <v>78</v>
-    <v>89.070899999999995</v>
-    <v>7994332434.7600002</v>
+    <v>89.31</v>
+    <v>8637247051.3099995</v>
     <v>iShares:MSCI EAFE Gro</v>
-    <v>89.18</v>
-    <v>89.92</v>
-    <v>89.66</v>
+    <v>89.38</v>
+    <v>88.07</v>
+    <v>89.855000000000004</v>
     <v>EFG</v>
     <v>iShares:MSCI EAFE Gro (BATS:EFG)</v>
-    <v>284908</v>
-    <v>377172</v>
+    <v>121449</v>
+    <v>360246</v>
   </rv>
   <rv s="2">
     <v>79</v>
@@ -5929,29 +5941,29 @@
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>322.83</v>
+    <v>335.88369999999998</v>
     <v>183.43979999999999</v>
-    <v>0.98260000000000003</v>
-    <v>1.39</v>
-    <v>4.3699999999999998E-3</v>
+    <v>0.9829</v>
+    <v>6.7</v>
+    <v>2.1991999999999998E-2</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>3.0000000000000001E-3</v>
-    <v>319.815</v>
+    <v>311.5</v>
     <v>ETF</v>
-    <v>44063.817863946097</v>
+    <v>44083.709644073439</v>
     <v>81</v>
-    <v>318.0172</v>
-    <v>929475920.65999997</v>
+    <v>307.50839999999999</v>
+    <v>1156678473.75</v>
     <v>iShares:Mornstr MC-Gro</v>
-    <v>318.29000000000002</v>
-    <v>318.11</v>
-    <v>319.5</v>
+    <v>309.10000000000002</v>
+    <v>304.64999999999998</v>
+    <v>311.35000000000002</v>
     <v>JKH</v>
     <v>iShares:Mornstr MC-Gro (ARCX:JKH)</v>
-    <v>18334</v>
-    <v>40741</v>
+    <v>14066</v>
+    <v>44034</v>
   </rv>
   <rv s="2">
     <v>82</v>
@@ -5974,27 +5986,27 @@
     <v>4</v>
     <v>99.72</v>
     <v>55.58</v>
-    <v>0.92959999999999998</v>
-    <v>0.8</v>
-    <v>1.0008E-2</v>
+    <v>0.9294</v>
+    <v>0.83</v>
+    <v>1.0270999999999999E-2</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>1.1999999999999999E-3</v>
-    <v>81.262</v>
+    <v>82.73</v>
     <v>ETF</v>
-    <v>44063.819293981483</v>
+    <v>44083.711719640625</v>
     <v>84</v>
-    <v>79.38</v>
-    <v>29166021157</v>
+    <v>81.239999999999995</v>
+    <v>29064516498.93</v>
     <v>Vanguard RE Idx;ETF</v>
-    <v>79.64</v>
-    <v>79.94</v>
-    <v>80.739999999999995</v>
+    <v>81.47</v>
+    <v>80.81</v>
+    <v>81.64</v>
     <v>VNQ</v>
     <v>Vanguard RE Idx;ETF (ARCX:VNQ)</v>
-    <v>2356590</v>
-    <v>4262288</v>
+    <v>1646291</v>
+    <v>3750676</v>
   </rv>
   <rv s="2">
     <v>85</v>
@@ -6015,29 +6027,29 @@
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>53.95</v>
+    <v>54.71</v>
     <v>23.95</v>
-    <v>1.2801</v>
-    <v>-0.24</v>
-    <v>-4.5190000000000004E-3</v>
+    <v>1.2842</v>
+    <v>1.4</v>
+    <v>2.7451E-2</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>3.4999999999999996E-3</v>
-    <v>53.27</v>
+    <v>52.42</v>
     <v>ETF</v>
-    <v>44063.818555300779</v>
+    <v>44083.711192129631</v>
     <v>87</v>
-    <v>52.41</v>
-    <v>1012013660.28</v>
+    <v>51.35</v>
+    <v>1170906018.24</v>
     <v>SPDR S&amp;P Homebuilders</v>
-    <v>52.5</v>
-    <v>53.11</v>
-    <v>52.87</v>
+    <v>51.51</v>
+    <v>51</v>
+    <v>52.4</v>
     <v>XHB</v>
     <v>SPDR S&amp;P Homebuilders (ARCX:XHB)</v>
-    <v>1124301</v>
-    <v>2308568</v>
+    <v>1935559</v>
+    <v>2141189</v>
   </rv>
   <rv s="2">
     <v>88</v>
@@ -6058,29 +6070,29 @@
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>340.99900000000002</v>
+    <v>360.26</v>
     <v>220.2756</v>
-    <v>1.0001</v>
-    <v>0.92010000000000003</v>
-    <v>2.7169999999999998E-3</v>
+    <v>1</v>
+    <v>8.1735000000000007</v>
+    <v>2.4424000000000001E-2</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>4.0000000000000002E-4</v>
-    <v>339.97</v>
+    <v>342.82350000000002</v>
     <v>ETF</v>
-    <v>44063.818865740737</v>
+    <v>44083.70989583333</v>
     <v>90</v>
-    <v>336.6</v>
-    <v>206131307981.39001</v>
+    <v>337.98</v>
+    <v>220433915588.79001</v>
     <v>iShares:Core S&amp;P 500</v>
-    <v>336.67</v>
-    <v>338.6</v>
-    <v>339.52010000000001</v>
+    <v>339</v>
+    <v>334.65</v>
+    <v>342.82350000000002</v>
     <v>IVV</v>
     <v>iShares:Core S&amp;P 500 (ARCX:IVV)</v>
-    <v>1403024</v>
-    <v>2778862</v>
+    <v>3176353</v>
+    <v>3270336</v>
   </rv>
   <rv s="2">
     <v>91</v>
@@ -6101,35 +6113,35 @@
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>312.27999999999997</v>
+    <v>329.67</v>
     <v>200.55</v>
     <v>1.0004999999999999</v>
-    <v>0.97</v>
-    <v>3.1310000000000001E-3</v>
+    <v>7.72</v>
+    <v>2.5207999999999998E-2</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
-    <v>2.9999999999999997E-4</v>
-    <v>311.125</v>
+    <v>4.0000000000000002E-4</v>
+    <v>314.01</v>
     <v>ETF</v>
-    <v>44063.819606481484</v>
+    <v>44083.711698101564</v>
     <v>93</v>
-    <v>308.02999999999997</v>
-    <v>154722036404</v>
+    <v>309.29000000000002</v>
+    <v>165763879545.95999</v>
     <v>Vanguard 500 Idx;ETF</v>
-    <v>308.17</v>
-    <v>309.77999999999997</v>
-    <v>310.75</v>
+    <v>310.20999999999998</v>
+    <v>306.25</v>
+    <v>313.97000000000003</v>
     <v>VOO</v>
     <v>Vanguard 500 Idx;ETF (ARCX:VOO)</v>
-    <v>1962726</v>
-    <v>2986017</v>
+    <v>2070595</v>
+    <v>3285321</v>
   </rv>
   <rv s="2">
     <v>94</v>
   </rv>
   <rv s="0">
-    <v>https://www.bing.com/financeapi/forcetrigger?t=bjq3u2&amp;q=Fidelity+ZERO+Lrg+Cap+Ix&amp;form=skydnc</v>
+    <v>https://www.bing.com/financeapi/forcetrigger?t=bjq3u2&amp;q=Fidelity+ZERO+Large+Cap+Index+Fund&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
   <rv s="3">
@@ -6144,27 +6156,27 @@
     <v>7</v>
     <v>Finance</v>
     <v>8</v>
-    <v>-0.06</v>
-    <v>-4.9550000000000002E-3</v>
+    <v>-0.36</v>
+    <v>-2.9388000000000001E-2</v>
     <v>US</v>
     <v>USD</v>
     <v>0</v>
     <v>Mutual Fund</v>
-    <v>44062</v>
-    <v>44063.226780546873</v>
+    <v>44082</v>
+    <v>44083.545700286719</v>
     <v>96</v>
     <v>Fidelity ZERO Large Cap Index Fund</v>
-    <v>2180973903</v>
-    <v>12.11</v>
-    <v>12.05</v>
+    <v>2422201332</v>
+    <v>12.25</v>
+    <v>11.89</v>
     <v>0</v>
-    <v>5.5312E-2</v>
-    <v>6.7000000000000002E-3</v>
-    <v>0.22419699999999998</v>
-    <v>0.19245999999999999</v>
+    <v>3.9016000000000002E-2</v>
+    <v>-2.3904000000000002E-2</v>
+    <v>0.20636700000000002</v>
+    <v>0.11262499999999999</v>
     <v>0</v>
     <v>0</v>
-    <v>6.9394999999999998E-2</v>
+    <v>8.9857999999999993E-2</v>
     <v>FNILX</v>
     <v>Fidelity ZERO Large Cap Index Fund</v>
   </rv>
@@ -6187,29 +6199,29 @@
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>127.96810000000001</v>
+    <v>133.19</v>
     <v>68.948099999999997</v>
-    <v>1.2541</v>
-    <v>-1.55</v>
-    <v>-1.2497000000000001E-2</v>
+    <v>1.2010000000000001</v>
+    <v>4.0199999999999996</v>
+    <v>3.4064999999999998E-2</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>3.4999999999999996E-3</v>
-    <v>123.61</v>
+    <v>122.15</v>
     <v>ETF</v>
-    <v>44063.817269073435</v>
+    <v>44083.709861111114</v>
     <v>99</v>
-    <v>121.97</v>
-    <v>536082029.20999998</v>
+    <v>120.04</v>
+    <v>550856429.47000003</v>
     <v>SPDR S&amp;P Semiconductor</v>
-    <v>123.23</v>
-    <v>124.03</v>
-    <v>122.48</v>
+    <v>120.99</v>
+    <v>118.01</v>
+    <v>122.03</v>
     <v>XSD</v>
     <v>SPDR S&amp;P Semiconductor (ARCX:XSD)</v>
-    <v>41201</v>
-    <v>45107</v>
+    <v>64684</v>
+    <v>55483</v>
   </rv>
   <rv s="2">
     <v>100</v>
@@ -6230,29 +6242,29 @@
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>174.33</v>
+    <v>184.61</v>
     <v>96</v>
-    <v>1.1674</v>
-    <v>-1.17</v>
-    <v>-6.8400000000000006E-3</v>
+    <v>1.1227</v>
+    <v>5.7450000000000001</v>
+    <v>3.5070999999999998E-2</v>
     <v>USD</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>3.4999999999999996E-3</v>
-    <v>170.19</v>
+    <v>169.55500000000001</v>
     <v>ETF</v>
-    <v>44063.818981481483</v>
+    <v>44083.711003703123</v>
     <v>102</v>
-    <v>168.23</v>
-    <v>2656727686.5599999</v>
+    <v>166.01</v>
+    <v>2792387311.3800001</v>
     <v>VnEck Vctrs:Semicnd ETF</v>
-    <v>169.18</v>
-    <v>171.05</v>
-    <v>169.88</v>
+    <v>167.64</v>
+    <v>163.81</v>
+    <v>169.55500000000001</v>
     <v>SMH</v>
     <v>VnEck Vctrs:Semicnd ETF (XNAS:SMH)</v>
-    <v>2691257</v>
-    <v>2694257</v>
+    <v>1184008</v>
+    <v>2583645</v>
   </rv>
   <rv s="2">
     <v>103</v>
@@ -6273,29 +6285,29 @@
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>167.37</v>
+    <v>183.95</v>
     <v>81.5</v>
-    <v>1.1869000000000001</v>
-    <v>2.7477</v>
-    <v>1.6886000000000002E-2</v>
+    <v>1.157</v>
+    <v>4.63</v>
+    <v>2.9322000000000001E-2</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>4.5000000000000005E-3</v>
-    <v>165.46770000000001</v>
+    <v>162.53</v>
     <v>ETF</v>
-    <v>44063.813518518517</v>
+    <v>44083.708726851852</v>
     <v>105</v>
-    <v>162.56</v>
-    <v>209748828.72999999</v>
+    <v>159.02500000000001</v>
+    <v>240408863.03999999</v>
     <v>SPDR FS Innovative Tech</v>
-    <v>162.58000000000001</v>
-    <v>162.72</v>
-    <v>165.46770000000001</v>
+    <v>160.38</v>
+    <v>157.9</v>
+    <v>162.53</v>
     <v>XITK</v>
     <v>SPDR FS Innovative Tech (ARCX:XITK)</v>
-    <v>23285</v>
-    <v>18693</v>
+    <v>33429</v>
+    <v>24767</v>
   </rv>
   <rv s="2">
     <v>106</v>
@@ -6316,27 +6328,27 @@
     <v>12</v>
     <v>Finance</v>
     <v>4</v>
-    <v>34.402799999999999</v>
+    <v>36.36</v>
     <v>20.36</v>
-    <v>0.3</v>
-    <v>8.9420000000000003E-3</v>
+    <v>0.57999999999999996</v>
+    <v>1.7961999999999999E-2</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
-    <v>33.93</v>
+    <v>32.869999999999997</v>
     <v>ETF</v>
-    <v>44063.816197291409</v>
+    <v>44083.709664351853</v>
     <v>108</v>
-    <v>33.22</v>
-    <v>109489372.44</v>
+    <v>32.293999999999997</v>
+    <v>120417034.52</v>
     <v>iShares:Cybersec &amp; Tech</v>
-    <v>33.299999999999997</v>
-    <v>33.549999999999997</v>
-    <v>33.85</v>
+    <v>32.770000000000003</v>
+    <v>32.29</v>
+    <v>32.869999999999997</v>
     <v>IHAK</v>
     <v>iShares:Cybersec &amp; Tech (ARCX:IHAK)</v>
-    <v>42923</v>
-    <v>57208</v>
+    <v>34207</v>
+    <v>69111</v>
   </rv>
   <rv s="2">
     <v>109</v>
@@ -6357,29 +6369,29 @@
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>49.554400000000001</v>
+    <v>51.19</v>
     <v>29.02</v>
-    <v>0.89580000000000004</v>
-    <v>0.49009999999999998</v>
-    <v>1.0200000000000001E-2</v>
+    <v>0.85329999999999995</v>
+    <v>0.878</v>
+    <v>1.9103999999999999E-2</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>7.1999999999999998E-3</v>
-    <v>48.6494</v>
+    <v>46.838000000000001</v>
     <v>ETF</v>
-    <v>44063.818585578127</v>
+    <v>44083.710740740738</v>
     <v>111</v>
-    <v>47.84</v>
-    <v>1521839559.4400001</v>
+    <v>46.12</v>
+    <v>1585783419.6800001</v>
     <v>ETFMG Prime Cybr Sec ETF</v>
-    <v>47.84</v>
-    <v>48.05</v>
-    <v>48.540100000000002</v>
+    <v>46.67</v>
+    <v>45.96</v>
+    <v>46.838000000000001</v>
     <v>HACK</v>
     <v>ETFMG Prime Cybr Sec ETF (ARCX:HACK)</v>
-    <v>135028</v>
-    <v>159769</v>
+    <v>71636</v>
+    <v>180543</v>
   </rv>
   <rv s="2">
     <v>112</v>
@@ -6400,29 +6412,29 @@
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>188.63</v>
+    <v>207</v>
     <v>105</v>
-    <v>1.0622</v>
-    <v>2.33</v>
-    <v>1.2506999999999999E-2</v>
+    <v>1.0471999999999999</v>
+    <v>5.8449999999999998</v>
+    <v>3.1856000000000002E-2</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>5.3E-3</v>
-    <v>188.89</v>
+    <v>189.33</v>
     <v>ETF</v>
-    <v>44063.819004629629</v>
+    <v>44083.7112037037</v>
     <v>114</v>
-    <v>185.31</v>
-    <v>9883407149.0349998</v>
+    <v>184.51</v>
+    <v>10544166465.704</v>
     <v>Frst Tr:DJ Internet Idx</v>
-    <v>185.44</v>
-    <v>186.3</v>
-    <v>188.63</v>
+    <v>187</v>
+    <v>183.48</v>
+    <v>189.32499999999999</v>
     <v>FDN</v>
     <v>Frst Tr:DJ Internet Idx (ARCX:FDN)</v>
-    <v>270818</v>
-    <v>528571</v>
+    <v>536762</v>
+    <v>637885</v>
   </rv>
   <rv s="2">
     <v>115</v>
@@ -6443,29 +6455,29 @@
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>91.71</v>
+    <v>100.77</v>
     <v>53</v>
-    <v>1.0266999999999999</v>
-    <v>1.19</v>
-    <v>1.3146E-2</v>
+    <v>1.0284</v>
+    <v>3.5099</v>
+    <v>3.9655000000000003E-2</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>8.0000000000000004E-4</v>
-    <v>91.75</v>
+    <v>92.038600000000002</v>
     <v>ETF</v>
-    <v>44063.818009259259</v>
+    <v>44083.710729166669</v>
     <v>117</v>
-    <v>90.261499999999998</v>
-    <v>4288252307</v>
+    <v>89.69</v>
+    <v>4770515882</v>
     <v>Fidelity MSCI Info Tech</v>
-    <v>90.28</v>
-    <v>90.52</v>
-    <v>91.71</v>
+    <v>90.76</v>
+    <v>88.51</v>
+    <v>92.019900000000007</v>
     <v>FTEC</v>
     <v>Fidelity MSCI Info Tech (ARCX:FTEC)</v>
-    <v>261097</v>
-    <v>382209</v>
+    <v>462961</v>
+    <v>504987</v>
   </rv>
   <rv s="2">
     <v>118</v>
@@ -6486,28 +6498,28 @@
     <v>10</v>
     <v>Finance</v>
     <v>4</v>
-    <v>69.739999999999995</v>
+    <v>74.278300000000002</v>
     <v>41.99</v>
-    <v>-0.14000000000000001</v>
-    <v>-2.0230000000000001E-3</v>
+    <v>1.91</v>
+    <v>2.8570999999999999E-2</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>5.0000000000000001E-3</v>
-    <v>69.275000000000006</v>
+    <v>68.760000000000005</v>
     <v>ETF</v>
-    <v>44063.810844907406</v>
+    <v>44083.705879629626</v>
     <v>120</v>
-    <v>68.739999999999995</v>
-    <v>39031484.68</v>
+    <v>67.95</v>
+    <v>41288205.399999999</v>
     <v>Goldman:Data-Dvn Wld</v>
-    <v>68.739999999999995</v>
-    <v>69.209999999999994</v>
-    <v>69.069999999999993</v>
+    <v>67.95</v>
+    <v>66.849999999999994</v>
+    <v>68.760000000000005</v>
     <v>GDAT</v>
     <v>Goldman:Data-Dvn Wld (ARCX:GDAT)</v>
-    <v>25273</v>
-    <v>4541</v>
+    <v>1995</v>
+    <v>5561</v>
   </rv>
   <rv s="2">
     <v>121</v>
@@ -6528,29 +6540,29 @@
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>310.55</v>
+    <v>340.74</v>
     <v>179.45</v>
-    <v>1.0274000000000001</v>
-    <v>4.16</v>
-    <v>1.3576999999999999E-2</v>
+    <v>1.0286999999999999</v>
+    <v>12.05</v>
+    <v>4.0233999999999999E-2</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>1E-3</v>
-    <v>310.55</v>
+    <v>311.55</v>
     <v>ETF</v>
-    <v>44063.819189814814</v>
+    <v>44083.710995370369</v>
     <v>123</v>
-    <v>304.82</v>
-    <v>34345247556</v>
+    <v>303.39</v>
+    <v>38842034801.459999</v>
     <v>Vanguard InfoTch Idx;ETF</v>
-    <v>305.33999999999997</v>
-    <v>306.39</v>
-    <v>310.55</v>
+    <v>306.83499999999998</v>
+    <v>299.5</v>
+    <v>311.55</v>
     <v>VGT</v>
     <v>Vanguard InfoTch Idx;ETF (ARCX:VGT)</v>
-    <v>413908</v>
-    <v>677095</v>
+    <v>812859</v>
+    <v>851984</v>
   </rv>
   <rv s="2">
     <v>124</v>
@@ -6571,29 +6583,29 @@
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>116.56</v>
+    <v>127.72</v>
     <v>68.099999999999994</v>
-    <v>0.98119999999999996</v>
-    <v>1.54</v>
-    <v>1.3389E-2</v>
+    <v>0.99050000000000005</v>
+    <v>4.6397000000000004</v>
+    <v>4.1147000000000003E-2</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>1.4000000000000002E-3</v>
-    <v>116.58</v>
+    <v>117.4</v>
     <v>ETF</v>
-    <v>44063.819495659372</v>
+    <v>44083.711061481248</v>
     <v>126</v>
-    <v>114.39</v>
-    <v>33228536246.509998</v>
+    <v>114.27</v>
+    <v>37528008637.040001</v>
     <v>Sel Sector:Tech SPDR</v>
-    <v>114.485</v>
-    <v>115.02</v>
-    <v>116.56</v>
+    <v>115.55</v>
+    <v>112.76</v>
+    <v>117.3997</v>
     <v>XLK</v>
     <v>Sel Sector:Tech SPDR (ARCX:XLK)</v>
-    <v>5277183</v>
-    <v>8429098</v>
+    <v>9480698</v>
+    <v>10719529</v>
   </rv>
   <rv s="2">
     <v>127</v>
@@ -6614,29 +6626,29 @@
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>27.388999999999999</v>
+    <v>27.87</v>
     <v>14.809699999999999</v>
-    <v>1.1518999999999999</v>
-    <v>-0.19500000000000001</v>
-    <v>-7.2629999999999995E-3</v>
+    <v>1.1132</v>
+    <v>0.75</v>
+    <v>2.9171999999999997E-2</v>
     <v>USD</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>6.9999999999999993E-3</v>
-    <v>26.7178</v>
+    <v>26.46</v>
     <v>ETF</v>
-    <v>44063.818668981483</v>
+    <v>44083.710580323437</v>
     <v>129</v>
-    <v>26.55</v>
-    <v>212294600</v>
+    <v>26.05</v>
+    <v>233522400</v>
     <v>Glbl X Itrnt of Things</v>
-    <v>26.63</v>
-    <v>26.85</v>
-    <v>26.655000000000001</v>
+    <v>26.05</v>
+    <v>25.71</v>
+    <v>26.46</v>
     <v>SNSR</v>
     <v>Glbl X Itrnt of Things (XNAS:SNSR)</v>
-    <v>23294</v>
-    <v>50771</v>
+    <v>30551</v>
+    <v>74981</v>
   </rv>
   <rv s="2">
     <v>130</v>
@@ -6657,35 +6669,35 @@
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>172.55670000000001</v>
+    <v>181.67</v>
     <v>109.49</v>
-    <v>1.0002</v>
-    <v>0.48499999999999999</v>
-    <v>2.8310000000000002E-3</v>
+    <v>0.99980000000000002</v>
+    <v>4.0892999999999997</v>
+    <v>2.426E-2</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>4.0000000000000002E-4</v>
-    <v>172</v>
+    <v>172.72</v>
     <v>ETF</v>
-    <v>44063.819189814814</v>
+    <v>44083.711296296293</v>
     <v>132</v>
-    <v>170.18770000000001</v>
-    <v>153193735128</v>
+    <v>170.33500000000001</v>
+    <v>166259254849.60001</v>
     <v>Vanguard TSM Idx;ETF</v>
-    <v>170.5</v>
-    <v>171.29</v>
-    <v>171.77500000000001</v>
+    <v>171</v>
+    <v>168.56</v>
+    <v>172.64930000000001</v>
     <v>VTI</v>
     <v>Vanguard TSM Idx;ETF (ARCX:VTI)</v>
-    <v>1949620</v>
-    <v>2680085</v>
+    <v>3270809</v>
+    <v>3139322</v>
   </rv>
   <rv s="2">
     <v>133</v>
   </rv>
   <rv s="0">
-    <v>https://www.bing.com/financeapi/forcetrigger?t=bdl4cw&amp;q=Fidelity+ZERO+Tot+Mkt+Ix&amp;form=skydnc</v>
+    <v>https://www.bing.com/financeapi/forcetrigger?t=bdl4cw&amp;q=Fidelity+ZERO+Total+Market+Index+Fund&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
   <rv s="3">
@@ -6700,27 +6712,27 @@
     <v>7</v>
     <v>Finance</v>
     <v>8</v>
-    <v>-0.05</v>
-    <v>-4.1670000000000006E-3</v>
+    <v>-0.35</v>
+    <v>-2.8925999999999997E-2</v>
     <v>US</v>
     <v>USD</v>
     <v>0</v>
     <v>Mutual Fund</v>
-    <v>44062</v>
-    <v>44063.226102010936</v>
+    <v>44082</v>
+    <v>44083.544980882034</v>
     <v>135</v>
     <v>Fidelity ZERO Total Market Index Fund</v>
-    <v>5711071047</v>
-    <v>12</v>
-    <v>11.95</v>
+    <v>6165466392</v>
+    <v>12.1</v>
+    <v>11.75</v>
     <v>0</v>
-    <v>6.0444000000000005E-2</v>
-    <v>6.7510000000000001E-3</v>
-    <v>0.20352599999999998</v>
-    <v>0.20140999999999998</v>
+    <v>3.5073E-2</v>
+    <v>-2.4194E-2</v>
+    <v>0.18196500000000002</v>
+    <v>0.10401500000000001</v>
     <v>0</v>
     <v>0</v>
-    <v>5.2027999999999998E-2</v>
+    <v>6.7018999999999995E-2</v>
     <v>FZROX</v>
     <v>Fidelity ZERO Total Market Index Fund</v>
   </rv>
@@ -6728,7 +6740,7 @@
     <v>136</v>
   </rv>
   <rv s="0">
-    <v>https://www.bing.com/financeapi/forcetrigger?t=a7rlyc&amp;q=Fidelity+Total+Market+Ix&amp;form=skydnc</v>
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a7rlyc&amp;q=Fidelity+Total+Market+Index+Fund&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
   <rv s="3">
@@ -6743,27 +6755,27 @@
     <v>7</v>
     <v>Finance</v>
     <v>8</v>
-    <v>-0.4</v>
-    <v>-4.1810000000000007E-3</v>
+    <v>-2.76</v>
+    <v>-2.8613E-2</v>
     <v>US</v>
     <v>USD</v>
     <v>2.0000000000000001E-4</v>
     <v>Mutual Fund</v>
-    <v>44062</v>
-    <v>44063.221953393753</v>
+    <v>44082</v>
+    <v>44083.21672279531</v>
     <v>138</v>
     <v>Fidelity Total Market Index Fund</v>
-    <v>48419431458</v>
-    <v>95.67</v>
-    <v>95.27</v>
+    <v>51716055507</v>
+    <v>96.46</v>
+    <v>93.7</v>
     <v>0</v>
-    <v>6.0410000000000005E-2</v>
-    <v>6.7720000000000002E-3</v>
-    <v>0.20272699999999999</v>
-    <v>0.20171800000000001</v>
-    <v>0.12653900000000001</v>
-    <v>0.11691700000000001</v>
-    <v>5.3426000000000001E-2</v>
+    <v>3.4979000000000003E-2</v>
+    <v>-2.3980999999999999E-2</v>
+    <v>0.18062999999999999</v>
+    <v>0.10378800000000001</v>
+    <v>0.12887199999999999</v>
+    <v>0.13820399999999999</v>
+    <v>6.8041999999999991E-2</v>
     <v>FSKAX</v>
     <v>Fidelity Total Market Index Fund</v>
   </rv>
@@ -6788,9 +6800,9 @@
     <v>17</v>
     <v>108.58</v>
     <v>49.680999999999997</v>
-    <v>1.1198999999999999</v>
-    <v>-0.51</v>
-    <v>-5.483E-3</v>
+    <v>1.0661</v>
+    <v>1.63</v>
+    <v>1.6706000000000002E-2</v>
     <v>USD</v>
     <v>Genuine Parts Company is a service organization engaged in the distribution of automotive replacement parts, industrial replacement parts, and electrical/electronic materials. The Company's segments include Automotive, Industrial and Other. The automotive segment distributes replacement parts for all makes and models of automobiles, trucks and other vehicles. The industrial segment distributes a range of industrial bearings, mechanical and fluid power transmission equipment, including hydraulic and pneumatic products, material handling components and related parts and supplies.</v>
     <v>55000</v>
@@ -6798,24 +6810,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>2999 Wildwood Pkwy, ATLANTA, GA, 30339-8580 US</v>
-    <v>92.94</v>
+    <v>99.63</v>
     <v>Automobiles &amp; Auto Parts</v>
     <v>Stock</v>
-    <v>44063.81890046296</v>
+    <v>44083.711134443751</v>
     <v>141</v>
-    <v>91.95</v>
-    <v>13497360000</v>
+    <v>97.62</v>
+    <v>14061430000</v>
     <v>GENUINE PARTS COMPANY</v>
     <v>GENUINE PARTS COMPANY</v>
-    <v>92.42</v>
+    <v>97.82</v>
     <v>0</v>
-    <v>93.02</v>
-    <v>92.51</v>
+    <v>97.57</v>
+    <v>99.2</v>
     <v>144264200</v>
     <v>GPC</v>
     <v>GENUINE PARTS COMPANY (XNYS:GPC)</v>
-    <v>333368</v>
-    <v>650291</v>
+    <v>318286</v>
+    <v>687276</v>
     <v>1928</v>
   </rv>
   <rv s="2">
@@ -6857,9 +6869,9 @@
     <v>17</v>
     <v>29.44</v>
     <v>19.38</v>
-    <v>0.89170000000000005</v>
-    <v>-0.55000000000000004</v>
-    <v>-2.1547999999999998E-2</v>
+    <v>0.85589999999999999</v>
+    <v>-7.0000000000000007E-2</v>
+    <v>-2.761E-3</v>
     <v>USD</v>
     <v>HONDA MOTOR CO., LTD. is a Japan-based company principally engaged in the motorcycle business, the automobile business, the financial service business and the power product business. The Company operates in four business segments. The Motorcycle segment provides motorcycles, all-terrain vehicles (ATVs), side-by-side vehicles. The Automobile segment provides automobiles and related parts. The Company produces a range of motorcycles, with engine displacement ranging from the 50 cubic centimeters class to the 1,800 cubic centimeters class. Its automobiles use gasoline engines of three, four or six cylinder, diesel engines, gasoline-electric hybrid systems and gasoline-electric plug-in hybrid systems. The Financial Service segment is engaged in the sales financing and leasing. The Power Product segment and Others segment provides power products and related parts.</v>
     <v>218674</v>
@@ -6867,25 +6879,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>2-1-1, Minami-Aoyama, MINATO-KU, TOKYO-TO, 107-8556 JP</v>
-    <v>25.145</v>
+    <v>25.32</v>
     <v>147</v>
     <v>Automobiles &amp; Auto Parts</v>
     <v>Stock</v>
-    <v>44063.818382175785</v>
+    <v>44083.710560450781</v>
     <v>148</v>
-    <v>24.88</v>
-    <v>46178690000</v>
+    <v>25.07</v>
+    <v>46773210000</v>
     <v>HONDA MOTOR CO., LTD.</v>
     <v>HONDA MOTOR CO., LTD.</v>
-    <v>25.1</v>
-    <v>24.1126</v>
-    <v>25.524999999999999</v>
-    <v>24.975000000000001</v>
+    <v>25.114999999999998</v>
+    <v>23.951899999999998</v>
+    <v>25.35</v>
+    <v>25.28</v>
     <v>1811428000</v>
     <v>HMC</v>
     <v>HONDA MOTOR CO., LTD. (XNYS:HMC)</v>
-    <v>479688</v>
-    <v>668994</v>
+    <v>368384</v>
+    <v>721565</v>
     <v>1948</v>
   </rv>
   <rv s="2">
@@ -6923,9 +6935,9 @@
     <v>17</v>
     <v>54.75</v>
     <v>22</v>
-    <v>1.1116999999999999</v>
-    <v>-0.34</v>
-    <v>-1.4125E-2</v>
+    <v>1.0513999999999999</v>
+    <v>-0.22</v>
+    <v>-9.1820000000000009E-3</v>
     <v>USD</v>
     <v>Wells Fargo &amp; Company is a bank holding company. The Company is a diversified financial services company. It has three operating segments: Community Banking, Wholesale Banking, and Wealth and Investment Management. The Company offers its services under three categories: personal, small business and commercial. It provides retail, commercial and corporate banking services through banking locations and offices, the Internet and other distribution channels to individuals, businesses and institutions in all 50 states, the District of Columbia and in other countries. It provides other financial services through its subsidiaries engaged in various businesses, including wholesale banking, mortgage banking, consumer finance, equipment leasing, agricultural finance, commercial finance, securities brokerage and investment banking, computer and data processing services, investment advisory services, mortgage-backed securities servicing and venture capital investment.</v>
     <v>266300</v>
@@ -6933,25 +6945,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>420 Montgomery St, SAN FRANCISCO, CA, 94104-1207 US</v>
-    <v>23.93</v>
+    <v>24.07</v>
     <v>153</v>
     <v>Banking Services</v>
     <v>Stock</v>
-    <v>44063.819068008597</v>
+    <v>44083.711342592593</v>
     <v>154</v>
-    <v>23.6</v>
-    <v>99045930000</v>
+    <v>23.7</v>
+    <v>102136000000</v>
     <v>WELLS FARGO &amp; COMPANY</v>
     <v>WELLS FARGO &amp; COMPANY</v>
-    <v>23.76</v>
-    <v>27.6206</v>
-    <v>24.07</v>
-    <v>23.73</v>
+    <v>24.01</v>
+    <v>27.5059</v>
+    <v>23.96</v>
+    <v>23.74</v>
     <v>4120047000</v>
     <v>WFC</v>
     <v>WELLS FARGO &amp; COMPANY (XNYS:WFC)</v>
-    <v>30397223</v>
-    <v>39705873</v>
+    <v>23770634</v>
+    <v>36782982</v>
     <v>1929</v>
   </rv>
   <rv s="2">
@@ -6989,9 +7001,9 @@
     <v>17</v>
     <v>35.72</v>
     <v>17.95</v>
-    <v>1.5824</v>
-    <v>-0.39500000000000002</v>
-    <v>-1.5484E-2</v>
+    <v>1.5097</v>
+    <v>7.4999999999999997E-2</v>
+    <v>2.9429999999999999E-3</v>
     <v>USD</v>
     <v>Bank of America Corporation is a bank holding company and a financial holding company. The Company is a financial institution, serving individual consumers and others with a range of banking, investing, asset management and other financial and risk management products and services. The Company, through its banking and various non-bank subsidiaries, throughout the United States and in international markets, provides a range of banking and non-bank financial services and products through four business segments: Consumer Banking, which comprises Deposits and Consumer Lending; Global Wealth &amp; Investment Management, which consists of two primary businesses: Merrill Lynch Global Wealth Management and U.S. Trust, Bank of America Private Wealth Management; Global Banking, which provides a range of lending-related products and services; Global Markets, which offers sales and trading services, and All Other, which consists of equity investments, residual expense allocations and other.</v>
     <v>213000</v>
@@ -6999,25 +7011,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>Bank of America Corporate Center, 100 N Tryon St, CHARLOTTE, NC, 28255-0001 US</v>
-    <v>25.324999999999999</v>
+    <v>25.669799999999999</v>
     <v>159</v>
     <v>Banking Services</v>
     <v>Stock</v>
-    <v>44063.81958688594</v>
+    <v>44083.71112254609</v>
     <v>160</v>
-    <v>25.02</v>
-    <v>221194400000</v>
+    <v>25.23</v>
+    <v>229945200000</v>
     <v>BANK OF AMERICA CORPORATION</v>
     <v>BANK OF AMERICA CORPORATION</v>
-    <v>25.07</v>
-    <v>12.248799999999999</v>
-    <v>25.51</v>
-    <v>25.114999999999998</v>
+    <v>25.62</v>
+    <v>12.2392</v>
+    <v>25.48</v>
+    <v>25.555</v>
     <v>8664098000</v>
     <v>BAC</v>
     <v>BANK OF AMERICA CORPORATION (XNYS:BAC)</v>
-    <v>39659234</v>
-    <v>59374804</v>
+    <v>30083414</v>
+    <v>58060109</v>
     <v>1998</v>
   </rv>
   <rv s="2">
@@ -7055,9 +7067,9 @@
     <v>17</v>
     <v>141.1</v>
     <v>76.91</v>
-    <v>1.1591</v>
-    <v>-1.29</v>
-    <v>-1.3089999999999999E-2</v>
+    <v>1.1043000000000001</v>
+    <v>0.96</v>
+    <v>9.6050000000000007E-3</v>
     <v>USD</v>
     <v>JPMorgan Chase &amp; Co. is a financial holding company. The Company is engaged in investment banking, financial services. It operates in four segments, as well as a Corporate segment. Its segments are Consumer &amp; Community Banking, Corporate &amp; Investment Bank, Commercial Banking and Asset Management. The Consumer &amp; Community Banking segment offers services to consumers and businesses through bank branches, automatic teller machines (ATMs), online, mobile and telephone banking. The Corporate &amp; Investment Bank segment, comprising Banking and Markets &amp; Investor Services, offers investment banking, market-making, prime brokerage, and treasury and securities products and services to corporations, investors, financial institutions, and government and municipal entities. The Commercial Banking segment provides financial solutions, including lending, treasury services, investment banking and asset management. The Asset Management segment comprises investment and wealth management.</v>
     <v>256710</v>
@@ -7065,25 +7077,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>383 Madison Ave, NEW YORK, NY, 10017-3217 US</v>
-    <v>98.03</v>
+    <v>101.131</v>
     <v>165</v>
     <v>Banking Services</v>
     <v>Stock</v>
-    <v>44063.819143414061</v>
+    <v>44083.711168981485</v>
     <v>166</v>
-    <v>96.8</v>
-    <v>299640500000</v>
+    <v>99.56</v>
+    <v>315488000000</v>
     <v>JPMORGAN CHASE &amp; CO.</v>
     <v>JPMORGAN CHASE &amp; CO.</v>
-    <v>97.26</v>
-    <v>13.285</v>
-    <v>98.55</v>
-    <v>97.26</v>
+    <v>100.65</v>
+    <v>13.4696</v>
+    <v>99.95</v>
+    <v>100.91</v>
     <v>3047604000</v>
     <v>JPM</v>
     <v>JPMORGAN CHASE &amp; CO. (XNYS:JPM)</v>
-    <v>10813487</v>
-    <v>14848351</v>
+    <v>7006044</v>
+    <v>16185372</v>
     <v>1968</v>
   </rv>
   <rv s="2">
@@ -7121,9 +7133,9 @@
     <v>17</v>
     <v>60.13</v>
     <v>36.270000000000003</v>
-    <v>0.54459999999999997</v>
-    <v>-0.115</v>
-    <v>-2.428E-3</v>
+    <v>0.54800000000000004</v>
+    <v>0.77</v>
+    <v>1.5459000000000001E-2</v>
     <v>USD</v>
     <v>The Coca-Cola Company is a beverage company. The Company owns or licenses and markets non-alcoholic beverage brands, primarily sparkling beverages and a range of still beverages, such as waters, flavored waters and enhanced waters, juices and juice drinks, ready-to-drink teas and coffees, sports drinks, dairy and energy drinks. The Company's segments include Europe, Middle East and Africa; Latin America; North America; Asia Pacific; Bottling Investments, and Corporate. The Company owns and markets a range of non-alcoholic sparkling beverage brands, including Coca-Cola, Diet Coke, Fanta and Sprite. The Company owns or licenses and markets over 500 non-alcoholic beverage brands. The Company markets, manufactures and sells beverage concentrates, which are referred to as beverage bases, and syrups, including fountain syrups, and finished sparkling and still beverages.</v>
     <v>86200</v>
@@ -7131,25 +7143,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1 Coca Cola Plz NW, ATLANTA, GA, 30313-2420 US</v>
-    <v>47.6</v>
+    <v>50.585000000000001</v>
     <v>171</v>
     <v>Beverages</v>
     <v>Stock</v>
-    <v>44063.819432870368</v>
+    <v>44083.711018518516</v>
     <v>172</v>
-    <v>47.1</v>
-    <v>207985200000</v>
+    <v>49.55</v>
+    <v>219239200000</v>
     <v>THE COCA-COLA COMPANY</v>
     <v>THE COCA-COLA COMPANY</v>
-    <v>47.32</v>
-    <v>22.278600000000001</v>
-    <v>47.37</v>
-    <v>47.255000000000003</v>
+    <v>49.67</v>
+    <v>23.426100000000002</v>
+    <v>49.81</v>
+    <v>50.58</v>
     <v>4295439000</v>
     <v>KO</v>
     <v>THE COCA-COLA COMPANY (XNYS:KO)</v>
-    <v>8631174</v>
-    <v>14466755</v>
+    <v>8542882</v>
+    <v>13522081</v>
     <v>1919</v>
   </rv>
   <rv s="2">
@@ -7185,11 +7197,11 @@
     <v>22</v>
     <v>Finance</v>
     <v>17</v>
-    <v>345.12</v>
+    <v>363.67</v>
     <v>271.27999999999997</v>
-    <v>0.6875</v>
-    <v>-0.14000000000000001</v>
-    <v>-4.1070000000000001E-4</v>
+    <v>0.70450000000000002</v>
+    <v>8.2550000000000008</v>
+    <v>2.4361000000000001E-2</v>
     <v>USD</v>
     <v>Costco Wholesale Corporation is engaged in the operation of membership warehouses in the United States and Puerto Rico, Canada, the United Kingdom, Mexico, Japan, Australia, Spain, and through its subsidiaries in Taiwan and Korea. As of August 28, 2016, the Company operated 715 warehouses across the world. The Company's average warehouse space is approximately 144,000 square feet. The Company's warehouses on average operate on a seven-day, 70-hour week. The Company offers merchandise in various categories, which include foods (including dry foods, packaged foods and groceries); sundries (including snack foods, candy, alcoholic and nonalcoholic beverages, and cleaning supplies); hardlines (including appliances, electronics, health and beauty aids, hardware, and garden and patio); fresh foods (including meat, produce, deli and bakery); softlines (including apparel and small appliances), and other (including gas stations and pharmacy).</v>
     <v>149000</v>
@@ -7197,25 +7209,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>999 Lake Dr, ISSAQUAH, WA, 98027-8990 US</v>
-    <v>341.12</v>
+    <v>347.40800000000002</v>
     <v>177</v>
     <v>Diversified Retail</v>
     <v>Stock</v>
-    <v>44063.818598043748</v>
+    <v>44083.711192129631</v>
     <v>178</v>
-    <v>338.74</v>
-    <v>150449200000</v>
+    <v>340.39</v>
+    <v>153018900000</v>
     <v>COSTCO WHOLESALE CORPORATION</v>
     <v>COSTCO WHOLESALE CORPORATION</v>
-    <v>340.14</v>
-    <v>40.319400000000002</v>
     <v>340.9</v>
-    <v>340.76</v>
+    <v>40.096400000000003</v>
+    <v>338.86</v>
+    <v>347.11500000000001</v>
     <v>441523700</v>
     <v>COST</v>
     <v>COSTCO WHOLESALE CORPORATION (XNAS:COST)</v>
-    <v>923146</v>
-    <v>1838390</v>
+    <v>920977</v>
+    <v>2010168</v>
     <v>1987</v>
   </rv>
   <rv s="2">
@@ -7239,24 +7251,24 @@
     <v>4</v>
     <v>49.3</v>
     <v>17.75</v>
-    <v>-0.97499999999999998</v>
-    <v>-2.4746000000000001E-2</v>
+    <v>2.93E-2</v>
+    <v>8.5650000000000006E-4</v>
     <v>USD</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
-    <v>38.979999999999997</v>
+    <v>34.524999999999999</v>
     <v>ETF</v>
-    <v>44063.818657407406</v>
+    <v>44083.710775462961</v>
     <v>181</v>
-    <v>38.31</v>
+    <v>33.979999999999997</v>
     <v>CHENIERE ENERGY PARTNERS UNT</v>
-    <v>38.58</v>
-    <v>39.4</v>
-    <v>38.424999999999997</v>
+    <v>34.31</v>
+    <v>34.21</v>
+    <v>34.2393</v>
     <v>CQP</v>
     <v>CHENIERE ENERGY PARTNERS UNT (XNYS:CQP)</v>
-    <v>84633</v>
-    <v>178716</v>
+    <v>61332</v>
+    <v>219893</v>
   </rv>
   <rv s="2">
     <v>182</v>
@@ -7291,11 +7303,11 @@
     <v>22</v>
     <v>Finance</v>
     <v>17</v>
-    <v>59.52</v>
+    <v>58.3</v>
     <v>8.75</v>
-    <v>2.2239</v>
-    <v>-0.48499999999999999</v>
-    <v>-2.4544999999999997E-2</v>
+    <v>2.2088000000000001</v>
+    <v>-0.13</v>
+    <v>-5.6989999999999992E-3</v>
     <v>USD</v>
     <v>Six Flags Entertainment Corporation (Six Flags) is a regional theme park operator. The Company operates in the theme parks segment. The Company operates approximately 19 regional theme and water parks. Its parks occupy approximately 4,500 acres of land. Its parks are located in geographically diverse markets across North America. Its parks offer a selection of thrill rides, water attractions, themed areas, concerts and shows, restaurants, game venues and retail outlets. Its parks offer approximately 830 rides, including over 135 roller coasters. The Company's parks include Six Flags America, Six Flags Discovery Kingdom, Six Flags Fiesta Texas, Six Flags Great Adventure &amp; Safari/ Six Flags Hurricane Harbor, Six Flags Great America, Six Flags St. Louis, Six Flags Magic Mountain/ Six Flags Hurricane Harbor, Six Flags Mexico and Six Flags New England.</v>
     <v>2450</v>
@@ -7303,25 +7315,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1000 Ballpark Way Suite 400, ARLINGTON, TX, 76011 US</v>
-    <v>19.73</v>
+    <v>22.94</v>
     <v>186</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>44063.818091955465</v>
+    <v>44083.710076990625</v>
     <v>187</v>
-    <v>19.14</v>
-    <v>1691848000</v>
+    <v>21.66</v>
+    <v>1878325000</v>
     <v>SIX FLAGS ENTERTAINMENT CORPORATION</v>
     <v>SIX FLAGS ENTERTAINMENT CORPORATION</v>
-    <v>19.670000000000002</v>
+    <v>22.94</v>
     <v>0</v>
-    <v>19.760000000000002</v>
-    <v>19.274999999999999</v>
+    <v>22.81</v>
+    <v>22.68</v>
     <v>84761940</v>
     <v>SIX</v>
     <v>SIX FLAGS ENTERTAINMENT CORPORATION (XNYS:SIX)</v>
-    <v>840246</v>
-    <v>2411431</v>
+    <v>2028252</v>
+    <v>2175480</v>
     <v>1997</v>
   </rv>
   <rv s="2">
@@ -7359,9 +7371,9 @@
     <v>17</v>
     <v>45.24</v>
     <v>14.52</v>
-    <v>1.4379999999999999</v>
-    <v>0.18</v>
-    <v>7.0390000000000001E-3</v>
+    <v>1.4533</v>
+    <v>-0.52500000000000002</v>
+    <v>-1.6865000000000002E-2</v>
     <v>USD</v>
     <v>The Cheesecake Factory Inc. is an experiential dining company. The Company owns and operates approximately 294 restaurants throughout the United States and Canada under brands, including The Cheesecake Factory, North Italia and a collection within the Fox Restaurant Concepts (FRC) subsidiary. Its segments include The Cheesecake Factory, North Italia, other FRC brands and Other. The Company’s Cheesecake Factory menu features approximately 250 items and menu offerings include appetizers, pizza, seafood, steaks, chicken, burgers, small plates, pastas, salads and sandwiches. It also operates two bakery production facilities, one in Calabasas Hills, California, and one in Rocky Mount, North Carolina. Its cheesecakes include the Original Cheesecake, Ultimate Red Velvet Cake Cheesecake, Godiva Chocolate Cheesecake and Oreo Dream Extreme Cheesecake. The Company also operates Grand Lux Cafe, RockSugar Southeast Asian Kitchen and Social Monk Asian Kitchen.</v>
     <v>46250</v>
@@ -7369,25 +7381,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>26901 MALIBU HILLS RD, CALABASAS HILLS, CA, 91301-5354 US</v>
-    <v>25.9</v>
+    <v>31.29</v>
     <v>192</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>44063.818958333337</v>
+    <v>44083.71130787037</v>
     <v>193</v>
-    <v>24.86</v>
-    <v>1183383000</v>
+    <v>30.027000000000001</v>
+    <v>1418423000</v>
     <v>THE CHEESECAKE FACTORY INCORPORATED</v>
     <v>THE CHEESECAKE FACTORY INCORPORATED</v>
-    <v>25.21</v>
+    <v>31.15</v>
     <v>10.3302</v>
-    <v>25.57</v>
-    <v>25.75</v>
+    <v>31.13</v>
+    <v>30.605</v>
     <v>45462280</v>
     <v>CAKE</v>
     <v>THE CHEESECAKE FACTORY INCORPORATED (XNAS:CAKE)</v>
-    <v>1361222</v>
-    <v>1822391</v>
+    <v>809518</v>
+    <v>1483905</v>
     <v>1992</v>
   </rv>
   <rv s="2">
@@ -7425,9 +7437,9 @@
     <v>17</v>
     <v>53.13</v>
     <v>13.74</v>
-    <v>1.9404999999999999</v>
-    <v>-0.18790000000000001</v>
-    <v>-6.7369999999999999E-3</v>
+    <v>1.8107</v>
+    <v>-0.98</v>
+    <v>-3.0520000000000002E-2</v>
     <v>USD</v>
     <v>Wyndham Destinations, Inc., formerly Wyndham Worldwide Corporation, is a vacation ownership and exchange company. The Company operates across 110 countries at more than 220 vacation ownership resorts and 4,300 affiliated exchange properties. The Company, through its Wyndham Vacation Clubs business, markets and sells vacation ownership interests and provides consumer financing to owners at a portfolio of brands including: CLUB WYNDHAM, WorldMark by Wyndham, CLUB WYNDHAM ASIA, WorldMark South Pacific Club by Wyndham, Shell Vacations Club, Margaritaville Vacation Club by Wyndham and WYNDHAM CLUB BRASILSM. The Company’s Resort Condominiums International (RCI) exchanges includes RCI India, Dial An Exchange (dae), Love Home Swap, The Registry Collection, TripBeat, @Work International and Armed Forces Vacation Club.</v>
     <v>22500</v>
@@ -7435,25 +7447,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>6277 Sea Harbor Dr, ORLANDO, FL, 32821-8043 US</v>
-    <v>27.96</v>
+    <v>32.24</v>
     <v>198</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>44063.818950392968</v>
+    <v>44083.710843842186</v>
     <v>199</v>
-    <v>26.96</v>
-    <v>2397260000</v>
+    <v>30.95</v>
+    <v>2680294000</v>
     <v>WYNDHAM DESTINATIONS, INC.</v>
     <v>WYNDHAM DESTINATIONS, INC.</v>
-    <v>27.29</v>
+    <v>32.06</v>
     <v>0</v>
-    <v>27.89</v>
-    <v>27.702100000000002</v>
+    <v>32.11</v>
+    <v>31.13</v>
     <v>85251080</v>
     <v>WYND</v>
     <v>WYNDHAM DESTINATIONS, INC. (XNYS:WYND)</v>
-    <v>673766</v>
-    <v>976328</v>
+    <v>303203</v>
+    <v>941254</v>
     <v>2003</v>
   </rv>
   <rv s="2">
@@ -7495,9 +7507,9 @@
     <v>17</v>
     <v>74.290000000000006</v>
     <v>33.299999999999997</v>
-    <v>1.5165</v>
-    <v>5.5E-2</v>
-    <v>1.158E-3</v>
+    <v>1.4457</v>
+    <v>-0.64</v>
+    <v>-1.2378999999999999E-2</v>
     <v>USD</v>
     <v>Las Vegas Sands Corp. is a developer of destination properties (integrated resorts) that feature accommodations, gaming, entertainment and retail, convention and exhibition facilities, celebrity chef restaurants and other amenities. The Company owns and operates integrated resorts in Asia and the United States. The Company's principal operating and developmental activities occur in three geographic areas: Macao, Singapore and the United States. In Macao, the Company's segments include The Venetian Macao; Sands Cotai Central; The Parisian Macao; Four Seasons Macao; Sands Macao, and Other Asia (comprises the Company's ferry operations and various other operations). In Singapore, the Company's segments include Marina Bay Sands. In the United States, the Company's segment is Las Vegas Operating Properties. The Company also offers players club loyalty programs at its properties, which provides access to rewards, privileges and members-only events.</v>
     <v>50000</v>
@@ -7505,25 +7517,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>3355 Las Vegas Blvd S Rm 1A, LAS VEGAS, NV, 89109-8941 US</v>
-    <v>47.782400000000003</v>
+    <v>51.81</v>
     <v>205</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>44063.818287037036</v>
+    <v>44083.710914351854</v>
     <v>206</v>
-    <v>46.62</v>
-    <v>36425780000</v>
+    <v>50.51</v>
+    <v>39687220000</v>
     <v>LAS VEGAS SANDS CORP.</v>
     <v>LAS VEGAS SANDS CORP.</v>
-    <v>46.86</v>
-    <v>108.5004</v>
-    <v>47.48</v>
-    <v>47.534999999999997</v>
+    <v>51.81</v>
+    <v>118.1002</v>
+    <v>51.7</v>
+    <v>51.06</v>
     <v>763803300</v>
     <v>LVS</v>
     <v>LAS VEGAS SANDS CORP. (XNYS:LVS)</v>
-    <v>2363546</v>
-    <v>6226850</v>
+    <v>2048825</v>
+    <v>6305433</v>
     <v>2004</v>
   </rv>
   <rv s="2">
@@ -7559,11 +7571,11 @@
     <v>22</v>
     <v>Finance</v>
     <v>17</v>
-    <v>98.14</v>
+    <v>95.93</v>
     <v>50.02</v>
-    <v>0.77869999999999995</v>
-    <v>-0.40500000000000003</v>
-    <v>-5.2170000000000003E-3</v>
+    <v>0.80159999999999998</v>
+    <v>1.28</v>
+    <v>1.4986999999999999E-2</v>
     <v>USD</v>
     <v>Starbucks Corp is a coffee roaster and retailer of specialty coffee with operations in approximately 82 markets around the world. The Company has over 32,000 Company-operated and licensed stores. It operates through three segments: Americas, International and Channel Development. It also sells a variety of coffee and tea products and license its trademarks through other channels, such as licensed stores, grocery and foodservice. It purchases and roasts coffees that it sells, along with handcrafted coffee, tea and other beverages and a variety of food items through Company-operated stores. In addition to its flagship Starbucks Coffee brand, it sells goods and services under various brands, including Teavana, Seattle’s Best Coffee, Evolution Fresh, Ethos, Starbucks Reserve and Princi.</v>
     <v>346000</v>
@@ -7571,25 +7583,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>2401 Utah Ave S, SEATTLE, WA, 98134-1436 US</v>
-    <v>77.650000000000006</v>
+    <v>86.72</v>
     <v>211</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>44063.819854872658</v>
+    <v>44083.711238425924</v>
     <v>212</v>
-    <v>76.4602</v>
-    <v>92339310000</v>
+    <v>84.46</v>
+    <v>100849600000</v>
     <v>STARBUCKS CORPORATION</v>
     <v>STARBUCKS CORPORATION</v>
-    <v>77.08</v>
-    <v>70.557299999999998</v>
-    <v>77.63</v>
-    <v>77.224999999999994</v>
+    <v>85.91</v>
+    <v>77.628500000000003</v>
+    <v>85.41</v>
+    <v>86.69</v>
     <v>1169000000</v>
     <v>SBUX</v>
     <v>STARBUCKS CORPORATION (XNAS:SBUX)</v>
-    <v>3963372</v>
-    <v>7738139</v>
+    <v>3764606</v>
+    <v>8031039</v>
     <v>1985</v>
   </rv>
   <rv s="2">
@@ -7613,9 +7625,9 @@
     <v>17</v>
     <v>48.85</v>
     <v>9</v>
-    <v>1.9942</v>
-    <v>-0.32500000000000001</v>
-    <v>-2.3534000000000003E-2</v>
+    <v>1.8609</v>
+    <v>3.5000000000000003E-2</v>
+    <v>3.166E-3</v>
     <v>USD</v>
     <v>Occidental Petroleum Corp is an international oil and gas exploration and production company. The Company has operations in the United States, Middle East and Latin America. It operates through three segments: Oil and Gas, Chemical (OxyChem) and Midstream and Marketing. Its Oil and Gas segment explores for, develops and produces oil and condensate, natural gas liquids (NGLs) and natural gas. Its OxyChem segment primarily manufactures and markets basic chemicals and vinyls. OxyChem also manufactures polyvinyl chloride (PVC) resins, chlorine and caustic soda and has manufacturing facilities in the United States, Canada and Latin America. Midstream and Marketing segment purchases, markets, gathers, processes, transports and stores oil, condensate, NGL, natural gas, carbon dioxide and power. Through its subsidiary, Oxy Low Carbon Ventures, LLC it develops carbon capture, utilization and storage projects that source anthropogenic carbon dioxide.</v>
     <v>14400</v>
@@ -7623,24 +7635,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>5 Greenway Plz Ste 110, HOUSTON, TX, 77046-0521 US</v>
-    <v>13.72</v>
+    <v>11.205</v>
     <v>Oil &amp; Gas</v>
     <v>Stock</v>
-    <v>44063.819148564064</v>
+    <v>44083.711409930467</v>
     <v>215</v>
-    <v>13.25</v>
-    <v>12975480000</v>
+    <v>10.9</v>
+    <v>11394240000</v>
     <v>OCCIDENTAL PETROLEUM CORPORATION</v>
     <v>OCCIDENTAL PETROLEUM CORPORATION</v>
-    <v>13.5</v>
+    <v>11.2</v>
     <v>0</v>
-    <v>13.81</v>
-    <v>13.484999999999999</v>
+    <v>11.055</v>
+    <v>11.09</v>
     <v>930142200</v>
     <v>OXY</v>
     <v>OCCIDENTAL PETROLEUM CORPORATION (XNYS:OXY)</v>
-    <v>18448048</v>
-    <v>22368975</v>
+    <v>14572615</v>
+    <v>23256054</v>
     <v>1986</v>
   </rv>
   <rv s="2">
@@ -7682,9 +7694,9 @@
     <v>17</v>
     <v>61.17</v>
     <v>21.254999999999999</v>
-    <v>0.76270000000000004</v>
-    <v>-0.33500000000000002</v>
-    <v>-1.1011E-2</v>
+    <v>0.71599999999999997</v>
+    <v>0.4844</v>
+    <v>1.7274999999999999E-2</v>
     <v>USD</v>
     <v>The Royal Dutch Shell plc is a company based in the Netherlands that explores for crude oil and natural gas around the world, both in conventional fields and from sources, such as tight rock, shale and coal formations. Its segments include Integrated Gas, Upstream, Downstream and Corporate. The Integrated Gas segment is engaged in the liquefaction and transportation of gas and the conversion of natural gas to liquids to provide fuels and other products, as well as projects with an integrated activity, ranging from producing to commercializing gas. The Upstream segment includes the operations of Upstream, which is engaged in the exploration for and extraction of crude oil, natural gas and natural gas liquids, and the marketing and transportation of oil and gas, and Oil Sands, which is engaged in the extraction of bitumen from mined oil sands and conversion into synthetic crude oil. The Downstream segment is engaged in oil products and chemicals manufacturing, and marketing activities.</v>
     <v>83000</v>
@@ -7692,25 +7704,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>Carel van Bylandtlaan 30, 'S-GRAVENHAGE, ZUID-HOLLAND, 2596 HR NL</v>
-    <v>30.32</v>
+    <v>29.03</v>
     <v>221</v>
     <v>Oil &amp; Gas</v>
     <v>Stock</v>
-    <v>44063.819328703707</v>
+    <v>44083.710907303124</v>
     <v>222</v>
-    <v>29.95</v>
-    <v>116636300000</v>
+    <v>28.432700000000001</v>
+    <v>112563400000</v>
     <v>ROYAL DUTCH SHELL PLC</v>
     <v>ROYAL DUTCH SHELL PLC</v>
-    <v>30.13</v>
+    <v>28.88</v>
     <v>0</v>
-    <v>30.425000000000001</v>
-    <v>30.09</v>
+    <v>28.04</v>
+    <v>28.5244</v>
     <v>3903712000</v>
     <v>RDS.A</v>
     <v>ROYAL DUTCH SHELL PLC (XNYS:RDS.A)</v>
-    <v>4112600</v>
-    <v>5237325</v>
+    <v>3590402</v>
+    <v>4988706</v>
     <v>2002</v>
   </rv>
   <rv s="2">
@@ -7734,9 +7746,9 @@
     <v>17</v>
     <v>101.99</v>
     <v>31</v>
-    <v>1.9133</v>
-    <v>-1.4650000000000001</v>
-    <v>-2.6991999999999999E-2</v>
+    <v>1.8369</v>
+    <v>-1.1100000000000001</v>
+    <v>-2.2783000000000001E-2</v>
     <v>USD</v>
     <v>Valero Energy Corporation (Valero) is an independent petroleum refiner and ethanol producer. The Company's segments include refining, ethanol and Valero Energy Partners LP (VLP). The refining segment includes its refining operations and the associated marketing activities. The ethanol segment includes its ethanol operations and the associated marketing activities, and logistics assets that support its ethanol operations. The Company owns logistics assets (crude oil pipelines, refined petroleum product pipelines, terminals, tanks, marine docks, truck rack bays and other assets) that support its refining operations. Some of these assets are owned by VLP, which is a midstream master limited partnership owned by the Company. VLP's assets include crude oil and refined petroleum products pipeline and terminal systems in the United States Gulf Coast and the United States Mid-Continent regions. Its refineries produce conventional gasolines, premium gasolines and lubricants, among others.</v>
     <v>10222</v>
@@ -7744,24 +7756,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>PO Box 696000, SAN ANTONIO, TX, 78269-6000 US</v>
-    <v>53.94</v>
+    <v>49.47</v>
     <v>Oil &amp; Gas</v>
     <v>Stock</v>
-    <v>44063.819283760939</v>
+    <v>44083.71062811328</v>
     <v>225</v>
-    <v>52</v>
-    <v>22320630000</v>
+    <v>47.34</v>
+    <v>20885330000</v>
     <v>VALERO ENERGY CORPORATION</v>
     <v>VALERO ENERGY CORPORATION</v>
-    <v>53.68</v>
-    <v>20.95</v>
-    <v>54.274999999999999</v>
-    <v>52.81</v>
+    <v>49.4</v>
+    <v>18.814900000000002</v>
+    <v>48.72</v>
+    <v>47.61</v>
     <v>407757300</v>
     <v>VLO</v>
     <v>VALERO ENERGY CORPORATION (XNYS:VLO)</v>
-    <v>2849864</v>
-    <v>3908009</v>
+    <v>2250341</v>
+    <v>3877397</v>
     <v>1981</v>
   </rv>
   <rv s="2">
@@ -7799,9 +7811,9 @@
     <v>17</v>
     <v>75.180000000000007</v>
     <v>30.11</v>
-    <v>1.325</v>
-    <v>-0.46</v>
-    <v>-1.0963000000000001E-2</v>
+    <v>1.2558</v>
+    <v>-0.115</v>
+    <v>-3.0120000000000004E-3</v>
     <v>USD</v>
     <v>Exxon Mobil Corporation is engaged in energy business. The Company is engaged in the exploration, production, transportation and sale of crude oil and natural gas, and the manufacture, transportation and sale of petroleum products. The Company also manufactures and markets commodity petrochemicals, including olefins, aromatics, polyethylene and polypropylene plastics, and a range of specialty products. The Company's segments include Upstream, Downstream, Chemical, and Corporate and Financing. The Upstream segment operates to explore for and produce crude oil and natural gas. The Downstream operates to manufacture and sell petroleum products. The Chemical segment operates to manufacture and sell petrochemicals. The Company has exploration and development activities in projects located in the United States, Canada/South America, Europe, Africa, Asia and Australia/Oceania.</v>
     <v>74900</v>
@@ -7809,25 +7821,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>5959 LAS COLINAS BLVD, IRVING, TX, 75039-2298 US</v>
-    <v>41.884999999999998</v>
+    <v>38.840000000000003</v>
     <v>230</v>
     <v>Oil &amp; Gas</v>
     <v>Stock</v>
-    <v>44063.819444953122</v>
+    <v>44083.711373726561</v>
     <v>231</v>
-    <v>41.33</v>
-    <v>179403900000</v>
+    <v>37.92</v>
+    <v>165239400000</v>
     <v>EXXON MOBIL CORPORATION</v>
     <v>EXXON MOBIL CORPORATION</v>
-    <v>41.69</v>
-    <v>27.866900000000001</v>
-    <v>41.96</v>
-    <v>41.5</v>
+    <v>38.33</v>
+    <v>25.3565</v>
+    <v>38.18</v>
+    <v>38.064999999999998</v>
     <v>4228233000</v>
     <v>XOM</v>
     <v>EXXON MOBIL CORPORATION (XNYS:XOM)</v>
-    <v>10737762</v>
-    <v>19634819</v>
+    <v>12071202</v>
+    <v>22691893</v>
     <v>1882</v>
   </rv>
   <rv s="2">
@@ -7865,9 +7877,9 @@
     <v>17</v>
     <v>67.13</v>
     <v>20.84</v>
-    <v>1.6966000000000001</v>
-    <v>-0.77</v>
-    <v>-1.942E-2</v>
+    <v>1.6572</v>
+    <v>0.45</v>
+    <v>1.3212E-2</v>
     <v>USD</v>
     <v>ConocoPhillips is an independent exploration and production company. The Company explores for, produces, transports and markets crude oil, bitumen, natural gas, liquefied natural gas (LNG) and natural gas liquids. The Company operates through six segments: Alaska, Lower 48, Canada, Europe and North Africa, Asia Pacific and Middle East, and Other International. The Alaska segment explores for, produces, transports and markets crude oil, natural gas liquids, natural gas and LNG. The Lower 48 segment consists of operations located in the United States Lower 48 states and the Gulf of Mexico. Its Canadian operations consists of oil sands developments in the Athabasca Region of northeastern Alberta. The Europe and North Africa segment consists of operations and exploration activities in Norway and Libya. The Asia Pacific and Middle East segment has exploration and production operations in China, Indonesia and Malaysia.</v>
     <v>9700</v>
@@ -7875,25 +7887,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>925 N Eldridge Pkwy, HOUSTON, TX, 77079-2703 US</v>
-    <v>39.31</v>
+    <v>34.85</v>
     <v>236</v>
     <v>Oil &amp; Gas</v>
     <v>Stock</v>
-    <v>44063.819398148145</v>
+    <v>44083.711238425924</v>
     <v>237</v>
-    <v>38.729999999999997</v>
-    <v>43256590000</v>
+    <v>34.215000000000003</v>
+    <v>38462220000</v>
     <v>CONOCOPHILLIPS</v>
     <v>CONOCOPHILLIPS</v>
-    <v>39.049999999999997</v>
-    <v>19.458600000000001</v>
-    <v>39.65</v>
-    <v>38.880000000000003</v>
+    <v>34.799999999999997</v>
+    <v>16.715299999999999</v>
+    <v>34.06</v>
+    <v>34.51</v>
     <v>1072566000</v>
     <v>COP</v>
     <v>CONOCOPHILLIPS (XNYS:COP)</v>
-    <v>2770467</v>
-    <v>6663610</v>
+    <v>3322074</v>
+    <v>6412600</v>
     <v>2001</v>
   </rv>
   <rv s="2">
@@ -7915,26 +7927,26 @@
     <v>24</v>
     <v>Finance</v>
     <v>4</v>
-    <v>67.75</v>
+    <v>67.6233</v>
     <v>22.02</v>
-    <v>-0.28000000000000003</v>
-    <v>-6.7669999999999996E-3</v>
+    <v>3.5999999999999997E-2</v>
+    <v>9.6280000000000009E-4</v>
     <v>USD</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
-    <v>41.22</v>
+    <v>38.380000000000003</v>
     <v>ETF</v>
-    <v>44063.818715219531</v>
+    <v>44083.7108912037</v>
     <v>240</v>
-    <v>40.57</v>
+    <v>37.19</v>
     <v>MAGELLAN MIDSTREAM PARTNERS UNT</v>
-    <v>41.05</v>
-    <v>41.38</v>
-    <v>41.1</v>
+    <v>37.590000000000003</v>
+    <v>37.39</v>
+    <v>37.426000000000002</v>
     <v>MMP</v>
     <v>MAGELLAN MIDSTREAM PARTNERS UNT (XNYS:MMP)</v>
-    <v>664785</v>
-    <v>1096515</v>
+    <v>358486</v>
+    <v>1135806</v>
   </rv>
   <rv s="2">
     <v>241</v>
@@ -7971,9 +7983,9 @@
     <v>17</v>
     <v>125.27</v>
     <v>51.6</v>
-    <v>1.2582</v>
-    <v>-1.32</v>
-    <v>-1.5278E-2</v>
+    <v>1.2151000000000001</v>
+    <v>1.2222999999999999</v>
+    <v>1.5484E-2</v>
     <v>USD</v>
     <v>Chevron Corporation (Chevron) manages its investments in subsidiaries and affiliates, and provides administrative, financial, management and technology support to the United States and international subsidiaries that engage in integrated energy and chemicals operations. The Company operates through two business segments: Upstream and Downstream. Upstream operations consist primarily of exploring for, developing and producing crude oil and natural gas; liquefaction, transportation and regasification associated with liquefied natural gas; transporting crude oil by international oil export pipelines; processing, transporting, storage and marketing of natural gas, and a gas-to-liquids plant. Downstream operations consist primarily of refining of crude oil into petroleum products; marketing of crude oil and refined products; transporting of crude oil and refined products, and manufacturing and marketing of commodity petrochemicals.</v>
     <v>48200</v>
@@ -7981,25 +7993,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>6001 Bollinger Canyon Rd, SAN RAMON, CA, 94583-2324 US</v>
-    <v>86.89</v>
+    <v>81.069999999999993</v>
     <v>245</v>
     <v>Oil &amp; Gas</v>
     <v>Stock</v>
-    <v>44063.819566990627</v>
+    <v>44083.710691400003</v>
     <v>246</v>
-    <v>84.73</v>
-    <v>163628700000</v>
+    <v>79.69</v>
+    <v>152989800000</v>
     <v>CHEVRON CORPORATION</v>
     <v>CHEVRON CORPORATION</v>
-    <v>85.37</v>
+    <v>79.86</v>
     <v>0</v>
-    <v>86.4</v>
-    <v>85.08</v>
-    <v>1867268000</v>
+    <v>78.94</v>
+    <v>80.162300000000002</v>
+    <v>1867323000</v>
     <v>CVX</v>
     <v>CHEVRON CORPORATION (XNYS:CVX)</v>
-    <v>5662215</v>
-    <v>8951009</v>
+    <v>4473325</v>
+    <v>8949857</v>
     <v>1926</v>
   </rv>
   <rv s="2">
@@ -8035,11 +8047,11 @@
     <v>22</v>
     <v>Finance</v>
     <v>17</v>
-    <v>27.704999999999998</v>
+    <v>25.44</v>
     <v>11.290100000000001</v>
-    <v>0.84279999999999999</v>
-    <v>-0.42499999999999999</v>
-    <v>-2.8814000000000003E-2</v>
+    <v>0.78859999999999997</v>
+    <v>0.11</v>
+    <v>7.136E-3</v>
     <v>USD</v>
     <v>H&amp;R Block, Inc. (H&amp;R Block), through its subsidiaries, provides tax preparation and other services. The Company provides assisted income tax return preparation, digital do-it-yourself (DIY) tax solutions and other services and products related to income tax return preparation to the general public primarily in the United States, Canada, Australia and their respective territories. Assisted income tax return preparation and related services are provided by tax professionals through a system of retail offices operated directly by the Company or its franchisees. It offers tax support, planning, and business accounting and advisory services to its clients. The Company offers a range of online tax services, including preparation of federal and state income tax returns, review of tax returns by a tax professional, access to tax tips, advice and tax-related news, use of calculators for tax planning, error checking and electronic filing.</v>
     <v>3500</v>
@@ -8047,25 +8059,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1 H And R Block Way, KANSAS CITY, MO, 64105-1905 US</v>
-    <v>14.68</v>
+    <v>15.8</v>
     <v>251</v>
     <v>Personal &amp; Household Products &amp; Services</v>
     <v>Stock</v>
-    <v>44063.819280971875</v>
+    <v>44083.71059178203</v>
     <v>252</v>
-    <v>14.305</v>
-    <v>2877370000</v>
+    <v>15.46</v>
+    <v>2922412000</v>
     <v>H &amp; R BLOCK, INC.</v>
     <v>H &amp; R BLOCK, INC.</v>
-    <v>14.63</v>
-    <v>154.74189999999999</v>
-    <v>14.75</v>
-    <v>14.324999999999999</v>
-    <v>192853200</v>
+    <v>15.7</v>
+    <v>11.882300000000001</v>
+    <v>15.414999999999999</v>
+    <v>15.525</v>
+    <v>192898500</v>
     <v>HRB</v>
     <v>H &amp; R BLOCK, INC. (XNYS:HRB)</v>
-    <v>1360415</v>
-    <v>2891242</v>
+    <v>1783302</v>
+    <v>2929483</v>
     <v>1955</v>
   </rv>
   <rv s="2">
@@ -8089,9 +8101,9 @@
     <v>17</v>
     <v>53.81</v>
     <v>19.989999999999998</v>
-    <v>1.7468999999999999</v>
-    <v>-0.28000000000000003</v>
-    <v>-5.8279999999999998E-3</v>
+    <v>1.6516999999999999</v>
+    <v>0.8</v>
+    <v>1.6567000000000002E-2</v>
     <v>USD</v>
     <v>Penske Automotive Group, Inc. is an international transportation services company. The Company operates automotive and commercial truck dealerships principally in the United States, Canada and Western Europe, and distributes commercial vehicles, diesel engines, gas engines, power systems, and related parts and services principally in Australia and New Zealand. The Company's segments include Retail Automotive, consisting of its retail automotive dealership operations; Retail Commercial Truck, consisting of its retail commercial truck dealership operations in the United States and Canada; Other, consisting of its commercial vehicle and power systems distribution operations and other non-automotive consolidated operations, and Non-Automotive Investments, consisting of its equity method investments in non-automotive operations. The Company holds interests in Penske Truck Leasing Co., L.P. (PTL), a provider of transportation services and supply chain management.</v>
     <v>27000</v>
@@ -8099,24 +8111,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>2555 S Telegraph Rd, BLOOMFIELD HILLS, MI, 48302-0912 US</v>
-    <v>48.04</v>
+    <v>49.09</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>44063.81931712963</v>
+    <v>44083.711106145311</v>
     <v>255</v>
-    <v>47.41</v>
-    <v>3932533000</v>
+    <v>48.215000000000003</v>
+    <v>3876297000</v>
     <v>PENSKE AUTOMOTIVE GROUP, INC.</v>
     <v>PENSKE AUTOMOTIVE GROUP, INC.</v>
-    <v>47.41</v>
-    <v>12.4129</v>
-    <v>48.04</v>
-    <v>47.76</v>
+    <v>48.67</v>
+    <v>12.4749</v>
+    <v>48.29</v>
+    <v>49.09</v>
     <v>80337760</v>
     <v>PAG</v>
     <v>PENSKE AUTOMOTIVE GROUP, INC. (XNYS:PAG)</v>
-    <v>163739</v>
-    <v>348156</v>
+    <v>104164</v>
+    <v>293247</v>
     <v>1990</v>
   </rv>
   <rv s="2">
@@ -8138,11 +8150,11 @@
     <v>16</v>
     <v>Finance</v>
     <v>17</v>
-    <v>49.8</v>
+    <v>57.25</v>
     <v>13.46</v>
-    <v>1.6877</v>
-    <v>-1.33</v>
-    <v>-2.8601999999999999E-2</v>
+    <v>1.7009000000000001</v>
+    <v>2.02</v>
+    <v>3.7311000000000004E-2</v>
     <v>USD</v>
     <v>Dick's Sporting Goods, Inc. is an omni-channel sporting goods retailer offering an assortment of sports equipment, apparel, footwear and accessories in its specialty retail stores primarily in the eastern United States. The Company also owns and operates Golf Galaxy, Field &amp; Stream and other specialty concept stores, and Dick's Team Sports HQ, an all-in-one youth sports digital platform offering free league management services, mobile applications for scheduling, communications and live scorekeeping, custom uniforms and FanWear and access to donations and sponsorships. The Company offers its products through a content-rich e-commerce platform that is integrated with its store network and provides customers with the convenience and expertise of a 24-hour storefront. It offers products to its customers through its retail stores and online. The Company offers hardlines, which include items, such as sporting goods equipment, fitness equipment, golf equipment, and hunting and fishing gear.</v>
     <v>15300</v>
@@ -8150,24 +8162,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>345 Court St, CORAOPOLIS, PA, 15108-3817 US</v>
-    <v>46.12</v>
+    <v>56.45</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>44063.819300022653</v>
+    <v>44083.711262221877</v>
     <v>258</v>
-    <v>45.01</v>
-    <v>4016184000</v>
+    <v>54.72</v>
+    <v>4892261000</v>
     <v>DICK'S SPORTING GOODS, INC.</v>
     <v>DICK'S SPORTING GOODS, INC.</v>
-    <v>45.78</v>
-    <v>45.279200000000003</v>
-    <v>46.5</v>
-    <v>45.17</v>
-    <v>89447300</v>
+    <v>54.73</v>
+    <v>18.778600000000001</v>
+    <v>54.14</v>
+    <v>56.16</v>
+    <v>89112220</v>
     <v>DKS</v>
     <v>DICK'S SPORTING GOODS, INC. (XNYS:DKS)</v>
-    <v>1361556</v>
-    <v>1941040</v>
+    <v>916024</v>
+    <v>3054300</v>
     <v>1996</v>
   </rv>
   <rv s="2">
@@ -8203,11 +8215,11 @@
     <v>22</v>
     <v>Finance</v>
     <v>17</v>
-    <v>162.88999999999999</v>
+    <v>171.32</v>
     <v>60</v>
-    <v>1.4898</v>
-    <v>0.21</v>
-    <v>1.3259999999999999E-3</v>
+    <v>1.4964</v>
+    <v>6.92</v>
+    <v>4.5011000000000002E-2</v>
     <v>USD</v>
     <v>Lowe's Companies, Inc. (Lowe's) is a home improvement company. The Company operates approximately 2,370 home improvement and hardware stores. The Company offers a range of products for maintenance, repair, remodeling and decorating. The Company offers home improvement products in categories, including Lumber and Building Materials; Tools and Hardware; Appliances; Fashion Fixtures; Rough Plumbing and Electrical; Lawn and Garden; Seasonal and Outdoor Living; Paint; Flooring; Millwork, and Kitchens. The Company also supports the communities that focus on K-12 public education and community improvement projects. The Company serves its customers in the United States, Canada and Mexico.</v>
     <v>200000</v>
@@ -8215,25 +8227,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1000 Lowes Blvd, MOORESVILLE, NC, 28117-8520 US</v>
-    <v>159.1627</v>
+    <v>160.66999999999999</v>
     <v>263</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>44063.818847753908</v>
+    <v>44083.71158133047</v>
     <v>264</v>
-    <v>156.5052</v>
-    <v>119222500000</v>
+    <v>155.1</v>
+    <v>118189600000</v>
     <v>LOWE'S COMPANIES, INC.</v>
     <v>LOWE'S COMPANIES, INC.</v>
-    <v>156.9</v>
-    <v>26.710599999999999</v>
-    <v>158.35</v>
-    <v>158.56</v>
-    <v>755002800</v>
+    <v>156.21</v>
+    <v>20.424700000000001</v>
+    <v>153.74</v>
+    <v>160.66</v>
+    <v>755736000</v>
     <v>LOW</v>
     <v>LOWE'S COMPANIES, INC. (XNYS:LOW)</v>
-    <v>3374306</v>
-    <v>3674088</v>
+    <v>2063812</v>
+    <v>4273223</v>
     <v>1952</v>
   </rv>
   <rv s="2">
@@ -8271,9 +8283,9 @@
     <v>17</v>
     <v>39.700000000000003</v>
     <v>26.08</v>
-    <v>0.65920000000000001</v>
-    <v>-5.5E-2</v>
-    <v>-1.8490000000000002E-3</v>
+    <v>0.63039999999999996</v>
+    <v>0.04</v>
+    <v>1.3550000000000001E-3</v>
     <v>USD</v>
     <v>AT&amp;T Inc. is a holding company. The Company is a provider of telecommunications, media and technology services globally. The Company operates through four segments: Communication segment, WarnerMedia segment, Latin America segment and Xandr segment. The Communications segment provides wireless and wireline telecom, video and broadband services to consumers.The business units of the Communication segment includes Mobility, Entertainment Group and Business Wireline. The WarnerMedia segment develops, produces and distributes feature films, television, gaming and other content over various physical and digital formats. The business units of the WarnerMedia segment includes Turner, Home Box Office and Warner Bros. Latin America segment provides entertainment services in Latin America and wireless services in Mexico. Viro and Mexico are the business units of the Latin America segment. The Xandr segment provides advertising services.</v>
     <v>243000</v>
@@ -8281,25 +8293,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>208 S Akard St, DALLAS, TX, 75202-4206 US</v>
-    <v>29.875</v>
+    <v>29.6995</v>
     <v>269</v>
     <v>Telecommunications Services</v>
     <v>Stock</v>
-    <v>44063.818807870368</v>
+    <v>44083.711558193747</v>
     <v>270</v>
-    <v>29.5</v>
-    <v>212253800000</v>
+    <v>29.4</v>
+    <v>209617500000</v>
     <v>AT&amp;T INC.</v>
     <v>AT&amp;T INC.</v>
-    <v>29.54</v>
-    <v>18.213999999999999</v>
-    <v>29.74</v>
-    <v>29.684999999999999</v>
+    <v>29.65</v>
+    <v>18.0792</v>
+    <v>29.52</v>
+    <v>29.56</v>
     <v>7125000000</v>
     <v>T</v>
     <v>AT&amp;T INC. (XNYS:T)</v>
-    <v>17775239</v>
-    <v>30628891</v>
+    <v>15348175</v>
+    <v>30179423</v>
     <v>1983</v>
   </rv>
   <rv s="2">
@@ -9378,44 +9390,44 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{69112644-6D4F-4AA0-8CCC-1CEE1E0148D7}" name="Table1" displayName="Table1" ref="A1:O48" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{69112644-6D4F-4AA0-8CCC-1CEE1E0148D7}" name="Table1" displayName="Table1" ref="A1:O48" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
   <autoFilter ref="A1:O48" xr:uid="{95189E96-064D-425D-BE39-47B18B49F5F0}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{BB2FF6EB-53FD-4E78-BD0B-C24026A8DB98}" name="Funds" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{B45FB7AC-F148-421D-9B37-4E7E7D8C8E6A}" name="Ticker" dataDxfId="39">
+    <tableColumn id="1" xr3:uid="{BB2FF6EB-53FD-4E78-BD0B-C24026A8DB98}" name="Funds" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{B45FB7AC-F148-421D-9B37-4E7E7D8C8E6A}" name="Ticker" dataDxfId="43">
       <calculatedColumnFormula array="1">_FV(A2,"Ticker symbol",TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{0E04398C-EA9A-4618-BD02-DA8ABAA2CF7C}" name="Account" dataDxfId="38"/>
-    <tableColumn id="10" xr3:uid="{07652F3D-BD92-4EA5-B3CD-C8CA26C51045}" name="Portfolio" dataDxfId="37"/>
-    <tableColumn id="4" xr3:uid="{84FCDA56-42CA-4155-A371-09849AF21EE5}" name="Bucket" dataDxfId="36"/>
-    <tableColumn id="14" xr3:uid="{4B646908-1DAD-4E96-87A0-816CCAEC36A5}" name="Expense Ratio" dataDxfId="35">
+    <tableColumn id="3" xr3:uid="{0E04398C-EA9A-4618-BD02-DA8ABAA2CF7C}" name="Account" dataDxfId="42"/>
+    <tableColumn id="10" xr3:uid="{07652F3D-BD92-4EA5-B3CD-C8CA26C51045}" name="Portfolio" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{84FCDA56-42CA-4155-A371-09849AF21EE5}" name="Bucket" dataDxfId="40"/>
+    <tableColumn id="14" xr3:uid="{4B646908-1DAD-4E96-87A0-816CCAEC36A5}" name="Expense Ratio" dataDxfId="39">
       <calculatedColumnFormula>IFERROR(_FV(A2,"Expense ratio",TRUE),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{315E67EE-D83C-47DE-877C-398E379B6F15}" name="Open" dataDxfId="34" dataCellStyle="Currency">
+    <tableColumn id="5" xr3:uid="{315E67EE-D83C-47DE-877C-398E379B6F15}" name="Open" dataDxfId="38" dataCellStyle="Currency">
       <calculatedColumnFormula array="1">IFERROR(_FV(A2,"Open"),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{94216B5A-94A5-40EA-8CFA-BB6BCBAE0B5C}" name="High" dataDxfId="33" dataCellStyle="Currency">
+    <tableColumn id="6" xr3:uid="{94216B5A-94A5-40EA-8CFA-BB6BCBAE0B5C}" name="High" dataDxfId="37" dataCellStyle="Currency">
       <calculatedColumnFormula array="1">IFERROR(_FV(A2,"High"),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{0995BD2E-CC80-4453-962B-4B371F66AD96}" name="Low" dataDxfId="32" dataCellStyle="Currency">
+    <tableColumn id="7" xr3:uid="{0995BD2E-CC80-4453-962B-4B371F66AD96}" name="Low" dataDxfId="36" dataCellStyle="Currency">
       <calculatedColumnFormula array="1">IFERROR(_FV(A2,"Low"),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{59B32FD1-E741-455C-AB3F-CC8305A4082D}" name="Close" dataDxfId="31" dataCellStyle="Currency">
+    <tableColumn id="8" xr3:uid="{59B32FD1-E741-455C-AB3F-CC8305A4082D}" name="Close" dataDxfId="35" dataCellStyle="Currency">
       <calculatedColumnFormula array="1">IFERROR(_FV(A2,"Price"),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{B7EF52F1-C3EC-4E9C-9810-4A9443FB6AC8}" name="Bid Price" dataDxfId="30" dataCellStyle="Currency">
+    <tableColumn id="15" xr3:uid="{B7EF52F1-C3EC-4E9C-9810-4A9443FB6AC8}" name="Bid Price" dataDxfId="34" dataCellStyle="Currency">
       <calculatedColumnFormula>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{BFFB38B1-DFB9-43B1-881D-A7371E276BF4}" name="Change (%)" dataDxfId="29">
+    <tableColumn id="9" xr3:uid="{BFFB38B1-DFB9-43B1-881D-A7371E276BF4}" name="Change (%)" dataDxfId="33">
       <calculatedColumnFormula array="1">IFERROR(_FV(A2,"Change (%)",TRUE),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{FBDD8949-4F7E-41F5-AC1F-CA98CC4626EE}" name="52 week high" dataDxfId="28" dataCellStyle="Currency">
+    <tableColumn id="11" xr3:uid="{FBDD8949-4F7E-41F5-AC1F-CA98CC4626EE}" name="52 week high" dataDxfId="32" dataCellStyle="Currency">
       <calculatedColumnFormula>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{CD345540-5848-4748-B639-D5DB23BDEE94}" name="52 week low" dataDxfId="27" dataCellStyle="Currency">
+    <tableColumn id="12" xr3:uid="{CD345540-5848-4748-B639-D5DB23BDEE94}" name="52 week low" dataDxfId="31" dataCellStyle="Currency">
       <calculatedColumnFormula>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{D10DB507-EF50-48A6-9A07-64B0D17CC79B}" name="Deviation from 52 Week High" dataDxfId="26" dataCellStyle="Percent">
+    <tableColumn id="13" xr3:uid="{D10DB507-EF50-48A6-9A07-64B0D17CC79B}" name="Deviation from 52 Week High" dataDxfId="30" dataCellStyle="Percent">
       <calculatedColumnFormula>IFERROR((M2-J2)/M2,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9424,45 +9436,45 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D0CAA086-D84C-4EA4-B5F1-7030749A7F3E}" name="Table13" displayName="Table13" ref="A1:N26" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D0CAA086-D84C-4EA4-B5F1-7030749A7F3E}" name="Table13" displayName="Table13" ref="A1:N26" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <autoFilter ref="A1:N26" xr:uid="{7148AA24-1D57-4322-B6E6-30CB6857B1C8}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N26">
     <sortCondition ref="F2:F26"/>
     <sortCondition descending="1" ref="N2:N26"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{57268FAB-0DAA-4F5F-B46D-3806B1FBF806}" name="Funds" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{A08DC65A-57D6-483A-BC4A-A7473C7F025B}" name="Ticker" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{57268FAB-0DAA-4F5F-B46D-3806B1FBF806}" name="Funds" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{A08DC65A-57D6-483A-BC4A-A7473C7F025B}" name="Ticker" dataDxfId="25">
       <calculatedColumnFormula array="1">_FV(A2,"Ticker symbol",TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B68D1E78-2858-40F0-938D-30A7BD84787D}" name="Account" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{15A75516-1C6A-4B58-B9D6-851E503B9FB8}" name="Bucket" dataDxfId="19"/>
-    <tableColumn id="15" xr3:uid="{47D0498E-EC1F-4FEA-A214-7DB4FEA6AF04}" name="Sector" dataDxfId="18"/>
-    <tableColumn id="14" xr3:uid="{B112A09B-C1DB-49F3-8BB2-F1FCBE93700E}" name="Industry" dataDxfId="17">
+    <tableColumn id="3" xr3:uid="{B68D1E78-2858-40F0-938D-30A7BD84787D}" name="Account" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{15A75516-1C6A-4B58-B9D6-851E503B9FB8}" name="Bucket" dataDxfId="23"/>
+    <tableColumn id="15" xr3:uid="{47D0498E-EC1F-4FEA-A214-7DB4FEA6AF04}" name="Sector" dataDxfId="22"/>
+    <tableColumn id="14" xr3:uid="{B112A09B-C1DB-49F3-8BB2-F1FCBE93700E}" name="Industry" dataDxfId="21">
       <calculatedColumnFormula array="1">_FV(A2,"Industry")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{0FA6A548-B1BE-4B6C-B4B8-163F5654ABD5}" name="Open" dataDxfId="16">
+    <tableColumn id="5" xr3:uid="{0FA6A548-B1BE-4B6C-B4B8-163F5654ABD5}" name="Open" dataDxfId="20">
       <calculatedColumnFormula array="1">_FV(A2,"Open")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{B8CB571D-5B2B-453B-82BA-5EA66AB797D7}" name="High" dataDxfId="15">
+    <tableColumn id="6" xr3:uid="{B8CB571D-5B2B-453B-82BA-5EA66AB797D7}" name="High" dataDxfId="19">
       <calculatedColumnFormula array="1">_FV(A2,"High")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{F44149AE-6680-4B2A-93F2-98C9F6507E5A}" name="Low" dataDxfId="14">
+    <tableColumn id="7" xr3:uid="{F44149AE-6680-4B2A-93F2-98C9F6507E5A}" name="Low" dataDxfId="18">
       <calculatedColumnFormula array="1">_FV(A2,"Low")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{EE5B9F16-BFFA-4732-8F70-E2D37CF19600}" name="Close" dataDxfId="13">
+    <tableColumn id="8" xr3:uid="{EE5B9F16-BFFA-4732-8F70-E2D37CF19600}" name="Close" dataDxfId="17">
       <calculatedColumnFormula array="1">_FV(A2,"Price")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{2DE1F60D-5DEF-405B-808F-FEA1CD488B45}" name="Change (%)" dataDxfId="12">
+    <tableColumn id="9" xr3:uid="{2DE1F60D-5DEF-405B-808F-FEA1CD488B45}" name="Change (%)" dataDxfId="16">
       <calculatedColumnFormula array="1">_FV(A2,"Change (%)",TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{AF24AD6C-48A4-4E24-9504-7E6E23ABFAFF}" name="52 week high" dataDxfId="11">
+    <tableColumn id="11" xr3:uid="{AF24AD6C-48A4-4E24-9504-7E6E23ABFAFF}" name="52 week high" dataDxfId="15">
       <calculatedColumnFormula array="1">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{C74C9A6D-67EB-491D-A6D1-55C66BF936BE}" name="52 week low" dataDxfId="10">
+    <tableColumn id="12" xr3:uid="{C74C9A6D-67EB-491D-A6D1-55C66BF936BE}" name="52 week low" dataDxfId="14">
       <calculatedColumnFormula array="1">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{79973E41-98D9-4950-8B9A-E0B263B075E3}" name="Deviation from 52 Week High" dataDxfId="9">
+    <tableColumn id="13" xr3:uid="{79973E41-98D9-4950-8B9A-E0B263B075E3}" name="Deviation from 52 Week High" dataDxfId="13">
       <calculatedColumnFormula>(L2-J2)/L2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9475,8 +9487,8 @@
   <autoFilter ref="A30:C44" xr:uid="{76A2AC23-EA1A-42A9-A4A0-BA4126640B6B}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{C5A951EA-02C9-4EEA-B580-3EE51E7FDF81}" name="Fund"/>
-    <tableColumn id="2" xr3:uid="{EDFF81EE-5847-4637-99DE-F7A607DAE56F}" name="Category" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{FE5FE4F2-8EE0-4222-A1A6-C6369FAE2A5F}" name="Notes" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{EDFF81EE-5847-4637-99DE-F7A607DAE56F}" name="Category" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{FE5FE4F2-8EE0-4222-A1A6-C6369FAE2A5F}" name="Notes" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9781,8 +9793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9871,27 +9883,27 @@
       </c>
       <c r="G2" s="82">
         <f t="array" ref="G2">IFERROR(_FV(A2,"Open"),"")</f>
-        <v>88.66</v>
+        <v>88.4</v>
       </c>
       <c r="H2" s="82">
         <f t="array" ref="H2">IFERROR(_FV(A2,"High"),"")</f>
-        <v>88.674999999999997</v>
+        <v>88.45</v>
       </c>
       <c r="I2" s="82">
         <f t="array" ref="I2">IFERROR(_FV(A2,"Low"),"")</f>
-        <v>88.58</v>
+        <v>88.3</v>
       </c>
       <c r="J2" s="82">
         <f t="array" ref="J2">IFERROR(_FV(A2,"Price"),"")</f>
-        <v>88.655000000000001</v>
+        <v>88.32</v>
       </c>
       <c r="K2" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>88.617500000000007</v>
+        <v>88.31</v>
       </c>
       <c r="L2" s="3">
         <f t="array" ref="L2">IFERROR(_FV(A2,"Change (%)",TRUE),"")</f>
-        <v>2.5440000000000003E-3</v>
+        <v>-4.527E-4</v>
       </c>
       <c r="M2" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
@@ -9903,7 +9915,7 @@
       </c>
       <c r="O2" s="15">
         <f t="shared" ref="O2:O47" si="1">IFERROR((M2-J2)/M2,0)</f>
-        <v>1.0436432637571182E-2</v>
+        <v>1.4175689251032596E-2</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -9929,27 +9941,27 @@
       </c>
       <c r="G3" s="82">
         <f t="array" ref="G3">IFERROR(_FV(A3,"Open"),"")</f>
-        <v>118.67</v>
+        <v>118.32</v>
       </c>
       <c r="H3" s="82">
         <f t="array" ref="H3">IFERROR(_FV(A3,"High"),"")</f>
-        <v>118.69</v>
+        <v>118.36</v>
       </c>
       <c r="I3" s="82">
         <f t="array" ref="I3">IFERROR(_FV(A3,"Low"),"")</f>
-        <v>118.56</v>
+        <v>118.12</v>
       </c>
       <c r="J3" s="82">
         <f t="array" ref="J3">IFERROR(_FV(A3,"Price"),"")</f>
-        <v>118.625</v>
+        <v>118.145</v>
       </c>
       <c r="K3" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>118.5925</v>
+        <v>118.13249999999999</v>
       </c>
       <c r="L3" s="3">
         <f t="array" ref="L3">IFERROR(_FV(A3,"Change (%)",TRUE),"")</f>
-        <v>2.1540000000000001E-3</v>
+        <v>-8.8789999999999995E-4</v>
       </c>
       <c r="M3" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
@@ -9961,7 +9973,7 @@
       </c>
       <c r="O3" s="15">
         <f t="shared" si="1"/>
-        <v>9.2290988056460705E-3</v>
+        <v>1.323811910131135E-2</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -9999,7 +10011,7 @@
       </c>
       <c r="J4" s="82">
         <f t="array" ref="J4">IFERROR(_FV(A4,"Price"),"")</f>
-        <v>16.940000000000001</v>
+        <v>16.93</v>
       </c>
       <c r="K4" s="82" t="str">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
@@ -10007,7 +10019,7 @@
       </c>
       <c r="L4" s="3">
         <f t="array" ref="L4">IFERROR(_FV(A4,"Change (%)",TRUE),"")</f>
-        <v>-5.8690000000000001E-3</v>
+        <v>5.3439999999999998E-3</v>
       </c>
       <c r="M4" s="16" t="str">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
@@ -10045,27 +10057,27 @@
       </c>
       <c r="G5" s="82">
         <f t="array" ref="G5">IFERROR(_FV(A5,"Open"),"")</f>
-        <v>202.87</v>
+        <v>214</v>
       </c>
       <c r="H5" s="82">
         <f t="array" ref="H5">IFERROR(_FV(A5,"High"),"")</f>
-        <v>206.45</v>
+        <v>214</v>
       </c>
       <c r="I5" s="82">
         <f t="array" ref="I5">IFERROR(_FV(A5,"Low"),"")</f>
-        <v>202.87</v>
+        <v>213.32079999999999</v>
       </c>
       <c r="J5" s="82">
         <f t="array" ref="J5">IFERROR(_FV(A5,"Price"),"")</f>
-        <v>205.19499999999999</v>
+        <v>213.86600000000001</v>
       </c>
       <c r="K5" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>204.0325</v>
+        <v>213.5934</v>
       </c>
       <c r="L5" s="3">
         <f t="array" ref="L5">IFERROR(_FV(A5,"Change (%)",TRUE),"")</f>
-        <v>1.4560999999999999E-2</v>
+        <v>1.714E-3</v>
       </c>
       <c r="M5" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
@@ -10073,11 +10085,11 @@
       </c>
       <c r="N5" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
-        <v>137.25</v>
+        <v>137.51</v>
       </c>
       <c r="O5" s="15">
         <f t="shared" si="1"/>
-        <v>0.24882067096738292</v>
+        <v>0.21707781192090597</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -10103,27 +10115,27 @@
       </c>
       <c r="G6" s="82">
         <f t="array" ref="G6">IFERROR(_FV(A6,"Open"),"")</f>
-        <v>41.05</v>
+        <v>41.04</v>
       </c>
       <c r="H6" s="82">
         <f t="array" ref="H6">IFERROR(_FV(A6,"High"),"")</f>
-        <v>42.1</v>
+        <v>42.22</v>
       </c>
       <c r="I6" s="82">
         <f t="array" ref="I6">IFERROR(_FV(A6,"Low"),"")</f>
-        <v>40.79</v>
+        <v>40.98</v>
       </c>
       <c r="J6" s="82">
         <f t="array" ref="J6">IFERROR(_FV(A6,"Price"),"")</f>
-        <v>41.872799999999998</v>
+        <v>42.155000000000001</v>
       </c>
       <c r="K6" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>41.331400000000002</v>
+        <v>41.567499999999995</v>
       </c>
       <c r="L6" s="3">
         <f t="array" ref="L6">IFERROR(_FV(A6,"Change (%)",TRUE),"")</f>
-        <v>2.0291999999999998E-2</v>
+        <v>3.8811999999999999E-2</v>
       </c>
       <c r="M6" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
@@ -10135,7 +10147,7 @@
       </c>
       <c r="O6" s="15">
         <f t="shared" si="1"/>
-        <v>8.5347313237221556E-2</v>
+        <v>7.9183049366535599E-2</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -10161,27 +10173,27 @@
       </c>
       <c r="G7" s="82">
         <f t="array" ref="G7">IFERROR(_FV(A7,"Open"),"")</f>
-        <v>24.93</v>
+        <v>25</v>
       </c>
       <c r="H7" s="82">
         <f t="array" ref="H7">IFERROR(_FV(A7,"High"),"")</f>
-        <v>25.616599999999998</v>
+        <v>25.11</v>
       </c>
       <c r="I7" s="82">
         <f t="array" ref="I7">IFERROR(_FV(A7,"Low"),"")</f>
-        <v>24.885000000000002</v>
+        <v>24.889299999999999</v>
       </c>
       <c r="J7" s="82">
         <f t="array" ref="J7">IFERROR(_FV(A7,"Price"),"")</f>
-        <v>25.6</v>
+        <v>25.07</v>
       </c>
       <c r="K7" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>25.2425</v>
+        <v>24.979649999999999</v>
       </c>
       <c r="L7" s="3">
         <f t="array" ref="L7">IFERROR(_FV(A7,"Change (%)",TRUE),"")</f>
-        <v>2.8525999999999999E-2</v>
+        <v>1.252E-2</v>
       </c>
       <c r="M7" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
@@ -10193,7 +10205,7 @@
       </c>
       <c r="O7" s="15">
         <f t="shared" si="1"/>
-        <v>6.535231836436653E-2</v>
+        <v>8.4702446148229291E-2</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -10219,27 +10231,27 @@
       </c>
       <c r="G8" s="82">
         <f t="array" ref="G8">IFERROR(_FV(A8,"Open"),"")</f>
-        <v>18.420000000000002</v>
+        <v>18.55</v>
       </c>
       <c r="H8" s="82">
         <f t="array" ref="H8">IFERROR(_FV(A8,"High"),"")</f>
-        <v>18.66</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="I8" s="82">
         <f t="array" ref="I8">IFERROR(_FV(A8,"Low"),"")</f>
-        <v>18.38</v>
+        <v>18.510999999999999</v>
       </c>
       <c r="J8" s="82">
         <f t="array" ref="J8">IFERROR(_FV(A8,"Price"),"")</f>
-        <v>18.649000000000001</v>
+        <v>18.598199999999999</v>
       </c>
       <c r="K8" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>18.514499999999998</v>
+        <v>18.554600000000001</v>
       </c>
       <c r="L8" s="3">
         <f t="array" ref="L8">IFERROR(_FV(A8,"Change (%)",TRUE),"")</f>
-        <v>6.9649999999999998E-3</v>
+        <v>9.1260000000000004E-3</v>
       </c>
       <c r="M8" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
@@ -10251,7 +10263,7 @@
       </c>
       <c r="O8" s="15">
         <f t="shared" si="1"/>
-        <v>5.6219920141296134E-2</v>
+        <v>5.8790783354166765E-2</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -10277,27 +10289,27 @@
       </c>
       <c r="G9" s="82">
         <f t="array" ref="G9">IFERROR(_FV(A9,"Open"),"")</f>
-        <v>19.25</v>
+        <v>19.350000000000001</v>
       </c>
       <c r="H9" s="82">
         <f t="array" ref="H9">IFERROR(_FV(A9,"High"),"")</f>
-        <v>19.48</v>
+        <v>19.4193</v>
       </c>
       <c r="I9" s="82">
         <f t="array" ref="I9">IFERROR(_FV(A9,"Low"),"")</f>
-        <v>19.2</v>
+        <v>19.333200000000001</v>
       </c>
       <c r="J9" s="82">
         <f t="array" ref="J9">IFERROR(_FV(A9,"Price"),"")</f>
-        <v>19.48</v>
+        <v>19.41</v>
       </c>
       <c r="K9" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>19.34</v>
+        <v>19.371600000000001</v>
       </c>
       <c r="L9" s="3">
         <f t="array" ref="L9">IFERROR(_FV(A9,"Change (%)",TRUE),"")</f>
-        <v>7.7600000000000004E-3</v>
+        <v>8.8360000000000001E-3</v>
       </c>
       <c r="M9" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
@@ -10309,7 +10321,7 @@
       </c>
       <c r="O9" s="15">
         <f t="shared" si="1"/>
-        <v>5.5698288816714375E-2</v>
+        <v>5.9091570119734406E-2</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -10335,27 +10347,27 @@
       </c>
       <c r="G10" s="86">
         <f t="array" ref="G10">IFERROR(_FV(A10,"Open"),"")</f>
-        <v>181.24</v>
+        <v>182.54</v>
       </c>
       <c r="H10" s="86">
         <f t="array" ref="H10">IFERROR(_FV(A10,"High"),"")</f>
-        <v>183.71</v>
+        <v>183.05</v>
       </c>
       <c r="I10" s="86">
         <f t="array" ref="I10">IFERROR(_FV(A10,"Low"),"")</f>
-        <v>180.93</v>
+        <v>182.19380000000001</v>
       </c>
       <c r="J10" s="86">
         <f t="array" ref="J10">IFERROR(_FV(A10,"Price"),"")</f>
-        <v>183.51</v>
+        <v>183</v>
       </c>
       <c r="K10" s="86">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>182.22</v>
+        <v>182.59690000000001</v>
       </c>
       <c r="L10" s="81">
         <f t="array" ref="L10">IFERROR(_FV(A10,"Change (%)",TRUE),"")</f>
-        <v>6.9689999999999995E-3</v>
+        <v>9.3210000000000012E-3</v>
       </c>
       <c r="M10" s="83">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
@@ -10367,7 +10379,7 @@
       </c>
       <c r="O10" s="84">
         <f>IFERROR((M10-J10)/M10,0)</f>
-        <v>5.6260764340840611E-2</v>
+        <v>5.8883547895884819E-2</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -10393,27 +10405,27 @@
       </c>
       <c r="G11" s="82">
         <f t="array" ref="G11">IFERROR(_FV(A11,"Open"),"")</f>
-        <v>36.634999999999998</v>
+        <v>33.96</v>
       </c>
       <c r="H11" s="82">
         <f t="array" ref="H11">IFERROR(_FV(A11,"High"),"")</f>
-        <v>36.75</v>
+        <v>34.17</v>
       </c>
       <c r="I11" s="82">
         <f t="array" ref="I11">IFERROR(_FV(A11,"Low"),"")</f>
-        <v>36.31</v>
+        <v>33.710099999999997</v>
       </c>
       <c r="J11" s="82">
         <f t="array" ref="J11">IFERROR(_FV(A11,"Price"),"")</f>
-        <v>36.365000000000002</v>
+        <v>33.840000000000003</v>
       </c>
       <c r="K11" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>36.337500000000006</v>
+        <v>33.77505</v>
       </c>
       <c r="L11" s="3">
         <f t="array" ref="L11">IFERROR(_FV(A11,"Change (%)",TRUE),"")</f>
-        <v>-1.8488999999999998E-2</v>
+        <v>7.443E-3</v>
       </c>
       <c r="M11" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
@@ -10425,7 +10437,7 @@
       </c>
       <c r="O11" s="15">
         <f t="shared" si="1"/>
-        <v>0.41158481333816599</v>
+        <v>0.4524413607414694</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -10451,27 +10463,27 @@
       </c>
       <c r="G12" s="82">
         <f t="array" ref="G12">IFERROR(_FV(A12,"Open"),"")</f>
-        <v>82.71</v>
+        <v>82.6</v>
       </c>
       <c r="H12" s="82">
         <f t="array" ref="H12">IFERROR(_FV(A12,"High"),"")</f>
-        <v>82.91</v>
+        <v>83.19</v>
       </c>
       <c r="I12" s="82">
         <f t="array" ref="I12">IFERROR(_FV(A12,"Low"),"")</f>
-        <v>82.52</v>
+        <v>82.4405</v>
       </c>
       <c r="J12" s="82">
         <f t="array" ref="J12">IFERROR(_FV(A12,"Price"),"")</f>
-        <v>82.67</v>
+        <v>83.180499999999995</v>
       </c>
       <c r="K12" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>82.594999999999999</v>
+        <v>82.81049999999999</v>
       </c>
       <c r="L12" s="3">
         <f t="array" ref="L12">IFERROR(_FV(A12,"Change (%)",TRUE),"")</f>
-        <v>-6.1310000000000002E-3</v>
+        <v>1.5759000000000002E-2</v>
       </c>
       <c r="M12" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
@@ -10483,7 +10495,7 @@
       </c>
       <c r="O12" s="15">
         <f t="shared" si="1"/>
-        <v>0.12850516550706301</v>
+        <v>0.12312355049546705</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -10509,27 +10521,27 @@
       </c>
       <c r="G13" s="82">
         <f t="array" ref="G13">IFERROR(_FV(A13,"Open"),"")</f>
-        <v>21.94</v>
+        <v>21.48</v>
       </c>
       <c r="H13" s="82">
         <f t="array" ref="H13">IFERROR(_FV(A13,"High"),"")</f>
-        <v>21.95</v>
+        <v>21.8005</v>
       </c>
       <c r="I13" s="82">
         <f t="array" ref="I13">IFERROR(_FV(A13,"Low"),"")</f>
-        <v>21.93</v>
+        <v>21.46</v>
       </c>
       <c r="J13" s="82">
         <f t="array" ref="J13">IFERROR(_FV(A13,"Price"),"")</f>
-        <v>21.9358</v>
+        <v>21.8005</v>
       </c>
       <c r="K13" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>21.9329</v>
+        <v>21.63025</v>
       </c>
       <c r="L13" s="3">
         <f t="array" ref="L13">IFERROR(_FV(A13,"Change (%)",TRUE),"")</f>
-        <v>-1.9140000000000002E-4</v>
+        <v>2.5905999999999998E-2</v>
       </c>
       <c r="M13" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
@@ -10541,7 +10553,7 @@
       </c>
       <c r="O13" s="15">
         <f t="shared" si="1"/>
-        <v>9.2812241521918915E-2</v>
+        <v>9.8407775020678254E-2</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -10567,27 +10579,27 @@
       </c>
       <c r="G14" s="82">
         <f t="array" ref="G14">IFERROR(_FV(A14,"Open"),"")</f>
-        <v>56.33</v>
+        <v>56.42</v>
       </c>
       <c r="H14" s="82">
         <f t="array" ref="H14">IFERROR(_FV(A14,"High"),"")</f>
-        <v>56.524999999999999</v>
+        <v>56.8</v>
       </c>
       <c r="I14" s="82">
         <f t="array" ref="I14">IFERROR(_FV(A14,"Low"),"")</f>
-        <v>56.2</v>
+        <v>56.356400000000001</v>
       </c>
       <c r="J14" s="82">
         <f t="array" ref="J14">IFERROR(_FV(A14,"Price"),"")</f>
-        <v>56.39</v>
+        <v>56.76</v>
       </c>
       <c r="K14" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>56.295000000000002</v>
+        <v>56.558199999999999</v>
       </c>
       <c r="L14" s="3">
         <f t="array" ref="L14">IFERROR(_FV(A14,"Change (%)",TRUE),"")</f>
-        <v>-6.5190000000000005E-3</v>
+        <v>1.4839999999999999E-2</v>
       </c>
       <c r="M14" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
@@ -10599,7 +10611,7 @@
       </c>
       <c r="O14" s="15">
         <f t="shared" si="1"/>
-        <v>5.3223640026863694E-2</v>
+        <v>4.7011417058428547E-2</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -10625,27 +10637,27 @@
       </c>
       <c r="G15" s="82">
         <f t="array" ref="G15">IFERROR(_FV(A15,"Open"),"")</f>
-        <v>95.6</v>
+        <v>95.05</v>
       </c>
       <c r="H15" s="82">
         <f t="array" ref="H15">IFERROR(_FV(A15,"High"),"")</f>
-        <v>95.77</v>
+        <v>95.52</v>
       </c>
       <c r="I15" s="82">
         <f t="array" ref="I15">IFERROR(_FV(A15,"Low"),"")</f>
-        <v>95.1</v>
+        <v>94.275000000000006</v>
       </c>
       <c r="J15" s="82">
         <f t="array" ref="J15">IFERROR(_FV(A15,"Price"),"")</f>
-        <v>95.1</v>
+        <v>95.52</v>
       </c>
       <c r="K15" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>95.1</v>
+        <v>94.897500000000008</v>
       </c>
       <c r="L15" s="3">
         <f t="array" ref="L15">IFERROR(_FV(A15,"Change (%)",TRUE),"")</f>
-        <v>-3.1450000000000002E-3</v>
+        <v>2.5222999999999999E-2</v>
       </c>
       <c r="M15" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
@@ -10657,7 +10669,7 @@
       </c>
       <c r="O15" s="79">
         <f t="shared" si="1"/>
-        <v>4.0750453903570773E-2</v>
+        <v>3.6514020576961917E-2</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -10683,31 +10695,31 @@
       </c>
       <c r="G16" s="82">
         <f t="array" ref="G16">IFERROR(_FV(A16,"Open"),"")</f>
-        <v>52.83</v>
+        <v>51.79</v>
       </c>
       <c r="H16" s="82">
         <f t="array" ref="H16">IFERROR(_FV(A16,"High"),"")</f>
-        <v>53</v>
+        <v>52.46</v>
       </c>
       <c r="I16" s="82">
         <f t="array" ref="I16">IFERROR(_FV(A16,"Low"),"")</f>
-        <v>52.771500000000003</v>
+        <v>51.79</v>
       </c>
       <c r="J16" s="82">
         <f t="array" ref="J16">IFERROR(_FV(A16,"Price"),"")</f>
-        <v>52.884999999999998</v>
+        <v>52.46</v>
       </c>
       <c r="K16" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>52.828249999999997</v>
+        <v>52.125</v>
       </c>
       <c r="L16" s="3">
         <f t="array" ref="L16">IFERROR(_FV(A16,"Change (%)",TRUE),"")</f>
-        <v>-2.9220000000000001E-3</v>
+        <v>2.2013999999999999E-2</v>
       </c>
       <c r="M16" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v>53.515000000000001</v>
+        <v>54.244999999999997</v>
       </c>
       <c r="N16" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
@@ -10715,7 +10727,7 @@
       </c>
       <c r="O16" s="15">
         <f t="shared" si="1"/>
-        <v>1.1772400261608942E-2</v>
+        <v>3.290625864134937E-2</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -10741,31 +10753,31 @@
       </c>
       <c r="G17" s="82">
         <f t="array" ref="G17">IFERROR(_FV(A17,"Open"),"")</f>
-        <v>204.98</v>
+        <v>200.62</v>
       </c>
       <c r="H17" s="82">
         <f t="array" ref="H17">IFERROR(_FV(A17,"High"),"")</f>
-        <v>205.25</v>
+        <v>203.08</v>
       </c>
       <c r="I17" s="82">
         <f t="array" ref="I17">IFERROR(_FV(A17,"Low"),"")</f>
-        <v>204.42</v>
+        <v>200.4</v>
       </c>
       <c r="J17" s="82">
         <f t="array" ref="J17">IFERROR(_FV(A17,"Price"),"")</f>
-        <v>204.91</v>
+        <v>203.08</v>
       </c>
       <c r="K17" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>204.66499999999999</v>
+        <v>201.74</v>
       </c>
       <c r="L17" s="3">
         <f t="array" ref="L17">IFERROR(_FV(A17,"Change (%)",TRUE),"")</f>
-        <v>-2.8710000000000003E-3</v>
+        <v>2.2198000000000002E-2</v>
       </c>
       <c r="M17" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v>207.25</v>
+        <v>210.16</v>
       </c>
       <c r="N17" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
@@ -10773,7 +10785,7 @@
       </c>
       <c r="O17" s="15">
         <f t="shared" si="1"/>
-        <v>1.1290711700844407E-2</v>
+        <v>3.3688618195660373E-2</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -10799,31 +10811,31 @@
       </c>
       <c r="G18" s="82">
         <f t="array" ref="G18">IFERROR(_FV(A18,"Open"),"")</f>
-        <v>293.51</v>
+        <v>293.87</v>
       </c>
       <c r="H18" s="82">
         <f t="array" ref="H18">IFERROR(_FV(A18,"High"),"")</f>
-        <v>295.43819999999999</v>
+        <v>298.8</v>
       </c>
       <c r="I18" s="82">
         <f t="array" ref="I18">IFERROR(_FV(A18,"Low"),"")</f>
-        <v>292.58999999999997</v>
+        <v>293.57</v>
       </c>
       <c r="J18" s="82">
         <f t="array" ref="J18">IFERROR(_FV(A18,"Price"),"")</f>
-        <v>294.10789999999997</v>
+        <v>298.70999999999998</v>
       </c>
       <c r="K18" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>293.34894999999995</v>
+        <v>296.14</v>
       </c>
       <c r="L18" s="3">
         <f t="array" ref="L18">IFERROR(_FV(A18,"Change (%)",TRUE),"")</f>
-        <v>-1.1279999999999999E-3</v>
+        <v>3.007E-2</v>
       </c>
       <c r="M18" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v>296.755</v>
+        <v>310.08999999999997</v>
       </c>
       <c r="N18" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
@@ -10831,7 +10843,7 @@
       </c>
       <c r="O18" s="15">
         <f t="shared" si="1"/>
-        <v>8.9201529881552909E-3</v>
+        <v>3.6699022864329696E-2</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -10857,31 +10869,31 @@
       </c>
       <c r="G19" s="82">
         <f t="array" ref="G19">IFERROR(_FV(A19,"Open"),"")</f>
-        <v>106.55</v>
+        <v>104.83</v>
       </c>
       <c r="H19" s="82">
         <f t="array" ref="H19">IFERROR(_FV(A19,"High"),"")</f>
-        <v>106.95</v>
+        <v>106.26</v>
       </c>
       <c r="I19" s="82">
         <f t="array" ref="I19">IFERROR(_FV(A19,"Low"),"")</f>
-        <v>106.43</v>
+        <v>104.73</v>
       </c>
       <c r="J19" s="82">
         <f t="array" ref="J19">IFERROR(_FV(A19,"Price"),"")</f>
-        <v>106.67</v>
+        <v>106.2</v>
       </c>
       <c r="K19" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>106.55000000000001</v>
+        <v>105.465</v>
       </c>
       <c r="L19" s="3">
         <f t="array" ref="L19">IFERROR(_FV(A19,"Change (%)",TRUE),"")</f>
-        <v>-3.5499999999999998E-3</v>
+        <v>2.1547E-2</v>
       </c>
       <c r="M19" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v>107.84</v>
+        <v>109.74</v>
       </c>
       <c r="N19" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
@@ -10889,7 +10901,7 @@
       </c>
       <c r="O19" s="15">
         <f t="shared" si="1"/>
-        <v>1.0849406528189926E-2</v>
+        <v>3.2258064516128962E-2</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -10915,31 +10927,31 @@
       </c>
       <c r="G20" s="82">
         <f t="array" ref="G20">IFERROR(_FV(A20,"Open"),"")</f>
-        <v>72.66</v>
+        <v>71.349999999999994</v>
       </c>
       <c r="H20" s="82">
         <f t="array" ref="H20">IFERROR(_FV(A20,"High"),"")</f>
-        <v>72.66</v>
+        <v>72.061999999999998</v>
       </c>
       <c r="I20" s="82">
         <f t="array" ref="I20">IFERROR(_FV(A20,"Low"),"")</f>
-        <v>72.34</v>
+        <v>71.34</v>
       </c>
       <c r="J20" s="82">
         <f t="array" ref="J20">IFERROR(_FV(A20,"Price"),"")</f>
-        <v>72.52</v>
+        <v>72.048000000000002</v>
       </c>
       <c r="K20" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>72.430000000000007</v>
+        <v>71.694000000000003</v>
       </c>
       <c r="L20" s="3">
         <f t="array" ref="L20">IFERROR(_FV(A20,"Change (%)",TRUE),"")</f>
-        <v>-3.0240000000000002E-3</v>
+        <v>1.9932000000000002E-2</v>
       </c>
       <c r="M20" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v>73.319999999999993</v>
+        <v>74.08</v>
       </c>
       <c r="N20" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
@@ -10947,7 +10959,7 @@
       </c>
       <c r="O20" s="15">
         <f t="shared" si="1"/>
-        <v>1.0911074740861938E-2</v>
+        <v>2.7429805615550709E-2</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -10973,31 +10985,31 @@
       </c>
       <c r="G21" s="82">
         <f t="array" ref="G21">IFERROR(_FV(A21,"Open"),"")</f>
-        <v>40.61</v>
+        <v>40.82</v>
       </c>
       <c r="H21" s="82">
         <f t="array" ref="H21">IFERROR(_FV(A21,"High"),"")</f>
-        <v>42.18</v>
+        <v>41.24</v>
       </c>
       <c r="I21" s="82">
         <f t="array" ref="I21">IFERROR(_FV(A21,"Low"),"")</f>
-        <v>40.58</v>
+        <v>40.07</v>
       </c>
       <c r="J21" s="82">
         <f t="array" ref="J21">IFERROR(_FV(A21,"Price"),"")</f>
-        <v>42.115200000000002</v>
+        <v>41.23</v>
       </c>
       <c r="K21" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>41.3476</v>
+        <v>40.65</v>
       </c>
       <c r="L21" s="3">
         <f t="array" ref="L21">IFERROR(_FV(A21,"Change (%)",TRUE),"")</f>
-        <v>3.1223999999999998E-2</v>
+        <v>2.7667000000000001E-2</v>
       </c>
       <c r="M21" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v>43.61</v>
+        <v>47.85</v>
       </c>
       <c r="N21" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
@@ -11005,7 +11017,7 @@
       </c>
       <c r="O21" s="15">
         <f t="shared" si="1"/>
-        <v>3.4276542077505114E-2</v>
+        <v>0.13834900731452465</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -11031,31 +11043,31 @@
       </c>
       <c r="G22" s="82">
         <f t="array" ref="G22">IFERROR(_FV(A22,"Open"),"")</f>
-        <v>77</v>
+        <v>77.8</v>
       </c>
       <c r="H22" s="82">
         <f t="array" ref="H22">IFERROR(_FV(A22,"High"),"")</f>
-        <v>78.739999999999995</v>
+        <v>78.72</v>
       </c>
       <c r="I22" s="82">
         <f t="array" ref="I22">IFERROR(_FV(A22,"Low"),"")</f>
-        <v>76.754999999999995</v>
+        <v>76.67</v>
       </c>
       <c r="J22" s="82">
         <f t="array" ref="J22">IFERROR(_FV(A22,"Price"),"")</f>
-        <v>78.668000000000006</v>
+        <v>78.72</v>
       </c>
       <c r="K22" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>77.711500000000001</v>
+        <v>77.694999999999993</v>
       </c>
       <c r="L22" s="3">
         <f t="array" ref="L22">IFERROR(_FV(A22,"Change (%)",TRUE),"")</f>
-        <v>1.8488000000000001E-2</v>
+        <v>3.2934999999999999E-2</v>
       </c>
       <c r="M22" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v>79.88</v>
+        <v>86.15</v>
       </c>
       <c r="N22" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
@@ -11063,7 +11075,7 @@
       </c>
       <c r="O22" s="15">
         <f t="shared" si="1"/>
-        <v>1.5172759138707926E-2</v>
+        <v>8.6244921648287939E-2</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -11089,31 +11101,31 @@
       </c>
       <c r="G23" s="82">
         <f t="array" ref="G23">IFERROR(_FV(A23,"Open"),"")</f>
-        <v>102.67</v>
+        <v>101.66500000000001</v>
       </c>
       <c r="H23" s="82">
         <f t="array" ref="H23">IFERROR(_FV(A23,"High"),"")</f>
-        <v>105.486</v>
+        <v>102.3</v>
       </c>
       <c r="I23" s="82">
         <f t="array" ref="I23">IFERROR(_FV(A23,"Low"),"")</f>
-        <v>102.45099999999999</v>
+        <v>100</v>
       </c>
       <c r="J23" s="82">
         <f t="array" ref="J23">IFERROR(_FV(A23,"Price"),"")</f>
-        <v>105.25</v>
+        <v>102.3</v>
       </c>
       <c r="K23" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>103.8505</v>
+        <v>101.15</v>
       </c>
       <c r="L23" s="3">
         <f t="array" ref="L23">IFERROR(_FV(A23,"Change (%)",TRUE),"")</f>
-        <v>2.1250000000000002E-2</v>
+        <v>3.2291E-2</v>
       </c>
       <c r="M23" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v>105.25</v>
+        <v>117.24</v>
       </c>
       <c r="N23" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
@@ -11121,7 +11133,7 @@
       </c>
       <c r="O23" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.12743091095189354</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -11147,31 +11159,31 @@
       </c>
       <c r="G24" s="82">
         <f t="array" ref="G24">IFERROR(_FV(A24,"Open"),"")</f>
-        <v>38.200000000000003</v>
+        <v>37.5</v>
       </c>
       <c r="H24" s="82">
         <f t="array" ref="H24">IFERROR(_FV(A24,"High"),"")</f>
-        <v>38.79</v>
+        <v>38.049999999999997</v>
       </c>
       <c r="I24" s="82">
         <f t="array" ref="I24">IFERROR(_FV(A24,"Low"),"")</f>
-        <v>38.08</v>
+        <v>37.145000000000003</v>
       </c>
       <c r="J24" s="82">
         <f t="array" ref="J24">IFERROR(_FV(A24,"Price"),"")</f>
-        <v>38.715000000000003</v>
+        <v>38.03</v>
       </c>
       <c r="K24" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>38.397500000000001</v>
+        <v>37.587500000000006</v>
       </c>
       <c r="L24" s="3">
         <f t="array" ref="L24">IFERROR(_FV(A24,"Change (%)",TRUE),"")</f>
-        <v>8.2030000000000002E-3</v>
+        <v>2.895E-2</v>
       </c>
       <c r="M24" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v>38.78</v>
+        <v>42.33</v>
       </c>
       <c r="N24" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
@@ -11179,7 +11191,7 @@
       </c>
       <c r="O24" s="15">
         <f t="shared" si="1"/>
-        <v>1.6761217122227366E-3</v>
+        <v>0.1015828017954169</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -11205,31 +11217,31 @@
       </c>
       <c r="G25" s="82">
         <f t="array" ref="G25">IFERROR(_FV(A25,"Open"),"")</f>
-        <v>54.5</v>
+        <v>56.44</v>
       </c>
       <c r="H25" s="82">
         <f t="array" ref="H25">IFERROR(_FV(A25,"High"),"")</f>
-        <v>55.499899999999997</v>
+        <v>57.87</v>
       </c>
       <c r="I25" s="82">
         <f t="array" ref="I25">IFERROR(_FV(A25,"Low"),"")</f>
-        <v>54.25</v>
+        <v>56.354999999999997</v>
       </c>
       <c r="J25" s="82">
         <f t="array" ref="J25">IFERROR(_FV(A25,"Price"),"")</f>
-        <v>55.446800000000003</v>
+        <v>57.79</v>
       </c>
       <c r="K25" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>54.848399999999998</v>
+        <v>57.072499999999998</v>
       </c>
       <c r="L25" s="3">
         <f t="array" ref="L25">IFERROR(_FV(A25,"Change (%)",TRUE),"")</f>
-        <v>8.8570000000000003E-3</v>
+        <v>4.5784000000000005E-2</v>
       </c>
       <c r="M25" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v>55.59</v>
+        <v>62.97</v>
       </c>
       <c r="N25" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
@@ -11237,7 +11249,7 @@
       </c>
       <c r="O25" s="15">
         <f t="shared" si="1"/>
-        <v>2.5760028782155103E-3</v>
+        <v>8.2261394314753059E-2</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -11263,31 +11275,31 @@
       </c>
       <c r="G26" s="82">
         <f t="array" ref="G26">IFERROR(_FV(A26,"Open"),"")</f>
-        <v>62.6</v>
+        <v>56.33</v>
       </c>
       <c r="H26" s="82">
         <f t="array" ref="H26">IFERROR(_FV(A26,"High"),"")</f>
-        <v>62.9</v>
+        <v>57.545000000000002</v>
       </c>
       <c r="I26" s="82">
         <f t="array" ref="I26">IFERROR(_FV(A26,"Low"),"")</f>
-        <v>62.08</v>
+        <v>56.040100000000002</v>
       </c>
       <c r="J26" s="82">
         <f t="array" ref="J26">IFERROR(_FV(A26,"Price"),"")</f>
-        <v>62.41</v>
+        <v>57.53</v>
       </c>
       <c r="K26" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>62.244999999999997</v>
+        <v>56.785049999999998</v>
       </c>
       <c r="L26" s="3">
         <f t="array" ref="L26">IFERROR(_FV(A26,"Change (%)",TRUE),"")</f>
-        <v>-7.1589999999999996E-3</v>
+        <v>4.2020999999999996E-2</v>
       </c>
       <c r="M26" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v>63.96</v>
+        <v>64.34</v>
       </c>
       <c r="N26" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
@@ -11295,7 +11307,7 @@
       </c>
       <c r="O26" s="15">
         <f t="shared" si="1"/>
-        <v>2.4233896185115764E-2</v>
+        <v>0.10584395399440476</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -11321,31 +11333,31 @@
       </c>
       <c r="G27" s="82">
         <f t="array" ref="G27">IFERROR(_FV(A27,"Open"),"")</f>
-        <v>88.3</v>
+        <v>85.26</v>
       </c>
       <c r="H27" s="82">
         <f t="array" ref="H27">IFERROR(_FV(A27,"High"),"")</f>
-        <v>89.99</v>
+        <v>86.569900000000004</v>
       </c>
       <c r="I27" s="82">
         <f t="array" ref="I27">IFERROR(_FV(A27,"Low"),"")</f>
-        <v>88.0501</v>
+        <v>84.161600000000007</v>
       </c>
       <c r="J27" s="82">
         <f t="array" ref="J27">IFERROR(_FV(A27,"Price"),"")</f>
-        <v>89.59</v>
+        <v>86.534999999999997</v>
       </c>
       <c r="K27" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>88.820050000000009</v>
+        <v>85.348299999999995</v>
       </c>
       <c r="L27" s="3">
         <f t="array" ref="L27">IFERROR(_FV(A27,"Change (%)",TRUE),"")</f>
-        <v>8.1019999999999998E-3</v>
+        <v>4.1711999999999999E-2</v>
       </c>
       <c r="M27" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v>90.38</v>
+        <v>98.9</v>
       </c>
       <c r="N27" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
@@ -11353,7 +11365,7 @@
       </c>
       <c r="O27" s="15">
         <f t="shared" si="1"/>
-        <v>8.7408718743083869E-3</v>
+        <v>0.12502527805864519</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -11379,31 +11391,31 @@
       </c>
       <c r="G28" s="82">
         <f t="array" ref="G28">IFERROR(_FV(A28,"Open"),"")</f>
-        <v>89.18</v>
+        <v>89.38</v>
       </c>
       <c r="H28" s="82">
         <f t="array" ref="H28">IFERROR(_FV(A28,"High"),"")</f>
-        <v>89.8</v>
+        <v>89.9</v>
       </c>
       <c r="I28" s="82">
         <f t="array" ref="I28">IFERROR(_FV(A28,"Low"),"")</f>
-        <v>89.070899999999995</v>
+        <v>89.31</v>
       </c>
       <c r="J28" s="82">
         <f t="array" ref="J28">IFERROR(_FV(A28,"Price"),"")</f>
-        <v>89.66</v>
+        <v>89.855000000000004</v>
       </c>
       <c r="K28" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>89.365449999999996</v>
+        <v>89.58250000000001</v>
       </c>
       <c r="L28" s="3">
         <f t="array" ref="L28">IFERROR(_FV(A28,"Change (%)",TRUE),"")</f>
-        <v>-2.8910000000000003E-3</v>
+        <v>2.0268000000000001E-2</v>
       </c>
       <c r="M28" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v>90.779399999999995</v>
+        <v>91.87</v>
       </c>
       <c r="N28" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
@@ -11411,7 +11423,7 @@
       </c>
       <c r="O28" s="15">
         <f t="shared" si="1"/>
-        <v>1.2330991392320271E-2</v>
+        <v>2.1933166430826174E-2</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -11437,31 +11449,31 @@
       </c>
       <c r="G29" s="82">
         <f t="array" ref="G29">IFERROR(_FV(A29,"Open"),"")</f>
-        <v>318.29000000000002</v>
+        <v>309.10000000000002</v>
       </c>
       <c r="H29" s="82">
         <f t="array" ref="H29">IFERROR(_FV(A29,"High"),"")</f>
-        <v>319.815</v>
+        <v>311.5</v>
       </c>
       <c r="I29" s="82">
         <f t="array" ref="I29">IFERROR(_FV(A29,"Low"),"")</f>
-        <v>318.0172</v>
+        <v>307.50839999999999</v>
       </c>
       <c r="J29" s="82">
         <f t="array" ref="J29">IFERROR(_FV(A29,"Price"),"")</f>
-        <v>319.5</v>
+        <v>311.35000000000002</v>
       </c>
       <c r="K29" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>318.7586</v>
+        <v>309.42920000000004</v>
       </c>
       <c r="L29" s="3">
         <f t="array" ref="L29">IFERROR(_FV(A29,"Change (%)",TRUE),"")</f>
-        <v>4.3699999999999998E-3</v>
+        <v>2.1991999999999998E-2</v>
       </c>
       <c r="M29" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v>322.83</v>
+        <v>335.88369999999998</v>
       </c>
       <c r="N29" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
@@ -11469,7 +11481,7 @@
       </c>
       <c r="O29" s="15">
         <f t="shared" si="1"/>
-        <v>1.0315026484527411E-2</v>
+        <v>7.3042246468048189E-2</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -11495,27 +11507,27 @@
       </c>
       <c r="G30" s="82">
         <f t="array" ref="G30">IFERROR(_FV(A30,"Open"),"")</f>
-        <v>79.64</v>
+        <v>81.47</v>
       </c>
       <c r="H30" s="82">
         <f t="array" ref="H30">IFERROR(_FV(A30,"High"),"")</f>
-        <v>81.262</v>
+        <v>82.73</v>
       </c>
       <c r="I30" s="82">
         <f t="array" ref="I30">IFERROR(_FV(A30,"Low"),"")</f>
-        <v>79.38</v>
+        <v>81.239999999999995</v>
       </c>
       <c r="J30" s="82">
         <f t="array" ref="J30">IFERROR(_FV(A30,"Price"),"")</f>
-        <v>80.739999999999995</v>
+        <v>81.64</v>
       </c>
       <c r="K30" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>80.06</v>
+        <v>81.44</v>
       </c>
       <c r="L30" s="3">
         <f t="array" ref="L30">IFERROR(_FV(A30,"Change (%)",TRUE),"")</f>
-        <v>1.0008E-2</v>
+        <v>1.0270999999999999E-2</v>
       </c>
       <c r="M30" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
@@ -11527,7 +11539,7 @@
       </c>
       <c r="O30" s="15">
         <f t="shared" si="1"/>
-        <v>0.19033293221018857</v>
+        <v>0.18130766145206578</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -11553,31 +11565,31 @@
       </c>
       <c r="G31" s="82">
         <f t="array" ref="G31">IFERROR(_FV(A31,"Open"),"")</f>
-        <v>52.5</v>
+        <v>51.51</v>
       </c>
       <c r="H31" s="82">
         <f t="array" ref="H31">IFERROR(_FV(A31,"High"),"")</f>
-        <v>53.27</v>
+        <v>52.42</v>
       </c>
       <c r="I31" s="82">
         <f t="array" ref="I31">IFERROR(_FV(A31,"Low"),"")</f>
-        <v>52.41</v>
+        <v>51.35</v>
       </c>
       <c r="J31" s="82">
         <f t="array" ref="J31">IFERROR(_FV(A31,"Price"),"")</f>
-        <v>52.87</v>
+        <v>52.4</v>
       </c>
       <c r="K31" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>52.64</v>
+        <v>51.875</v>
       </c>
       <c r="L31" s="3">
         <f t="array" ref="L31">IFERROR(_FV(A31,"Change (%)",TRUE),"")</f>
-        <v>-4.5190000000000004E-3</v>
+        <v>2.7451E-2</v>
       </c>
       <c r="M31" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v>53.95</v>
+        <v>54.71</v>
       </c>
       <c r="N31" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
@@ -11585,7 +11597,7 @@
       </c>
       <c r="O31" s="15">
         <f t="shared" si="1"/>
-        <v>2.0018535681186382E-2</v>
+        <v>4.2222628404313692E-2</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -11611,31 +11623,31 @@
       </c>
       <c r="G32" s="82">
         <f t="array" ref="G32">IFERROR(_FV(A32,"Open"),"")</f>
-        <v>336.67</v>
+        <v>339</v>
       </c>
       <c r="H32" s="82">
         <f t="array" ref="H32">IFERROR(_FV(A32,"High"),"")</f>
-        <v>339.97</v>
+        <v>342.82350000000002</v>
       </c>
       <c r="I32" s="82">
         <f t="array" ref="I32">IFERROR(_FV(A32,"Low"),"")</f>
-        <v>336.6</v>
+        <v>337.98</v>
       </c>
       <c r="J32" s="82">
         <f t="array" ref="J32">IFERROR(_FV(A32,"Price"),"")</f>
-        <v>339.52010000000001</v>
+        <v>342.82350000000002</v>
       </c>
       <c r="K32" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>338.06005000000005</v>
+        <v>340.40174999999999</v>
       </c>
       <c r="L32" s="3">
         <f t="array" ref="L32">IFERROR(_FV(A32,"Change (%)",TRUE),"")</f>
-        <v>2.7169999999999998E-3</v>
+        <v>2.4424000000000001E-2</v>
       </c>
       <c r="M32" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v>340.99900000000002</v>
+        <v>360.26</v>
       </c>
       <c r="N32" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
@@ -11643,7 +11655,7 @@
       </c>
       <c r="O32" s="15">
         <f t="shared" si="1"/>
-        <v>4.3369628649937682E-3</v>
+        <v>4.8399766835063474E-2</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -11665,35 +11677,35 @@
       </c>
       <c r="F33" s="3">
         <f t="shared" si="0"/>
-        <v>2.9999999999999997E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="G33" s="82">
         <f t="array" ref="G33">IFERROR(_FV(A33,"Open"),"")</f>
-        <v>308.17</v>
+        <v>310.20999999999998</v>
       </c>
       <c r="H33" s="82">
         <f t="array" ref="H33">IFERROR(_FV(A33,"High"),"")</f>
-        <v>311.125</v>
+        <v>314.01</v>
       </c>
       <c r="I33" s="82">
         <f t="array" ref="I33">IFERROR(_FV(A33,"Low"),"")</f>
-        <v>308.02999999999997</v>
+        <v>309.29000000000002</v>
       </c>
       <c r="J33" s="82">
         <f t="array" ref="J33">IFERROR(_FV(A33,"Price"),"")</f>
-        <v>310.75</v>
+        <v>313.97000000000003</v>
       </c>
       <c r="K33" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>309.39</v>
+        <v>311.63</v>
       </c>
       <c r="L33" s="3">
         <f t="array" ref="L33">IFERROR(_FV(A33,"Change (%)",TRUE),"")</f>
-        <v>3.1310000000000001E-3</v>
+        <v>2.5207999999999998E-2</v>
       </c>
       <c r="M33" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v>312.27999999999997</v>
+        <v>329.67</v>
       </c>
       <c r="N33" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
@@ -11701,7 +11713,7 @@
       </c>
       <c r="O33" s="15">
         <f t="shared" si="1"/>
-        <v>4.8994492122453335E-3</v>
+        <v>4.7623380956714256E-2</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -11739,7 +11751,7 @@
       </c>
       <c r="J34" s="82">
         <f t="array" ref="J34">IFERROR(_FV(A34,"Price"),"")</f>
-        <v>12.05</v>
+        <v>11.89</v>
       </c>
       <c r="K34" s="82" t="str">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
@@ -11747,7 +11759,7 @@
       </c>
       <c r="L34" s="3">
         <f t="array" ref="L34">IFERROR(_FV(A34,"Change (%)",TRUE),"")</f>
-        <v>-4.9550000000000002E-3</v>
+        <v>-2.9388000000000001E-2</v>
       </c>
       <c r="M34" s="16" t="str">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
@@ -11785,31 +11797,31 @@
       </c>
       <c r="G35" s="82">
         <f t="array" ref="G35">IFERROR(_FV(A35,"Open"),"")</f>
-        <v>123.23</v>
+        <v>120.99</v>
       </c>
       <c r="H35" s="82">
         <f t="array" ref="H35">IFERROR(_FV(A35,"High"),"")</f>
-        <v>123.61</v>
+        <v>122.15</v>
       </c>
       <c r="I35" s="82">
         <f t="array" ref="I35">IFERROR(_FV(A35,"Low"),"")</f>
-        <v>121.97</v>
+        <v>120.04</v>
       </c>
       <c r="J35" s="82">
         <f t="array" ref="J35">IFERROR(_FV(A35,"Price"),"")</f>
-        <v>122.48</v>
+        <v>122.03</v>
       </c>
       <c r="K35" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>122.22499999999999</v>
+        <v>121.035</v>
       </c>
       <c r="L35" s="3">
         <f t="array" ref="L35">IFERROR(_FV(A35,"Change (%)",TRUE),"")</f>
-        <v>-1.2497000000000001E-2</v>
+        <v>3.4064999999999998E-2</v>
       </c>
       <c r="M35" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v>127.96810000000001</v>
+        <v>133.19</v>
       </c>
       <c r="N35" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
@@ -11817,7 +11829,7 @@
       </c>
       <c r="O35" s="15">
         <f t="shared" si="1"/>
-        <v>4.2886469362286406E-2</v>
+        <v>8.3790074329904624E-2</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -11843,31 +11855,31 @@
       </c>
       <c r="G36" s="82">
         <f t="array" ref="G36">IFERROR(_FV(A36,"Open"),"")</f>
-        <v>169.18</v>
+        <v>167.64</v>
       </c>
       <c r="H36" s="82">
         <f t="array" ref="H36">IFERROR(_FV(A36,"High"),"")</f>
-        <v>170.19</v>
+        <v>169.55500000000001</v>
       </c>
       <c r="I36" s="82">
         <f t="array" ref="I36">IFERROR(_FV(A36,"Low"),"")</f>
-        <v>168.23</v>
+        <v>166.01</v>
       </c>
       <c r="J36" s="82">
         <f t="array" ref="J36">IFERROR(_FV(A36,"Price"),"")</f>
-        <v>169.88</v>
+        <v>169.55500000000001</v>
       </c>
       <c r="K36" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>169.05500000000001</v>
+        <v>167.7825</v>
       </c>
       <c r="L36" s="3">
         <f t="array" ref="L36">IFERROR(_FV(A36,"Change (%)",TRUE),"")</f>
-        <v>-6.8400000000000006E-3</v>
+        <v>3.5070999999999998E-2</v>
       </c>
       <c r="M36" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v>174.33</v>
+        <v>184.61</v>
       </c>
       <c r="N36" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
@@ -11875,7 +11887,7 @@
       </c>
       <c r="O36" s="15">
         <f t="shared" si="1"/>
-        <v>2.5526300694086027E-2</v>
+        <v>8.1550295216943861E-2</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -11901,31 +11913,31 @@
       </c>
       <c r="G37" s="82">
         <f t="array" ref="G37">IFERROR(_FV(A37,"Open"),"")</f>
-        <v>162.58000000000001</v>
+        <v>160.38</v>
       </c>
       <c r="H37" s="82">
         <f t="array" ref="H37">IFERROR(_FV(A37,"High"),"")</f>
-        <v>165.46770000000001</v>
+        <v>162.53</v>
       </c>
       <c r="I37" s="82">
         <f t="array" ref="I37">IFERROR(_FV(A37,"Low"),"")</f>
-        <v>162.56</v>
+        <v>159.02500000000001</v>
       </c>
       <c r="J37" s="82">
         <f t="array" ref="J37">IFERROR(_FV(A37,"Price"),"")</f>
-        <v>165.46770000000001</v>
+        <v>162.53</v>
       </c>
       <c r="K37" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>164.01384999999999</v>
+        <v>160.7775</v>
       </c>
       <c r="L37" s="3">
         <f t="array" ref="L37">IFERROR(_FV(A37,"Change (%)",TRUE),"")</f>
-        <v>1.6886000000000002E-2</v>
+        <v>2.9322000000000001E-2</v>
       </c>
       <c r="M37" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v>167.37</v>
+        <v>183.95</v>
       </c>
       <c r="N37" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
@@ -11933,7 +11945,7 @@
       </c>
       <c r="O37" s="15">
         <f t="shared" si="1"/>
-        <v>1.1365836171356855E-2</v>
+        <v>0.11644468605599341</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -11959,31 +11971,31 @@
       </c>
       <c r="G38" s="82">
         <f t="array" ref="G38">IFERROR(_FV(A38,"Open"),"")</f>
-        <v>33.299999999999997</v>
+        <v>32.770000000000003</v>
       </c>
       <c r="H38" s="82">
         <f t="array" ref="H38">IFERROR(_FV(A38,"High"),"")</f>
-        <v>33.93</v>
+        <v>32.869999999999997</v>
       </c>
       <c r="I38" s="82">
         <f t="array" ref="I38">IFERROR(_FV(A38,"Low"),"")</f>
-        <v>33.22</v>
+        <v>32.293999999999997</v>
       </c>
       <c r="J38" s="82">
         <f t="array" ref="J38">IFERROR(_FV(A38,"Price"),"")</f>
-        <v>33.85</v>
+        <v>32.869999999999997</v>
       </c>
       <c r="K38" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>33.534999999999997</v>
+        <v>32.581999999999994</v>
       </c>
       <c r="L38" s="3">
         <f t="array" ref="L38">IFERROR(_FV(A38,"Change (%)",TRUE),"")</f>
-        <v>8.9420000000000003E-3</v>
+        <v>1.7961999999999999E-2</v>
       </c>
       <c r="M38" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v>34.402799999999999</v>
+        <v>36.36</v>
       </c>
       <c r="N38" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
@@ -11991,7 +12003,7 @@
       </c>
       <c r="O38" s="15">
         <f t="shared" si="1"/>
-        <v>1.606845954399054E-2</v>
+        <v>9.5984598459846041E-2</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -12017,31 +12029,31 @@
       </c>
       <c r="G39" s="82">
         <f t="array" ref="G39">IFERROR(_FV(A39,"Open"),"")</f>
-        <v>47.84</v>
+        <v>46.67</v>
       </c>
       <c r="H39" s="82">
         <f t="array" ref="H39">IFERROR(_FV(A39,"High"),"")</f>
-        <v>48.6494</v>
+        <v>46.838000000000001</v>
       </c>
       <c r="I39" s="82">
         <f t="array" ref="I39">IFERROR(_FV(A39,"Low"),"")</f>
-        <v>47.84</v>
+        <v>46.12</v>
       </c>
       <c r="J39" s="82">
         <f t="array" ref="J39">IFERROR(_FV(A39,"Price"),"")</f>
-        <v>48.540100000000002</v>
+        <v>46.838000000000001</v>
       </c>
       <c r="K39" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>48.190049999999999</v>
+        <v>46.478999999999999</v>
       </c>
       <c r="L39" s="3">
         <f t="array" ref="L39">IFERROR(_FV(A39,"Change (%)",TRUE),"")</f>
-        <v>1.0200000000000001E-2</v>
+        <v>1.9103999999999999E-2</v>
       </c>
       <c r="M39" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v>49.554400000000001</v>
+        <v>51.19</v>
       </c>
       <c r="N39" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
@@ -12049,7 +12061,7 @@
       </c>
       <c r="O39" s="15">
         <f t="shared" si="1"/>
-        <v>2.0468414510114108E-2</v>
+        <v>8.5016604805626034E-2</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -12075,31 +12087,31 @@
       </c>
       <c r="G40" s="82">
         <f t="array" ref="G40">IFERROR(_FV(A40,"Open"),"")</f>
-        <v>185.44</v>
+        <v>187</v>
       </c>
       <c r="H40" s="82">
         <f t="array" ref="H40">IFERROR(_FV(A40,"High"),"")</f>
-        <v>188.89</v>
+        <v>189.33</v>
       </c>
       <c r="I40" s="82">
         <f t="array" ref="I40">IFERROR(_FV(A40,"Low"),"")</f>
-        <v>185.31</v>
+        <v>184.51</v>
       </c>
       <c r="J40" s="82">
         <f t="array" ref="J40">IFERROR(_FV(A40,"Price"),"")</f>
-        <v>188.63</v>
+        <v>189.32499999999999</v>
       </c>
       <c r="K40" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>186.97</v>
+        <v>186.91749999999999</v>
       </c>
       <c r="L40" s="3">
         <f t="array" ref="L40">IFERROR(_FV(A40,"Change (%)",TRUE),"")</f>
-        <v>1.2506999999999999E-2</v>
+        <v>3.1856000000000002E-2</v>
       </c>
       <c r="M40" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v>188.63</v>
+        <v>207</v>
       </c>
       <c r="N40" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
@@ -12107,7 +12119,7 @@
       </c>
       <c r="O40" s="79">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.5386473429951745E-2</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -12133,31 +12145,31 @@
       </c>
       <c r="G41" s="82">
         <f t="array" ref="G41">IFERROR(_FV(A41,"Open"),"")</f>
-        <v>90.28</v>
+        <v>90.76</v>
       </c>
       <c r="H41" s="82">
         <f t="array" ref="H41">IFERROR(_FV(A41,"High"),"")</f>
-        <v>91.75</v>
+        <v>92.038600000000002</v>
       </c>
       <c r="I41" s="82">
         <f t="array" ref="I41">IFERROR(_FV(A41,"Low"),"")</f>
-        <v>90.261499999999998</v>
+        <v>89.69</v>
       </c>
       <c r="J41" s="82">
         <f t="array" ref="J41">IFERROR(_FV(A41,"Price"),"")</f>
-        <v>91.71</v>
+        <v>92.019900000000007</v>
       </c>
       <c r="K41" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>90.985749999999996</v>
+        <v>90.854950000000002</v>
       </c>
       <c r="L41" s="3">
         <f t="array" ref="L41">IFERROR(_FV(A41,"Change (%)",TRUE),"")</f>
-        <v>1.3146E-2</v>
+        <v>3.9655000000000003E-2</v>
       </c>
       <c r="M41" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v>91.71</v>
+        <v>100.77</v>
       </c>
       <c r="N41" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
@@ -12165,7 +12177,7 @@
       </c>
       <c r="O41" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.6832390592438122E-2</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -12191,31 +12203,31 @@
       </c>
       <c r="G42" s="82">
         <f t="array" ref="G42">IFERROR(_FV(A42,"Open"),"")</f>
-        <v>68.739999999999995</v>
+        <v>67.95</v>
       </c>
       <c r="H42" s="82">
         <f t="array" ref="H42">IFERROR(_FV(A42,"High"),"")</f>
-        <v>69.275000000000006</v>
+        <v>68.760000000000005</v>
       </c>
       <c r="I42" s="82">
         <f t="array" ref="I42">IFERROR(_FV(A42,"Low"),"")</f>
-        <v>68.739999999999995</v>
+        <v>67.95</v>
       </c>
       <c r="J42" s="82">
         <f t="array" ref="J42">IFERROR(_FV(A42,"Price"),"")</f>
-        <v>69.069999999999993</v>
+        <v>68.760000000000005</v>
       </c>
       <c r="K42" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>68.905000000000001</v>
+        <v>68.355000000000004</v>
       </c>
       <c r="L42" s="3">
         <f t="array" ref="L42">IFERROR(_FV(A42,"Change (%)",TRUE),"")</f>
-        <v>-2.0230000000000001E-3</v>
+        <v>2.8570999999999999E-2</v>
       </c>
       <c r="M42" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v>69.739999999999995</v>
+        <v>74.278300000000002</v>
       </c>
       <c r="N42" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
@@ -12223,7 +12235,7 @@
       </c>
       <c r="O42" s="15">
         <f t="shared" si="1"/>
-        <v>9.6071121307714624E-3</v>
+        <v>7.4292222627604515E-2</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
@@ -12249,31 +12261,31 @@
       </c>
       <c r="G43" s="82">
         <f t="array" ref="G43">IFERROR(_FV(A43,"Open"),"")</f>
-        <v>305.33999999999997</v>
+        <v>306.83499999999998</v>
       </c>
       <c r="H43" s="82">
         <f t="array" ref="H43">IFERROR(_FV(A43,"High"),"")</f>
-        <v>310.55</v>
+        <v>311.55</v>
       </c>
       <c r="I43" s="82">
         <f t="array" ref="I43">IFERROR(_FV(A43,"Low"),"")</f>
-        <v>304.82</v>
+        <v>303.39</v>
       </c>
       <c r="J43" s="82">
         <f t="array" ref="J43">IFERROR(_FV(A43,"Price"),"")</f>
-        <v>310.55</v>
+        <v>311.55</v>
       </c>
       <c r="K43" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>307.685</v>
+        <v>307.47000000000003</v>
       </c>
       <c r="L43" s="3">
         <f t="array" ref="L43">IFERROR(_FV(A43,"Change (%)",TRUE),"")</f>
-        <v>1.3576999999999999E-2</v>
+        <v>4.0233999999999999E-2</v>
       </c>
       <c r="M43" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v>310.55</v>
+        <v>340.74</v>
       </c>
       <c r="N43" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
@@ -12281,7 +12293,7 @@
       </c>
       <c r="O43" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.5666490579327334E-2</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -12307,31 +12319,31 @@
       </c>
       <c r="G44" s="82">
         <f t="array" ref="G44">IFERROR(_FV(A44,"Open"),"")</f>
-        <v>114.485</v>
+        <v>115.55</v>
       </c>
       <c r="H44" s="82">
         <f t="array" ref="H44">IFERROR(_FV(A44,"High"),"")</f>
-        <v>116.58</v>
+        <v>117.4</v>
       </c>
       <c r="I44" s="82">
         <f t="array" ref="I44">IFERROR(_FV(A44,"Low"),"")</f>
-        <v>114.39</v>
+        <v>114.27</v>
       </c>
       <c r="J44" s="82">
         <f t="array" ref="J44">IFERROR(_FV(A44,"Price"),"")</f>
-        <v>116.56</v>
+        <v>117.3997</v>
       </c>
       <c r="K44" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>115.47499999999999</v>
+        <v>115.83484999999999</v>
       </c>
       <c r="L44" s="3">
         <f t="array" ref="L44">IFERROR(_FV(A44,"Change (%)",TRUE),"")</f>
-        <v>1.3389E-2</v>
+        <v>4.1147000000000003E-2</v>
       </c>
       <c r="M44" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v>116.56</v>
+        <v>127.72</v>
       </c>
       <c r="N44" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
@@ -12339,7 +12351,7 @@
       </c>
       <c r="O44" s="79">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.0804102724710322E-2</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -12365,31 +12377,31 @@
       </c>
       <c r="G45" s="82">
         <f t="array" ref="G45">IFERROR(_FV(A45,"Open"),"")</f>
-        <v>26.63</v>
+        <v>26.05</v>
       </c>
       <c r="H45" s="82">
         <f t="array" ref="H45">IFERROR(_FV(A45,"High"),"")</f>
-        <v>26.7178</v>
+        <v>26.46</v>
       </c>
       <c r="I45" s="82">
         <f t="array" ref="I45">IFERROR(_FV(A45,"Low"),"")</f>
-        <v>26.55</v>
+        <v>26.05</v>
       </c>
       <c r="J45" s="82">
         <f t="array" ref="J45">IFERROR(_FV(A45,"Price"),"")</f>
-        <v>26.655000000000001</v>
+        <v>26.46</v>
       </c>
       <c r="K45" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>26.602499999999999</v>
+        <v>26.255000000000003</v>
       </c>
       <c r="L45" s="3">
         <f t="array" ref="L45">IFERROR(_FV(A45,"Change (%)",TRUE),"")</f>
-        <v>-7.2629999999999995E-3</v>
+        <v>2.9171999999999997E-2</v>
       </c>
       <c r="M45" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v>27.388999999999999</v>
+        <v>27.87</v>
       </c>
       <c r="N45" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
@@ -12397,7 +12409,7 @@
       </c>
       <c r="O45" s="15">
         <f t="shared" si="1"/>
-        <v>2.67990799225966E-2</v>
+        <v>5.0592034445640477E-2</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
@@ -12423,31 +12435,31 @@
       </c>
       <c r="G46" s="82">
         <f t="array" ref="G46">IFERROR(_FV(A46,"Open"),"")</f>
-        <v>170.5</v>
+        <v>171</v>
       </c>
       <c r="H46" s="82">
         <f t="array" ref="H46">IFERROR(_FV(A46,"High"),"")</f>
-        <v>172</v>
+        <v>172.72</v>
       </c>
       <c r="I46" s="82">
         <f t="array" ref="I46">IFERROR(_FV(A46,"Low"),"")</f>
-        <v>170.18770000000001</v>
+        <v>170.33500000000001</v>
       </c>
       <c r="J46" s="82">
         <f t="array" ref="J46">IFERROR(_FV(A46,"Price"),"")</f>
-        <v>171.77500000000001</v>
+        <v>172.64930000000001</v>
       </c>
       <c r="K46" s="82">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>170.98135000000002</v>
+        <v>171.49215000000001</v>
       </c>
       <c r="L46" s="3">
         <f t="array" ref="L46">IFERROR(_FV(A46,"Change (%)",TRUE),"")</f>
-        <v>2.8310000000000002E-3</v>
+        <v>2.426E-2</v>
       </c>
       <c r="M46" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v>172.55670000000001</v>
+        <v>181.67</v>
       </c>
       <c r="N46" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
@@ -12455,7 +12467,7 @@
       </c>
       <c r="O46" s="15">
         <f t="shared" si="1"/>
-        <v>4.5301051770229766E-3</v>
+        <v>4.965431826938943E-2</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
@@ -12493,7 +12505,7 @@
       </c>
       <c r="J47" s="82">
         <f t="array" ref="J47">IFERROR(_FV(A47,"Price"),"")</f>
-        <v>11.95</v>
+        <v>11.75</v>
       </c>
       <c r="K47" s="82" t="str">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
@@ -12501,7 +12513,7 @@
       </c>
       <c r="L47" s="3">
         <f t="array" ref="L47">IFERROR(_FV(A47,"Change (%)",TRUE),"")</f>
-        <v>-4.1670000000000006E-3</v>
+        <v>-2.8925999999999997E-2</v>
       </c>
       <c r="M47" s="16" t="str">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
@@ -12551,7 +12563,7 @@
       </c>
       <c r="J48" s="82" cm="1">
         <f t="array" ref="J48">IFERROR(_FV(A48,"Price"),"")</f>
-        <v>95.27</v>
+        <v>93.7</v>
       </c>
       <c r="K48" s="82" t="str">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
@@ -12559,7 +12571,7 @@
       </c>
       <c r="L48" s="3" cm="1">
         <f t="array" ref="L48">IFERROR(_FV(A48,"Change (%)",TRUE),"")</f>
-        <v>-4.1810000000000007E-3</v>
+        <v>-2.8613E-2</v>
       </c>
       <c r="M48" s="16" t="str">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
@@ -12576,21 +12588,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="47" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O1048576">
-    <cfRule type="cellIs" dxfId="46" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="50" priority="1" operator="greaterThanOrEqual">
       <formula>0.15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="49" priority="2" operator="greaterThanOrEqual">
       <formula>0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="3" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="48" priority="3" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A48">
-    <cfRule type="duplicateValues" dxfId="43" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="33"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -17478,23 +17490,23 @@
       </c>
       <c r="G2" s="2" cm="1">
         <f t="array" ref="G2">_FV(A2,"Open")</f>
-        <v>92.42</v>
+        <v>97.82</v>
       </c>
       <c r="H2" s="2" cm="1">
         <f t="array" ref="H2">_FV(A2,"High")</f>
-        <v>92.94</v>
+        <v>99.63</v>
       </c>
       <c r="I2" s="2" cm="1">
         <f t="array" ref="I2">_FV(A2,"Low")</f>
-        <v>91.95</v>
+        <v>97.62</v>
       </c>
       <c r="J2" s="2" cm="1">
         <f t="array" ref="J2">_FV(A2,"Price")</f>
-        <v>92.51</v>
+        <v>99.2</v>
       </c>
       <c r="K2" s="3" cm="1">
         <f t="array" ref="K2">_FV(A2,"Change (%)",TRUE)</f>
-        <v>-5.483E-3</v>
+        <v>1.6706000000000002E-2</v>
       </c>
       <c r="L2" s="2" cm="1">
         <f t="array" ref="L2">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
@@ -17506,7 +17518,7 @@
       </c>
       <c r="N2" s="3">
         <f t="shared" ref="N2:N26" si="0">(L2-J2)/L2</f>
-        <v>0.14800147356787616</v>
+        <v>8.638791674341495E-2</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -17532,23 +17544,23 @@
       </c>
       <c r="G3" s="2" cm="1">
         <f t="array" ref="G3">_FV(A3,"Open")</f>
-        <v>25.1</v>
+        <v>25.114999999999998</v>
       </c>
       <c r="H3" s="2" cm="1">
         <f t="array" ref="H3">_FV(A3,"High")</f>
-        <v>25.145</v>
+        <v>25.32</v>
       </c>
       <c r="I3" s="2" cm="1">
         <f t="array" ref="I3">_FV(A3,"Low")</f>
-        <v>24.88</v>
+        <v>25.07</v>
       </c>
       <c r="J3" s="2" cm="1">
         <f t="array" ref="J3">_FV(A3,"Price")</f>
-        <v>24.975000000000001</v>
+        <v>25.28</v>
       </c>
       <c r="K3" s="3" cm="1">
         <f t="array" ref="K3">_FV(A3,"Change (%)",TRUE)</f>
-        <v>-2.1547999999999998E-2</v>
+        <v>-2.761E-3</v>
       </c>
       <c r="L3" s="2" cm="1">
         <f t="array" ref="L3">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
@@ -17560,7 +17572,7 @@
       </c>
       <c r="N3" s="3">
         <f t="shared" si="0"/>
-        <v>0.15166440217391303</v>
+        <v>0.14130434782608695</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -17586,23 +17598,23 @@
       </c>
       <c r="G4" s="2" cm="1">
         <f t="array" ref="G4">_FV(A4,"Open")</f>
-        <v>23.76</v>
+        <v>24.01</v>
       </c>
       <c r="H4" s="2" cm="1">
         <f t="array" ref="H4">_FV(A4,"High")</f>
-        <v>23.93</v>
+        <v>24.07</v>
       </c>
       <c r="I4" s="2" cm="1">
         <f t="array" ref="I4">_FV(A4,"Low")</f>
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="J4" s="2" cm="1">
         <f t="array" ref="J4">_FV(A4,"Price")</f>
-        <v>23.73</v>
+        <v>23.74</v>
       </c>
       <c r="K4" s="3" cm="1">
         <f t="array" ref="K4">_FV(A4,"Change (%)",TRUE)</f>
-        <v>-1.4125E-2</v>
+        <v>-9.1820000000000009E-3</v>
       </c>
       <c r="L4" s="2" cm="1">
         <f t="array" ref="L4">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
@@ -17614,7 +17626,7 @@
       </c>
       <c r="N4" s="3">
         <f t="shared" si="0"/>
-        <v>0.56657534246575336</v>
+        <v>0.566392694063927</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -17640,23 +17652,23 @@
       </c>
       <c r="G5" s="2" cm="1">
         <f t="array" ref="G5">_FV(A5,"Open")</f>
-        <v>25.07</v>
+        <v>25.62</v>
       </c>
       <c r="H5" s="2" cm="1">
         <f t="array" ref="H5">_FV(A5,"High")</f>
-        <v>25.324999999999999</v>
+        <v>25.669799999999999</v>
       </c>
       <c r="I5" s="2" cm="1">
         <f t="array" ref="I5">_FV(A5,"Low")</f>
-        <v>25.02</v>
+        <v>25.23</v>
       </c>
       <c r="J5" s="2" cm="1">
         <f t="array" ref="J5">_FV(A5,"Price")</f>
-        <v>25.114999999999998</v>
+        <v>25.555</v>
       </c>
       <c r="K5" s="3" cm="1">
         <f t="array" ref="K5">_FV(A5,"Change (%)",TRUE)</f>
-        <v>-1.5484E-2</v>
+        <v>2.9429999999999999E-3</v>
       </c>
       <c r="L5" s="2" cm="1">
         <f t="array" ref="L5">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
@@ -17668,7 +17680,7 @@
       </c>
       <c r="N5" s="3">
         <f t="shared" si="0"/>
-        <v>0.29689249720044797</v>
+        <v>0.28457446808510639</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -17694,23 +17706,23 @@
       </c>
       <c r="G6" s="2" cm="1">
         <f t="array" ref="G6">_FV(A6,"Open")</f>
-        <v>97.26</v>
+        <v>100.65</v>
       </c>
       <c r="H6" s="2" cm="1">
         <f t="array" ref="H6">_FV(A6,"High")</f>
-        <v>98.03</v>
+        <v>101.131</v>
       </c>
       <c r="I6" s="2" cm="1">
         <f t="array" ref="I6">_FV(A6,"Low")</f>
-        <v>96.8</v>
+        <v>99.56</v>
       </c>
       <c r="J6" s="2" cm="1">
         <f t="array" ref="J6">_FV(A6,"Price")</f>
-        <v>97.26</v>
+        <v>100.91</v>
       </c>
       <c r="K6" s="3" cm="1">
         <f t="array" ref="K6">_FV(A6,"Change (%)",TRUE)</f>
-        <v>-1.3089999999999999E-2</v>
+        <v>9.6050000000000007E-3</v>
       </c>
       <c r="L6" s="2" cm="1">
         <f t="array" ref="L6">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
@@ -17722,7 +17734,7 @@
       </c>
       <c r="N6" s="3">
         <f t="shared" si="0"/>
-        <v>0.31070163004961016</v>
+        <v>0.28483345145287031</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -17745,23 +17757,23 @@
       </c>
       <c r="G7" s="2" cm="1">
         <f t="array" ref="G7">_FV(A7,"Open")</f>
-        <v>47.32</v>
+        <v>49.67</v>
       </c>
       <c r="H7" s="2" cm="1">
         <f t="array" ref="H7">_FV(A7,"High")</f>
-        <v>47.6</v>
+        <v>50.585000000000001</v>
       </c>
       <c r="I7" s="2" cm="1">
         <f t="array" ref="I7">_FV(A7,"Low")</f>
-        <v>47.1</v>
+        <v>49.55</v>
       </c>
       <c r="J7" s="2" cm="1">
         <f t="array" ref="J7">_FV(A7,"Price")</f>
-        <v>47.255000000000003</v>
+        <v>50.58</v>
       </c>
       <c r="K7" s="3" cm="1">
         <f t="array" ref="K7">_FV(A7,"Change (%)",TRUE)</f>
-        <v>-2.428E-3</v>
+        <v>1.5459000000000001E-2</v>
       </c>
       <c r="L7" s="2" cm="1">
         <f t="array" ref="L7">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
@@ -17773,7 +17785,7 @@
       </c>
       <c r="N7" s="3">
         <f t="shared" si="0"/>
-        <v>0.21411940794944287</v>
+        <v>0.15882255113919846</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -17796,27 +17808,27 @@
       </c>
       <c r="G8" s="2">
         <f t="array" ref="G8">_FV(A8,"Open")</f>
-        <v>340.14</v>
+        <v>340.9</v>
       </c>
       <c r="H8" s="2">
         <f t="array" ref="H8">_FV(A8,"High")</f>
-        <v>341.12</v>
+        <v>347.40800000000002</v>
       </c>
       <c r="I8" s="2">
         <f t="array" ref="I8">_FV(A8,"Low")</f>
-        <v>338.74</v>
+        <v>340.39</v>
       </c>
       <c r="J8" s="2">
         <f t="array" ref="J8">_FV(A8,"Price")</f>
-        <v>340.76</v>
+        <v>347.11500000000001</v>
       </c>
       <c r="K8" s="3">
         <f t="array" ref="K8">_FV(A8,"Change (%)",TRUE)</f>
-        <v>-4.1070000000000001E-4</v>
+        <v>2.4361000000000001E-2</v>
       </c>
       <c r="L8" s="2">
         <f t="array" ref="L8">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>345.12</v>
+        <v>363.67</v>
       </c>
       <c r="M8" s="2">
         <f t="array" ref="M8">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
@@ -17824,7 +17836,7 @@
       </c>
       <c r="N8" s="3">
         <f t="shared" si="0"/>
-        <v>1.2633286972647234E-2</v>
+        <v>4.5522039211372968E-2</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -17849,23 +17861,23 @@
       </c>
       <c r="G9" s="2" cm="1">
         <f t="array" ref="G9">_FV(A9,"Open")</f>
-        <v>38.58</v>
+        <v>34.31</v>
       </c>
       <c r="H9" s="2" cm="1">
         <f t="array" ref="H9">_FV(A9,"High")</f>
-        <v>38.979999999999997</v>
+        <v>34.524999999999999</v>
       </c>
       <c r="I9" s="2" cm="1">
         <f t="array" ref="I9">_FV(A9,"Low")</f>
-        <v>38.31</v>
+        <v>33.979999999999997</v>
       </c>
       <c r="J9" s="2" cm="1">
         <f t="array" ref="J9">_FV(A9,"Price")</f>
-        <v>38.424999999999997</v>
+        <v>34.2393</v>
       </c>
       <c r="K9" s="3" cm="1">
         <f t="array" ref="K9">_FV(A9,"Change (%)",TRUE)</f>
-        <v>-2.4746000000000001E-2</v>
+        <v>8.5650000000000006E-4</v>
       </c>
       <c r="L9" s="2" cm="1">
         <f t="array" ref="L9">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
@@ -17877,7 +17889,7 @@
       </c>
       <c r="N9" s="3">
         <f t="shared" si="0"/>
-        <v>0.22058823529411767</v>
+        <v>0.30549087221095328</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -17903,27 +17915,27 @@
       </c>
       <c r="G10" s="2" cm="1">
         <f t="array" ref="G10">_FV(A10,"Open")</f>
-        <v>19.670000000000002</v>
+        <v>22.94</v>
       </c>
       <c r="H10" s="2" cm="1">
         <f t="array" ref="H10">_FV(A10,"High")</f>
-        <v>19.73</v>
+        <v>22.94</v>
       </c>
       <c r="I10" s="2" cm="1">
         <f t="array" ref="I10">_FV(A10,"Low")</f>
-        <v>19.14</v>
+        <v>21.66</v>
       </c>
       <c r="J10" s="2" cm="1">
         <f t="array" ref="J10">_FV(A10,"Price")</f>
-        <v>19.274999999999999</v>
+        <v>22.68</v>
       </c>
       <c r="K10" s="3" cm="1">
         <f t="array" ref="K10">_FV(A10,"Change (%)",TRUE)</f>
-        <v>-2.4544999999999997E-2</v>
+        <v>-5.6989999999999992E-3</v>
       </c>
       <c r="L10" s="2" cm="1">
         <f t="array" ref="L10">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>59.52</v>
+        <v>58.3</v>
       </c>
       <c r="M10" s="2" cm="1">
         <f t="array" ref="M10">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
@@ -17931,7 +17943,7 @@
       </c>
       <c r="N10" s="3">
         <f t="shared" si="0"/>
-        <v>0.67615927419354838</v>
+        <v>0.61097770154373932</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -17957,23 +17969,23 @@
       </c>
       <c r="G11" s="2" cm="1">
         <f t="array" ref="G11">_FV(A11,"Open")</f>
-        <v>25.21</v>
+        <v>31.15</v>
       </c>
       <c r="H11" s="2" cm="1">
         <f t="array" ref="H11">_FV(A11,"High")</f>
-        <v>25.9</v>
+        <v>31.29</v>
       </c>
       <c r="I11" s="2" cm="1">
         <f t="array" ref="I11">_FV(A11,"Low")</f>
-        <v>24.86</v>
+        <v>30.027000000000001</v>
       </c>
       <c r="J11" s="2" cm="1">
         <f t="array" ref="J11">_FV(A11,"Price")</f>
-        <v>25.75</v>
+        <v>30.605</v>
       </c>
       <c r="K11" s="3" cm="1">
         <f t="array" ref="K11">_FV(A11,"Change (%)",TRUE)</f>
-        <v>7.0390000000000001E-3</v>
+        <v>-1.6865000000000002E-2</v>
       </c>
       <c r="L11" s="2" cm="1">
         <f t="array" ref="L11">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
@@ -17985,7 +17997,7 @@
       </c>
       <c r="N11" s="3">
         <f t="shared" si="0"/>
-        <v>0.43081343943412914</v>
+        <v>0.32349690539345716</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -18011,23 +18023,23 @@
       </c>
       <c r="G12" s="2" cm="1">
         <f t="array" ref="G12">_FV(A12,"Open")</f>
-        <v>27.29</v>
+        <v>32.06</v>
       </c>
       <c r="H12" s="2" cm="1">
         <f t="array" ref="H12">_FV(A12,"High")</f>
-        <v>27.96</v>
+        <v>32.24</v>
       </c>
       <c r="I12" s="2" cm="1">
         <f t="array" ref="I12">_FV(A12,"Low")</f>
-        <v>26.96</v>
+        <v>30.95</v>
       </c>
       <c r="J12" s="2" cm="1">
         <f t="array" ref="J12">_FV(A12,"Price")</f>
-        <v>27.702100000000002</v>
+        <v>31.13</v>
       </c>
       <c r="K12" s="3" cm="1">
         <f t="array" ref="K12">_FV(A12,"Change (%)",TRUE)</f>
-        <v>-6.7369999999999999E-3</v>
+        <v>-3.0520000000000002E-2</v>
       </c>
       <c r="L12" s="2" cm="1">
         <f t="array" ref="L12">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
@@ -18039,7 +18051,7 @@
       </c>
       <c r="N12" s="3">
         <f t="shared" si="0"/>
-        <v>0.47859777903256162</v>
+        <v>0.41407867494824019</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -18065,23 +18077,23 @@
       </c>
       <c r="G13" s="2" cm="1">
         <f t="array" ref="G13">_FV(A13,"Open")</f>
-        <v>46.86</v>
+        <v>51.81</v>
       </c>
       <c r="H13" s="2" cm="1">
         <f t="array" ref="H13">_FV(A13,"High")</f>
-        <v>47.782400000000003</v>
+        <v>51.81</v>
       </c>
       <c r="I13" s="2" cm="1">
         <f t="array" ref="I13">_FV(A13,"Low")</f>
-        <v>46.62</v>
+        <v>50.51</v>
       </c>
       <c r="J13" s="2" cm="1">
         <f t="array" ref="J13">_FV(A13,"Price")</f>
-        <v>47.534999999999997</v>
+        <v>51.06</v>
       </c>
       <c r="K13" s="3" cm="1">
         <f t="array" ref="K13">_FV(A13,"Change (%)",TRUE)</f>
-        <v>1.158E-3</v>
+        <v>-1.2378999999999999E-2</v>
       </c>
       <c r="L13" s="2" cm="1">
         <f t="array" ref="L13">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
@@ -18093,7 +18105,7 @@
       </c>
       <c r="N13" s="3">
         <f t="shared" si="0"/>
-        <v>0.36014268407591882</v>
+        <v>0.31269349845201239</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -18119,27 +18131,27 @@
       </c>
       <c r="G14" s="2" cm="1">
         <f t="array" ref="G14">_FV(A14,"Open")</f>
-        <v>77.08</v>
+        <v>85.91</v>
       </c>
       <c r="H14" s="2" cm="1">
         <f t="array" ref="H14">_FV(A14,"High")</f>
-        <v>77.650000000000006</v>
+        <v>86.72</v>
       </c>
       <c r="I14" s="2" cm="1">
         <f t="array" ref="I14">_FV(A14,"Low")</f>
-        <v>76.4602</v>
+        <v>84.46</v>
       </c>
       <c r="J14" s="2" cm="1">
         <f t="array" ref="J14">_FV(A14,"Price")</f>
-        <v>77.224999999999994</v>
+        <v>86.69</v>
       </c>
       <c r="K14" s="3" cm="1">
         <f t="array" ref="K14">_FV(A14,"Change (%)",TRUE)</f>
-        <v>-5.2170000000000003E-3</v>
+        <v>1.4986999999999999E-2</v>
       </c>
       <c r="L14" s="2" cm="1">
         <f t="array" ref="L14">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>98.14</v>
+        <v>95.93</v>
       </c>
       <c r="M14" s="2" cm="1">
         <f t="array" ref="M14">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
@@ -18147,7 +18159,7 @@
       </c>
       <c r="N14" s="3">
         <f t="shared" si="0"/>
-        <v>0.21311391889137973</v>
+        <v>9.6320233503596461E-2</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -18173,23 +18185,23 @@
       </c>
       <c r="G15" s="2" cm="1">
         <f t="array" ref="G15">_FV(A15,"Open")</f>
-        <v>13.5</v>
+        <v>11.2</v>
       </c>
       <c r="H15" s="2" cm="1">
         <f t="array" ref="H15">_FV(A15,"High")</f>
-        <v>13.72</v>
+        <v>11.205</v>
       </c>
       <c r="I15" s="2" cm="1">
         <f t="array" ref="I15">_FV(A15,"Low")</f>
-        <v>13.25</v>
+        <v>10.9</v>
       </c>
       <c r="J15" s="2" cm="1">
         <f t="array" ref="J15">_FV(A15,"Price")</f>
-        <v>13.484999999999999</v>
+        <v>11.09</v>
       </c>
       <c r="K15" s="3" cm="1">
         <f t="array" ref="K15">_FV(A15,"Change (%)",TRUE)</f>
-        <v>-2.3534000000000003E-2</v>
+        <v>3.166E-3</v>
       </c>
       <c r="L15" s="2" cm="1">
         <f t="array" ref="L15">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
@@ -18201,7 +18213,7 @@
       </c>
       <c r="N15" s="3">
         <f t="shared" si="0"/>
-        <v>0.72395087001023539</v>
+        <v>0.77297850562947812</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -18227,23 +18239,23 @@
       </c>
       <c r="G16" s="2" cm="1">
         <f t="array" ref="G16">_FV(A16,"Open")</f>
-        <v>30.13</v>
+        <v>28.88</v>
       </c>
       <c r="H16" s="2" cm="1">
         <f t="array" ref="H16">_FV(A16,"High")</f>
-        <v>30.32</v>
+        <v>29.03</v>
       </c>
       <c r="I16" s="2" cm="1">
         <f t="array" ref="I16">_FV(A16,"Low")</f>
-        <v>29.95</v>
+        <v>28.432700000000001</v>
       </c>
       <c r="J16" s="2" cm="1">
         <f t="array" ref="J16">_FV(A16,"Price")</f>
-        <v>30.09</v>
+        <v>28.5244</v>
       </c>
       <c r="K16" s="3" cm="1">
         <f t="array" ref="K16">_FV(A16,"Change (%)",TRUE)</f>
-        <v>-1.1011E-2</v>
+        <v>1.7274999999999999E-2</v>
       </c>
       <c r="L16" s="2" cm="1">
         <f t="array" ref="L16">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
@@ -18255,7 +18267,7 @@
       </c>
       <c r="N16" s="3">
         <f t="shared" si="0"/>
-        <v>0.5080922020598333</v>
+        <v>0.53368644760503514</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -18281,23 +18293,23 @@
       </c>
       <c r="G17" s="2" cm="1">
         <f t="array" ref="G17">_FV(A17,"Open")</f>
-        <v>53.68</v>
+        <v>49.4</v>
       </c>
       <c r="H17" s="2" cm="1">
         <f t="array" ref="H17">_FV(A17,"High")</f>
-        <v>53.94</v>
+        <v>49.47</v>
       </c>
       <c r="I17" s="2" cm="1">
         <f t="array" ref="I17">_FV(A17,"Low")</f>
-        <v>52</v>
+        <v>47.34</v>
       </c>
       <c r="J17" s="2" cm="1">
         <f t="array" ref="J17">_FV(A17,"Price")</f>
-        <v>52.81</v>
+        <v>47.61</v>
       </c>
       <c r="K17" s="3" cm="1">
         <f t="array" ref="K17">_FV(A17,"Change (%)",TRUE)</f>
-        <v>-2.6991999999999999E-2</v>
+        <v>-2.2783000000000001E-2</v>
       </c>
       <c r="L17" s="2" cm="1">
         <f t="array" ref="L17">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
@@ -18309,7 +18321,7 @@
       </c>
       <c r="N17" s="3">
         <f t="shared" si="0"/>
-        <v>0.48220413766055492</v>
+        <v>0.53318952838513578</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -18335,23 +18347,23 @@
       </c>
       <c r="G18" s="2" cm="1">
         <f t="array" ref="G18">_FV(A18,"Open")</f>
-        <v>41.69</v>
+        <v>38.33</v>
       </c>
       <c r="H18" s="2" cm="1">
         <f t="array" ref="H18">_FV(A18,"High")</f>
-        <v>41.884999999999998</v>
+        <v>38.840000000000003</v>
       </c>
       <c r="I18" s="2" cm="1">
         <f t="array" ref="I18">_FV(A18,"Low")</f>
-        <v>41.33</v>
+        <v>37.92</v>
       </c>
       <c r="J18" s="2" cm="1">
         <f t="array" ref="J18">_FV(A18,"Price")</f>
-        <v>41.5</v>
+        <v>38.064999999999998</v>
       </c>
       <c r="K18" s="3" cm="1">
         <f t="array" ref="K18">_FV(A18,"Change (%)",TRUE)</f>
-        <v>-1.0963000000000001E-2</v>
+        <v>-3.0120000000000004E-3</v>
       </c>
       <c r="L18" s="2" cm="1">
         <f t="array" ref="L18">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
@@ -18363,7 +18375,7 @@
       </c>
       <c r="N18" s="3">
         <f t="shared" si="0"/>
-        <v>0.44799148709763242</v>
+        <v>0.49368183027400914</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -18389,23 +18401,23 @@
       </c>
       <c r="G19" s="2" cm="1">
         <f t="array" ref="G19">_FV(A19,"Open")</f>
-        <v>39.049999999999997</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="H19" s="2" cm="1">
         <f t="array" ref="H19">_FV(A19,"High")</f>
-        <v>39.31</v>
+        <v>34.85</v>
       </c>
       <c r="I19" s="2" cm="1">
         <f t="array" ref="I19">_FV(A19,"Low")</f>
-        <v>38.729999999999997</v>
+        <v>34.215000000000003</v>
       </c>
       <c r="J19" s="2" cm="1">
         <f t="array" ref="J19">_FV(A19,"Price")</f>
-        <v>38.880000000000003</v>
+        <v>34.51</v>
       </c>
       <c r="K19" s="3" cm="1">
         <f t="array" ref="K19">_FV(A19,"Change (%)",TRUE)</f>
-        <v>-1.942E-2</v>
+        <v>1.3212E-2</v>
       </c>
       <c r="L19" s="2" cm="1">
         <f t="array" ref="L19">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
@@ -18417,7 +18429,7 @@
       </c>
       <c r="N19" s="3">
         <f t="shared" si="0"/>
-        <v>0.4208252644123342</v>
+        <v>0.48592283628779981</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -18442,27 +18454,27 @@
       </c>
       <c r="G20" s="2" cm="1">
         <f t="array" ref="G20">_FV(A20,"Open")</f>
-        <v>41.05</v>
+        <v>37.590000000000003</v>
       </c>
       <c r="H20" s="2" cm="1">
         <f t="array" ref="H20">_FV(A20,"High")</f>
-        <v>41.22</v>
+        <v>38.380000000000003</v>
       </c>
       <c r="I20" s="2" cm="1">
         <f t="array" ref="I20">_FV(A20,"Low")</f>
-        <v>40.57</v>
+        <v>37.19</v>
       </c>
       <c r="J20" s="2" cm="1">
         <f t="array" ref="J20">_FV(A20,"Price")</f>
-        <v>41.1</v>
+        <v>37.426000000000002</v>
       </c>
       <c r="K20" s="3" cm="1">
         <f t="array" ref="K20">_FV(A20,"Change (%)",TRUE)</f>
-        <v>-6.7669999999999996E-3</v>
+        <v>9.6280000000000009E-4</v>
       </c>
       <c r="L20" s="2" cm="1">
         <f t="array" ref="L20">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>67.75</v>
+        <v>67.6233</v>
       </c>
       <c r="M20" s="2" cm="1">
         <f t="array" ref="M20">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
@@ -18470,7 +18482,7 @@
       </c>
       <c r="N20" s="3">
         <f t="shared" si="0"/>
-        <v>0.39335793357933579</v>
+        <v>0.44655170629058327</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -18496,23 +18508,23 @@
       </c>
       <c r="G21" s="2" cm="1">
         <f t="array" ref="G21">_FV(A21,"Open")</f>
-        <v>85.37</v>
+        <v>79.86</v>
       </c>
       <c r="H21" s="2" cm="1">
         <f t="array" ref="H21">_FV(A21,"High")</f>
-        <v>86.89</v>
+        <v>81.069999999999993</v>
       </c>
       <c r="I21" s="2" cm="1">
         <f t="array" ref="I21">_FV(A21,"Low")</f>
-        <v>84.73</v>
+        <v>79.69</v>
       </c>
       <c r="J21" s="2" cm="1">
         <f t="array" ref="J21">_FV(A21,"Price")</f>
-        <v>85.08</v>
+        <v>80.162300000000002</v>
       </c>
       <c r="K21" s="3" cm="1">
         <f t="array" ref="K21">_FV(A21,"Change (%)",TRUE)</f>
-        <v>-1.5278E-2</v>
+        <v>1.5484E-2</v>
       </c>
       <c r="L21" s="2" cm="1">
         <f t="array" ref="L21">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
@@ -18524,7 +18536,7 @@
       </c>
       <c r="N21" s="3">
         <f t="shared" si="0"/>
-        <v>0.32082701365051486</v>
+        <v>0.36008381895106567</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -18550,27 +18562,27 @@
       </c>
       <c r="G22" s="2" cm="1">
         <f t="array" ref="G22">_FV(A22,"Open")</f>
-        <v>14.63</v>
+        <v>15.7</v>
       </c>
       <c r="H22" s="2" cm="1">
         <f t="array" ref="H22">_FV(A22,"High")</f>
-        <v>14.68</v>
+        <v>15.8</v>
       </c>
       <c r="I22" s="2" cm="1">
         <f t="array" ref="I22">_FV(A22,"Low")</f>
-        <v>14.305</v>
+        <v>15.46</v>
       </c>
       <c r="J22" s="2" cm="1">
         <f t="array" ref="J22">_FV(A22,"Price")</f>
-        <v>14.324999999999999</v>
+        <v>15.525</v>
       </c>
       <c r="K22" s="3" cm="1">
         <f t="array" ref="K22">_FV(A22,"Change (%)",TRUE)</f>
-        <v>-2.8814000000000003E-2</v>
+        <v>7.136E-3</v>
       </c>
       <c r="L22" s="2" cm="1">
         <f t="array" ref="L22">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>27.704999999999998</v>
+        <v>25.44</v>
       </c>
       <c r="M22" s="2" cm="1">
         <f t="array" ref="M22">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
@@ -18578,7 +18590,7 @@
       </c>
       <c r="N22" s="3">
         <f t="shared" si="0"/>
-        <v>0.48294531672983215</v>
+        <v>0.38974056603773588</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -18604,23 +18616,23 @@
       </c>
       <c r="G23" s="2" cm="1">
         <f t="array" ref="G23">_FV(A23,"Open")</f>
-        <v>47.41</v>
+        <v>48.67</v>
       </c>
       <c r="H23" s="2" cm="1">
         <f t="array" ref="H23">_FV(A23,"High")</f>
-        <v>48.04</v>
+        <v>49.09</v>
       </c>
       <c r="I23" s="2" cm="1">
         <f t="array" ref="I23">_FV(A23,"Low")</f>
-        <v>47.41</v>
+        <v>48.215000000000003</v>
       </c>
       <c r="J23" s="2" cm="1">
         <f t="array" ref="J23">_FV(A23,"Price")</f>
-        <v>47.76</v>
+        <v>49.09</v>
       </c>
       <c r="K23" s="3" cm="1">
         <f t="array" ref="K23">_FV(A23,"Change (%)",TRUE)</f>
-        <v>-5.8279999999999998E-3</v>
+        <v>1.6567000000000002E-2</v>
       </c>
       <c r="L23" s="2" cm="1">
         <f t="array" ref="L23">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
@@ -18632,7 +18644,7 @@
       </c>
       <c r="N23" s="3">
         <f t="shared" si="0"/>
-        <v>0.11243263333952805</v>
+        <v>8.7716037911168901E-2</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -18658,27 +18670,27 @@
       </c>
       <c r="G24" s="2" cm="1">
         <f t="array" ref="G24">_FV(A24,"Open")</f>
-        <v>45.78</v>
+        <v>54.73</v>
       </c>
       <c r="H24" s="2" cm="1">
         <f t="array" ref="H24">_FV(A24,"High")</f>
-        <v>46.12</v>
+        <v>56.45</v>
       </c>
       <c r="I24" s="2" cm="1">
         <f t="array" ref="I24">_FV(A24,"Low")</f>
-        <v>45.01</v>
+        <v>54.72</v>
       </c>
       <c r="J24" s="2" cm="1">
         <f t="array" ref="J24">_FV(A24,"Price")</f>
-        <v>45.17</v>
+        <v>56.16</v>
       </c>
       <c r="K24" s="3" cm="1">
         <f t="array" ref="K24">_FV(A24,"Change (%)",TRUE)</f>
-        <v>-2.8601999999999999E-2</v>
+        <v>3.7311000000000004E-2</v>
       </c>
       <c r="L24" s="2" cm="1">
         <f t="array" ref="L24">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>49.8</v>
+        <v>57.25</v>
       </c>
       <c r="M24" s="2" cm="1">
         <f t="array" ref="M24">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
@@ -18686,7 +18698,7 @@
       </c>
       <c r="N24" s="3">
         <f t="shared" si="0"/>
-        <v>9.2971887550200721E-2</v>
+        <v>1.9039301310043728E-2</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -18712,27 +18724,27 @@
       </c>
       <c r="G25" s="2" cm="1">
         <f t="array" ref="G25">_FV(A25,"Open")</f>
-        <v>156.9</v>
+        <v>156.21</v>
       </c>
       <c r="H25" s="2" cm="1">
         <f t="array" ref="H25">_FV(A25,"High")</f>
-        <v>159.1627</v>
+        <v>160.66999999999999</v>
       </c>
       <c r="I25" s="2" cm="1">
         <f t="array" ref="I25">_FV(A25,"Low")</f>
-        <v>156.5052</v>
+        <v>155.1</v>
       </c>
       <c r="J25" s="2" cm="1">
         <f t="array" ref="J25">_FV(A25,"Price")</f>
-        <v>158.56</v>
+        <v>160.66</v>
       </c>
       <c r="K25" s="3" cm="1">
         <f t="array" ref="K25">_FV(A25,"Change (%)",TRUE)</f>
-        <v>1.3259999999999999E-3</v>
+        <v>4.5011000000000002E-2</v>
       </c>
       <c r="L25" s="2" cm="1">
         <f t="array" ref="L25">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>162.88999999999999</v>
+        <v>171.32</v>
       </c>
       <c r="M25" s="2" cm="1">
         <f t="array" ref="M25">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
@@ -18740,7 +18752,7 @@
       </c>
       <c r="N25" s="3">
         <f t="shared" si="0"/>
-        <v>2.6582356191294645E-2</v>
+        <v>6.2222741069343904E-2</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -18763,23 +18775,23 @@
       </c>
       <c r="G26" s="2" cm="1">
         <f t="array" ref="G26">_FV(A26,"Open")</f>
-        <v>29.54</v>
+        <v>29.65</v>
       </c>
       <c r="H26" s="2" cm="1">
         <f t="array" ref="H26">_FV(A26,"High")</f>
-        <v>29.875</v>
+        <v>29.6995</v>
       </c>
       <c r="I26" s="2" cm="1">
         <f t="array" ref="I26">_FV(A26,"Low")</f>
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="J26" s="2" cm="1">
         <f t="array" ref="J26">_FV(A26,"Price")</f>
-        <v>29.684999999999999</v>
+        <v>29.56</v>
       </c>
       <c r="K26" s="3" cm="1">
         <f t="array" ref="K26">_FV(A26,"Change (%)",TRUE)</f>
-        <v>-1.8490000000000002E-3</v>
+        <v>1.3550000000000001E-3</v>
       </c>
       <c r="L26" s="2" cm="1">
         <f t="array" ref="L26">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
@@ -18791,12 +18803,12 @@
       </c>
       <c r="N26" s="3">
         <f t="shared" si="0"/>
-        <v>0.25226700251889178</v>
+        <v>0.25541561712846356</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -22863,8 +22875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F425698-AAA9-4304-9E13-03F4F9013CED}">
   <dimension ref="A1:AQ14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AP18" sqref="AP18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -24201,11 +24213,11 @@
         <v>0</v>
       </c>
       <c r="AK10" s="96">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="AL10" s="96">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="AM10" s="97">
         <v>0</v>
@@ -24222,7 +24234,7 @@
       </c>
       <c r="AQ10" s="144">
         <f>AO10+AM10+AN10+AI10+AJ10+AK10+AC10+AD10+AE10+AF10+AG10+Z10+AA10+W10+X10+R10+S10+T10+U10+O10+P10+K10+L10+M10+F10+G10+H10+I10+B10+C10+D10</f>
-        <v>0.91999999999999982</v>
+        <v>0.99999999999999978</v>
       </c>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
@@ -24818,15 +24830,15 @@
     <mergeCell ref="AM1:AO1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:E14 J3:J14 Q3:Q14 Y3:Y14 AB3:AB14 AH3:AH14 AL3:AL14 N3:N14 V3:V14 AP3:AP14">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ3:AQ14">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27459,13 +27471,13 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{401ADED5-CC5A-4072-B36A-6DA217C5A368}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="e8f9595b-0d5a-46b2-8488-c972c1ea4246"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="e8f9595b-0d5a-46b2-8488-c972c1ea4246"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="6bcbbac3-d60f-4c54-b2b4-d245c065548d"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
